--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C011B4A-9800-4021-91C1-BFBB65AE7E00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E71A7B-D642-4EE7-816F-17FAA1043440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17595" yWindow="6015" windowWidth="9810" windowHeight="11145" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="480">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -602,16 +602,10 @@
     <t xml:space="preserve">            MethodType </t>
   </si>
   <si>
-    <t xml:space="preserve"> // PMethod.MethodType</t>
-  </si>
-  <si>
     <t xml:space="preserve">            TypeDef </t>
   </si>
   <si>
     <t xml:space="preserve"> // UDType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Arity </t>
   </si>
   <si>
     <t xml:space="preserve"> // int</t>
@@ -1832,8 +1826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
   <dimension ref="A1:H348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3114,7 +3108,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B116">
         <v>-166</v>
@@ -3124,41 +3118,35 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>192</v>
-      </c>
       <c r="B117">
         <v>-167</v>
       </c>
-      <c r="C117" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B118">
         <v>-168</v>
       </c>
       <c r="C118" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B119">
         <v>-169</v>
       </c>
       <c r="C119" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B120">
         <v>-170</v>
@@ -3169,18 +3157,18 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B121">
         <v>-171</v>
       </c>
       <c r="C121" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B122">
         <v>-172</v>
@@ -3191,7 +3179,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B123">
         <v>-173</v>
@@ -3202,24 +3190,24 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B124">
         <v>-174</v>
       </c>
       <c r="C124" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B125">
         <v>-175</v>
       </c>
       <c r="C125" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3235,7 +3223,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B127">
         <v>-177</v>
@@ -3243,13 +3231,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B128">
         <v>-178</v>
       </c>
       <c r="C128" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D128" t="s">
         <v>35</v>
@@ -3257,21 +3245,21 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B129">
         <v>-179</v>
       </c>
       <c r="C129" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D129" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B130">
         <v>-180</v>
@@ -3279,7 +3267,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B131">
         <v>-181</v>
@@ -3287,18 +3275,18 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B132">
         <v>-182</v>
       </c>
       <c r="C132" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B133">
         <v>-183</v>
@@ -3312,7 +3300,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B134">
         <v>-184</v>
@@ -3323,7 +3311,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B135">
         <v>-185</v>
@@ -3334,7 +3322,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B136">
         <v>-186</v>
@@ -3345,7 +3333,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B137">
         <v>-187</v>
@@ -3356,24 +3344,24 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B138">
         <v>-188</v>
       </c>
       <c r="C138" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B139">
         <v>-189</v>
       </c>
       <c r="C139" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3387,34 +3375,34 @@
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B141">
         <v>-191</v>
       </c>
       <c r="C141" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B142">
         <v>-192</v>
       </c>
       <c r="C142" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B143">
         <v>-193</v>
@@ -3428,7 +3416,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B144">
         <v>-194</v>
@@ -3442,7 +3430,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B145">
         <v>-195</v>
@@ -3453,60 +3441,60 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B146">
         <v>-196</v>
       </c>
       <c r="C146" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B147">
         <v>-197</v>
       </c>
       <c r="C147" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B148">
         <v>-198</v>
       </c>
       <c r="C148" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D148" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B149">
         <v>-199</v>
       </c>
       <c r="C149" t="s">
+        <v>226</v>
+      </c>
+      <c r="D149" t="s">
         <v>228</v>
       </c>
-      <c r="D149" t="s">
-        <v>230</v>
-      </c>
       <c r="E149" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B150">
         <v>-200</v>
@@ -3517,7 +3505,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B151">
         <v>-201</v>
@@ -3528,18 +3516,18 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B152">
         <v>-202</v>
       </c>
       <c r="C152" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B153">
         <v>-203</v>
@@ -3548,12 +3536,12 @@
         <v>12</v>
       </c>
       <c r="D153" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B154">
         <v>-204</v>
@@ -3562,12 +3550,12 @@
         <v>20</v>
       </c>
       <c r="D154" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B155">
         <v>-205</v>
@@ -3576,12 +3564,12 @@
         <v>12</v>
       </c>
       <c r="D155" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B156">
         <v>-206</v>
@@ -3592,51 +3580,51 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B157">
         <v>-207</v>
       </c>
       <c r="C157" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B158">
         <v>-208</v>
       </c>
       <c r="C158" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B159">
         <v>-209</v>
       </c>
       <c r="C159" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B160">
         <v>-210</v>
       </c>
       <c r="C160" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B161">
         <v>-211</v>
@@ -3647,29 +3635,29 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B162">
         <v>-212</v>
       </c>
       <c r="C162" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B163">
         <v>-213</v>
       </c>
       <c r="C163" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B164">
         <v>-214</v>
@@ -3683,7 +3671,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B165">
         <v>-215</v>
@@ -3692,12 +3680,12 @@
         <v>12</v>
       </c>
       <c r="D165" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B166">
         <v>-216</v>
@@ -3708,24 +3696,24 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B167">
         <v>-217</v>
       </c>
       <c r="C167" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B168">
         <v>-218</v>
       </c>
       <c r="C168" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D168" t="s">
         <v>146</v>
@@ -3733,7 +3721,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B169">
         <v>-219</v>
@@ -3747,7 +3735,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B170">
         <v>-220</v>
@@ -3758,33 +3746,33 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B171">
         <v>-221</v>
       </c>
       <c r="C171" t="s">
+        <v>258</v>
+      </c>
+      <c r="D171" t="s">
+        <v>259</v>
+      </c>
+      <c r="E171" t="s">
         <v>260</v>
       </c>
-      <c r="D171" t="s">
+      <c r="F171" t="s">
         <v>261</v>
       </c>
-      <c r="E171" t="s">
+      <c r="G171" t="s">
         <v>262</v>
       </c>
-      <c r="F171" t="s">
+      <c r="H171" t="s">
         <v>263</v>
-      </c>
-      <c r="G171" t="s">
-        <v>264</v>
-      </c>
-      <c r="H171" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B172">
         <v>-222</v>
@@ -3795,18 +3783,18 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B173">
         <v>-223</v>
       </c>
       <c r="C173" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B174">
         <v>-224</v>
@@ -3817,29 +3805,29 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B175">
         <v>-225</v>
       </c>
       <c r="C175" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B176">
         <v>-226</v>
       </c>
       <c r="C176" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B177">
         <v>-227</v>
@@ -3847,18 +3835,18 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B178">
         <v>-228</v>
       </c>
       <c r="C178" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B179">
         <v>-229</v>
@@ -3869,43 +3857,43 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B180">
         <v>-230</v>
       </c>
       <c r="C180" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B181">
         <v>-231</v>
       </c>
       <c r="C181" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D181" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B182">
         <v>-232</v>
       </c>
       <c r="C182" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B183">
         <v>-233</v>
@@ -3916,29 +3904,29 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B184">
         <v>-234</v>
       </c>
       <c r="C184" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B185">
         <v>-235</v>
       </c>
       <c r="C185" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B186">
         <v>-236</v>
@@ -3955,7 +3943,7 @@
         <v>-237</v>
       </c>
       <c r="C187" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -3971,7 +3959,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B189">
         <v>-239</v>
@@ -3982,18 +3970,18 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B190">
         <v>-240</v>
       </c>
       <c r="C190" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B191">
         <v>-241</v>
@@ -4004,18 +3992,18 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B192">
         <v>-242</v>
       </c>
       <c r="C192" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B193">
         <v>-243</v>
@@ -4026,7 +4014,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B194">
         <v>-244</v>
@@ -4037,7 +4025,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B195">
         <v>-245</v>
@@ -4048,29 +4036,29 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B196">
         <v>-246</v>
       </c>
       <c r="C196" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B197">
         <v>-247</v>
       </c>
       <c r="C197" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B198">
         <v>-248</v>
@@ -4081,40 +4069,40 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B199">
         <v>-249</v>
       </c>
       <c r="C199" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B200">
         <v>-250</v>
       </c>
       <c r="C200" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B201">
         <v>-251</v>
       </c>
       <c r="C201" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B202">
         <v>-252</v>
@@ -4123,26 +4111,26 @@
         <v>20</v>
       </c>
       <c r="D202" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B203">
         <v>-253</v>
       </c>
       <c r="C203" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D203" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B204">
         <v>-254</v>
@@ -4151,26 +4139,26 @@
         <v>20</v>
       </c>
       <c r="D204" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E204" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B205">
         <v>-255</v>
       </c>
       <c r="C205" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B206">
         <v>-256</v>
@@ -4179,15 +4167,15 @@
         <v>20</v>
       </c>
       <c r="D206" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E206" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B207">
         <v>-257</v>
@@ -4196,12 +4184,12 @@
         <v>20</v>
       </c>
       <c r="D207" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B208">
         <v>-258</v>
@@ -4212,43 +4200,43 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B209">
         <v>-259</v>
       </c>
       <c r="C209" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B210">
         <v>-260</v>
       </c>
       <c r="C210" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D210" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B211">
         <v>-261</v>
       </c>
       <c r="C211" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B212">
         <v>-262</v>
@@ -4257,29 +4245,29 @@
         <v>12</v>
       </c>
       <c r="D212" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B213">
         <v>-263</v>
       </c>
       <c r="C213" t="s">
+        <v>330</v>
+      </c>
+      <c r="D213" t="s">
+        <v>331</v>
+      </c>
+      <c r="E213" t="s">
         <v>332</v>
-      </c>
-      <c r="D213" t="s">
-        <v>333</v>
-      </c>
-      <c r="E213" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B214">
         <v>-264</v>
@@ -4288,12 +4276,12 @@
         <v>57</v>
       </c>
       <c r="D214" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B215">
         <v>-265</v>
@@ -4304,7 +4292,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B216">
         <v>-266</v>
@@ -4313,23 +4301,23 @@
         <v>12</v>
       </c>
       <c r="D216" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B217">
         <v>-267</v>
       </c>
       <c r="C217" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B218">
         <v>-268</v>
@@ -4340,7 +4328,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B219">
         <v>-269</v>
@@ -4351,7 +4339,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B220">
         <v>-270</v>
@@ -4362,18 +4350,18 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B221">
         <v>-271</v>
       </c>
       <c r="C221" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B222">
         <v>-272</v>
@@ -4384,7 +4372,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B223">
         <v>-273</v>
@@ -4395,7 +4383,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B224">
         <v>-274</v>
@@ -4406,7 +4394,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B225">
         <v>-275</v>
@@ -4417,13 +4405,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B226">
         <v>-276</v>
       </c>
       <c r="C226" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4437,12 +4425,12 @@
         <v>12</v>
       </c>
       <c r="D227" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B228">
         <v>-278</v>
@@ -4450,18 +4438,18 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B229">
         <v>-279</v>
       </c>
       <c r="C229" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B230">
         <v>-280</v>
@@ -4469,7 +4457,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B231">
         <v>-281</v>
@@ -4477,7 +4465,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B232">
         <v>-282</v>
@@ -4485,7 +4473,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B233">
         <v>-283</v>
@@ -4493,7 +4481,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B234">
         <v>-284</v>
@@ -4518,7 +4506,7 @@
         <v>-286</v>
       </c>
       <c r="C236" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D236" t="s">
         <v>146</v>
@@ -4526,7 +4514,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B237">
         <v>-287</v>
@@ -4535,23 +4523,23 @@
         <v>12</v>
       </c>
       <c r="D237" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B238">
         <v>-288</v>
       </c>
       <c r="C238" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B239">
         <v>-289</v>
@@ -4568,34 +4556,34 @@
         <v>-290</v>
       </c>
       <c r="C240" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B241">
         <v>-291</v>
       </c>
       <c r="C241" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B242">
         <v>-292</v>
       </c>
       <c r="C242" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B243">
         <v>-293</v>
@@ -4606,7 +4594,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B244">
         <v>-294</v>
@@ -4617,7 +4605,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B245">
         <v>-295</v>
@@ -4628,7 +4616,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B246">
         <v>-296</v>
@@ -4639,7 +4627,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B247">
         <v>-297</v>
@@ -4650,18 +4638,18 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B248">
         <v>-298</v>
       </c>
       <c r="C248" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B249">
         <v>-299</v>
@@ -4680,7 +4668,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B251">
         <v>-301</v>
@@ -4691,7 +4679,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B252">
         <v>-302</v>
@@ -4702,7 +4690,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B253">
         <v>-303</v>
@@ -4713,7 +4701,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B254">
         <v>-304</v>
@@ -4724,7 +4712,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B255">
         <v>-305</v>
@@ -4735,7 +4723,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B256">
         <v>-306</v>
@@ -4746,18 +4734,18 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B257">
         <v>-307</v>
       </c>
       <c r="C257" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B258">
         <v>-308</v>
@@ -4768,7 +4756,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B259">
         <v>-309</v>
@@ -4779,35 +4767,35 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B260">
         <v>-310</v>
       </c>
       <c r="C260" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B261">
         <v>-311</v>
       </c>
       <c r="C261" t="s">
+        <v>380</v>
+      </c>
+      <c r="D261" t="s">
+        <v>381</v>
+      </c>
+      <c r="E261" t="s">
         <v>382</v>
-      </c>
-      <c r="D261" t="s">
-        <v>383</v>
-      </c>
-      <c r="E261" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B262">
         <v>-312</v>
@@ -4818,7 +4806,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B263">
         <v>-313</v>
@@ -4829,62 +4817,62 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B264">
         <v>-314</v>
       </c>
       <c r="C264" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B265">
         <v>-315</v>
       </c>
       <c r="C265" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B266">
         <v>-316</v>
       </c>
       <c r="C266" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B267">
         <v>-317</v>
       </c>
       <c r="C267" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B268">
         <v>-318</v>
       </c>
       <c r="C268" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B269">
         <v>-319</v>
@@ -4895,18 +4883,18 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B270">
         <v>-320</v>
       </c>
       <c r="C270" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B271">
         <v>-321</v>
@@ -4917,18 +4905,18 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B272">
         <v>-322</v>
       </c>
       <c r="C272" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B273">
         <v>-323</v>
@@ -4939,7 +4927,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B274">
         <v>-324</v>
@@ -4950,7 +4938,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B275">
         <v>-325</v>
@@ -4972,7 +4960,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B277">
         <v>-327</v>
@@ -4983,21 +4971,21 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B278">
         <v>-328</v>
       </c>
       <c r="C278" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D278" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B279">
         <v>-329</v>
@@ -5008,16 +4996,16 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B280">
         <v>-330</v>
       </c>
       <c r="C280" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D280" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5028,17 +5016,17 @@
         <v>-331</v>
       </c>
       <c r="C281" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B283">
         <v>-333</v>
@@ -5052,7 +5040,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B284">
         <v>-334</v>
@@ -5063,7 +5051,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B285">
         <v>-335</v>
@@ -5074,18 +5062,18 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B286">
         <v>-336</v>
       </c>
       <c r="C286" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B287">
         <v>-337</v>
@@ -5096,7 +5084,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B288">
         <v>-338</v>
@@ -5107,7 +5095,7 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B290">
         <v>-340</v>
@@ -5118,7 +5106,7 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B291">
         <v>-341</v>
@@ -5129,7 +5117,7 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B292">
         <v>-342</v>
@@ -5140,7 +5128,7 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B293">
         <v>-343</v>
@@ -5151,18 +5139,18 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B294">
         <v>-344</v>
       </c>
       <c r="C294" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B295">
         <v>-345</v>
@@ -5173,7 +5161,7 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B296">
         <v>-346</v>
@@ -5184,7 +5172,7 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B297">
         <v>-347</v>
@@ -5195,7 +5183,7 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B298">
         <v>-348</v>
@@ -5206,51 +5194,51 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B299">
         <v>-349</v>
       </c>
       <c r="C299" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B300">
         <v>-350</v>
       </c>
       <c r="C300" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B301">
         <v>-351</v>
       </c>
       <c r="C301" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B302">
         <v>-352</v>
       </c>
       <c r="C302" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B303">
         <v>-353</v>
@@ -5261,24 +5249,24 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B304">
         <v>-354</v>
       </c>
       <c r="D304" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B305">
         <v>-355</v>
       </c>
       <c r="D305" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -5305,40 +5293,40 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B308">
         <v>-358</v>
       </c>
       <c r="C308" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B309">
         <v>-359</v>
       </c>
       <c r="C309" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B310">
         <v>-360</v>
       </c>
       <c r="C310" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B311">
         <v>-361</v>
@@ -5360,7 +5348,7 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B313">
         <v>-363</v>
@@ -5371,57 +5359,57 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B314">
         <v>-364</v>
       </c>
       <c r="C314" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B315">
         <v>-365</v>
       </c>
       <c r="C315" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B316">
         <v>-366</v>
       </c>
       <c r="C316" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B317">
         <v>-367</v>
       </c>
       <c r="C317" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B320">
         <v>-370</v>
       </c>
       <c r="C320" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -5432,12 +5420,12 @@
         <v>-371</v>
       </c>
       <c r="C321" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B322">
         <v>-372</v>
@@ -5448,7 +5436,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B323">
         <v>-373</v>
@@ -5459,7 +5447,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B324">
         <v>-374</v>
@@ -5476,12 +5464,12 @@
         <v>-375</v>
       </c>
       <c r="C325" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B328">
         <v>-378</v>
@@ -5492,7 +5480,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B329">
         <v>-379</v>
@@ -5506,7 +5494,7 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B330">
         <v>-380</v>
@@ -5517,18 +5505,18 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B331">
         <v>-381</v>
       </c>
       <c r="C331" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B332">
         <v>-382</v>
@@ -5539,7 +5527,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B333">
         <v>-383</v>
@@ -5550,18 +5538,18 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B334">
         <v>-384</v>
       </c>
       <c r="C334" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B335">
         <v>-385</v>
@@ -5572,7 +5560,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B336">
         <v>-386</v>
@@ -5583,7 +5571,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B337">
         <v>-387</v>
@@ -5594,13 +5582,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B338">
         <v>-388</v>
       </c>
       <c r="C338" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -5611,7 +5599,7 @@
         <v>-390</v>
       </c>
       <c r="C339" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
@@ -5625,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="D340" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -5639,7 +5627,7 @@
         <v>3</v>
       </c>
       <c r="D341" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -5664,7 +5652,7 @@
         <v>20</v>
       </c>
       <c r="D343" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -5675,7 +5663,7 @@
         <v>-395</v>
       </c>
       <c r="C344" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -5702,12 +5690,12 @@
         <v>91</v>
       </c>
       <c r="C347" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C348" t="s">
         <v>6</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0E5ACB-A409-427A-8D93-77662AAA0F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D14FE4E-A82E-4E9C-8EB5-2ED3FB5C91D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15825" yWindow="255" windowWidth="12195" windowHeight="16305" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="419">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -1275,6 +1275,21 @@
   </si>
   <si>
     <t>in defs</t>
+  </si>
+  <si>
+    <t>Op</t>
+  </si>
+  <si>
+    <t>RetType</t>
+  </si>
+  <si>
+    <t>Clist&lt;long,Domain&gt;</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>BList&lt;string&gt;</t>
   </si>
 </sst>
 </file>
@@ -1628,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
   <dimension ref="A1:E350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="E191" sqref="E191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,8 +1680,14 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>417</v>
+      </c>
       <c r="B3">
         <v>-52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3149,8 +3170,17 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>415</v>
+      </c>
       <c r="B124">
         <v>-173</v>
+      </c>
+      <c r="C124" t="s">
+        <v>295</v>
+      </c>
+      <c r="D124" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,7 +3346,7 @@
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="D138" t="s">
         <v>366</v>
@@ -4648,8 +4678,14 @@
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>414</v>
+      </c>
       <c r="B251">
         <v>-300</v>
+      </c>
+      <c r="C251" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -5262,14 +5298,8 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>175</v>
-      </c>
       <c r="B304">
         <v>-353</v>
-      </c>
-      <c r="C304" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D14FE4E-A82E-4E9C-8EB5-2ED3FB5C91D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E646708-76EC-46C3-82D7-D26C3AD203E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15825" yWindow="255" windowWidth="12195" windowHeight="16305" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
+    <workbookView xWindow="16605" yWindow="390" windowWidth="12195" windowHeight="16305" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="610">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -101,9 +102,6 @@
     <t xml:space="preserve">            Description </t>
   </si>
   <si>
-    <t xml:space="preserve">            if (u </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Kind </t>
   </si>
   <si>
@@ -185,9 +183,6 @@
     <t xml:space="preserve">            UnionOf </t>
   </si>
   <si>
-    <t xml:space="preserve"> //           if (dp </t>
-  </si>
-  <si>
     <t xml:space="preserve">             CS </t>
   </si>
   <si>
@@ -398,9 +393,6 @@
     <t xml:space="preserve">            Params </t>
   </si>
   <si>
-    <t xml:space="preserve">                if (v.defpos </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Assig </t>
   </si>
   <si>
@@ -1076,9 +1068,6 @@
     <t>ConstraintType</t>
   </si>
   <si>
-    <t>Blist&lt;TableColumn&gt;</t>
-  </si>
-  <si>
     <t>Btree&lt;long,Blist&lt;TypedValue&gt;&gt;</t>
   </si>
   <si>
@@ -1290,6 +1279,591 @@
   </si>
   <si>
     <t>BList&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>Clist&lt;long&gt;</t>
+  </si>
+  <si>
+    <t>_Needed</t>
+  </si>
+  <si>
+    <t>Built</t>
+  </si>
+  <si>
+    <t>_Finder</t>
+  </si>
+  <si>
+    <t>RowOrder</t>
+  </si>
+  <si>
+    <t>Btree&lt;long,Finder&gt;</t>
+  </si>
+  <si>
+    <t>TRow</t>
+  </si>
+  <si>
+    <t>Singleton</t>
+  </si>
+  <si>
+    <t>Groupings</t>
+  </si>
+  <si>
+    <t>Grouping</t>
+  </si>
+  <si>
+    <t>Blist&lt;TRow&gt;</t>
+  </si>
+  <si>
+    <t>SQMap</t>
+  </si>
+  <si>
+    <t>IxTable</t>
+  </si>
+  <si>
+    <t>_Index</t>
+  </si>
+  <si>
+    <t>IxFilter</t>
+  </si>
+  <si>
+    <t>_Rows</t>
+  </si>
+  <si>
+    <t>PRow</t>
+  </si>
+  <si>
+    <t>_RTree</t>
+  </si>
+  <si>
+    <t>RTree</t>
+  </si>
+  <si>
+    <t>SqlRows</t>
+  </si>
+  <si>
+    <t>ExplRows</t>
+  </si>
+  <si>
+    <t>Blist&lt;(long,TRow)&gt;</t>
+  </si>
+  <si>
+    <t>Defaults</t>
+  </si>
+  <si>
+    <t>TrsFrom</t>
+  </si>
+  <si>
+    <t>TargetInfo</t>
+  </si>
+  <si>
+    <t>TargetTrans</t>
+  </si>
+  <si>
+    <t>TransTarget</t>
+  </si>
+  <si>
+    <t>IxDefPos</t>
+  </si>
+  <si>
+    <t>TriggerType</t>
+  </si>
+  <si>
+    <t>RbActs</t>
+  </si>
+  <si>
+    <t>Btree&lt;long,TriggerActivation&gt;</t>
+  </si>
+  <si>
+    <t>RiActs</t>
+  </si>
+  <si>
+    <t>RaActs</t>
+  </si>
+  <si>
+    <t>TbActs</t>
+  </si>
+  <si>
+    <t>TiActs</t>
+  </si>
+  <si>
+    <t>TaActs</t>
+  </si>
+  <si>
+    <t>Adapters</t>
+  </si>
+  <si>
+    <t>_Adapters</t>
+  </si>
+  <si>
+    <t>TargetAc</t>
+  </si>
+  <si>
+    <t>TdActs</t>
+  </si>
+  <si>
+    <t>TrsDefPos</t>
+  </si>
+  <si>
+    <t>TransitionRowSet</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Rmap</t>
+  </si>
+  <si>
+    <t>RecPos</t>
+  </si>
+  <si>
+    <t>Proc</t>
+  </si>
+  <si>
+    <t>Actuals</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
+    <t>Blist&lt;SqlValue&gt;</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Tmultiset</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>SqlFunction</t>
+  </si>
+  <si>
+    <t>UseLeft</t>
+  </si>
+  <si>
+    <t>UseRight</t>
+  </si>
+  <si>
+    <t>SysTable</t>
+  </si>
+  <si>
+    <t>_Join</t>
+  </si>
+  <si>
+    <t>JoinPart</t>
+  </si>
+  <si>
+    <t>JFirst</t>
+  </si>
+  <si>
+    <t>JSecond</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>rowOrder</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>DBObject._Domain</t>
+  </si>
+  <si>
+    <t>(domain.rowType)</t>
+  </si>
+  <si>
+    <t>CList&lt;long&gt;</t>
+  </si>
+  <si>
+    <t>Index.Keys</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,bool&gt;</t>
+  </si>
+  <si>
+    <t>Query.Where</t>
+  </si>
+  <si>
+    <t>matches</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,TypedValue&gt;</t>
+  </si>
+  <si>
+    <t>Query._Matches</t>
+  </si>
+  <si>
+    <t>matching</t>
+  </si>
+  <si>
+    <t>Query.Matching</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,BTree&lt;long,bool&gt;&gt;</t>
+  </si>
+  <si>
+    <t>needed</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,Finder&gt;</t>
+  </si>
+  <si>
+    <t>built</t>
+  </si>
+  <si>
+    <t>groupSpec</t>
+  </si>
+  <si>
+    <t>TableExpression.Group</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>finder</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>RowSet.RowOrder</t>
+  </si>
+  <si>
+    <t>RowSet._Finder</t>
+  </si>
+  <si>
+    <t>RowSet._Needed</t>
+  </si>
+  <si>
+    <t>RowSet.Built</t>
+  </si>
+  <si>
+    <t>RowSet._Rows</t>
+  </si>
+  <si>
+    <t>TrivialRowSet.Singleton</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>From.Source</t>
+  </si>
+  <si>
+    <t>sQMap</t>
+  </si>
+  <si>
+    <t>SelectedRowSet.SQMap</t>
+  </si>
+  <si>
+    <t>tabledefpos</t>
+  </si>
+  <si>
+    <t>SqlInsert._Table</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>IndexRowSet.IxTable</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>IndexRowSet._Index</t>
+  </si>
+  <si>
+    <t>IndexRowSet.IxFilter</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>mtree</t>
+  </si>
+  <si>
+    <t>MTree</t>
+  </si>
+  <si>
+    <t>Index.Tree</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>OrderedRowSet._RTree</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>QuerySpecification.Distinct</t>
+  </si>
+  <si>
+    <t>sqlRows</t>
+  </si>
+  <si>
+    <t>BList&lt;long&gt;</t>
+  </si>
+  <si>
+    <t>SqlRowSet.SqlRows</t>
+  </si>
+  <si>
+    <t>explRows</t>
+  </si>
+  <si>
+    <t>ExplicitRowSet.ExplRows</t>
+  </si>
+  <si>
+    <t>BList&lt;(long,TRow)&gt;</t>
+  </si>
+  <si>
+    <t>adapters</t>
+  </si>
+  <si>
+    <t>TransitionRowSet._Adapters</t>
+  </si>
+  <si>
+    <t>defaults</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Defaults</t>
+  </si>
+  <si>
+    <t>indexdefpos</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.IxDefPos</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Ra</t>
+  </si>
+  <si>
+    <t>TriggerContext</t>
+  </si>
+  <si>
+    <t>rb</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Rb</t>
+  </si>
+  <si>
+    <t>ri</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Ri</t>
+  </si>
+  <si>
+    <t>targetAc</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.TargetAc</t>
+  </si>
+  <si>
+    <t>targetInfo</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.TargetInfo</t>
+  </si>
+  <si>
+    <t>targetTrans</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.TargetTrans</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Tb</t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Td</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Ta</t>
+  </si>
+  <si>
+    <t>transTarget</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.TransTarget</t>
+  </si>
+  <si>
+    <t>_tgt</t>
+  </si>
+  <si>
+    <t>PTrigger.TrigType</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.TriggerType</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>TransitionRowSet,TrsFrom</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,TableRow&gt;</t>
+  </si>
+  <si>
+    <t>TransitionTableRowSet.Data</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>TransitionTableRowSet.Map</t>
+  </si>
+  <si>
+    <t>rmap</t>
+  </si>
+  <si>
+    <t>TransitionTableRowSet.RMap</t>
+  </si>
+  <si>
+    <t>_trs</t>
+  </si>
+  <si>
+    <t>TransitionTableRowSet.Trs</t>
+  </si>
+  <si>
+    <t>actuals</t>
+  </si>
+  <si>
+    <t>RoutineCallRowSet.Actuals</t>
+  </si>
+  <si>
+    <t>proc</t>
+  </si>
+  <si>
+    <t>RoutineCallRowSet.Proc</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>RoutineCallRowSet.Result</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>RowSetSection.Offset</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>RowSetSection.Size</t>
+  </si>
+  <si>
+    <t>docs</t>
+  </si>
+  <si>
+    <t>BList&lt;SqlValue&gt;</t>
+  </si>
+  <si>
+    <t>DocArrayRowSet.Docs</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>WindowRowSet.Multi</t>
+  </si>
+  <si>
+    <t>wf</t>
+  </si>
+  <si>
+    <t>WindowRowSet.Window</t>
+  </si>
+  <si>
+    <t>having</t>
+  </si>
+  <si>
+    <t>TableExpression.Having</t>
+  </si>
+  <si>
+    <t>groupings</t>
+  </si>
+  <si>
+    <t>GroupingRowSet.Groupings</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>JoinRowSet.Jfirst</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>JoinRowSet._Join</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>JoinRowSet.Second</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,DBObject&gt;</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,RowSet&gt;</t>
+  </si>
+  <si>
+    <t>Defs</t>
+  </si>
+  <si>
+    <t>Ident.Idents</t>
+  </si>
+  <si>
+    <t>Depths</t>
+  </si>
+  <si>
+    <t>BTree&lt;int,BTree&lt;long,DBObject&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -1641,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
-  <dimension ref="A1:E350"/>
+  <dimension ref="A1:E399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1656,13 +2230,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,21 +2247,21 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,7 +2272,7 @@
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,7 +2283,7 @@
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1720,7 +2294,7 @@
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1731,7 +2305,7 @@
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1742,21 +2316,21 @@
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,10 +2341,10 @@
         <v>-59</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1781,7 +2355,7 @@
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1792,18 +2366,18 @@
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,7 +2388,7 @@
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1825,10 +2399,10 @@
         <v>-64</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,10 +2413,10 @@
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1853,7 +2427,7 @@
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1864,1040 +2438,1040 @@
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D35" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D38" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41">
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44">
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45">
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>-95</v>
       </c>
       <c r="C46" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D46" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47">
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D47" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B48">
         <v>-97</v>
       </c>
       <c r="C48" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D48" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B49">
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50">
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D51" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B53">
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B56">
         <v>-105</v>
       </c>
       <c r="C56" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D56" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57">
         <v>-106</v>
       </c>
       <c r="C57" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D57" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D58" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D59" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B60">
         <v>-109</v>
       </c>
       <c r="C60" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D60" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B61">
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D61" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D62" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B63">
         <v>-112</v>
       </c>
       <c r="C63" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D63" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B64">
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D64" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B65">
         <v>-114</v>
       </c>
       <c r="C65" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D65" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B66">
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D66" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B67">
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D67" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B68">
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D68" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>-118</v>
       </c>
       <c r="C69" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D69" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B70">
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D70" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72">
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B73">
         <v>-122</v>
       </c>
       <c r="C73" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D73" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B74">
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D74" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B75">
         <v>-124</v>
       </c>
       <c r="C75" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B76">
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B77">
         <v>-126</v>
       </c>
       <c r="C77" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D78" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D79" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B80">
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D80" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B81">
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B82">
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D82" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B83">
         <v>-132</v>
       </c>
       <c r="C83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D83" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B84">
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D84" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B85">
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D85" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>-135</v>
       </c>
       <c r="C86" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D86" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B87">
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B88">
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B89">
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91">
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B92">
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B93">
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D93" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B94">
         <v>-143</v>
       </c>
       <c r="C94" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D94" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B95">
         <v>-144</v>
       </c>
       <c r="C95" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D95" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B96">
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B97">
         <v>-146</v>
       </c>
       <c r="C97" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D97" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B98">
         <v>-147</v>
       </c>
       <c r="C98" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D98" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B99">
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B100">
         <v>-149</v>
       </c>
       <c r="C100" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D100" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2908,448 +3482,451 @@
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D102" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B103">
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D103" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E103" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B104">
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D104" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D105" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B106">
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B107">
         <v>-156</v>
       </c>
       <c r="C107" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D107" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108">
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D108" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109">
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B110">
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>347</v>
+        <v>415</v>
+      </c>
+      <c r="D110" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B111">
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B112">
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113">
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B114">
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115">
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116">
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B117">
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B118">
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B119">
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D119" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B120">
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B121">
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B122">
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B123">
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D123" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D124" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B125">
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B127">
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B128">
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D129" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B130">
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B131">
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D131" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B132">
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B133">
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D133" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B134">
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D134" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B135">
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B136">
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B138">
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D138" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3364,867 +3941,867 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B141">
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B142">
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B143">
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D143" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B144">
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B145">
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B146">
         <v>-195</v>
       </c>
       <c r="C146" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D147" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D148" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B149">
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D149" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B150">
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D150" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B151">
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B152">
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D152" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B153">
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B154">
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D154" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B155">
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B157">
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D157" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B158">
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B159">
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D159" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B160">
         <v>-209</v>
       </c>
       <c r="C160" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B161">
         <v>-210</v>
       </c>
       <c r="C161" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D161" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B162">
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D162" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B163">
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B164">
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B165">
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B166">
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B167">
         <v>-216</v>
       </c>
       <c r="C167" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B168">
         <v>-217</v>
       </c>
       <c r="C168" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D168" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B169">
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B170">
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B171">
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B172">
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B173">
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B174">
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B175">
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B176">
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B177">
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B178">
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B179">
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B180">
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B181">
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B182">
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D182" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B183">
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B184">
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B185">
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D185" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B186">
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B187">
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D187" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B188">
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D188" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B189">
         <v>-238</v>
       </c>
       <c r="C189" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D189" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B190">
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D191" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E191" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B192">
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B193">
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B194">
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B195">
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D195" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B196">
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B197">
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D197" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B198">
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B199">
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D199" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B200">
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D200" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B201">
         <v>-250</v>
       </c>
       <c r="C201" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B202">
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D202" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D203" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B204">
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B206">
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B207">
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B208">
         <v>-257</v>
       </c>
       <c r="C208" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B209">
         <v>-258</v>
       </c>
       <c r="C209" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B210">
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D210" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B211">
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D211" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4234,188 +4811,188 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B213">
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D213" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B214">
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B215">
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D215" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B216">
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D216" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B217">
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D217" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B218">
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D218" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B219">
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D219" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B220">
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B221">
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D221" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B222">
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B223">
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B224">
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B225">
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B226">
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B227">
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4426,90 +5003,90 @@
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D228" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B229">
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B230">
         <v>-279</v>
       </c>
       <c r="C230" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B231">
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B232">
         <v>-281</v>
       </c>
       <c r="C232" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B233">
         <v>-282</v>
       </c>
       <c r="C233" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B234">
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B235">
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D235" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -4520,10 +5097,10 @@
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D236" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -4534,54 +5111,54 @@
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B238">
         <v>-287</v>
       </c>
       <c r="C238" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B239">
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B240">
         <v>-289</v>
       </c>
       <c r="C240" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B241">
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D241" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -4596,96 +5173,96 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B244">
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B245">
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B246">
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B247">
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B248">
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B249">
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D249" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B250">
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D250" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -4700,105 +5277,105 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B255">
         <v>-304</v>
       </c>
       <c r="C255" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D255" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B256">
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B257">
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D257" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B258">
         <v>-307</v>
       </c>
       <c r="C258" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B259">
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D259" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B260">
         <v>-309</v>
       </c>
       <c r="C260" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D260" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B261">
         <v>-310</v>
       </c>
       <c r="C261" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D261" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -4808,46 +5385,46 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B263">
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D263" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B264">
         <v>-313</v>
       </c>
       <c r="C264" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D264" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B265">
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B266">
         <v>-315</v>
@@ -4855,29 +5432,29 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B267">
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B268">
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B269">
         <v>-318</v>
@@ -4885,13 +5462,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B270">
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -4901,136 +5478,136 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B272">
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B273">
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D273" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B274">
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D274" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B275">
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D275" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B276">
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D276" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B277">
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B278">
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D278" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B279">
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D279" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B280">
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D280" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B281">
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D281" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5041,260 +5618,260 @@
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D283" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B284">
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B285">
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D285" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B286">
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D286" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B287">
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B288">
         <v>-337</v>
       </c>
       <c r="C288" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B289">
         <v>-338</v>
       </c>
       <c r="C289" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D289" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B291">
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B292">
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B293">
         <v>-342</v>
       </c>
       <c r="C293" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D293" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B294">
         <v>-343</v>
       </c>
       <c r="C294" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D294" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B295">
         <v>-344</v>
       </c>
       <c r="C295" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D295" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B296">
         <v>-345</v>
       </c>
       <c r="C296" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D296" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B297">
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D297" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B298">
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B299">
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B300">
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B301">
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B302">
         <v>-351</v>
       </c>
       <c r="C302" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D302" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B303">
         <v>-352</v>
       </c>
       <c r="C303" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D303" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5304,166 +5881,166 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B305">
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D305" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B306">
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D306" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B307">
         <v>-356</v>
       </c>
       <c r="C307" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D307" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B308">
         <v>-357</v>
       </c>
       <c r="C308" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D308" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B309">
         <v>-358</v>
       </c>
       <c r="C309" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D309" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B310">
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B311">
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B312">
         <v>-361</v>
       </c>
       <c r="C312" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D312" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B313">
         <v>-362</v>
       </c>
       <c r="C313" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D313" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B314">
         <v>-363</v>
       </c>
       <c r="C314" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D314" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B315">
         <v>-364</v>
       </c>
       <c r="C315" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B316">
         <v>-365</v>
       </c>
       <c r="C316" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D316" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B317">
         <v>-366</v>
@@ -5471,7 +6048,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B318">
         <v>-367</v>
@@ -5479,98 +6056,98 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B319">
         <v>-368</v>
       </c>
       <c r="C319" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B320">
         <v>-369</v>
       </c>
       <c r="C320" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D320" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B321">
         <v>-370</v>
       </c>
       <c r="C321" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B322">
         <v>-371</v>
       </c>
       <c r="C322" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B323">
         <v>-372</v>
       </c>
       <c r="C323" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B324">
         <v>-373</v>
       </c>
       <c r="C324" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B325">
         <v>-374</v>
       </c>
       <c r="C325" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B326">
         <v>-375</v>
       </c>
       <c r="C326" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B327">
         <v>-376</v>
@@ -5578,7 +6155,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B328">
         <v>-377</v>
@@ -5586,146 +6163,146 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B329">
         <v>-378</v>
       </c>
       <c r="C329" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B330">
         <v>-379</v>
       </c>
       <c r="C330" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B331">
         <v>-380</v>
       </c>
       <c r="C331" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B332">
         <v>-381</v>
       </c>
       <c r="C332" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B333">
         <v>-382</v>
       </c>
       <c r="C333" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B334">
         <v>-383</v>
       </c>
       <c r="C334" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B335">
         <v>-384</v>
       </c>
       <c r="C335" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B336">
         <v>-385</v>
       </c>
       <c r="C336" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D336" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B337">
         <v>-386</v>
       </c>
       <c r="C337" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D337" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B338">
         <v>-387</v>
       </c>
       <c r="C338" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D338" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B339">
         <v>-388</v>
       </c>
       <c r="C339" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D339" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B340">
         <v>-389</v>
       </c>
       <c r="C340" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -5738,16 +6315,16 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B342">
         <v>-391</v>
       </c>
       <c r="C342" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D342" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -5758,38 +6335,38 @@
         <v>-392</v>
       </c>
       <c r="C343" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B344">
         <v>-393</v>
       </c>
       <c r="C344" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D344" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E344" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B345">
         <v>-394</v>
       </c>
       <c r="C345" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D345" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -5800,38 +6377,1450 @@
         <v>-395</v>
       </c>
       <c r="C346" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D346" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>16</v>
+        <v>416</v>
       </c>
       <c r="B347">
-        <v>-500</v>
+        <v>-401</v>
+      </c>
+      <c r="C347" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>22</v>
+        <v>417</v>
+      </c>
+      <c r="B348">
+        <v>-402</v>
+      </c>
+      <c r="C348" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>50</v>
+        <v>418</v>
+      </c>
+      <c r="B349">
+        <v>-403</v>
+      </c>
+      <c r="C349" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>121</v>
+        <v>419</v>
+      </c>
+      <c r="B350">
+        <v>-404</v>
+      </c>
+      <c r="C350" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>422</v>
+      </c>
+      <c r="B351">
+        <v>-405</v>
+      </c>
+      <c r="C351" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>423</v>
+      </c>
+      <c r="B352">
+        <v>-406</v>
+      </c>
+      <c r="C352" t="s">
+        <v>325</v>
+      </c>
+      <c r="D352" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>430</v>
+      </c>
+      <c r="B353">
+        <v>-407</v>
+      </c>
+      <c r="C353" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>426</v>
+      </c>
+      <c r="B354">
+        <v>-408</v>
+      </c>
+      <c r="C354" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>427</v>
+      </c>
+      <c r="B355">
+        <v>-409</v>
+      </c>
+      <c r="C355" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>428</v>
+      </c>
+      <c r="B356">
+        <v>-410</v>
+      </c>
+      <c r="C356" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>429</v>
+      </c>
+      <c r="B357">
+        <v>-411</v>
+      </c>
+      <c r="C357" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>432</v>
+      </c>
+      <c r="B358">
+        <v>-412</v>
+      </c>
+      <c r="C358" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>434</v>
+      </c>
+      <c r="B359">
+        <v>-413</v>
+      </c>
+      <c r="C359" t="s">
+        <v>325</v>
+      </c>
+      <c r="D359" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>435</v>
+      </c>
+      <c r="B360">
+        <v>-414</v>
+      </c>
+      <c r="C360" t="s">
+        <v>436</v>
+      </c>
+      <c r="D360" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>437</v>
+      </c>
+      <c r="B361">
+        <v>-415</v>
+      </c>
+      <c r="C361" t="s">
+        <v>349</v>
+      </c>
+      <c r="D361" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>438</v>
+      </c>
+      <c r="B362">
+        <v>-416</v>
+      </c>
+      <c r="C362" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>439</v>
+      </c>
+      <c r="B363">
+        <v>-417</v>
+      </c>
+      <c r="C363" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>440</v>
+      </c>
+      <c r="B364">
+        <v>-418</v>
+      </c>
+      <c r="C364" t="s">
+        <v>420</v>
+      </c>
+      <c r="D364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>441</v>
+      </c>
+      <c r="B365">
+        <v>-419</v>
+      </c>
+      <c r="C365" t="s">
+        <v>420</v>
+      </c>
+      <c r="D365" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>442</v>
+      </c>
+      <c r="B366">
+        <v>-420</v>
+      </c>
+      <c r="C366" t="s">
+        <v>292</v>
+      </c>
+      <c r="D366" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>443</v>
+      </c>
+      <c r="B367">
+        <v>-421</v>
+      </c>
+      <c r="C367" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>444</v>
+      </c>
+      <c r="B368">
+        <v>-422</v>
+      </c>
+      <c r="C368" t="s">
+        <v>445</v>
+      </c>
+      <c r="D368" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>446</v>
+      </c>
+      <c r="B369">
+        <v>-423</v>
+      </c>
+      <c r="C369" t="s">
+        <v>445</v>
+      </c>
+      <c r="D369" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>447</v>
+      </c>
+      <c r="B370">
+        <v>-424</v>
+      </c>
+      <c r="C370" t="s">
+        <v>445</v>
+      </c>
+      <c r="D370" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>448</v>
+      </c>
+      <c r="B371">
+        <v>-425</v>
+      </c>
+      <c r="C371" t="s">
+        <v>445</v>
+      </c>
+      <c r="D371" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>449</v>
+      </c>
+      <c r="B372">
+        <v>-426</v>
+      </c>
+      <c r="C372" t="s">
+        <v>445</v>
+      </c>
+      <c r="D372" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>450</v>
+      </c>
+      <c r="B373">
+        <v>-427</v>
+      </c>
+      <c r="C373" t="s">
+        <v>445</v>
+      </c>
+      <c r="D373" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>454</v>
+      </c>
+      <c r="B374">
+        <v>-428</v>
+      </c>
+      <c r="C374" t="s">
+        <v>445</v>
+      </c>
+      <c r="D374" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>452</v>
+      </c>
+      <c r="B375">
+        <v>-429</v>
+      </c>
+      <c r="C375" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>453</v>
+      </c>
+      <c r="B376">
+        <v>-430</v>
+      </c>
+      <c r="C376" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>455</v>
+      </c>
+      <c r="B377">
+        <v>-431</v>
+      </c>
+      <c r="C377" t="s">
+        <v>292</v>
+      </c>
+      <c r="D377" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>457</v>
+      </c>
+      <c r="B378">
+        <v>-432</v>
+      </c>
+      <c r="C378" t="s">
+        <v>378</v>
+      </c>
+      <c r="D378" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>458</v>
+      </c>
+      <c r="B379">
+        <v>-433</v>
+      </c>
+      <c r="C379" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>459</v>
+      </c>
+      <c r="B380">
+        <v>-434</v>
+      </c>
+      <c r="C380" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>462</v>
+      </c>
+      <c r="B381">
+        <v>-435</v>
+      </c>
+      <c r="C381" t="s">
+        <v>325</v>
+      </c>
+      <c r="D381" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>461</v>
+      </c>
+      <c r="B382">
+        <v>-436</v>
+      </c>
+      <c r="C382" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>463</v>
+      </c>
+      <c r="B383">
+        <v>-437</v>
+      </c>
+      <c r="C383" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>464</v>
+      </c>
+      <c r="B384">
+        <v>-438</v>
+      </c>
+      <c r="C384" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>465</v>
+      </c>
+      <c r="B385">
+        <v>-439</v>
+      </c>
+      <c r="C385" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>466</v>
+      </c>
+      <c r="B386">
+        <v>-440</v>
+      </c>
+      <c r="C386" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>468</v>
+      </c>
+      <c r="B387">
+        <v>-441</v>
+      </c>
+      <c r="C387" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>470</v>
+      </c>
+      <c r="B388">
+        <v>-442</v>
+      </c>
+      <c r="C388" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>472</v>
+      </c>
+      <c r="B389">
+        <v>-443</v>
+      </c>
+      <c r="C389" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>473</v>
+      </c>
+      <c r="B390">
+        <v>-444</v>
+      </c>
+      <c r="C390" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>474</v>
+      </c>
+      <c r="B391">
+        <v>-445</v>
+      </c>
+      <c r="C391" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>475</v>
+      </c>
+      <c r="B392">
+        <v>-446</v>
+      </c>
+      <c r="C392" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>477</v>
+      </c>
+      <c r="B393">
+        <v>-447</v>
+      </c>
+      <c r="C393" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>478</v>
+      </c>
+      <c r="B394">
+        <v>-448</v>
+      </c>
+      <c r="C394" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>603</v>
+      </c>
+      <c r="B395">
+        <v>-449</v>
+      </c>
+      <c r="C395" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>457</v>
+      </c>
+      <c r="B396">
+        <v>-450</v>
+      </c>
+      <c r="C396" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>606</v>
+      </c>
+      <c r="B397">
+        <v>-451</v>
+      </c>
+      <c r="C397" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>608</v>
+      </c>
+      <c r="B398">
+        <v>-452</v>
+      </c>
+      <c r="C398" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>16</v>
+      </c>
+      <c r="B399">
+        <v>-500</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B351">
-    <sortCondition descending="1" ref="B2:B351"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B403">
+    <sortCondition descending="1" ref="B2:B403"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A539029-2D94-4BD3-83C1-44D585768D59}">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1">
+        <v>-421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D2">
+        <v>-431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D3">
+        <v>-435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D4">
+        <v>-429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5">
+        <v>-402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D6">
+        <v>-432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D7">
+        <v>-415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8">
+        <v>-239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>586</v>
+      </c>
+      <c r="B9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D9">
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D10">
+        <v>-176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D11">
+        <v>-414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C12" t="s">
+        <v>520</v>
+      </c>
+      <c r="D12">
+        <v>-411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>502</v>
+      </c>
+      <c r="B13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D13">
+        <v>-403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>597</v>
+      </c>
+      <c r="B14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" t="s">
+        <v>598</v>
+      </c>
+      <c r="D14">
+        <v>-447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>565</v>
+      </c>
+      <c r="B15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" t="s">
+        <v>566</v>
+      </c>
+      <c r="D15">
+        <v>-416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>595</v>
+      </c>
+      <c r="B16" t="s">
+        <v>530</v>
+      </c>
+      <c r="C16" t="s">
+        <v>596</v>
+      </c>
+      <c r="D16">
+        <v>-406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>593</v>
+      </c>
+      <c r="B18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C18" t="s">
+        <v>594</v>
+      </c>
+      <c r="D18">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" t="s">
+        <v>519</v>
+      </c>
+      <c r="D19">
+        <v>-410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>539</v>
+      </c>
+      <c r="B20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" t="s">
+        <v>540</v>
+      </c>
+      <c r="D20">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>599</v>
+      </c>
+      <c r="B21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" t="s">
+        <v>600</v>
+      </c>
+      <c r="D21">
+        <v>-446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>480</v>
+      </c>
+      <c r="B22" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" t="s">
+        <v>487</v>
+      </c>
+      <c r="D22">
+        <v>-159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>570</v>
+      </c>
+      <c r="B23" t="s">
+        <v>497</v>
+      </c>
+      <c r="C23" t="s">
+        <v>571</v>
+      </c>
+      <c r="D23">
+        <v>-433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>490</v>
+      </c>
+      <c r="B24" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" t="s">
+        <v>492</v>
+      </c>
+      <c r="D24">
+        <v>-182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>493</v>
+      </c>
+      <c r="B25" t="s">
+        <v>495</v>
+      </c>
+      <c r="C25" t="s">
+        <v>494</v>
+      </c>
+      <c r="D25">
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>522</v>
+      </c>
+      <c r="B26" t="s">
+        <v>523</v>
+      </c>
+      <c r="C26" t="s">
+        <v>524</v>
+      </c>
+      <c r="D26">
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>496</v>
+      </c>
+      <c r="B27" t="s">
+        <v>497</v>
+      </c>
+      <c r="C27" t="s">
+        <v>506</v>
+      </c>
+      <c r="D27">
+        <v>-401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>582</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" t="s">
+        <v>583</v>
+      </c>
+      <c r="D28">
+        <v>-438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>578</v>
+      </c>
+      <c r="B29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" t="s">
+        <v>579</v>
+      </c>
+      <c r="D29">
+        <v>-436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>541</v>
+      </c>
+      <c r="B30" t="s">
+        <v>543</v>
+      </c>
+      <c r="C30" t="s">
+        <v>542</v>
+      </c>
+      <c r="D30">
+        <v>-424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B31" t="s">
+        <v>543</v>
+      </c>
+      <c r="C31" t="s">
+        <v>545</v>
+      </c>
+      <c r="D31">
+        <v>-422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>580</v>
+      </c>
+      <c r="B32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" t="s">
+        <v>581</v>
+      </c>
+      <c r="D32">
+        <v>-437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>546</v>
+      </c>
+      <c r="B33" t="s">
+        <v>543</v>
+      </c>
+      <c r="C33" t="s">
+        <v>547</v>
+      </c>
+      <c r="D33">
+        <v>-423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>572</v>
+      </c>
+      <c r="B34" t="s">
+        <v>497</v>
+      </c>
+      <c r="C34" t="s">
+        <v>573</v>
+      </c>
+      <c r="D34">
+        <v>-434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>503</v>
+      </c>
+      <c r="B35" t="s">
+        <v>421</v>
+      </c>
+      <c r="C35" t="s">
+        <v>509</v>
+      </c>
+      <c r="D35">
+        <v>-405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>481</v>
+      </c>
+      <c r="B36" t="s">
+        <v>486</v>
+      </c>
+      <c r="C36" t="s">
+        <v>504</v>
+      </c>
+      <c r="D36">
+        <v>-404</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>501</v>
+      </c>
+      <c r="B37" t="s">
+        <v>425</v>
+      </c>
+      <c r="C37" t="s">
+        <v>508</v>
+      </c>
+      <c r="D37">
+        <v>-407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>479</v>
+      </c>
+      <c r="B38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>601</v>
+      </c>
+      <c r="B39" t="s">
+        <v>292</v>
+      </c>
+      <c r="C39" t="s">
+        <v>602</v>
+      </c>
+      <c r="D39">
+        <v>-448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>584</v>
+      </c>
+      <c r="B40" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" t="s">
+        <v>585</v>
+      </c>
+      <c r="D40">
+        <v>-439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>510</v>
+      </c>
+      <c r="B41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" t="s">
+        <v>511</v>
+      </c>
+      <c r="D41">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>529</v>
+      </c>
+      <c r="B42" t="s">
+        <v>530</v>
+      </c>
+      <c r="C42" t="s">
+        <v>531</v>
+      </c>
+      <c r="D42">
+        <v>-413</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>512</v>
+      </c>
+      <c r="B43" t="s">
+        <v>497</v>
+      </c>
+      <c r="C43" t="s">
+        <v>513</v>
+      </c>
+      <c r="D43">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>558</v>
+      </c>
+      <c r="B44" t="s">
+        <v>543</v>
+      </c>
+      <c r="C44" t="s">
+        <v>559</v>
+      </c>
+      <c r="D44">
+        <v>-426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>516</v>
+      </c>
+      <c r="B45" t="s">
+        <v>355</v>
+      </c>
+      <c r="C45" t="s">
+        <v>517</v>
+      </c>
+      <c r="D45">
+        <v>-409</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>514</v>
+      </c>
+      <c r="B46" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" t="s">
+        <v>515</v>
+      </c>
+      <c r="D46">
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>548</v>
+      </c>
+      <c r="B47" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47" t="s">
+        <v>549</v>
+      </c>
+      <c r="D47">
+        <v>-430</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>550</v>
+      </c>
+      <c r="B48" t="s">
+        <v>400</v>
+      </c>
+      <c r="C48" t="s">
+        <v>551</v>
+      </c>
+      <c r="D48">
+        <v>-417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>552</v>
+      </c>
+      <c r="B49" t="s">
+        <v>497</v>
+      </c>
+      <c r="C49" t="s">
+        <v>553</v>
+      </c>
+      <c r="D49">
+        <v>-418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>554</v>
+      </c>
+      <c r="B50" t="s">
+        <v>543</v>
+      </c>
+      <c r="C50" t="s">
+        <v>555</v>
+      </c>
+      <c r="D50">
+        <v>-425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>556</v>
+      </c>
+      <c r="B51" t="s">
+        <v>543</v>
+      </c>
+      <c r="C51" t="s">
+        <v>557</v>
+      </c>
+      <c r="D51">
+        <v>-428</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>560</v>
+      </c>
+      <c r="B52" t="s">
+        <v>543</v>
+      </c>
+      <c r="C52" t="s">
+        <v>561</v>
+      </c>
+      <c r="D52">
+        <v>-419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>525</v>
+      </c>
+      <c r="B53" t="s">
+        <v>433</v>
+      </c>
+      <c r="C53" t="s">
+        <v>526</v>
+      </c>
+      <c r="D53">
+        <v>-412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>589</v>
+      </c>
+      <c r="B54" t="s">
+        <v>469</v>
+      </c>
+      <c r="C54" t="s">
+        <v>590</v>
+      </c>
+      <c r="D54">
+        <v>-441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>591</v>
+      </c>
+      <c r="B55" t="s">
+        <v>471</v>
+      </c>
+      <c r="C55" t="s">
+        <v>592</v>
+      </c>
+      <c r="D55">
+        <v>-442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>482</v>
+      </c>
+      <c r="B56" t="s">
+        <v>488</v>
+      </c>
+      <c r="C56" t="s">
+        <v>489</v>
+      </c>
+      <c r="D56">
+        <v>-190</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D56">
+    <sortCondition ref="A1:A56"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E646708-76EC-46C3-82D7-D26C3AD203E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0DAA4-0E18-4DD1-AD36-9396FB7950D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16605" yWindow="390" windowWidth="12195" windowHeight="16305" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="610">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -1860,10 +1860,10 @@
     <t>Ident.Idents</t>
   </si>
   <si>
-    <t>Depths</t>
-  </si>
-  <si>
-    <t>BTree&lt;int,BTree&lt;long,DBObject&gt;&gt;</t>
+    <t>QMarks</t>
+  </si>
+  <si>
+    <t>Target</t>
   </si>
 </sst>
 </file>
@@ -2215,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
-  <dimension ref="A1:E399"/>
+  <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="C398" sqref="C398"/>
+    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="D400" sqref="D400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6385,32 +6385,35 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>416</v>
+        <v>608</v>
       </c>
       <c r="B347">
-        <v>-401</v>
+        <v>-396</v>
       </c>
       <c r="C347" t="s">
-        <v>420</v>
+        <v>415</v>
+      </c>
+      <c r="D347" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>417</v>
+        <v>609</v>
       </c>
       <c r="B348">
-        <v>-402</v>
+        <v>-397</v>
       </c>
       <c r="C348" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B349">
-        <v>-403</v>
+        <v>-401</v>
       </c>
       <c r="C349" t="s">
         <v>420</v>
@@ -6418,257 +6421,251 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B350">
-        <v>-404</v>
+        <v>-402</v>
       </c>
       <c r="C350" t="s">
-        <v>415</v>
+        <v>296</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B351">
-        <v>-405</v>
+        <v>-403</v>
       </c>
       <c r="C351" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B352">
-        <v>-406</v>
+        <v>-404</v>
       </c>
       <c r="C352" t="s">
-        <v>325</v>
-      </c>
-      <c r="D352" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B353">
-        <v>-407</v>
+        <v>-405</v>
       </c>
       <c r="C353" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B354">
-        <v>-408</v>
+        <v>-406</v>
       </c>
       <c r="C354" t="s">
-        <v>420</v>
+        <v>325</v>
+      </c>
+      <c r="D354" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B355">
-        <v>-409</v>
+        <v>-407</v>
       </c>
       <c r="C355" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B356">
-        <v>-410</v>
+        <v>-408</v>
       </c>
       <c r="C356" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B357">
-        <v>-411</v>
+        <v>-409</v>
       </c>
       <c r="C357" t="s">
-        <v>431</v>
+        <v>355</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B358">
-        <v>-412</v>
+        <v>-410</v>
       </c>
       <c r="C358" t="s">
-        <v>433</v>
+        <v>368</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B359">
-        <v>-413</v>
+        <v>-411</v>
       </c>
       <c r="C359" t="s">
-        <v>325</v>
-      </c>
-      <c r="D359" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B360">
-        <v>-414</v>
+        <v>-412</v>
       </c>
       <c r="C360" t="s">
-        <v>436</v>
-      </c>
-      <c r="D360" t="s">
-        <v>293</v>
+        <v>433</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B361">
-        <v>-415</v>
+        <v>-413</v>
       </c>
       <c r="C361" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="D361" t="s">
-        <v>293</v>
+        <v>395</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B362">
-        <v>-416</v>
+        <v>-414</v>
       </c>
       <c r="C362" t="s">
-        <v>342</v>
+        <v>436</v>
+      </c>
+      <c r="D362" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B363">
-        <v>-417</v>
+        <v>-415</v>
       </c>
       <c r="C363" t="s">
-        <v>400</v>
+        <v>349</v>
+      </c>
+      <c r="D363" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B364">
-        <v>-418</v>
+        <v>-416</v>
       </c>
       <c r="C364" t="s">
-        <v>420</v>
-      </c>
-      <c r="D364" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B365">
-        <v>-419</v>
+        <v>-417</v>
       </c>
       <c r="C365" t="s">
-        <v>420</v>
-      </c>
-      <c r="D365" t="s">
-        <v>293</v>
+        <v>400</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B366">
-        <v>-420</v>
+        <v>-418</v>
       </c>
       <c r="C366" t="s">
-        <v>292</v>
+        <v>420</v>
       </c>
       <c r="D366" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B367">
-        <v>-421</v>
+        <v>-419</v>
       </c>
       <c r="C367" t="s">
-        <v>385</v>
+        <v>420</v>
+      </c>
+      <c r="D367" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B368">
-        <v>-422</v>
+        <v>-420</v>
       </c>
       <c r="C368" t="s">
-        <v>445</v>
+        <v>292</v>
       </c>
       <c r="D368" t="s">
-        <v>280</v>
+        <v>368</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B369">
-        <v>-423</v>
+        <v>-421</v>
       </c>
       <c r="C369" t="s">
-        <v>445</v>
-      </c>
-      <c r="D369" t="s">
-        <v>280</v>
+        <v>385</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B370">
-        <v>-424</v>
+        <v>-422</v>
       </c>
       <c r="C370" t="s">
         <v>445</v>
@@ -6679,10 +6676,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B371">
-        <v>-425</v>
+        <v>-423</v>
       </c>
       <c r="C371" t="s">
         <v>445</v>
@@ -6693,10 +6690,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B372">
-        <v>-426</v>
+        <v>-424</v>
       </c>
       <c r="C372" t="s">
         <v>445</v>
@@ -6707,10 +6704,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B373">
-        <v>-427</v>
+        <v>-425</v>
       </c>
       <c r="C373" t="s">
         <v>445</v>
@@ -6721,10 +6718,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B374">
-        <v>-428</v>
+        <v>-426</v>
       </c>
       <c r="C374" t="s">
         <v>445</v>
@@ -6735,288 +6732,319 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B375">
-        <v>-429</v>
+        <v>-427</v>
       </c>
       <c r="C375" t="s">
-        <v>451</v>
+        <v>445</v>
+      </c>
+      <c r="D375" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B376">
-        <v>-430</v>
+        <v>-428</v>
       </c>
       <c r="C376" t="s">
-        <v>329</v>
+        <v>445</v>
+      </c>
+      <c r="D376" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B377">
-        <v>-431</v>
+        <v>-429</v>
       </c>
       <c r="C377" t="s">
-        <v>292</v>
-      </c>
-      <c r="D377" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B378">
-        <v>-432</v>
+        <v>-430</v>
       </c>
       <c r="C378" t="s">
-        <v>378</v>
-      </c>
-      <c r="D378" t="s">
-        <v>460</v>
+        <v>329</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B379">
-        <v>-433</v>
+        <v>-431</v>
       </c>
       <c r="C379" t="s">
-        <v>420</v>
+        <v>292</v>
+      </c>
+      <c r="D379" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B380">
-        <v>-434</v>
+        <v>-432</v>
       </c>
       <c r="C380" t="s">
-        <v>420</v>
+        <v>378</v>
+      </c>
+      <c r="D380" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B381">
-        <v>-435</v>
+        <v>-433</v>
       </c>
       <c r="C381" t="s">
-        <v>325</v>
-      </c>
-      <c r="D381" t="s">
-        <v>293</v>
+        <v>420</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B382">
-        <v>-436</v>
+        <v>-434</v>
       </c>
       <c r="C382" t="s">
-        <v>335</v>
+        <v>420</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B383">
-        <v>-437</v>
+        <v>-435</v>
       </c>
       <c r="C383" t="s">
-        <v>399</v>
+        <v>325</v>
+      </c>
+      <c r="D383" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>461</v>
+      </c>
+      <c r="B384">
+        <v>-436</v>
+      </c>
+      <c r="C384" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>463</v>
+      </c>
+      <c r="B385">
+        <v>-437</v>
+      </c>
+      <c r="C385" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
         <v>464</v>
       </c>
-      <c r="B384">
+      <c r="B386">
         <v>-438</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C386" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
         <v>465</v>
       </c>
-      <c r="B385">
+      <c r="B387">
         <v>-439</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C387" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
         <v>466</v>
       </c>
-      <c r="B386">
+      <c r="B388">
         <v>-440</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C388" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
         <v>468</v>
       </c>
-      <c r="B387">
+      <c r="B389">
         <v>-441</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C389" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
         <v>470</v>
       </c>
-      <c r="B388">
+      <c r="B390">
         <v>-442</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C390" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
         <v>472</v>
       </c>
-      <c r="B389">
+      <c r="B391">
         <v>-443</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C391" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
         <v>473</v>
       </c>
-      <c r="B390">
+      <c r="B392">
         <v>-444</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C392" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
         <v>474</v>
       </c>
-      <c r="B391">
+      <c r="B393">
         <v>-445</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C393" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
         <v>475</v>
       </c>
-      <c r="B392">
+      <c r="B394">
         <v>-446</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C394" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
         <v>477</v>
       </c>
-      <c r="B393">
+      <c r="B395">
         <v>-447</v>
       </c>
-      <c r="C393" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="C395" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
         <v>478</v>
       </c>
-      <c r="B394">
+      <c r="B396">
         <v>-448</v>
       </c>
-      <c r="C394" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="C396" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
         <v>603</v>
       </c>
-      <c r="B395">
+      <c r="B397">
         <v>-449</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C397" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
         <v>457</v>
       </c>
-      <c r="B396">
+      <c r="B398">
         <v>-450</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C398" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
         <v>606</v>
       </c>
-      <c r="B397">
+      <c r="B399">
         <v>-451</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C399" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>608</v>
-      </c>
-      <c r="B398">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>463</v>
+      </c>
+      <c r="B400">
         <v>-452</v>
       </c>
-      <c r="C398" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+      <c r="C400" t="s">
+        <v>292</v>
+      </c>
+      <c r="D400" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
         <v>16</v>
       </c>
-      <c r="B399">
+      <c r="B401">
         <v>-500</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B403">
-    <sortCondition descending="1" ref="B2:B403"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B405">
+    <sortCondition descending="1" ref="B2:B405"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0DAA4-0E18-4DD1-AD36-9396FB7950D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB49C181-BD1D-477C-BEE1-E7B1DAFC3B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16605" yWindow="390" windowWidth="12195" windowHeight="16305" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
+    <workbookView xWindow="14700" yWindow="225" windowWidth="14100" windowHeight="16425" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="629">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -114,9 +114,6 @@
     <t xml:space="preserve">            _Alias </t>
   </si>
   <si>
-    <t xml:space="preserve">            _Domain </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Abbreviation </t>
   </si>
   <si>
@@ -576,9 +573,6 @@
     <t xml:space="preserve">            DBObjects </t>
   </si>
   <si>
-    <t xml:space="preserve">            Methods </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Privilege </t>
   </si>
   <si>
@@ -813,9 +807,6 @@
     <t xml:space="preserve">            TreatType </t>
   </si>
   <si>
-    <t xml:space="preserve">            Udt </t>
-  </si>
-  <si>
     <t xml:space="preserve">            UsingCols </t>
   </si>
   <si>
@@ -1864,6 +1855,72 @@
   </si>
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Btree&lt;long,long&gt;</t>
+  </si>
+  <si>
+    <t>Query RowSet</t>
+  </si>
+  <si>
+    <t>SysIx</t>
+  </si>
+  <si>
+    <t>SystemIndex</t>
+  </si>
+  <si>
+    <t>SysFilt</t>
+  </si>
+  <si>
+    <t>Blist&lt;SysFilter&gt;</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Btree&lt;long,Physical.Type&gt;</t>
+  </si>
+  <si>
+    <t>DomDefPos</t>
+  </si>
+  <si>
+    <t>Relocated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MethodInfos </t>
+  </si>
+  <si>
+    <t>_User</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>-1L</t>
+  </si>
+  <si>
+    <t>_system._role</t>
+  </si>
+  <si>
+    <t>_system._user</t>
+  </si>
+  <si>
+    <t>_Role</t>
+  </si>
+  <si>
+    <t>System_Role</t>
+  </si>
+  <si>
+    <t>System_User</t>
+  </si>
+  <si>
+    <t>KeyCols</t>
+  </si>
+  <si>
+    <t>ConnUserName</t>
   </si>
 </sst>
 </file>
@@ -1899,8 +1956,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2215,10 +2273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
-  <dimension ref="A1:E401"/>
+  <dimension ref="A1:E405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="D400" sqref="D400"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,13 +2288,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2247,21 +2305,21 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2272,7 +2330,7 @@
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2283,7 +2341,7 @@
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2294,7 +2352,7 @@
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,7 +2363,7 @@
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2316,21 +2374,21 @@
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2341,10 +2399,10 @@
         <v>-59</v>
       </c>
       <c r="C10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2355,7 +2413,7 @@
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,7 +2424,7 @@
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,7 +2435,7 @@
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2388,7 +2446,7 @@
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2399,10 +2457,10 @@
         <v>-64</v>
       </c>
       <c r="C15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,10 +2471,10 @@
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2427,7 +2485,7 @@
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2438,7 +2496,7 @@
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2449,7 +2507,7 @@
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,120 +2518,120 @@
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2584,894 +2642,894 @@
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D35" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D38" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D41" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D42" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44">
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45">
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>-95</v>
       </c>
       <c r="C46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D46" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D47" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>-97</v>
       </c>
       <c r="C48" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D48" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49">
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50">
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D51" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56">
         <v>-105</v>
       </c>
       <c r="C56" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D56" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57">
         <v>-106</v>
       </c>
       <c r="C57" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D57" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D58" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D59" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60">
         <v>-109</v>
       </c>
       <c r="C60" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D60" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61">
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D61" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62">
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>-112</v>
       </c>
       <c r="C63" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D63" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64">
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D64" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65">
         <v>-114</v>
       </c>
       <c r="C65" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D65" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66">
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D66" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67">
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D67" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68">
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D68" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>-118</v>
       </c>
       <c r="C69" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D69" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B70">
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71">
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73">
         <v>-122</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D73" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B74">
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D74" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75">
         <v>-124</v>
       </c>
       <c r="C75" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76">
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B77">
         <v>-126</v>
       </c>
       <c r="C77" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78">
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D78" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D79" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80">
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D80" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81">
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B82">
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D82" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B83">
         <v>-132</v>
       </c>
       <c r="C83" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D83" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B84">
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D84" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85">
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D85" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86">
         <v>-135</v>
       </c>
       <c r="C86" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D86" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B87">
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B88">
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89">
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90">
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91">
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B92">
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B93">
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D93" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B94">
         <v>-143</v>
       </c>
       <c r="C94" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D94" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B95">
         <v>-144</v>
       </c>
       <c r="C95" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D95" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B96">
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B97">
         <v>-146</v>
       </c>
       <c r="C97" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D97" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B98">
         <v>-147</v>
       </c>
       <c r="C98" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D98" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99">
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100">
         <v>-149</v>
       </c>
       <c r="C100" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D100" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101">
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3482,1517 +3540,1538 @@
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D102" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B103">
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D103" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E103" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B104">
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D104" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105">
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D105" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B106">
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107">
         <v>-156</v>
       </c>
       <c r="C107" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D107" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108">
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D108" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B109">
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B110">
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D110" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B111">
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B112">
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B113">
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B114">
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B115">
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B116">
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B117">
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B118">
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B119">
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D119" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B120">
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B121">
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B122">
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B123">
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D123" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D124" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B125">
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="B127">
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B128">
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D129" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B130">
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B131">
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D131" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B132">
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D133" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D134" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B135">
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B136">
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138">
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D138" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>614</v>
+      </c>
       <c r="B139">
         <v>-188</v>
       </c>
+      <c r="C139" t="s">
+        <v>615</v>
+      </c>
+      <c r="D139" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>616</v>
+      </c>
       <c r="B140">
         <v>-189</v>
       </c>
+      <c r="C140" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B141">
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B142">
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143">
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D143" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B144">
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B145">
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B146">
         <v>-195</v>
       </c>
       <c r="C146" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D147" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D148" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B149">
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D149" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B150">
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D150" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B151">
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D151" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B152">
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D152" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153">
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B154">
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D154" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B155">
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B157">
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D157" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B158">
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B159">
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D159" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B160">
         <v>-209</v>
       </c>
       <c r="C160" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B161">
         <v>-210</v>
       </c>
       <c r="C161" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D161" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B162">
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D162" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B163">
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B164">
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B165">
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B166">
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B167">
         <v>-216</v>
       </c>
       <c r="C167" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B168">
         <v>-217</v>
       </c>
       <c r="C168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D168" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B169">
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B170">
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B171">
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B172">
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B173">
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B174">
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B175">
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B176">
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B177">
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B178">
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B179">
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B180">
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B181">
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B182">
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D182" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B183">
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B184">
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B185">
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D185" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B186">
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B187">
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D187" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B188">
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D188" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B189">
         <v>-238</v>
       </c>
       <c r="C189" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D189" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B190">
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D191" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E191" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B192">
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B193">
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B194">
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B195">
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D195" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B196">
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B197">
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D197" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B198">
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B199">
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D199" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B200">
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D200" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B201">
         <v>-250</v>
       </c>
       <c r="C201" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B202">
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D202" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>180</v>
+        <v>618</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D203" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B204">
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B207">
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B208">
         <v>-257</v>
       </c>
       <c r="C208" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B209">
         <v>-258</v>
       </c>
       <c r="C209" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B210">
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D210" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B211">
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D211" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>628</v>
+      </c>
       <c r="B212">
         <v>-261</v>
       </c>
+      <c r="C212" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B213">
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D213" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B214">
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B215">
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D215" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B216">
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D216" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B217">
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D217" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B218">
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D218" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B219">
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D219" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B220">
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B221">
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D221" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B222">
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B223">
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B224">
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B225">
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B226">
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B227">
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5003,90 +5082,90 @@
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D228" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B229">
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B230">
         <v>-279</v>
       </c>
       <c r="C230" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B231">
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B232">
         <v>-281</v>
       </c>
       <c r="C232" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B233">
         <v>-282</v>
       </c>
       <c r="C233" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B234">
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B235">
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D235" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5097,10 +5176,10 @@
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D236" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5111,320 +5190,359 @@
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B238">
         <v>-287</v>
       </c>
       <c r="C238" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B239">
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B240">
         <v>-289</v>
       </c>
       <c r="C240" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B241">
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D241" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>625</v>
+      </c>
       <c r="B242">
         <v>-291</v>
       </c>
+      <c r="C242" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>626</v>
+      </c>
       <c r="B243">
         <v>-292</v>
       </c>
+      <c r="C243" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B244">
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B245">
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B246">
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B247">
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B248">
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B249">
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D249" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B250">
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D250" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>619</v>
+      </c>
       <c r="B252">
         <v>-301</v>
       </c>
+      <c r="C252" t="s">
+        <v>289</v>
+      </c>
+      <c r="D252" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>624</v>
+      </c>
       <c r="B253">
         <v>-302</v>
       </c>
+      <c r="C253" t="s">
+        <v>289</v>
+      </c>
+      <c r="D253" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B255">
         <v>-304</v>
       </c>
       <c r="C255" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D255" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B256">
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B257">
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D257" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B258">
         <v>-307</v>
       </c>
       <c r="C258" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B259">
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D259" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B260">
         <v>-309</v>
       </c>
       <c r="C260" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D260" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B261">
         <v>-310</v>
       </c>
       <c r="C261" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D261" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>620</v>
+      </c>
       <c r="B262">
         <v>-311</v>
       </c>
+      <c r="C262" t="s">
+        <v>289</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B263">
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D263" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B264">
         <v>-313</v>
       </c>
       <c r="C264" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D264" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B265">
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B266">
         <v>-315</v>
@@ -5432,29 +5550,29 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B267">
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B268">
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B269">
         <v>-318</v>
@@ -5462,152 +5580,161 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B270">
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>627</v>
+      </c>
       <c r="B271">
         <v>-320</v>
       </c>
+      <c r="C271" t="s">
+        <v>314</v>
+      </c>
+      <c r="D271" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B272">
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B273">
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D273" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B274">
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D274" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B275">
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D275" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B276">
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D276" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B277">
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B278">
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D278" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B279">
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D279" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B280">
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D280" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B281">
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D281" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5618,260 +5745,259 @@
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D283" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B284">
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B285">
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D285" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B286">
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D286" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B287">
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>259</v>
-      </c>
       <c r="B288">
         <v>-337</v>
       </c>
-      <c r="C288" t="s">
-        <v>318</v>
-      </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B289">
         <v>-338</v>
       </c>
       <c r="C289" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D289" t="s">
-        <v>293</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>-339</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B291">
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B292">
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B293">
         <v>-342</v>
       </c>
       <c r="C293" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D293" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B294">
         <v>-343</v>
       </c>
       <c r="C294" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D294" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B295">
         <v>-344</v>
       </c>
       <c r="C295" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D295" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B296">
         <v>-345</v>
       </c>
       <c r="C296" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D296" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B297">
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D297" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B298">
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B299">
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B300">
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B301">
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B302">
         <v>-351</v>
       </c>
       <c r="C302" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D302" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B303">
         <v>-352</v>
       </c>
       <c r="C303" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D303" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -5881,166 +6007,166 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B305">
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D305" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B306">
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D306" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B307">
         <v>-356</v>
       </c>
       <c r="C307" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D307" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B308">
         <v>-357</v>
       </c>
       <c r="C308" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D308" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B309">
         <v>-358</v>
       </c>
       <c r="C309" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D309" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B310">
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B311">
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B312">
         <v>-361</v>
       </c>
       <c r="C312" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D312" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B313">
         <v>-362</v>
       </c>
       <c r="C313" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D313" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B314">
         <v>-363</v>
       </c>
       <c r="C314" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D314" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B315">
         <v>-364</v>
       </c>
       <c r="C315" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B316">
         <v>-365</v>
       </c>
       <c r="C316" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D316" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B317">
         <v>-366</v>
@@ -6048,7 +6174,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B318">
         <v>-367</v>
@@ -6056,98 +6182,98 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B319">
         <v>-368</v>
       </c>
       <c r="C319" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B320">
         <v>-369</v>
       </c>
       <c r="C320" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D320" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B321">
         <v>-370</v>
       </c>
       <c r="C321" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B322">
         <v>-371</v>
       </c>
       <c r="C322" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B323">
         <v>-372</v>
       </c>
       <c r="C323" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B324">
         <v>-373</v>
       </c>
       <c r="C324" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B325">
         <v>-374</v>
       </c>
       <c r="C325" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B326">
         <v>-375</v>
       </c>
       <c r="C326" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B327">
         <v>-376</v>
@@ -6155,7 +6281,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B328">
         <v>-377</v>
@@ -6163,146 +6289,146 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B329">
         <v>-378</v>
       </c>
       <c r="C329" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B330">
         <v>-379</v>
       </c>
       <c r="C330" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B331">
         <v>-380</v>
       </c>
       <c r="C331" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B332">
         <v>-381</v>
       </c>
       <c r="C332" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B333">
         <v>-382</v>
       </c>
       <c r="C333" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B334">
         <v>-383</v>
       </c>
       <c r="C334" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B335">
         <v>-384</v>
       </c>
       <c r="C335" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B336">
         <v>-385</v>
       </c>
       <c r="C336" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D336" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B337">
         <v>-386</v>
       </c>
       <c r="C337" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D337" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B338">
         <v>-387</v>
       </c>
       <c r="C338" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D338" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B339">
         <v>-388</v>
       </c>
       <c r="C339" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D339" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B340">
         <v>-389</v>
       </c>
       <c r="C340" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6315,16 +6441,16 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B342">
         <v>-391</v>
       </c>
       <c r="C342" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D342" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -6335,38 +6461,38 @@
         <v>-392</v>
       </c>
       <c r="C343" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B344">
         <v>-393</v>
       </c>
       <c r="C344" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D344" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E344" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B345">
         <v>-394</v>
       </c>
       <c r="C345" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D345" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6377,674 +6503,721 @@
         <v>-395</v>
       </c>
       <c r="C346" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D346" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B347">
         <v>-396</v>
       </c>
       <c r="C347" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D347" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B348">
         <v>-397</v>
       </c>
       <c r="C348" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B349">
         <v>-401</v>
       </c>
       <c r="C349" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B350">
         <v>-402</v>
       </c>
       <c r="C350" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B351">
         <v>-403</v>
       </c>
       <c r="C351" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B352">
         <v>-404</v>
       </c>
       <c r="C352" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B353">
         <v>-405</v>
       </c>
       <c r="C353" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B354">
         <v>-406</v>
       </c>
       <c r="C354" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D354" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B355">
         <v>-407</v>
       </c>
       <c r="C355" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B356">
         <v>-408</v>
       </c>
       <c r="C356" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B357">
         <v>-409</v>
       </c>
       <c r="C357" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B358">
         <v>-410</v>
       </c>
       <c r="C358" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B359">
         <v>-411</v>
       </c>
       <c r="C359" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B360">
         <v>-412</v>
       </c>
       <c r="C360" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B361">
         <v>-413</v>
       </c>
       <c r="C361" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D361" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B362">
         <v>-414</v>
       </c>
       <c r="C362" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D362" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B363">
         <v>-415</v>
       </c>
       <c r="C363" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D363" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B364">
         <v>-416</v>
       </c>
       <c r="C364" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B365">
         <v>-417</v>
       </c>
       <c r="C365" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B366">
         <v>-418</v>
       </c>
       <c r="C366" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D366" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B367">
         <v>-419</v>
       </c>
       <c r="C367" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D367" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B368">
         <v>-420</v>
       </c>
       <c r="C368" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D368" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B369">
         <v>-421</v>
       </c>
       <c r="C369" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B370">
         <v>-422</v>
       </c>
       <c r="C370" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D370" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B371">
         <v>-423</v>
       </c>
       <c r="C371" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D371" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B372">
         <v>-424</v>
       </c>
       <c r="C372" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D372" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B373">
         <v>-425</v>
       </c>
       <c r="C373" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D373" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B374">
         <v>-426</v>
       </c>
       <c r="C374" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D374" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B375">
         <v>-427</v>
       </c>
       <c r="C375" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D375" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B376">
         <v>-428</v>
       </c>
       <c r="C376" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D376" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B377">
         <v>-429</v>
       </c>
       <c r="C377" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B378">
         <v>-430</v>
       </c>
       <c r="C378" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B379">
         <v>-431</v>
       </c>
       <c r="C379" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D379" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B380">
         <v>-432</v>
       </c>
       <c r="C380" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D380" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B381">
         <v>-433</v>
       </c>
       <c r="C381" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B382">
         <v>-434</v>
       </c>
       <c r="C382" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B383">
         <v>-435</v>
       </c>
       <c r="C383" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D383" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B384">
         <v>-436</v>
       </c>
       <c r="C384" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B385">
         <v>-437</v>
       </c>
       <c r="C385" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B386">
         <v>-438</v>
       </c>
       <c r="C386" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B387">
         <v>-439</v>
       </c>
       <c r="C387" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B388">
         <v>-440</v>
       </c>
       <c r="C388" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B389">
         <v>-441</v>
       </c>
       <c r="C389" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B390">
         <v>-442</v>
       </c>
       <c r="C390" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B391">
         <v>-443</v>
       </c>
       <c r="C391" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B392">
         <v>-444</v>
       </c>
       <c r="C392" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B393">
         <v>-445</v>
       </c>
       <c r="C393" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B394">
         <v>-446</v>
       </c>
       <c r="C394" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B395">
         <v>-447</v>
       </c>
       <c r="C395" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B396">
         <v>-448</v>
       </c>
       <c r="C396" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B397">
         <v>-449</v>
       </c>
       <c r="C397" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B398">
         <v>-450</v>
       </c>
       <c r="C398" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B399">
         <v>-451</v>
       </c>
       <c r="C399" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B400">
         <v>-452</v>
       </c>
       <c r="C400" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D400" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>607</v>
+      </c>
+      <c r="B401">
+        <v>-453</v>
+      </c>
+      <c r="C401" t="s">
+        <v>608</v>
+      </c>
+      <c r="D401" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>610</v>
+      </c>
+      <c r="B402">
+        <v>-454</v>
+      </c>
+      <c r="C402" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>612</v>
+      </c>
+      <c r="B403">
+        <v>-455</v>
+      </c>
+      <c r="C403" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>617</v>
+      </c>
+      <c r="B404">
+        <v>-456</v>
+      </c>
+      <c r="C404" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
         <v>16</v>
       </c>
-      <c r="B401">
+      <c r="B405">
         <v>-500</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B405">
-    <sortCondition descending="1" ref="B2:B405"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B409">
+    <sortCondition descending="1" ref="B2:B409"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7067,13 +7240,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D1">
         <v>-421</v>
@@ -7081,13 +7254,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C2" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D2">
         <v>-431</v>
@@ -7095,13 +7268,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D3">
         <v>-435</v>
@@ -7109,13 +7282,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D4">
         <v>-429</v>
@@ -7123,13 +7296,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D5">
         <v>-402</v>
@@ -7137,13 +7310,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D6">
         <v>-432</v>
@@ -7151,13 +7324,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D7">
         <v>-415</v>
@@ -7165,13 +7338,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D8">
         <v>-239</v>
@@ -7179,13 +7352,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B9" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D9">
         <v>-440</v>
@@ -7193,13 +7366,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D10">
         <v>-176</v>
@@ -7207,13 +7380,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D11">
         <v>-414</v>
@@ -7221,13 +7394,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D12">
         <v>-411</v>
@@ -7235,13 +7408,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C13" t="s">
         <v>502</v>
-      </c>
-      <c r="B13" t="s">
-        <v>497</v>
-      </c>
-      <c r="C13" t="s">
-        <v>505</v>
       </c>
       <c r="D13">
         <v>-403</v>
@@ -7249,13 +7422,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C14" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D14">
         <v>-447</v>
@@ -7263,13 +7436,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C15" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D15">
         <v>-416</v>
@@ -7277,13 +7450,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B16" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C16" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D16">
         <v>-406</v>
@@ -7291,13 +7464,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C17" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D17">
         <v>-199</v>
@@ -7305,13 +7478,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B18" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C18" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D18">
         <v>-200</v>
@@ -7319,13 +7492,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C19" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D19">
         <v>-410</v>
@@ -7333,13 +7506,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C20" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D20">
         <v>-420</v>
@@ -7347,13 +7520,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B21" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D21">
         <v>-446</v>
@@ -7361,13 +7534,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B22" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C22" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D22">
         <v>-159</v>
@@ -7375,13 +7548,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B23" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C23" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D23">
         <v>-433</v>
@@ -7389,13 +7562,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B24" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C24" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D24">
         <v>-182</v>
@@ -7403,13 +7576,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B25" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C25" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D25">
         <v>-183</v>
@@ -7417,13 +7590,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B26" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C26" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D26">
         <v>-164</v>
@@ -7431,13 +7604,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B27" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C27" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D27">
         <v>-401</v>
@@ -7445,13 +7618,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B28" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C28" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D28">
         <v>-438</v>
@@ -7459,13 +7632,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C29" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D29">
         <v>-436</v>
@@ -7473,13 +7646,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B30" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C30" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D30">
         <v>-424</v>
@@ -7487,13 +7660,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B31" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C31" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D31">
         <v>-422</v>
@@ -7501,13 +7674,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B32" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C32" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D32">
         <v>-437</v>
@@ -7515,13 +7688,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B33" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C33" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D33">
         <v>-423</v>
@@ -7529,13 +7702,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B34" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C34" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D34">
         <v>-434</v>
@@ -7543,13 +7716,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B35" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C35" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D35">
         <v>-405</v>
@@ -7557,13 +7730,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B36" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C36" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D36">
         <v>-404</v>
@@ -7571,13 +7744,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B37" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C37" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D37">
         <v>-407</v>
@@ -7585,24 +7758,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B38" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C38" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B39" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C39" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D39">
         <v>-448</v>
@@ -7610,13 +7783,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B40" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C40" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D40">
         <v>-439</v>
@@ -7624,13 +7797,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C41" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D41">
         <v>-151</v>
@@ -7638,13 +7811,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B42" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C42" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D42">
         <v>-413</v>
@@ -7652,13 +7825,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B43" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C43" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D43">
         <v>-408</v>
@@ -7666,13 +7839,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B44" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C44" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D44">
         <v>-426</v>
@@ -7680,13 +7853,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C45" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D45">
         <v>-409</v>
@@ -7694,13 +7867,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C46" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D46">
         <v>-154</v>
@@ -7708,13 +7881,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B47" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C47" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D47">
         <v>-430</v>
@@ -7722,13 +7895,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B48" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C48" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D48">
         <v>-417</v>
@@ -7736,13 +7909,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B49" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C49" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D49">
         <v>-418</v>
@@ -7750,13 +7923,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B50" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C50" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D50">
         <v>-425</v>
@@ -7764,13 +7937,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B51" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C51" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D51">
         <v>-428</v>
@@ -7778,13 +7951,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B52" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C52" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D52">
         <v>-419</v>
@@ -7792,13 +7965,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B53" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C53" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D53">
         <v>-412</v>
@@ -7806,13 +7979,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B54" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C54" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D54">
         <v>-441</v>
@@ -7820,13 +7993,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B55" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C55" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D55">
         <v>-442</v>
@@ -7834,13 +8007,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B56" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C56" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D56">
         <v>-190</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB49C181-BD1D-477C-BEE1-E7B1DAFC3B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14217CA5-0BD8-4EEA-A26B-2484893F4DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14700" yWindow="225" windowWidth="14100" windowHeight="16425" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="630">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -837,15 +837,9 @@
     <t xml:space="preserve">            RemoteAggregates </t>
   </si>
   <si>
-    <t xml:space="preserve">            RemoteGroups </t>
-  </si>
-  <si>
     <t xml:space="preserve">            ViewDef </t>
   </si>
   <si>
-    <t xml:space="preserve">            ViewQuery </t>
-  </si>
-  <si>
     <t xml:space="preserve">            ViewStructPos </t>
   </si>
   <si>
@@ -1921,6 +1915,15 @@
   </si>
   <si>
     <t>ConnUserName</t>
+  </si>
+  <si>
+    <t>LogCol</t>
+  </si>
+  <si>
+    <t>TableRow</t>
+  </si>
+  <si>
+    <t>_Data</t>
   </si>
 </sst>
 </file>
@@ -2275,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
   <dimension ref="A1:E405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="A212" sqref="A212"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,13 +2291,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,21 +2308,21 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2330,7 +2333,7 @@
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2341,7 +2344,7 @@
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2352,7 +2355,7 @@
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2363,7 +2366,7 @@
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2374,21 +2377,21 @@
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2399,10 +2402,10 @@
         <v>-59</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2413,7 +2416,7 @@
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2424,7 +2427,7 @@
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2435,7 +2438,7 @@
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2446,7 +2449,7 @@
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,10 +2460,10 @@
         <v>-64</v>
       </c>
       <c r="C15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,10 +2474,10 @@
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,7 +2488,7 @@
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,7 +2499,7 @@
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2507,7 +2510,7 @@
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2518,7 +2521,7 @@
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2529,7 +2532,7 @@
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2540,7 +2543,7 @@
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2551,10 +2554,10 @@
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2565,7 +2568,7 @@
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,7 +2579,7 @@
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,7 +2590,7 @@
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2598,7 +2601,7 @@
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,7 +2612,7 @@
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2620,7 +2623,7 @@
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,7 +2634,7 @@
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2642,7 +2645,7 @@
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,7 +2656,7 @@
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2664,7 +2667,7 @@
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2675,7 +2678,7 @@
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2686,10 +2689,10 @@
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D35" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,7 +2703,7 @@
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2711,7 +2714,7 @@
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2722,10 +2725,10 @@
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2736,7 +2739,7 @@
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,7 +2750,7 @@
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2758,10 +2761,10 @@
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D41" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2772,10 +2775,10 @@
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D42" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2786,7 +2789,7 @@
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,7 +2800,7 @@
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2808,7 +2811,7 @@
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2819,10 +2822,10 @@
         <v>-95</v>
       </c>
       <c r="C46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2833,10 +2836,10 @@
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D47" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2847,10 +2850,10 @@
         <v>-97</v>
       </c>
       <c r="C48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D48" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2861,7 +2864,7 @@
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2872,7 +2875,7 @@
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2883,10 +2886,10 @@
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2897,7 +2900,7 @@
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2908,7 +2911,7 @@
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,7 +2922,7 @@
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,7 +2933,7 @@
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2941,10 +2944,10 @@
         <v>-105</v>
       </c>
       <c r="C56" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D56" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2955,10 +2958,10 @@
         <v>-106</v>
       </c>
       <c r="C57" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D57" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2969,10 +2972,10 @@
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D58" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2983,10 +2986,10 @@
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D59" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2997,10 +3000,10 @@
         <v>-109</v>
       </c>
       <c r="C60" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D60" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3011,10 +3014,10 @@
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D61" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3025,10 +3028,10 @@
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D62" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3039,10 +3042,10 @@
         <v>-112</v>
       </c>
       <c r="C63" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D63" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3053,10 +3056,10 @@
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D64" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3067,10 +3070,10 @@
         <v>-114</v>
       </c>
       <c r="C65" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3081,10 +3084,10 @@
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3095,10 +3098,10 @@
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3109,10 +3112,10 @@
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D68" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3123,10 +3126,10 @@
         <v>-118</v>
       </c>
       <c r="C69" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3137,10 +3140,10 @@
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D70" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3151,7 +3154,7 @@
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3162,7 +3165,7 @@
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3173,10 +3176,10 @@
         <v>-122</v>
       </c>
       <c r="C73" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D73" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3187,10 +3190,10 @@
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D74" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3201,7 +3204,7 @@
         <v>-124</v>
       </c>
       <c r="C75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3212,7 +3215,7 @@
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3223,7 +3226,7 @@
         <v>-126</v>
       </c>
       <c r="C77" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3234,10 +3237,10 @@
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3248,10 +3251,10 @@
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D79" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3262,10 +3265,10 @@
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D80" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3276,7 +3279,7 @@
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3287,10 +3290,10 @@
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D82" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3301,10 +3304,10 @@
         <v>-132</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D83" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3315,10 +3318,10 @@
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3329,10 +3332,10 @@
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D85" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3343,10 +3346,10 @@
         <v>-135</v>
       </c>
       <c r="C86" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3357,7 +3360,7 @@
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3368,7 +3371,7 @@
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3379,7 +3382,7 @@
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3390,7 +3393,7 @@
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3401,7 +3404,7 @@
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3412,7 +3415,7 @@
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3423,10 +3426,10 @@
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D93" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,10 +3440,10 @@
         <v>-143</v>
       </c>
       <c r="C94" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D94" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3451,10 +3454,10 @@
         <v>-144</v>
       </c>
       <c r="C95" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D95" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3465,7 +3468,7 @@
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3476,10 +3479,10 @@
         <v>-146</v>
       </c>
       <c r="C97" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D97" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3490,10 +3493,10 @@
         <v>-147</v>
       </c>
       <c r="C98" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3504,7 +3507,7 @@
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3515,10 +3518,10 @@
         <v>-149</v>
       </c>
       <c r="C100" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D100" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,7 +3532,7 @@
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3540,10 +3543,10 @@
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D102" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3554,13 +3557,13 @@
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D103" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E103" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,10 +3574,10 @@
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D104" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3585,10 +3588,10 @@
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D105" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3599,7 +3602,7 @@
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3610,10 +3613,10 @@
         <v>-156</v>
       </c>
       <c r="C107" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D107" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3624,10 +3627,10 @@
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D108" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3638,7 +3641,7 @@
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3649,10 +3652,10 @@
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D110" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3663,7 +3666,7 @@
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3674,7 +3677,7 @@
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3685,7 +3688,7 @@
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3696,7 +3699,7 @@
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3707,7 +3710,7 @@
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3718,7 +3721,7 @@
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3729,18 +3732,18 @@
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B118">
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3751,10 +3754,10 @@
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D119" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3765,7 +3768,7 @@
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3776,7 +3779,7 @@
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,7 +3790,7 @@
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3798,24 +3801,24 @@
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D123" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D124" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3826,29 +3829,29 @@
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B127">
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3859,21 +3862,21 @@
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D129" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3884,7 +3887,7 @@
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3895,21 +3898,21 @@
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D131" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B132">
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3920,10 +3923,10 @@
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D133" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3934,10 +3937,10 @@
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D134" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3948,7 +3951,7 @@
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3959,18 +3962,18 @@
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3981,35 +3984,35 @@
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D138" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B139">
         <v>-188</v>
       </c>
       <c r="C139" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D139" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,7 +4023,7 @@
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4031,7 +4034,7 @@
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4042,10 +4045,10 @@
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D143" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4056,7 +4059,7 @@
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4067,7 +4070,7 @@
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4078,7 +4081,7 @@
         <v>-195</v>
       </c>
       <c r="C146" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4089,10 +4092,10 @@
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D147" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4103,10 +4106,10 @@
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D148" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4117,10 +4120,10 @@
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D149" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4131,10 +4134,10 @@
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D150" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4145,10 +4148,10 @@
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D151" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4159,10 +4162,10 @@
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D152" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4173,7 +4176,7 @@
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4184,10 +4187,10 @@
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D154" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4198,18 +4201,18 @@
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4220,10 +4223,10 @@
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D157" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4234,7 +4237,7 @@
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4245,21 +4248,21 @@
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D159" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B160">
         <v>-209</v>
       </c>
       <c r="C160" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4270,10 +4273,10 @@
         <v>-210</v>
       </c>
       <c r="C161" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D161" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4284,10 +4287,10 @@
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D162" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4298,7 +4301,7 @@
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4309,7 +4312,7 @@
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4320,7 +4323,7 @@
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4331,7 +4334,7 @@
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4342,7 +4345,7 @@
         <v>-216</v>
       </c>
       <c r="C167" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4353,10 +4356,10 @@
         <v>-217</v>
       </c>
       <c r="C168" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D168" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4367,7 +4370,7 @@
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4378,7 +4381,7 @@
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4389,7 +4392,7 @@
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4400,7 +4403,7 @@
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4411,7 +4414,7 @@
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4422,7 +4425,7 @@
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4433,7 +4436,7 @@
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4444,7 +4447,7 @@
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4455,18 +4458,18 @@
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B178">
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4477,7 +4480,7 @@
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4488,7 +4491,7 @@
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4499,7 +4502,7 @@
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4510,10 +4513,10 @@
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D182" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4524,7 +4527,7 @@
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4535,7 +4538,7 @@
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4546,10 +4549,10 @@
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D185" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4560,7 +4563,7 @@
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4571,10 +4574,10 @@
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D187" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4585,10 +4588,10 @@
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D188" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4599,10 +4602,10 @@
         <v>-238</v>
       </c>
       <c r="C189" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D189" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4613,24 +4616,24 @@
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D191" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E191" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4641,7 +4644,7 @@
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4652,7 +4655,7 @@
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4663,7 +4666,7 @@
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4674,10 +4677,10 @@
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D195" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4688,7 +4691,7 @@
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4699,10 +4702,10 @@
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D197" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4713,7 +4716,7 @@
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,10 +4727,10 @@
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D199" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4738,49 +4741,49 @@
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D200" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B201">
         <v>-250</v>
       </c>
       <c r="C201" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B202">
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D202" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D203" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4791,7 +4794,7 @@
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4802,7 +4805,7 @@
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4813,7 +4816,7 @@
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4824,7 +4827,7 @@
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,7 +4838,7 @@
         <v>-257</v>
       </c>
       <c r="C208" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4846,7 +4849,7 @@
         <v>-258</v>
       </c>
       <c r="C209" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4857,10 +4860,10 @@
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D210" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4871,21 +4874,21 @@
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D211" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4896,10 +4899,10 @@
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D213" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4910,7 +4913,7 @@
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4921,10 +4924,10 @@
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D215" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4935,10 +4938,10 @@
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D216" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,10 +4952,10 @@
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D217" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4963,10 +4966,10 @@
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D218" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4977,10 +4980,10 @@
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D219" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4991,7 +4994,7 @@
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5002,10 +5005,10 @@
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D221" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5016,7 +5019,7 @@
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,7 +5030,7 @@
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5038,7 +5041,7 @@
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5049,7 +5052,7 @@
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5060,18 +5063,18 @@
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B227">
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5082,10 +5085,10 @@
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D228" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5096,18 +5099,18 @@
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B230">
         <v>-279</v>
       </c>
       <c r="C230" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5118,7 +5121,7 @@
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5129,7 +5132,7 @@
         <v>-281</v>
       </c>
       <c r="C232" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5140,7 +5143,7 @@
         <v>-282</v>
       </c>
       <c r="C233" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5151,7 +5154,7 @@
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5162,10 +5165,10 @@
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D235" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5176,10 +5179,10 @@
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D236" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5190,7 +5193,7 @@
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5201,7 +5204,7 @@
         <v>-287</v>
       </c>
       <c r="C238" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5212,7 +5215,7 @@
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5223,7 +5226,7 @@
         <v>-289</v>
       </c>
       <c r="C240" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5234,32 +5237,32 @@
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D241" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B242">
         <v>-291</v>
       </c>
       <c r="C242" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B243">
         <v>-292</v>
       </c>
       <c r="C243" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5270,7 +5273,7 @@
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,7 +5284,7 @@
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5292,7 +5295,7 @@
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5303,7 +5306,7 @@
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5314,7 +5317,7 @@
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5325,88 +5328,88 @@
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D249" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B250">
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D250" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B252">
         <v>-301</v>
       </c>
       <c r="C252" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D252" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B253">
         <v>-302</v>
       </c>
       <c r="C253" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D253" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B255">
         <v>-304</v>
       </c>
       <c r="C255" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D255" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5417,7 +5420,7 @@
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5428,21 +5431,21 @@
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D257" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>-307</v>
       </c>
       <c r="C258" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5453,10 +5456,10 @@
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D259" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5467,10 +5470,10 @@
         <v>-309</v>
       </c>
       <c r="C260" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D260" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5481,24 +5484,24 @@
         <v>-310</v>
       </c>
       <c r="C261" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D261" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B262">
         <v>-311</v>
       </c>
       <c r="C262" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5509,10 +5512,10 @@
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D263" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5523,26 +5526,26 @@
         <v>-313</v>
       </c>
       <c r="C264" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D264" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B265">
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B266">
         <v>-315</v>
@@ -5556,7 +5559,7 @@
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5567,7 +5570,7 @@
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5586,21 +5589,21 @@
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B271">
         <v>-320</v>
       </c>
       <c r="C271" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D271" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5611,7 +5614,7 @@
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5622,10 +5625,10 @@
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D273" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5636,10 +5639,10 @@
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D274" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5650,10 +5653,10 @@
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D275" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5664,10 +5667,10 @@
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D276" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5678,7 +5681,7 @@
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5689,10 +5692,10 @@
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D278" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5703,10 +5706,10 @@
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D279" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5717,10 +5720,10 @@
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D280" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5731,10 +5734,10 @@
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D281" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5745,21 +5748,21 @@
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D283" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5770,7 +5773,7 @@
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5781,10 +5784,10 @@
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D285" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5795,10 +5798,10 @@
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D286" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5809,12 +5812,21 @@
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>627</v>
+      </c>
       <c r="B288">
         <v>-337</v>
+      </c>
+      <c r="C288" t="s">
+        <v>287</v>
+      </c>
+      <c r="D288" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5825,15 +5837,24 @@
         <v>-338</v>
       </c>
       <c r="C289" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D289" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>282</v>
+      </c>
       <c r="B290">
         <v>-339</v>
+      </c>
+      <c r="C290" t="s">
+        <v>287</v>
+      </c>
+      <c r="D290" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5844,7 +5865,7 @@
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5855,7 +5876,7 @@
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5866,10 +5887,10 @@
         <v>-342</v>
       </c>
       <c r="C293" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D293" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5880,10 +5901,10 @@
         <v>-343</v>
       </c>
       <c r="C294" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D294" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5894,10 +5915,10 @@
         <v>-344</v>
       </c>
       <c r="C295" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D295" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5908,10 +5929,10 @@
         <v>-345</v>
       </c>
       <c r="C296" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D296" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5922,10 +5943,10 @@
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D297" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5936,7 +5957,7 @@
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,7 +5968,7 @@
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5958,7 +5979,7 @@
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5969,7 +5990,7 @@
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -5980,10 +6001,10 @@
         <v>-351</v>
       </c>
       <c r="C302" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D302" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,10 +6015,10 @@
         <v>-352</v>
       </c>
       <c r="C303" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D303" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6013,10 +6034,10 @@
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D305" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6027,10 +6048,10 @@
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D306" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6041,10 +6062,10 @@
         <v>-356</v>
       </c>
       <c r="C307" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D307" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6055,10 +6076,10 @@
         <v>-357</v>
       </c>
       <c r="C308" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D308" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,10 +6090,10 @@
         <v>-358</v>
       </c>
       <c r="C309" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D309" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6083,7 +6104,7 @@
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6094,7 +6115,7 @@
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6105,10 +6126,10 @@
         <v>-361</v>
       </c>
       <c r="C312" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D312" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6119,10 +6140,10 @@
         <v>-362</v>
       </c>
       <c r="C313" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D313" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6133,10 +6154,10 @@
         <v>-363</v>
       </c>
       <c r="C314" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D314" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6147,7 +6168,7 @@
         <v>-364</v>
       </c>
       <c r="C315" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6158,15 +6179,15 @@
         <v>-365</v>
       </c>
       <c r="C316" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D316" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B317">
         <v>-366</v>
@@ -6174,7 +6195,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B318">
         <v>-367</v>
@@ -6182,27 +6203,27 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>284</v>
+        <v>629</v>
       </c>
       <c r="B319">
         <v>-368</v>
       </c>
       <c r="C319" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B320">
         <v>-369</v>
       </c>
       <c r="C320" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D320" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6213,7 +6234,7 @@
         <v>-370</v>
       </c>
       <c r="C321" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6224,7 +6245,7 @@
         <v>-371</v>
       </c>
       <c r="C322" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -6235,7 +6256,7 @@
         <v>-372</v>
       </c>
       <c r="C323" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -6246,7 +6267,7 @@
         <v>-373</v>
       </c>
       <c r="C324" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6257,7 +6278,7 @@
         <v>-374</v>
       </c>
       <c r="C325" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6268,12 +6289,12 @@
         <v>-375</v>
       </c>
       <c r="C326" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B327">
         <v>-376</v>
@@ -6281,43 +6302,31 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B328">
         <v>-377</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>267</v>
-      </c>
       <c r="B329">
         <v>-378</v>
       </c>
-      <c r="C329" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B330">
         <v>-379</v>
       </c>
       <c r="C330" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>269</v>
-      </c>
       <c r="B331">
         <v>-380</v>
-      </c>
-      <c r="C331" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6328,7 +6337,7 @@
         <v>-381</v>
       </c>
       <c r="C332" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6339,7 +6348,7 @@
         <v>-382</v>
       </c>
       <c r="C333" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6350,7 +6359,7 @@
         <v>-383</v>
       </c>
       <c r="C334" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6361,7 +6370,7 @@
         <v>-384</v>
       </c>
       <c r="C335" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6372,24 +6381,24 @@
         <v>-385</v>
       </c>
       <c r="C336" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D336" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B337">
         <v>-386</v>
       </c>
       <c r="C337" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D337" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -6400,10 +6409,10 @@
         <v>-387</v>
       </c>
       <c r="C338" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D338" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -6414,21 +6423,21 @@
         <v>-388</v>
       </c>
       <c r="C339" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D339" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B340">
         <v>-389</v>
       </c>
       <c r="C340" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6447,10 +6456,10 @@
         <v>-391</v>
       </c>
       <c r="C342" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D342" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -6461,38 +6470,38 @@
         <v>-392</v>
       </c>
       <c r="C343" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B344">
         <v>-393</v>
       </c>
       <c r="C344" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D344" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E344" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B345">
         <v>-394</v>
       </c>
       <c r="C345" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D345" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6503,708 +6512,708 @@
         <v>-395</v>
       </c>
       <c r="C346" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D346" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B347">
         <v>-396</v>
       </c>
       <c r="C347" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D347" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B348">
         <v>-397</v>
       </c>
       <c r="C348" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B349">
         <v>-401</v>
       </c>
       <c r="C349" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B350">
         <v>-402</v>
       </c>
       <c r="C350" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B351">
         <v>-403</v>
       </c>
       <c r="C351" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B352">
         <v>-404</v>
       </c>
       <c r="C352" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B353">
         <v>-405</v>
       </c>
       <c r="C353" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B354">
         <v>-406</v>
       </c>
       <c r="C354" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D354" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B355">
         <v>-407</v>
       </c>
       <c r="C355" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B356">
         <v>-408</v>
       </c>
       <c r="C356" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B357">
         <v>-409</v>
       </c>
       <c r="C357" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B358">
         <v>-410</v>
       </c>
       <c r="C358" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B359">
         <v>-411</v>
       </c>
       <c r="C359" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B360">
         <v>-412</v>
       </c>
       <c r="C360" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B361">
         <v>-413</v>
       </c>
       <c r="C361" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D361" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B362">
         <v>-414</v>
       </c>
       <c r="C362" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D362" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B363">
         <v>-415</v>
       </c>
       <c r="C363" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D363" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B364">
         <v>-416</v>
       </c>
       <c r="C364" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B365">
         <v>-417</v>
       </c>
       <c r="C365" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B366">
         <v>-418</v>
       </c>
       <c r="C366" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D366" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B367">
         <v>-419</v>
       </c>
       <c r="C367" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D367" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B368">
         <v>-420</v>
       </c>
       <c r="C368" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D368" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B369">
         <v>-421</v>
       </c>
       <c r="C369" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B370">
         <v>-422</v>
       </c>
       <c r="C370" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D370" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B371">
         <v>-423</v>
       </c>
       <c r="C371" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D371" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B372">
         <v>-424</v>
       </c>
       <c r="C372" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D372" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B373">
         <v>-425</v>
       </c>
       <c r="C373" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D373" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B374">
         <v>-426</v>
       </c>
       <c r="C374" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D374" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B375">
         <v>-427</v>
       </c>
       <c r="C375" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D375" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B376">
         <v>-428</v>
       </c>
       <c r="C376" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D376" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B377">
         <v>-429</v>
       </c>
       <c r="C377" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B378">
         <v>-430</v>
       </c>
       <c r="C378" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B379">
         <v>-431</v>
       </c>
       <c r="C379" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D379" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B380">
         <v>-432</v>
       </c>
       <c r="C380" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D380" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B381">
         <v>-433</v>
       </c>
       <c r="C381" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B382">
         <v>-434</v>
       </c>
       <c r="C382" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B383">
         <v>-435</v>
       </c>
       <c r="C383" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D383" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B384">
         <v>-436</v>
       </c>
       <c r="C384" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B385">
         <v>-437</v>
       </c>
       <c r="C385" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B386">
         <v>-438</v>
       </c>
       <c r="C386" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B387">
         <v>-439</v>
       </c>
       <c r="C387" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B388">
         <v>-440</v>
       </c>
       <c r="C388" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B389">
         <v>-441</v>
       </c>
       <c r="C389" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B390">
         <v>-442</v>
       </c>
       <c r="C390" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B391">
         <v>-443</v>
       </c>
       <c r="C391" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B392">
         <v>-444</v>
       </c>
       <c r="C392" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B393">
         <v>-445</v>
       </c>
       <c r="C393" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B394">
         <v>-446</v>
       </c>
       <c r="C394" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B395">
         <v>-447</v>
       </c>
       <c r="C395" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B396">
         <v>-448</v>
       </c>
       <c r="C396" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B397">
         <v>-449</v>
       </c>
       <c r="C397" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B398">
         <v>-450</v>
       </c>
       <c r="C398" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B399">
         <v>-451</v>
       </c>
       <c r="C399" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B400">
         <v>-452</v>
       </c>
       <c r="C400" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D400" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B401">
         <v>-453</v>
       </c>
       <c r="C401" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D401" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B402">
         <v>-454</v>
       </c>
       <c r="C402" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B403">
         <v>-455</v>
       </c>
       <c r="C403" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B404">
         <v>-456</v>
       </c>
       <c r="C404" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7240,13 +7249,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" t="s">
         <v>559</v>
-      </c>
-      <c r="B1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C1" t="s">
-        <v>561</v>
       </c>
       <c r="D1">
         <v>-421</v>
@@ -7254,13 +7263,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D2">
         <v>-431</v>
@@ -7268,13 +7277,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D3">
         <v>-435</v>
@@ -7282,13 +7291,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D4">
         <v>-429</v>
@@ -7296,13 +7305,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D5">
         <v>-402</v>
@@ -7310,13 +7319,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C6" t="s">
         <v>564</v>
-      </c>
-      <c r="B6" t="s">
-        <v>565</v>
-      </c>
-      <c r="C6" t="s">
-        <v>566</v>
       </c>
       <c r="D6">
         <v>-432</v>
@@ -7324,13 +7333,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D7">
         <v>-415</v>
@@ -7338,13 +7347,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D8">
         <v>-239</v>
@@ -7352,13 +7361,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B9" t="s">
+        <v>582</v>
+      </c>
+      <c r="C9" t="s">
         <v>583</v>
-      </c>
-      <c r="B9" t="s">
-        <v>584</v>
-      </c>
-      <c r="C9" t="s">
-        <v>585</v>
       </c>
       <c r="D9">
         <v>-440</v>
@@ -7366,13 +7375,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D10">
         <v>-176</v>
@@ -7380,13 +7389,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B11" t="s">
         <v>529</v>
       </c>
-      <c r="B11" t="s">
-        <v>531</v>
-      </c>
       <c r="C11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D11">
         <v>-414</v>
@@ -7394,13 +7403,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D12">
         <v>-411</v>
@@ -7408,13 +7417,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D13">
         <v>-403</v>
@@ -7422,13 +7431,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D14">
         <v>-447</v>
@@ -7436,13 +7445,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B15" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D15">
         <v>-416</v>
@@ -7450,13 +7459,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D16">
         <v>-406</v>
@@ -7464,13 +7473,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C17" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D17">
         <v>-199</v>
@@ -7478,13 +7487,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C18" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D18">
         <v>-200</v>
@@ -7492,13 +7501,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C19" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D19">
         <v>-410</v>
@@ -7506,13 +7515,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C20" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D20">
         <v>-420</v>
@@ -7520,13 +7529,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C21" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D21">
         <v>-446</v>
@@ -7534,13 +7543,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D22">
         <v>-159</v>
@@ -7548,13 +7557,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B23" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C23" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D23">
         <v>-433</v>
@@ -7562,13 +7571,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>485</v>
+      </c>
+      <c r="B24" t="s">
+        <v>486</v>
+      </c>
+      <c r="C24" t="s">
         <v>487</v>
-      </c>
-      <c r="B24" t="s">
-        <v>488</v>
-      </c>
-      <c r="C24" t="s">
-        <v>489</v>
       </c>
       <c r="D24">
         <v>-182</v>
@@ -7576,13 +7585,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>488</v>
+      </c>
+      <c r="B25" t="s">
         <v>490</v>
       </c>
-      <c r="B25" t="s">
-        <v>492</v>
-      </c>
       <c r="C25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D25">
         <v>-183</v>
@@ -7590,13 +7599,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>517</v>
+      </c>
+      <c r="B26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C26" t="s">
         <v>519</v>
-      </c>
-      <c r="B26" t="s">
-        <v>520</v>
-      </c>
-      <c r="C26" t="s">
-        <v>521</v>
       </c>
       <c r="D26">
         <v>-164</v>
@@ -7604,13 +7613,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B27" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D27">
         <v>-401</v>
@@ -7618,13 +7627,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C28" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D28">
         <v>-438</v>
@@ -7632,13 +7641,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C29" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D29">
         <v>-436</v>
@@ -7646,13 +7655,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>536</v>
+      </c>
+      <c r="B30" t="s">
         <v>538</v>
       </c>
-      <c r="B30" t="s">
-        <v>540</v>
-      </c>
       <c r="C30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D30">
         <v>-424</v>
@@ -7660,13 +7669,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B31" t="s">
+        <v>538</v>
+      </c>
+      <c r="C31" t="s">
         <v>540</v>
-      </c>
-      <c r="C31" t="s">
-        <v>542</v>
       </c>
       <c r="D31">
         <v>-422</v>
@@ -7674,13 +7683,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D32">
         <v>-437</v>
@@ -7688,13 +7697,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B33" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C33" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D33">
         <v>-423</v>
@@ -7702,13 +7711,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B34" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C34" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D34">
         <v>-434</v>
@@ -7716,13 +7725,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B35" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C35" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D35">
         <v>-405</v>
@@ -7730,13 +7739,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B36" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D36">
         <v>-404</v>
@@ -7744,13 +7753,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B37" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C37" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D37">
         <v>-407</v>
@@ -7758,24 +7767,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B38" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C38" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C39" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D39">
         <v>-448</v>
@@ -7783,13 +7792,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B40" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C40" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D40">
         <v>-439</v>
@@ -7797,13 +7806,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B41" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C41" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D41">
         <v>-151</v>
@@ -7811,13 +7820,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>524</v>
+      </c>
+      <c r="B42" t="s">
+        <v>525</v>
+      </c>
+      <c r="C42" t="s">
         <v>526</v>
-      </c>
-      <c r="B42" t="s">
-        <v>527</v>
-      </c>
-      <c r="C42" t="s">
-        <v>528</v>
       </c>
       <c r="D42">
         <v>-413</v>
@@ -7825,13 +7834,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B43" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C43" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D43">
         <v>-408</v>
@@ -7839,13 +7848,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B44" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C44" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D44">
         <v>-426</v>
@@ -7853,13 +7862,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C45" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D45">
         <v>-409</v>
@@ -7867,13 +7876,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C46" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D46">
         <v>-154</v>
@@ -7881,13 +7890,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B47" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C47" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D47">
         <v>-430</v>
@@ -7895,13 +7904,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B48" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C48" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D48">
         <v>-417</v>
@@ -7909,13 +7918,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B49" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C49" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D49">
         <v>-418</v>
@@ -7923,13 +7932,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B50" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C50" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D50">
         <v>-425</v>
@@ -7937,13 +7946,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B51" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C51" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D51">
         <v>-428</v>
@@ -7951,13 +7960,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B52" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C52" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D52">
         <v>-419</v>
@@ -7965,13 +7974,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B53" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C53" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D53">
         <v>-412</v>
@@ -7979,13 +7988,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B54" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C54" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D54">
         <v>-441</v>
@@ -7993,13 +8002,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B55" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C55" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D55">
         <v>-442</v>
@@ -8007,13 +8016,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B56" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C56" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D56">
         <v>-190</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14217CA5-0BD8-4EEA-A26B-2484893F4DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D160D-BAD8-4EF1-AF94-4BA0835EA0E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14700" yWindow="225" windowWidth="14100" windowHeight="16425" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="632">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -888,9 +888,6 @@
     <t>TargetTable</t>
   </si>
   <si>
-    <t>Old</t>
-  </si>
-  <si>
     <t>Trig</t>
   </si>
   <si>
@@ -1924,6 +1921,15 @@
   </si>
   <si>
     <t>_Data</t>
+  </si>
+  <si>
+    <t>ViewCols</t>
+  </si>
+  <si>
+    <t>ViewQry</t>
+  </si>
+  <si>
+    <t>ViewPpos</t>
   </si>
 </sst>
 </file>
@@ -2278,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
   <dimension ref="A1:E405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="C329" sqref="C329"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="C328" sqref="C328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,13 +2297,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2308,21 +2314,21 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" t="s">
         <v>287</v>
-      </c>
-      <c r="D2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2333,7 +2339,7 @@
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2344,7 +2350,7 @@
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2355,7 +2361,7 @@
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,7 +2372,7 @@
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,21 +2383,21 @@
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2402,10 +2408,10 @@
         <v>-59</v>
       </c>
       <c r="C10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2416,7 +2422,7 @@
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2427,7 +2433,7 @@
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2438,7 +2444,7 @@
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2449,7 +2455,7 @@
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2460,10 +2466,10 @@
         <v>-64</v>
       </c>
       <c r="C15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,10 +2480,10 @@
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2488,7 +2494,7 @@
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,7 +2505,7 @@
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2510,7 +2516,7 @@
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2521,7 +2527,7 @@
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2532,7 +2538,7 @@
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2543,7 +2549,7 @@
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2554,10 +2560,10 @@
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2568,7 +2574,7 @@
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2579,7 +2585,7 @@
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2590,7 +2596,7 @@
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2601,7 +2607,7 @@
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2612,7 +2618,7 @@
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,7 +2629,7 @@
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2634,7 +2640,7 @@
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,7 +2651,7 @@
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2656,7 +2662,7 @@
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,7 +2673,7 @@
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2678,7 +2684,7 @@
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2689,10 +2695,10 @@
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2703,7 +2709,7 @@
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2714,7 +2720,7 @@
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2725,10 +2731,10 @@
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2739,7 +2745,7 @@
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2750,7 +2756,7 @@
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2761,10 +2767,10 @@
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D41" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2775,10 +2781,10 @@
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2789,7 +2795,7 @@
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2800,7 +2806,7 @@
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2811,7 +2817,7 @@
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2822,10 +2828,10 @@
         <v>-95</v>
       </c>
       <c r="C46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2836,10 +2842,10 @@
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2850,10 +2856,10 @@
         <v>-97</v>
       </c>
       <c r="C48" t="s">
+        <v>286</v>
+      </c>
+      <c r="D48" t="s">
         <v>287</v>
-      </c>
-      <c r="D48" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2864,7 +2870,7 @@
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2875,7 +2881,7 @@
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,10 +2892,10 @@
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2900,7 +2906,7 @@
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2911,7 +2917,7 @@
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2922,7 +2928,7 @@
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2933,7 +2939,7 @@
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2944,10 +2950,10 @@
         <v>-105</v>
       </c>
       <c r="C56" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" t="s">
         <v>287</v>
-      </c>
-      <c r="D56" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2958,10 +2964,10 @@
         <v>-106</v>
       </c>
       <c r="C57" t="s">
+        <v>286</v>
+      </c>
+      <c r="D57" t="s">
         <v>287</v>
-      </c>
-      <c r="D57" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2972,10 +2978,10 @@
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2986,10 +2992,10 @@
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D59" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3000,10 +3006,10 @@
         <v>-109</v>
       </c>
       <c r="C60" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" t="s">
         <v>287</v>
-      </c>
-      <c r="D60" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3014,10 +3020,10 @@
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,10 +3034,10 @@
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3042,10 +3048,10 @@
         <v>-112</v>
       </c>
       <c r="C63" t="s">
+        <v>286</v>
+      </c>
+      <c r="D63" t="s">
         <v>287</v>
-      </c>
-      <c r="D63" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,10 +3062,10 @@
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3070,10 +3076,10 @@
         <v>-114</v>
       </c>
       <c r="C65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D65" t="s">
         <v>287</v>
-      </c>
-      <c r="D65" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3084,10 +3090,10 @@
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3098,10 +3104,10 @@
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D67" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,10 +3118,10 @@
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3126,10 +3132,10 @@
         <v>-118</v>
       </c>
       <c r="C69" t="s">
+        <v>286</v>
+      </c>
+      <c r="D69" t="s">
         <v>287</v>
-      </c>
-      <c r="D69" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3140,10 +3146,10 @@
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3154,7 +3160,7 @@
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3165,7 +3171,7 @@
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3176,10 +3182,10 @@
         <v>-122</v>
       </c>
       <c r="C73" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" t="s">
         <v>287</v>
-      </c>
-      <c r="D73" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3190,10 +3196,10 @@
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3204,7 +3210,7 @@
         <v>-124</v>
       </c>
       <c r="C75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3215,7 +3221,7 @@
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3226,7 +3232,7 @@
         <v>-126</v>
       </c>
       <c r="C77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3237,10 +3243,10 @@
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3251,10 +3257,10 @@
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D79" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3265,10 +3271,10 @@
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D80" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3279,7 +3285,7 @@
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3290,10 +3296,10 @@
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D82" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3304,10 +3310,10 @@
         <v>-132</v>
       </c>
       <c r="C83" t="s">
+        <v>286</v>
+      </c>
+      <c r="D83" t="s">
         <v>287</v>
-      </c>
-      <c r="D83" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3318,10 +3324,10 @@
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3332,10 +3338,10 @@
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D85" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3346,10 +3352,10 @@
         <v>-135</v>
       </c>
       <c r="C86" t="s">
+        <v>286</v>
+      </c>
+      <c r="D86" t="s">
         <v>287</v>
-      </c>
-      <c r="D86" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3360,7 +3366,7 @@
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3371,7 +3377,7 @@
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3382,7 +3388,7 @@
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3393,7 +3399,7 @@
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3404,7 +3410,7 @@
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3415,7 +3421,7 @@
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,10 +3432,10 @@
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3440,10 +3446,10 @@
         <v>-143</v>
       </c>
       <c r="C94" t="s">
+        <v>286</v>
+      </c>
+      <c r="D94" t="s">
         <v>287</v>
-      </c>
-      <c r="D94" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3454,10 +3460,10 @@
         <v>-144</v>
       </c>
       <c r="C95" t="s">
+        <v>286</v>
+      </c>
+      <c r="D95" t="s">
         <v>287</v>
-      </c>
-      <c r="D95" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3468,7 +3474,7 @@
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3479,10 +3485,10 @@
         <v>-146</v>
       </c>
       <c r="C97" t="s">
+        <v>286</v>
+      </c>
+      <c r="D97" t="s">
         <v>287</v>
-      </c>
-      <c r="D97" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3493,10 +3499,10 @@
         <v>-147</v>
       </c>
       <c r="C98" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" t="s">
         <v>287</v>
-      </c>
-      <c r="D98" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3507,7 +3513,7 @@
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3518,10 +3524,10 @@
         <v>-149</v>
       </c>
       <c r="C100" t="s">
+        <v>286</v>
+      </c>
+      <c r="D100" t="s">
         <v>287</v>
-      </c>
-      <c r="D100" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3532,7 +3538,7 @@
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3543,10 +3549,10 @@
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3557,13 +3563,13 @@
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D103" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E103" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3574,10 +3580,10 @@
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D104" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3588,10 +3594,10 @@
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3602,7 +3608,7 @@
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3613,10 +3619,10 @@
         <v>-156</v>
       </c>
       <c r="C107" t="s">
+        <v>286</v>
+      </c>
+      <c r="D107" t="s">
         <v>287</v>
-      </c>
-      <c r="D107" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3627,10 +3633,10 @@
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D108" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3641,7 +3647,7 @@
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3652,10 +3658,10 @@
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D110" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3666,7 +3672,7 @@
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3677,7 +3683,7 @@
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3688,7 +3694,7 @@
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3699,7 +3705,7 @@
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3710,7 +3716,7 @@
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3721,7 +3727,7 @@
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3732,7 +3738,7 @@
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3743,7 +3749,7 @@
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,10 +3760,10 @@
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3768,7 +3774,7 @@
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3779,7 +3785,7 @@
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3790,7 +3796,7 @@
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3801,24 +3807,24 @@
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D123" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D124" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3829,18 +3835,18 @@
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3851,7 +3857,7 @@
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3862,21 +3868,21 @@
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D129" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3887,7 +3893,7 @@
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3898,10 +3904,10 @@
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D131" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3912,7 +3918,7 @@
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3923,10 +3929,10 @@
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3937,10 +3943,10 @@
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,7 +3957,7 @@
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3962,18 +3968,18 @@
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3984,35 +3990,35 @@
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D138" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B139">
         <v>-188</v>
       </c>
       <c r="C139" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D139" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4023,7 +4029,7 @@
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4034,7 +4040,7 @@
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4045,10 +4051,10 @@
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D143" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4059,7 +4065,7 @@
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4070,7 +4076,7 @@
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4081,7 +4087,7 @@
         <v>-195</v>
       </c>
       <c r="C146" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4092,10 +4098,10 @@
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D147" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4106,10 +4112,10 @@
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D148" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4120,10 +4126,10 @@
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D149" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4134,10 +4140,10 @@
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D150" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4148,10 +4154,10 @@
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D151" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4162,10 +4168,10 @@
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D152" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4176,7 +4182,7 @@
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4187,10 +4193,10 @@
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D154" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,18 +4207,18 @@
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4223,10 +4229,10 @@
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D157" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4237,7 +4243,7 @@
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4248,21 +4254,21 @@
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D159" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B160">
         <v>-209</v>
       </c>
       <c r="C160" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4273,10 +4279,10 @@
         <v>-210</v>
       </c>
       <c r="C161" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D161" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4287,10 +4293,10 @@
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D162" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4301,7 +4307,7 @@
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4312,7 +4318,7 @@
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4323,7 +4329,7 @@
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4334,7 +4340,7 @@
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4345,7 +4351,7 @@
         <v>-216</v>
       </c>
       <c r="C167" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4356,10 +4362,10 @@
         <v>-217</v>
       </c>
       <c r="C168" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D168" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4370,7 +4376,7 @@
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4381,7 +4387,7 @@
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4392,7 +4398,7 @@
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4403,7 +4409,7 @@
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4414,7 +4420,7 @@
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4425,7 +4431,7 @@
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4436,7 +4442,7 @@
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4447,7 +4453,7 @@
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4458,7 +4464,7 @@
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -4469,7 +4475,7 @@
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4480,7 +4486,7 @@
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4491,7 +4497,7 @@
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4502,7 +4508,7 @@
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4513,10 +4519,10 @@
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D182" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4527,7 +4533,7 @@
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4538,7 +4544,7 @@
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4549,10 +4555,10 @@
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D185" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4563,7 +4569,7 @@
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4574,10 +4580,10 @@
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D187" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4588,10 +4594,10 @@
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D188" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4602,10 +4608,10 @@
         <v>-238</v>
       </c>
       <c r="C189" t="s">
+        <v>286</v>
+      </c>
+      <c r="D189" t="s">
         <v>287</v>
-      </c>
-      <c r="D189" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4616,24 +4622,24 @@
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D191" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E191" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4644,7 +4650,7 @@
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4655,7 +4661,7 @@
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4666,7 +4672,7 @@
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4677,10 +4683,10 @@
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D195" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4691,7 +4697,7 @@
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4702,10 +4708,10 @@
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D197" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4716,7 +4722,7 @@
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4727,10 +4733,10 @@
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D199" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4741,21 +4747,21 @@
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D200" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B201">
         <v>-250</v>
       </c>
       <c r="C201" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4766,24 +4772,24 @@
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D202" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
+        <v>366</v>
+      </c>
+      <c r="D203" t="s">
         <v>367</v>
-      </c>
-      <c r="D203" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4794,7 +4800,7 @@
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4805,7 +4811,7 @@
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4816,7 +4822,7 @@
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4827,7 +4833,7 @@
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4838,7 +4844,7 @@
         <v>-257</v>
       </c>
       <c r="C208" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4849,7 +4855,7 @@
         <v>-258</v>
       </c>
       <c r="C209" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,10 +4866,10 @@
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D210" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4874,21 +4880,21 @@
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D211" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,10 +4905,10 @@
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D213" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4913,7 +4919,7 @@
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4924,10 +4930,10 @@
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D215" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4938,10 +4944,10 @@
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D216" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4952,10 +4958,10 @@
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D217" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4966,7 +4972,7 @@
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D218" t="s">
         <v>275</v>
@@ -4980,10 +4986,10 @@
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D219" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -4994,7 +5000,7 @@
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5005,10 +5011,10 @@
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D221" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5019,7 +5025,7 @@
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5030,7 +5036,7 @@
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5041,7 +5047,7 @@
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5052,7 +5058,7 @@
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5063,7 +5069,7 @@
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5074,7 +5080,7 @@
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5085,10 +5091,10 @@
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D228" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5099,7 +5105,7 @@
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,7 +5116,7 @@
         <v>-279</v>
       </c>
       <c r="C230" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5121,7 +5127,7 @@
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5132,7 +5138,7 @@
         <v>-281</v>
       </c>
       <c r="C232" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5143,7 +5149,7 @@
         <v>-282</v>
       </c>
       <c r="C233" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,7 +5160,7 @@
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,10 +5171,10 @@
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D235" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5179,10 +5185,10 @@
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D236" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5193,7 +5199,7 @@
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5204,7 +5210,7 @@
         <v>-287</v>
       </c>
       <c r="C238" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5215,7 +5221,7 @@
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5226,7 +5232,7 @@
         <v>-289</v>
       </c>
       <c r="C240" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5237,32 +5243,32 @@
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D241" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B242">
         <v>-291</v>
       </c>
       <c r="C242" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B243">
         <v>-292</v>
       </c>
       <c r="C243" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5273,7 +5279,7 @@
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -5284,7 +5290,7 @@
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -5295,7 +5301,7 @@
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -5306,7 +5312,7 @@
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -5317,7 +5323,7 @@
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -5328,10 +5334,10 @@
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D249" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -5342,74 +5348,74 @@
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D250" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B252">
         <v>-301</v>
       </c>
       <c r="C252" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D252" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B253">
         <v>-302</v>
       </c>
       <c r="C253" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D253" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B255">
         <v>-304</v>
       </c>
       <c r="C255" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5420,7 +5426,7 @@
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5431,10 +5437,10 @@
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D257" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5445,7 +5451,7 @@
         <v>-307</v>
       </c>
       <c r="C258" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -5456,10 +5462,10 @@
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D259" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -5470,10 +5476,10 @@
         <v>-309</v>
       </c>
       <c r="C260" t="s">
+        <v>286</v>
+      </c>
+      <c r="D260" t="s">
         <v>287</v>
-      </c>
-      <c r="D260" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5484,24 +5490,24 @@
         <v>-310</v>
       </c>
       <c r="C261" t="s">
+        <v>286</v>
+      </c>
+      <c r="D261" t="s">
         <v>287</v>
-      </c>
-      <c r="D261" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B262">
         <v>-311</v>
       </c>
       <c r="C262" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5512,10 +5518,10 @@
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D263" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -5526,10 +5532,10 @@
         <v>-313</v>
       </c>
       <c r="C264" t="s">
+        <v>286</v>
+      </c>
+      <c r="D264" t="s">
         <v>287</v>
-      </c>
-      <c r="D264" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5540,7 +5546,7 @@
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5559,7 +5565,7 @@
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -5570,7 +5576,7 @@
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5589,21 +5595,21 @@
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B271">
         <v>-320</v>
       </c>
       <c r="C271" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D271" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5614,7 +5620,7 @@
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5625,10 +5631,10 @@
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D273" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5639,10 +5645,10 @@
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D274" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5653,10 +5659,10 @@
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D275" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5667,10 +5673,10 @@
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D276" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5681,7 +5687,7 @@
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5692,10 +5698,10 @@
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D278" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5706,10 +5712,10 @@
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D279" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -5720,10 +5726,10 @@
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D280" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -5734,10 +5740,10 @@
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D281" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5748,21 +5754,21 @@
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D283" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,7 +5779,7 @@
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5784,10 +5790,10 @@
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D285" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5798,10 +5804,10 @@
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D286" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5812,21 +5818,21 @@
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B288">
         <v>-337</v>
       </c>
       <c r="C288" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D288" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,10 +5843,10 @@
         <v>-338</v>
       </c>
       <c r="C289" t="s">
+        <v>286</v>
+      </c>
+      <c r="D289" t="s">
         <v>287</v>
-      </c>
-      <c r="D289" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -5851,10 +5857,10 @@
         <v>-339</v>
       </c>
       <c r="C290" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D290" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,7 +5871,7 @@
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5876,7 +5882,7 @@
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5887,10 +5893,10 @@
         <v>-342</v>
       </c>
       <c r="C293" t="s">
+        <v>286</v>
+      </c>
+      <c r="D293" t="s">
         <v>287</v>
-      </c>
-      <c r="D293" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5901,10 +5907,10 @@
         <v>-343</v>
       </c>
       <c r="C294" t="s">
+        <v>286</v>
+      </c>
+      <c r="D294" t="s">
         <v>287</v>
-      </c>
-      <c r="D294" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,10 +5921,10 @@
         <v>-344</v>
       </c>
       <c r="C295" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D295" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,10 +5935,10 @@
         <v>-345</v>
       </c>
       <c r="C296" t="s">
+        <v>286</v>
+      </c>
+      <c r="D296" t="s">
         <v>287</v>
-      </c>
-      <c r="D296" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,10 +5949,10 @@
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D297" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,7 +5963,7 @@
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5968,7 +5974,7 @@
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5979,7 +5985,7 @@
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5990,7 +5996,7 @@
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6001,10 +6007,10 @@
         <v>-351</v>
       </c>
       <c r="C302" t="s">
+        <v>286</v>
+      </c>
+      <c r="D302" t="s">
         <v>287</v>
-      </c>
-      <c r="D302" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6015,10 +6021,10 @@
         <v>-352</v>
       </c>
       <c r="C303" t="s">
+        <v>286</v>
+      </c>
+      <c r="D303" t="s">
         <v>287</v>
-      </c>
-      <c r="D303" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6034,10 +6040,10 @@
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D305" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6048,10 +6054,10 @@
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D306" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6062,10 +6068,10 @@
         <v>-356</v>
       </c>
       <c r="C307" t="s">
+        <v>286</v>
+      </c>
+      <c r="D307" t="s">
         <v>287</v>
-      </c>
-      <c r="D307" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6076,10 +6082,10 @@
         <v>-357</v>
       </c>
       <c r="C308" t="s">
+        <v>286</v>
+      </c>
+      <c r="D308" t="s">
         <v>287</v>
-      </c>
-      <c r="D308" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6090,10 +6096,10 @@
         <v>-358</v>
       </c>
       <c r="C309" t="s">
+        <v>286</v>
+      </c>
+      <c r="D309" t="s">
         <v>287</v>
-      </c>
-      <c r="D309" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6104,7 +6110,7 @@
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6115,7 +6121,7 @@
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6126,10 +6132,10 @@
         <v>-361</v>
       </c>
       <c r="C312" t="s">
+        <v>286</v>
+      </c>
+      <c r="D312" t="s">
         <v>287</v>
-      </c>
-      <c r="D312" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6140,10 +6146,10 @@
         <v>-362</v>
       </c>
       <c r="C313" t="s">
+        <v>286</v>
+      </c>
+      <c r="D313" t="s">
         <v>287</v>
-      </c>
-      <c r="D313" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6154,10 +6160,10 @@
         <v>-363</v>
       </c>
       <c r="C314" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D314" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6168,7 +6174,7 @@
         <v>-364</v>
       </c>
       <c r="C315" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6179,10 +6185,10 @@
         <v>-365</v>
       </c>
       <c r="C316" t="s">
+        <v>286</v>
+      </c>
+      <c r="D316" t="s">
         <v>287</v>
-      </c>
-      <c r="D316" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6203,13 +6209,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B319">
         <v>-368</v>
       </c>
       <c r="C319" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6220,10 +6226,10 @@
         <v>-369</v>
       </c>
       <c r="C320" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D320" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6234,7 +6240,7 @@
         <v>-370</v>
       </c>
       <c r="C321" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6245,7 +6251,7 @@
         <v>-371</v>
       </c>
       <c r="C322" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,7 +6262,7 @@
         <v>-372</v>
       </c>
       <c r="C323" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
@@ -6267,7 +6273,7 @@
         <v>-373</v>
       </c>
       <c r="C324" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6278,7 +6284,7 @@
         <v>-374</v>
       </c>
       <c r="C325" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
@@ -6289,12 +6295,12 @@
         <v>-375</v>
       </c>
       <c r="C326" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B327">
         <v>-376</v>
@@ -6302,15 +6308,24 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>284</v>
+        <v>631</v>
       </c>
       <c r="B328">
         <v>-377</v>
       </c>
+      <c r="C328" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>629</v>
+      </c>
       <c r="B329">
         <v>-378</v>
+      </c>
+      <c r="C329" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6321,12 +6336,21 @@
         <v>-379</v>
       </c>
       <c r="C330" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>630</v>
+      </c>
       <c r="B331">
         <v>-380</v>
+      </c>
+      <c r="C331" t="s">
+        <v>286</v>
+      </c>
+      <c r="D331" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -6337,7 +6361,7 @@
         <v>-381</v>
       </c>
       <c r="C332" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
@@ -6348,7 +6372,7 @@
         <v>-382</v>
       </c>
       <c r="C333" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6359,7 +6383,7 @@
         <v>-383</v>
       </c>
       <c r="C334" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6370,7 +6394,7 @@
         <v>-384</v>
       </c>
       <c r="C335" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6381,10 +6405,10 @@
         <v>-385</v>
       </c>
       <c r="C336" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D336" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -6395,10 +6419,10 @@
         <v>-386</v>
       </c>
       <c r="C337" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D337" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -6409,10 +6433,10 @@
         <v>-387</v>
       </c>
       <c r="C338" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D338" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -6423,21 +6447,21 @@
         <v>-388</v>
       </c>
       <c r="C339" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D339" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B340">
         <v>-389</v>
       </c>
       <c r="C340" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6456,10 +6480,10 @@
         <v>-391</v>
       </c>
       <c r="C342" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D342" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -6470,38 +6494,38 @@
         <v>-392</v>
       </c>
       <c r="C343" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B344">
         <v>-393</v>
       </c>
       <c r="C344" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D344" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E344" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B345">
         <v>-394</v>
       </c>
       <c r="C345" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D345" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6512,298 +6536,298 @@
         <v>-395</v>
       </c>
       <c r="C346" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D346" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B347">
         <v>-396</v>
       </c>
       <c r="C347" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D347" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B348">
         <v>-397</v>
       </c>
       <c r="C348" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B349">
         <v>-401</v>
       </c>
       <c r="C349" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B350">
         <v>-402</v>
       </c>
       <c r="C350" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B351">
         <v>-403</v>
       </c>
       <c r="C351" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B352">
         <v>-404</v>
       </c>
       <c r="C352" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B353">
         <v>-405</v>
       </c>
       <c r="C353" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B354">
         <v>-406</v>
       </c>
       <c r="C354" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D354" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B355">
         <v>-407</v>
       </c>
       <c r="C355" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B356">
         <v>-408</v>
       </c>
       <c r="C356" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B357">
         <v>-409</v>
       </c>
       <c r="C357" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B358">
         <v>-410</v>
       </c>
       <c r="C358" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B359">
         <v>-411</v>
       </c>
       <c r="C359" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B360">
         <v>-412</v>
       </c>
       <c r="C360" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B361">
         <v>-413</v>
       </c>
       <c r="C361" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D361" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B362">
         <v>-414</v>
       </c>
       <c r="C362" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D362" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B363">
         <v>-415</v>
       </c>
       <c r="C363" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D363" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B364">
         <v>-416</v>
       </c>
       <c r="C364" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B365">
         <v>-417</v>
       </c>
       <c r="C365" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B366">
         <v>-418</v>
       </c>
       <c r="C366" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D366" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B367">
         <v>-419</v>
       </c>
       <c r="C367" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D367" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B368">
         <v>-420</v>
       </c>
       <c r="C368" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D368" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B369">
         <v>-421</v>
       </c>
       <c r="C369" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B370">
         <v>-422</v>
       </c>
       <c r="C370" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D370" t="s">
         <v>275</v>
@@ -6811,13 +6835,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B371">
         <v>-423</v>
       </c>
       <c r="C371" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D371" t="s">
         <v>275</v>
@@ -6825,13 +6849,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B372">
         <v>-424</v>
       </c>
       <c r="C372" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D372" t="s">
         <v>275</v>
@@ -6839,13 +6863,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B373">
         <v>-425</v>
       </c>
       <c r="C373" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D373" t="s">
         <v>275</v>
@@ -6853,13 +6877,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B374">
         <v>-426</v>
       </c>
       <c r="C374" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D374" t="s">
         <v>275</v>
@@ -6867,13 +6891,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B375">
         <v>-427</v>
       </c>
       <c r="C375" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D375" t="s">
         <v>275</v>
@@ -6881,13 +6905,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B376">
         <v>-428</v>
       </c>
       <c r="C376" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D376" t="s">
         <v>275</v>
@@ -6895,325 +6919,325 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B377">
         <v>-429</v>
       </c>
       <c r="C377" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B378">
         <v>-430</v>
       </c>
       <c r="C378" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B379">
         <v>-431</v>
       </c>
       <c r="C379" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D379" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B380">
         <v>-432</v>
       </c>
       <c r="C380" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D380" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B381">
         <v>-433</v>
       </c>
       <c r="C381" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B382">
         <v>-434</v>
       </c>
       <c r="C382" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B383">
         <v>-435</v>
       </c>
       <c r="C383" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D383" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B384">
         <v>-436</v>
       </c>
       <c r="C384" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B385">
         <v>-437</v>
       </c>
       <c r="C385" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B386">
         <v>-438</v>
       </c>
       <c r="C386" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B387">
         <v>-439</v>
       </c>
       <c r="C387" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B388">
         <v>-440</v>
       </c>
       <c r="C388" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B389">
         <v>-441</v>
       </c>
       <c r="C389" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B390">
         <v>-442</v>
       </c>
       <c r="C390" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B391">
         <v>-443</v>
       </c>
       <c r="C391" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B392">
         <v>-444</v>
       </c>
       <c r="C392" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B393">
         <v>-445</v>
       </c>
       <c r="C393" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B394">
         <v>-446</v>
       </c>
       <c r="C394" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B395">
         <v>-447</v>
       </c>
       <c r="C395" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B396">
         <v>-448</v>
       </c>
       <c r="C396" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B397">
         <v>-449</v>
       </c>
       <c r="C397" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B398">
         <v>-450</v>
       </c>
       <c r="C398" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B399">
         <v>-451</v>
       </c>
       <c r="C399" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B400">
         <v>-452</v>
       </c>
       <c r="C400" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D400" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B401">
         <v>-453</v>
       </c>
       <c r="C401" t="s">
+        <v>605</v>
+      </c>
+      <c r="D401" t="s">
         <v>606</v>
-      </c>
-      <c r="D401" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B402">
         <v>-454</v>
       </c>
       <c r="C402" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B403">
         <v>-455</v>
       </c>
       <c r="C403" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B404">
         <v>-456</v>
       </c>
       <c r="C404" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7249,13 +7273,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" t="s">
         <v>557</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>558</v>
-      </c>
-      <c r="C1" t="s">
-        <v>559</v>
       </c>
       <c r="D1">
         <v>-421</v>
@@ -7263,13 +7287,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" t="s">
         <v>569</v>
-      </c>
-      <c r="B2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C2" t="s">
-        <v>570</v>
       </c>
       <c r="D2">
         <v>-431</v>
@@ -7277,13 +7301,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" t="s">
         <v>571</v>
-      </c>
-      <c r="B3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C3" t="s">
-        <v>572</v>
       </c>
       <c r="D3">
         <v>-435</v>
@@ -7291,13 +7315,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" t="s">
         <v>530</v>
-      </c>
-      <c r="B4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C4" t="s">
-        <v>531</v>
       </c>
       <c r="D4">
         <v>-429</v>
@@ -7305,13 +7329,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D5">
         <v>-402</v>
@@ -7319,13 +7343,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B6" t="s">
         <v>562</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>563</v>
-      </c>
-      <c r="C6" t="s">
-        <v>564</v>
       </c>
       <c r="D6">
         <v>-432</v>
@@ -7333,13 +7357,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C7" t="s">
         <v>532</v>
-      </c>
-      <c r="B7" t="s">
-        <v>486</v>
-      </c>
-      <c r="C7" t="s">
-        <v>533</v>
       </c>
       <c r="D7">
         <v>-415</v>
@@ -7347,13 +7371,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" t="s">
         <v>522</v>
-      </c>
-      <c r="B8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" t="s">
-        <v>523</v>
       </c>
       <c r="D8">
         <v>-239</v>
@@ -7361,13 +7385,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9" t="s">
         <v>581</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>582</v>
-      </c>
-      <c r="C9" t="s">
-        <v>583</v>
       </c>
       <c r="D9">
         <v>-440</v>
@@ -7375,13 +7399,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" t="s">
         <v>478</v>
-      </c>
-      <c r="B10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" t="s">
-        <v>479</v>
       </c>
       <c r="D10">
         <v>-176</v>
@@ -7389,13 +7413,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" t="s">
         <v>527</v>
-      </c>
-      <c r="B11" t="s">
-        <v>529</v>
-      </c>
-      <c r="C11" t="s">
-        <v>528</v>
       </c>
       <c r="D11">
         <v>-414</v>
@@ -7403,13 +7427,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D12">
         <v>-411</v>
@@ -7417,13 +7441,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D13">
         <v>-403</v>
@@ -7431,13 +7455,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" t="s">
         <v>592</v>
-      </c>
-      <c r="B14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C14" t="s">
-        <v>593</v>
       </c>
       <c r="D14">
         <v>-447</v>
@@ -7445,13 +7469,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>559</v>
+      </c>
+      <c r="B15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" t="s">
         <v>560</v>
-      </c>
-      <c r="B15" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" t="s">
-        <v>561</v>
       </c>
       <c r="D15">
         <v>-416</v>
@@ -7459,13 +7483,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>589</v>
+      </c>
+      <c r="B16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C16" t="s">
         <v>590</v>
-      </c>
-      <c r="B16" t="s">
-        <v>525</v>
-      </c>
-      <c r="C16" t="s">
-        <v>591</v>
       </c>
       <c r="D16">
         <v>-406</v>
@@ -7473,13 +7497,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>493</v>
+      </c>
+      <c r="B17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" t="s">
         <v>494</v>
-      </c>
-      <c r="B17" t="s">
-        <v>355</v>
-      </c>
-      <c r="C17" t="s">
-        <v>495</v>
       </c>
       <c r="D17">
         <v>-199</v>
@@ -7487,13 +7511,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>587</v>
+      </c>
+      <c r="B18" t="s">
+        <v>482</v>
+      </c>
+      <c r="C18" t="s">
         <v>588</v>
-      </c>
-      <c r="B18" t="s">
-        <v>483</v>
-      </c>
-      <c r="C18" t="s">
-        <v>589</v>
       </c>
       <c r="D18">
         <v>-200</v>
@@ -7501,13 +7525,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>512</v>
+      </c>
+      <c r="B19" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" t="s">
         <v>513</v>
-      </c>
-      <c r="B19" t="s">
-        <v>363</v>
-      </c>
-      <c r="C19" t="s">
-        <v>514</v>
       </c>
       <c r="D19">
         <v>-410</v>
@@ -7515,13 +7539,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>533</v>
+      </c>
+      <c r="B20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C20" t="s">
         <v>534</v>
-      </c>
-      <c r="B20" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" t="s">
-        <v>535</v>
       </c>
       <c r="D20">
         <v>-420</v>
@@ -7529,13 +7553,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>593</v>
+      </c>
+      <c r="B21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C21" t="s">
         <v>594</v>
-      </c>
-      <c r="B21" t="s">
-        <v>471</v>
-      </c>
-      <c r="C21" t="s">
-        <v>595</v>
       </c>
       <c r="D21">
         <v>-446</v>
@@ -7543,13 +7567,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C22" t="s">
         <v>481</v>
-      </c>
-      <c r="C22" t="s">
-        <v>482</v>
       </c>
       <c r="D22">
         <v>-159</v>
@@ -7557,13 +7581,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>564</v>
+      </c>
+      <c r="B23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C23" t="s">
         <v>565</v>
-      </c>
-      <c r="B23" t="s">
-        <v>492</v>
-      </c>
-      <c r="C23" t="s">
-        <v>566</v>
       </c>
       <c r="D23">
         <v>-433</v>
@@ -7571,13 +7595,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>484</v>
+      </c>
+      <c r="B24" t="s">
         <v>485</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>486</v>
-      </c>
-      <c r="C24" t="s">
-        <v>487</v>
       </c>
       <c r="D24">
         <v>-182</v>
@@ -7585,13 +7609,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25" t="s">
+        <v>489</v>
+      </c>
+      <c r="C25" t="s">
         <v>488</v>
-      </c>
-      <c r="B25" t="s">
-        <v>490</v>
-      </c>
-      <c r="C25" t="s">
-        <v>489</v>
       </c>
       <c r="D25">
         <v>-183</v>
@@ -7599,13 +7623,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>516</v>
+      </c>
+      <c r="B26" t="s">
         <v>517</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>518</v>
-      </c>
-      <c r="C26" t="s">
-        <v>519</v>
       </c>
       <c r="D26">
         <v>-164</v>
@@ -7613,13 +7637,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>490</v>
+      </c>
+      <c r="B27" t="s">
         <v>491</v>
       </c>
-      <c r="B27" t="s">
-        <v>492</v>
-      </c>
       <c r="C27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D27">
         <v>-401</v>
@@ -7627,13 +7651,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>576</v>
+      </c>
+      <c r="B28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C28" t="s">
         <v>577</v>
-      </c>
-      <c r="B28" t="s">
-        <v>294</v>
-      </c>
-      <c r="C28" t="s">
-        <v>578</v>
       </c>
       <c r="D28">
         <v>-438</v>
@@ -7641,13 +7665,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>572</v>
+      </c>
+      <c r="B29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" t="s">
         <v>573</v>
-      </c>
-      <c r="B29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C29" t="s">
-        <v>574</v>
       </c>
       <c r="D29">
         <v>-436</v>
@@ -7655,13 +7679,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>535</v>
+      </c>
+      <c r="B30" t="s">
+        <v>537</v>
+      </c>
+      <c r="C30" t="s">
         <v>536</v>
-      </c>
-      <c r="B30" t="s">
-        <v>538</v>
-      </c>
-      <c r="C30" t="s">
-        <v>537</v>
       </c>
       <c r="D30">
         <v>-424</v>
@@ -7669,13 +7693,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>538</v>
+      </c>
+      <c r="B31" t="s">
+        <v>537</v>
+      </c>
+      <c r="C31" t="s">
         <v>539</v>
-      </c>
-      <c r="B31" t="s">
-        <v>538</v>
-      </c>
-      <c r="C31" t="s">
-        <v>540</v>
       </c>
       <c r="D31">
         <v>-422</v>
@@ -7683,13 +7707,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>574</v>
+      </c>
+      <c r="B32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" t="s">
         <v>575</v>
-      </c>
-      <c r="B32" t="s">
-        <v>394</v>
-      </c>
-      <c r="C32" t="s">
-        <v>576</v>
       </c>
       <c r="D32">
         <v>-437</v>
@@ -7697,13 +7721,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>540</v>
+      </c>
+      <c r="B33" t="s">
+        <v>537</v>
+      </c>
+      <c r="C33" t="s">
         <v>541</v>
-      </c>
-      <c r="B33" t="s">
-        <v>538</v>
-      </c>
-      <c r="C33" t="s">
-        <v>542</v>
       </c>
       <c r="D33">
         <v>-423</v>
@@ -7711,13 +7735,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>566</v>
+      </c>
+      <c r="B34" t="s">
+        <v>491</v>
+      </c>
+      <c r="C34" t="s">
         <v>567</v>
-      </c>
-      <c r="B34" t="s">
-        <v>492</v>
-      </c>
-      <c r="C34" t="s">
-        <v>568</v>
       </c>
       <c r="D34">
         <v>-434</v>
@@ -7725,13 +7749,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D35">
         <v>-405</v>
@@ -7739,13 +7763,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C36" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D36">
         <v>-404</v>
@@ -7753,13 +7777,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D37">
         <v>-407</v>
@@ -7767,24 +7791,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>595</v>
+      </c>
+      <c r="B39" t="s">
+        <v>286</v>
+      </c>
+      <c r="C39" t="s">
         <v>596</v>
-      </c>
-      <c r="B39" t="s">
-        <v>287</v>
-      </c>
-      <c r="C39" t="s">
-        <v>597</v>
       </c>
       <c r="D39">
         <v>-448</v>
@@ -7792,13 +7816,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>578</v>
+      </c>
+      <c r="B40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C40" t="s">
         <v>579</v>
-      </c>
-      <c r="B40" t="s">
-        <v>294</v>
-      </c>
-      <c r="C40" t="s">
-        <v>580</v>
       </c>
       <c r="D40">
         <v>-439</v>
@@ -7806,13 +7830,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>504</v>
+      </c>
+      <c r="B41" t="s">
+        <v>286</v>
+      </c>
+      <c r="C41" t="s">
         <v>505</v>
-      </c>
-      <c r="B41" t="s">
-        <v>287</v>
-      </c>
-      <c r="C41" t="s">
-        <v>506</v>
       </c>
       <c r="D41">
         <v>-151</v>
@@ -7820,13 +7844,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>523</v>
+      </c>
+      <c r="B42" t="s">
         <v>524</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>525</v>
-      </c>
-      <c r="C42" t="s">
-        <v>526</v>
       </c>
       <c r="D42">
         <v>-413</v>
@@ -7834,13 +7858,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>506</v>
+      </c>
+      <c r="B43" t="s">
+        <v>491</v>
+      </c>
+      <c r="C43" t="s">
         <v>507</v>
-      </c>
-      <c r="B43" t="s">
-        <v>492</v>
-      </c>
-      <c r="C43" t="s">
-        <v>508</v>
       </c>
       <c r="D43">
         <v>-408</v>
@@ -7848,13 +7872,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>552</v>
+      </c>
+      <c r="B44" t="s">
+        <v>537</v>
+      </c>
+      <c r="C44" t="s">
         <v>553</v>
-      </c>
-      <c r="B44" t="s">
-        <v>538</v>
-      </c>
-      <c r="C44" t="s">
-        <v>554</v>
       </c>
       <c r="D44">
         <v>-426</v>
@@ -7862,13 +7886,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>510</v>
+      </c>
+      <c r="B45" t="s">
+        <v>349</v>
+      </c>
+      <c r="C45" t="s">
         <v>511</v>
-      </c>
-      <c r="B45" t="s">
-        <v>350</v>
-      </c>
-      <c r="C45" t="s">
-        <v>512</v>
       </c>
       <c r="D45">
         <v>-409</v>
@@ -7876,13 +7900,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>508</v>
+      </c>
+      <c r="B46" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" t="s">
         <v>509</v>
-      </c>
-      <c r="B46" t="s">
-        <v>287</v>
-      </c>
-      <c r="C46" t="s">
-        <v>510</v>
       </c>
       <c r="D46">
         <v>-154</v>
@@ -7890,13 +7914,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>542</v>
+      </c>
+      <c r="B47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" t="s">
         <v>543</v>
-      </c>
-      <c r="B47" t="s">
-        <v>324</v>
-      </c>
-      <c r="C47" t="s">
-        <v>544</v>
       </c>
       <c r="D47">
         <v>-430</v>
@@ -7904,13 +7928,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>544</v>
+      </c>
+      <c r="B48" t="s">
+        <v>394</v>
+      </c>
+      <c r="C48" t="s">
         <v>545</v>
-      </c>
-      <c r="B48" t="s">
-        <v>395</v>
-      </c>
-      <c r="C48" t="s">
-        <v>546</v>
       </c>
       <c r="D48">
         <v>-417</v>
@@ -7918,13 +7942,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>546</v>
+      </c>
+      <c r="B49" t="s">
+        <v>491</v>
+      </c>
+      <c r="C49" t="s">
         <v>547</v>
-      </c>
-      <c r="B49" t="s">
-        <v>492</v>
-      </c>
-      <c r="C49" t="s">
-        <v>548</v>
       </c>
       <c r="D49">
         <v>-418</v>
@@ -7932,13 +7956,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>548</v>
+      </c>
+      <c r="B50" t="s">
+        <v>537</v>
+      </c>
+      <c r="C50" t="s">
         <v>549</v>
-      </c>
-      <c r="B50" t="s">
-        <v>538</v>
-      </c>
-      <c r="C50" t="s">
-        <v>550</v>
       </c>
       <c r="D50">
         <v>-425</v>
@@ -7946,13 +7970,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>550</v>
+      </c>
+      <c r="B51" t="s">
+        <v>537</v>
+      </c>
+      <c r="C51" t="s">
         <v>551</v>
-      </c>
-      <c r="B51" t="s">
-        <v>538</v>
-      </c>
-      <c r="C51" t="s">
-        <v>552</v>
       </c>
       <c r="D51">
         <v>-428</v>
@@ -7960,13 +7984,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>554</v>
+      </c>
+      <c r="B52" t="s">
+        <v>537</v>
+      </c>
+      <c r="C52" t="s">
         <v>555</v>
-      </c>
-      <c r="B52" t="s">
-        <v>538</v>
-      </c>
-      <c r="C52" t="s">
-        <v>556</v>
       </c>
       <c r="D52">
         <v>-419</v>
@@ -7974,13 +7998,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>519</v>
+      </c>
+      <c r="B53" t="s">
+        <v>427</v>
+      </c>
+      <c r="C53" t="s">
         <v>520</v>
-      </c>
-      <c r="B53" t="s">
-        <v>428</v>
-      </c>
-      <c r="C53" t="s">
-        <v>521</v>
       </c>
       <c r="D53">
         <v>-412</v>
@@ -7988,13 +8012,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>583</v>
+      </c>
+      <c r="B54" t="s">
+        <v>463</v>
+      </c>
+      <c r="C54" t="s">
         <v>584</v>
-      </c>
-      <c r="B54" t="s">
-        <v>464</v>
-      </c>
-      <c r="C54" t="s">
-        <v>585</v>
       </c>
       <c r="D54">
         <v>-441</v>
@@ -8002,13 +8026,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>585</v>
+      </c>
+      <c r="B55" t="s">
+        <v>465</v>
+      </c>
+      <c r="C55" t="s">
         <v>586</v>
-      </c>
-      <c r="B55" t="s">
-        <v>466</v>
-      </c>
-      <c r="C55" t="s">
-        <v>587</v>
       </c>
       <c r="D55">
         <v>-442</v>
@@ -8016,13 +8040,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B56" t="s">
+        <v>482</v>
+      </c>
+      <c r="C56" t="s">
         <v>483</v>
-      </c>
-      <c r="C56" t="s">
-        <v>484</v>
       </c>
       <c r="D56">
         <v>-190</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8D160D-BAD8-4EF1-AF94-4BA0835EA0E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400D109D-7880-47A0-828B-81BCF1123E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="225" windowWidth="14100" windowHeight="16425" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
+    <workbookView xWindow="15060" yWindow="255" windowWidth="13440" windowHeight="16425" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="633">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -579,9 +579,6 @@
     <t xml:space="preserve">            Procedures </t>
   </si>
   <si>
-    <t xml:space="preserve">            Properties </t>
-  </si>
-  <si>
     <t xml:space="preserve">            ApplicationPS </t>
   </si>
   <si>
@@ -720,21 +717,6 @@
     <t xml:space="preserve">            Found </t>
   </si>
   <si>
-    <t xml:space="preserve">            GlobalFrom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HttpMatches </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HttpRows </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HttpWhere </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            KeyType </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Left </t>
   </si>
   <si>
@@ -759,18 +741,12 @@
     <t xml:space="preserve">            Op2 </t>
   </si>
   <si>
-    <t xml:space="preserve">            Pre </t>
-  </si>
-  <si>
     <t xml:space="preserve">            QExpr </t>
   </si>
   <si>
     <t xml:space="preserve">            Query </t>
   </si>
   <si>
-    <t xml:space="preserve">            RemoteCols </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Right </t>
   </si>
   <si>
@@ -795,9 +771,6 @@
     <t xml:space="preserve">            TableCol </t>
   </si>
   <si>
-    <t xml:space="preserve">            TargetType </t>
-  </si>
-  <si>
     <t xml:space="preserve">            TransitionRowSet </t>
   </si>
   <si>
@@ -807,9 +780,6 @@
     <t xml:space="preserve">            TreatType </t>
   </si>
   <si>
-    <t xml:space="preserve">            UsingCols </t>
-  </si>
-  <si>
     <t xml:space="preserve">            UsingTablePos </t>
   </si>
   <si>
@@ -1209,24 +1179,12 @@
     <t>Cols</t>
   </si>
   <si>
-    <t>Btree&lt;long,SqlValue&gt;</t>
-  </si>
-  <si>
-    <t>Btree&lt;SqlValue,TypedValue&gt;</t>
-  </si>
-  <si>
     <t>RowSet</t>
   </si>
   <si>
     <t>ObInfo</t>
   </si>
   <si>
-    <t>Trow</t>
-  </si>
-  <si>
-    <t>syting</t>
-  </si>
-  <si>
     <t>Btree&lt;long,TableColumn&gt;</t>
   </si>
   <si>
@@ -1911,9 +1869,6 @@
     <t>KeyCols</t>
   </si>
   <si>
-    <t>ConnUserName</t>
-  </si>
-  <si>
     <t>LogCol</t>
   </si>
   <si>
@@ -1930,6 +1885,54 @@
   </si>
   <si>
     <t>ViewPpos</t>
+  </si>
+  <si>
+    <t>RestValue</t>
+  </si>
+  <si>
+    <t>long SqlHttpBase</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>_Connection</t>
+  </si>
+  <si>
+    <t>Inverts</t>
+  </si>
+  <si>
+    <t>_Metadata</t>
+  </si>
+  <si>
+    <t>RestHttp</t>
+  </si>
+  <si>
+    <t>Btree&lt;Sqlx,object&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            JoinCols </t>
+  </si>
+  <si>
+    <t>RemoteCols</t>
+  </si>
+  <si>
+    <t>UsingTable</t>
+  </si>
+  <si>
+    <t>UsingCols</t>
+  </si>
+  <si>
+    <t>RemoteGroups</t>
+  </si>
+  <si>
+    <t>CallerQS</t>
+  </si>
+  <si>
+    <t>Mime</t>
+  </si>
+  <si>
+    <t>SqlAgent</t>
   </si>
 </sst>
 </file>
@@ -2282,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
-  <dimension ref="A1:E405"/>
+  <dimension ref="A1:E408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C328" sqref="C328"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="A335" sqref="A335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,13 +2300,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2314,21 +2317,21 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2339,7 +2342,7 @@
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2350,7 +2353,7 @@
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2361,7 +2364,7 @@
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2372,7 +2375,7 @@
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2383,21 +2386,21 @@
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2408,10 +2411,10 @@
         <v>-59</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,7 +2425,7 @@
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,7 +2436,7 @@
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2444,7 +2447,7 @@
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2455,7 +2458,7 @@
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2466,10 +2469,10 @@
         <v>-64</v>
       </c>
       <c r="C15" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2480,10 +2483,10 @@
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,7 +2497,7 @@
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2505,7 +2508,7 @@
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2516,7 +2519,7 @@
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,7 +2530,7 @@
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,7 +2541,7 @@
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2549,7 +2552,7 @@
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,10 +2563,10 @@
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D23" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,7 +2577,7 @@
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2585,7 +2588,7 @@
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2596,7 +2599,7 @@
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2607,7 +2610,7 @@
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2618,7 +2621,7 @@
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,7 +2632,7 @@
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2640,7 +2643,7 @@
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2651,7 +2654,7 @@
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2662,7 +2665,7 @@
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2673,7 +2676,7 @@
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2684,7 +2687,7 @@
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2695,10 +2698,10 @@
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D35" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,7 +2712,7 @@
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2720,7 +2723,7 @@
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2731,10 +2734,10 @@
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D38" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2745,7 +2748,7 @@
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2756,7 +2759,7 @@
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2767,10 +2770,10 @@
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D41" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2781,10 +2784,10 @@
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D42" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2795,7 +2798,7 @@
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2806,7 +2809,7 @@
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2817,7 +2820,7 @@
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2828,10 +2831,10 @@
         <v>-95</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D46" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2842,10 +2845,10 @@
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D47" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2856,10 +2859,10 @@
         <v>-97</v>
       </c>
       <c r="C48" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D48" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2870,7 +2873,7 @@
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2881,7 +2884,7 @@
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2892,10 +2895,10 @@
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D51" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2906,7 +2909,7 @@
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2917,7 +2920,7 @@
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2928,7 +2931,7 @@
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,7 +2942,7 @@
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2950,10 +2953,10 @@
         <v>-105</v>
       </c>
       <c r="C56" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D56" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2964,10 +2967,10 @@
         <v>-106</v>
       </c>
       <c r="C57" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D57" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2978,10 +2981,10 @@
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D58" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2992,10 +2995,10 @@
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D59" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3006,10 +3009,10 @@
         <v>-109</v>
       </c>
       <c r="C60" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D60" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3020,10 +3023,10 @@
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D61" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3034,10 +3037,10 @@
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D62" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3048,10 +3051,10 @@
         <v>-112</v>
       </c>
       <c r="C63" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D63" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3062,10 +3065,10 @@
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D64" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3076,10 +3079,10 @@
         <v>-114</v>
       </c>
       <c r="C65" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D65" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,10 +3093,10 @@
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D66" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,10 +3107,10 @@
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D67" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3118,10 +3121,10 @@
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D68" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,10 +3135,10 @@
         <v>-118</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D69" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3146,10 +3149,10 @@
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D70" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3160,7 +3163,7 @@
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3171,7 +3174,7 @@
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3182,10 +3185,10 @@
         <v>-122</v>
       </c>
       <c r="C73" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D73" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3196,10 +3199,10 @@
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D74" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,7 +3213,7 @@
         <v>-124</v>
       </c>
       <c r="C75" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3221,7 +3224,7 @@
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,7 +3235,7 @@
         <v>-126</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3243,10 +3246,10 @@
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D78" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3257,10 +3260,10 @@
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D79" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3271,10 +3274,10 @@
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D80" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3285,7 +3288,7 @@
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3296,10 +3299,10 @@
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D82" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3310,10 +3313,10 @@
         <v>-132</v>
       </c>
       <c r="C83" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3324,10 +3327,10 @@
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D84" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3338,10 +3341,10 @@
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D85" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3352,10 +3355,10 @@
         <v>-135</v>
       </c>
       <c r="C86" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D86" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3366,7 +3369,7 @@
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3377,7 +3380,7 @@
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3388,7 +3391,7 @@
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3399,7 +3402,7 @@
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3410,7 +3413,7 @@
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3421,7 +3424,7 @@
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3432,10 +3435,10 @@
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D93" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3446,10 +3449,10 @@
         <v>-143</v>
       </c>
       <c r="C94" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D94" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3460,10 +3463,10 @@
         <v>-144</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D95" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,7 +3477,7 @@
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3485,10 +3488,10 @@
         <v>-146</v>
       </c>
       <c r="C97" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D97" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3499,10 +3502,10 @@
         <v>-147</v>
       </c>
       <c r="C98" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D98" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3513,7 +3516,7 @@
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3524,10 +3527,10 @@
         <v>-149</v>
       </c>
       <c r="C100" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D100" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3538,7 +3541,7 @@
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3549,10 +3552,10 @@
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D102" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3563,13 +3566,13 @@
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D103" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E103" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3580,10 +3583,10 @@
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D104" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3594,10 +3597,10 @@
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D105" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3608,7 +3611,7 @@
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3619,10 +3622,10 @@
         <v>-156</v>
       </c>
       <c r="C107" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D107" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3633,10 +3636,10 @@
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D108" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3647,7 +3650,7 @@
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3658,10 +3661,10 @@
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D110" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3672,7 +3675,7 @@
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3683,7 +3686,7 @@
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3694,7 +3697,7 @@
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,7 +3708,7 @@
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3716,7 +3719,7 @@
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3727,7 +3730,7 @@
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3738,18 +3741,18 @@
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B118">
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3760,10 +3763,10 @@
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D119" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3774,7 +3777,7 @@
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3785,7 +3788,7 @@
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3796,7 +3799,7 @@
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3807,24 +3810,24 @@
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D123" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D124" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3835,29 +3838,29 @@
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B127">
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3868,21 +3871,21 @@
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D129" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3893,7 +3896,7 @@
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3904,21 +3907,21 @@
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D131" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B132">
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,10 +3932,10 @@
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D133" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3943,10 +3946,10 @@
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D134" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3957,7 +3960,7 @@
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3968,18 +3971,18 @@
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3990,35 +3993,35 @@
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="D138" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B139">
         <v>-188</v>
       </c>
       <c r="C139" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="D139" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4029,7 +4032,7 @@
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4040,7 +4043,7 @@
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4051,10 +4054,10 @@
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D143" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4065,7 +4068,7 @@
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,7 +4079,7 @@
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4087,7 +4090,7 @@
         <v>-195</v>
       </c>
       <c r="C146" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4098,10 +4101,10 @@
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D147" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4112,10 +4115,10 @@
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D148" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4126,10 +4129,10 @@
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D149" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,10 +4143,10 @@
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D150" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4154,10 +4157,10 @@
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D151" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4168,10 +4171,10 @@
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D152" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4182,7 +4185,7 @@
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,10 +4196,10 @@
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D154" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4207,18 +4210,18 @@
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4229,10 +4232,10 @@
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D157" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4243,7 +4246,7 @@
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4254,21 +4257,21 @@
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D159" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B160">
         <v>-209</v>
       </c>
       <c r="C160" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4279,10 +4282,10 @@
         <v>-210</v>
       </c>
       <c r="C161" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D161" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4293,10 +4296,10 @@
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D162" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4307,7 +4310,7 @@
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4318,7 +4321,7 @@
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,7 +4332,7 @@
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4340,7 +4343,7 @@
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4351,7 +4354,7 @@
         <v>-216</v>
       </c>
       <c r="C167" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4362,10 +4365,10 @@
         <v>-217</v>
       </c>
       <c r="C168" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D168" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4376,7 +4379,7 @@
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4387,7 +4390,7 @@
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4398,7 +4401,7 @@
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4409,7 +4412,7 @@
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4420,7 +4423,7 @@
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4431,7 +4434,7 @@
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4442,7 +4445,7 @@
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4453,7 +4456,7 @@
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4464,18 +4467,18 @@
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B178">
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4486,7 +4489,7 @@
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4497,7 +4500,7 @@
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4508,7 +4511,7 @@
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4519,10 +4522,10 @@
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D182" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4533,7 +4536,7 @@
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4544,7 +4547,7 @@
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4555,10 +4558,10 @@
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D185" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4569,7 +4572,7 @@
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4580,10 +4583,10 @@
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D187" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4594,10 +4597,10 @@
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D188" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4608,10 +4611,10 @@
         <v>-238</v>
       </c>
       <c r="C189" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D189" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4622,24 +4625,24 @@
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D191" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E191" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4650,7 +4653,7 @@
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4661,7 +4664,7 @@
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4672,7 +4675,7 @@
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4683,10 +4686,10 @@
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D195" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4697,7 +4700,7 @@
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4708,10 +4711,10 @@
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D197" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4722,7 +4725,7 @@
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4733,10 +4736,10 @@
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D199" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4747,49 +4750,49 @@
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D200" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B201">
         <v>-250</v>
       </c>
       <c r="C201" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B202">
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D202" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D203" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4800,287 +4803,265 @@
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>181</v>
+        <v>622</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>306</v>
+        <v>624</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>228</v>
+        <v>631</v>
       </c>
       <c r="B206">
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>231</v>
+        <v>632</v>
       </c>
       <c r="B207">
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>229</v>
-      </c>
-      <c r="B208">
-        <v>-257</v>
-      </c>
-      <c r="C208" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>230</v>
-      </c>
-      <c r="B209">
-        <v>-258</v>
-      </c>
-      <c r="C209" t="s">
-        <v>393</v>
+        <v>278</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>257</v>
+        <v>628</v>
       </c>
       <c r="B210">
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D210" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>258</v>
+        <v>627</v>
       </c>
       <c r="B211">
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D211" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>288</v>
+        <v>619</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B213">
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D213" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B214">
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B215">
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D215" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B216">
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D216" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B217">
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D217" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B218">
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D218" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B219">
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D219" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B220">
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B221">
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D221" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B222">
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B223">
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B224">
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B225">
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B226">
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B227">
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5091,90 +5072,90 @@
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D228" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B229">
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B230">
         <v>-279</v>
       </c>
       <c r="C230" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B231">
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B232">
         <v>-281</v>
       </c>
       <c r="C232" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B233">
         <v>-282</v>
       </c>
       <c r="C233" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B234">
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B235">
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D235" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5185,10 +5166,10 @@
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D236" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5199,40 +5180,40 @@
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B238">
         <v>-287</v>
       </c>
       <c r="C238" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B239">
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B240">
         <v>-289</v>
       </c>
       <c r="C240" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5243,315 +5224,315 @@
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D241" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="B242">
         <v>-291</v>
       </c>
       <c r="C242" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B243">
         <v>-292</v>
       </c>
       <c r="C243" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B244">
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B245">
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B246">
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B247">
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B248">
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B249">
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D249" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B250">
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D250" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B252">
         <v>-301</v>
       </c>
       <c r="C252" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D252" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B253">
         <v>-302</v>
       </c>
       <c r="C253" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D253" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B255">
         <v>-304</v>
       </c>
       <c r="C255" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D255" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B256">
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B257">
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D257" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B258">
         <v>-307</v>
       </c>
       <c r="C258" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B259">
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D259" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B260">
         <v>-309</v>
       </c>
       <c r="C260" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D260" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B261">
         <v>-310</v>
       </c>
       <c r="C261" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D261" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="B262">
         <v>-311</v>
       </c>
       <c r="C262" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B263">
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D263" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B264">
         <v>-313</v>
       </c>
       <c r="C264" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D264" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B265">
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B266">
         <v>-315</v>
@@ -5559,29 +5540,29 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B267">
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B268">
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B269">
         <v>-318</v>
@@ -5589,94 +5570,94 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B270">
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B271">
         <v>-320</v>
       </c>
       <c r="C271" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D271" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B272">
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B273">
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D273" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B274">
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D274" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B275">
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D275" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B276">
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D276" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5687,63 +5668,63 @@
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B278">
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D278" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B279">
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D279" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B280">
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D280" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B281">
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D281" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5754,85 +5735,85 @@
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D283" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B284">
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B285">
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D285" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B286">
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D286" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B287">
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="B288">
         <v>-337</v>
       </c>
       <c r="C288" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D288" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5843,35 +5824,35 @@
         <v>-338</v>
       </c>
       <c r="C289" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D289" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B290">
         <v>-339</v>
       </c>
       <c r="C290" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D290" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B291">
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5882,121 +5863,121 @@
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B293">
         <v>-342</v>
       </c>
       <c r="C293" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D293" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B294">
         <v>-343</v>
       </c>
       <c r="C294" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D294" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B295">
         <v>-344</v>
       </c>
       <c r="C295" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D295" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B296">
         <v>-345</v>
       </c>
       <c r="C296" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D296" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B297">
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D297" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B298">
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B299">
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B300">
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B301">
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6007,10 +5988,10 @@
         <v>-351</v>
       </c>
       <c r="C302" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D302" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6021,43 +6002,46 @@
         <v>-352</v>
       </c>
       <c r="C303" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D303" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>621</v>
+      </c>
       <c r="B304">
         <v>-353</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B305">
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D305" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B306">
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D306" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6068,10 +6052,10 @@
         <v>-356</v>
       </c>
       <c r="C307" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D307" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6082,60 +6066,60 @@
         <v>-357</v>
       </c>
       <c r="C308" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D308" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B309">
         <v>-358</v>
       </c>
       <c r="C309" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D309" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B310">
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B311">
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B312">
         <v>-361</v>
       </c>
       <c r="C312" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D312" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6146,54 +6130,54 @@
         <v>-362</v>
       </c>
       <c r="C313" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D313" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B314">
         <v>-363</v>
       </c>
       <c r="C314" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D314" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B315">
         <v>-364</v>
       </c>
       <c r="C315" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B316">
         <v>-365</v>
       </c>
       <c r="C316" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D316" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B317">
         <v>-366</v>
@@ -6201,7 +6185,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B318">
         <v>-367</v>
@@ -6209,98 +6193,65 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="B319">
         <v>-368</v>
       </c>
       <c r="C319" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B320">
         <v>-369</v>
       </c>
       <c r="C320" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D320" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>232</v>
-      </c>
-      <c r="B321">
-        <v>-370</v>
-      </c>
-      <c r="C321" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>69</v>
-      </c>
-      <c r="B322">
-        <v>-371</v>
-      </c>
-      <c r="C322" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>241</v>
-      </c>
-      <c r="B323">
-        <v>-372</v>
-      </c>
-      <c r="C323" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>244</v>
+        <v>626</v>
       </c>
       <c r="B324">
         <v>-373</v>
       </c>
       <c r="C324" t="s">
-        <v>396</v>
+        <v>278</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>253</v>
+        <v>629</v>
       </c>
       <c r="B325">
         <v>-374</v>
       </c>
       <c r="C325" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>88</v>
+        <v>630</v>
       </c>
       <c r="B326">
         <v>-375</v>
       </c>
       <c r="C326" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B327">
         <v>-376</v>
@@ -6308,160 +6259,160 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="B328">
         <v>-377</v>
       </c>
       <c r="C328" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="B329">
         <v>-378</v>
       </c>
       <c r="C329" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B330">
         <v>-379</v>
       </c>
       <c r="C330" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="B331">
         <v>-380</v>
       </c>
       <c r="C331" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D331" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B332">
         <v>-381</v>
       </c>
       <c r="C332" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B333">
         <v>-382</v>
       </c>
       <c r="C333" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>244</v>
+        <v>625</v>
       </c>
       <c r="B334">
         <v>-383</v>
       </c>
       <c r="C334" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B335">
         <v>-384</v>
       </c>
       <c r="C335" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B336">
         <v>-385</v>
       </c>
       <c r="C336" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D336" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B337">
         <v>-386</v>
       </c>
       <c r="C337" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D337" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B338">
         <v>-387</v>
       </c>
       <c r="C338" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D338" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B339">
         <v>-388</v>
       </c>
       <c r="C339" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D339" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B340">
         <v>-389</v>
       </c>
       <c r="C340" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6480,10 +6431,10 @@
         <v>-391</v>
       </c>
       <c r="C342" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D342" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -6494,38 +6445,38 @@
         <v>-392</v>
       </c>
       <c r="C343" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B344">
         <v>-393</v>
       </c>
       <c r="C344" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D344" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E344" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B345">
         <v>-394</v>
       </c>
       <c r="C345" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D345" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6536,721 +6487,748 @@
         <v>-395</v>
       </c>
       <c r="C346" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D346" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="B347">
         <v>-396</v>
       </c>
       <c r="C347" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D347" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="B348">
         <v>-397</v>
       </c>
       <c r="C348" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B349">
         <v>-401</v>
       </c>
       <c r="C349" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B350">
         <v>-402</v>
       </c>
       <c r="C350" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B351">
         <v>-403</v>
       </c>
       <c r="C351" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B352">
         <v>-404</v>
       </c>
       <c r="C352" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="B353">
         <v>-405</v>
       </c>
       <c r="C353" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B354">
         <v>-406</v>
       </c>
       <c r="C354" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D354" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B355">
         <v>-407</v>
       </c>
       <c r="C355" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="B356">
         <v>-408</v>
       </c>
       <c r="C356" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B357">
         <v>-409</v>
       </c>
       <c r="C357" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B358">
         <v>-410</v>
       </c>
       <c r="C358" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B359">
         <v>-411</v>
       </c>
       <c r="C359" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B360">
         <v>-412</v>
       </c>
       <c r="C360" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B361">
         <v>-413</v>
       </c>
       <c r="C361" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D361" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="B362">
         <v>-414</v>
       </c>
       <c r="C362" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="D362" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B363">
         <v>-415</v>
       </c>
       <c r="C363" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D363" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B364">
         <v>-416</v>
       </c>
       <c r="C364" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B365">
         <v>-417</v>
       </c>
       <c r="C365" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B366">
         <v>-418</v>
       </c>
       <c r="C366" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D366" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B367">
         <v>-419</v>
       </c>
       <c r="C367" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D367" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B368">
         <v>-420</v>
       </c>
       <c r="C368" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D368" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B369">
         <v>-421</v>
       </c>
       <c r="C369" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B370">
         <v>-422</v>
       </c>
       <c r="C370" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D370" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B371">
         <v>-423</v>
       </c>
       <c r="C371" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D371" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B372">
         <v>-424</v>
       </c>
       <c r="C372" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D372" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B373">
         <v>-425</v>
       </c>
       <c r="C373" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D373" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B374">
         <v>-426</v>
       </c>
       <c r="C374" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D374" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B375">
         <v>-427</v>
       </c>
       <c r="C375" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D375" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B376">
         <v>-428</v>
       </c>
       <c r="C376" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D376" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B377">
         <v>-429</v>
       </c>
       <c r="C377" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B378">
         <v>-430</v>
       </c>
       <c r="C378" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="B379">
         <v>-431</v>
       </c>
       <c r="C379" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D379" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B380">
         <v>-432</v>
       </c>
       <c r="C380" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D380" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B381">
         <v>-433</v>
       </c>
       <c r="C381" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B382">
         <v>-434</v>
       </c>
       <c r="C382" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="B383">
         <v>-435</v>
       </c>
       <c r="C383" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D383" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="B384">
         <v>-436</v>
       </c>
       <c r="C384" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B385">
         <v>-437</v>
       </c>
       <c r="C385" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B386">
         <v>-438</v>
       </c>
       <c r="C386" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B387">
         <v>-439</v>
       </c>
       <c r="C387" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B388">
         <v>-440</v>
       </c>
       <c r="C388" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B389">
         <v>-441</v>
       </c>
       <c r="C389" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B390">
         <v>-442</v>
       </c>
       <c r="C390" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B391">
         <v>-443</v>
       </c>
       <c r="C391" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="B392">
         <v>-444</v>
       </c>
       <c r="C392" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B393">
         <v>-445</v>
       </c>
       <c r="C393" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B394">
         <v>-446</v>
       </c>
       <c r="C394" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="B395">
         <v>-447</v>
       </c>
       <c r="C395" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B396">
         <v>-448</v>
       </c>
       <c r="C396" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B397">
         <v>-449</v>
       </c>
       <c r="C397" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B398">
         <v>-450</v>
       </c>
       <c r="C398" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B399">
         <v>-451</v>
       </c>
       <c r="C399" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B400">
         <v>-452</v>
       </c>
       <c r="C400" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D400" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B401">
         <v>-453</v>
       </c>
       <c r="C401" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="D401" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="B402">
         <v>-454</v>
       </c>
       <c r="C402" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B403">
         <v>-455</v>
       </c>
       <c r="C403" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B404">
         <v>-456</v>
       </c>
       <c r="C404" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>617</v>
+      </c>
+      <c r="B405">
+        <v>-457</v>
+      </c>
+      <c r="C405" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B406">
+        <v>-458</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>623</v>
+      </c>
+      <c r="B407">
+        <v>-459</v>
+      </c>
+      <c r="C407" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
         <v>16</v>
       </c>
-      <c r="B405">
+      <c r="B408">
         <v>-500</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B409">
-    <sortCondition descending="1" ref="B2:B409"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B411">
+    <sortCondition descending="1" ref="B2:B411"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7273,13 +7251,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="B1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="C1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D1">
         <v>-421</v>
@@ -7287,13 +7265,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="D2">
         <v>-431</v>
@@ -7301,13 +7279,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="D3">
         <v>-435</v>
@@ -7315,13 +7293,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C4" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D4">
         <v>-429</v>
@@ -7329,13 +7307,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="D5">
         <v>-402</v>
@@ -7343,13 +7321,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="B6" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="C6" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="D6">
         <v>-432</v>
@@ -7357,13 +7335,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="B7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C7" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="D7">
         <v>-415</v>
@@ -7371,13 +7349,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D8">
         <v>-239</v>
@@ -7385,13 +7363,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B9" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="C9" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="D9">
         <v>-440</v>
@@ -7399,13 +7377,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C10" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D10">
         <v>-176</v>
@@ -7413,13 +7391,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="C11" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D11">
         <v>-414</v>
@@ -7427,13 +7405,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B12" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C12" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D12">
         <v>-411</v>
@@ -7441,13 +7419,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B13" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="C13" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="D13">
         <v>-403</v>
@@ -7455,13 +7433,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="D14">
         <v>-447</v>
@@ -7469,13 +7447,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="B15" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C15" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D15">
         <v>-416</v>
@@ -7483,13 +7461,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B16" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="C16" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="D16">
         <v>-406</v>
@@ -7497,13 +7475,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="D17">
         <v>-199</v>
@@ -7511,13 +7489,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B18" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C18" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="D18">
         <v>-200</v>
@@ -7525,13 +7503,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B19" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C19" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D19">
         <v>-410</v>
@@ -7539,13 +7517,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="D20">
         <v>-420</v>
@@ -7553,13 +7531,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="B21" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="C21" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D21">
         <v>-446</v>
@@ -7567,13 +7545,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B22" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C22" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="D22">
         <v>-159</v>
@@ -7581,13 +7559,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="B23" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="C23" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="D23">
         <v>-433</v>
@@ -7595,13 +7573,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B24" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C24" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D24">
         <v>-182</v>
@@ -7609,13 +7587,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B25" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C25" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="D25">
         <v>-183</v>
@@ -7623,13 +7601,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="B26" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="C26" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="D26">
         <v>-164</v>
@@ -7637,13 +7615,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B27" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="C27" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D27">
         <v>-401</v>
@@ -7651,13 +7629,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="D28">
         <v>-438</v>
@@ -7665,13 +7643,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B29" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C29" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="D29">
         <v>-436</v>
@@ -7679,13 +7657,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="B30" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="C30" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="D30">
         <v>-424</v>
@@ -7693,13 +7671,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B31" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="C31" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D31">
         <v>-422</v>
@@ -7707,13 +7685,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="B32" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C32" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="D32">
         <v>-437</v>
@@ -7721,13 +7699,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="B33" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="C33" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D33">
         <v>-423</v>
@@ -7735,13 +7713,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="B34" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="C34" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="D34">
         <v>-434</v>
@@ -7749,13 +7727,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="B35" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C35" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D35">
         <v>-405</v>
@@ -7763,13 +7741,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B36" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C36" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="D36">
         <v>-404</v>
@@ -7777,13 +7755,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B37" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C37" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="D37">
         <v>-407</v>
@@ -7791,24 +7769,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B38" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C38" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="B39" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="D39">
         <v>-448</v>
@@ -7816,13 +7794,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B40" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C40" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="D40">
         <v>-439</v>
@@ -7830,13 +7808,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B41" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="D41">
         <v>-151</v>
@@ -7844,13 +7822,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="B42" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="C42" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="D42">
         <v>-413</v>
@@ -7858,13 +7836,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B43" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="C43" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="D43">
         <v>-408</v>
@@ -7872,13 +7850,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="B44" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="C44" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="D44">
         <v>-426</v>
@@ -7886,13 +7864,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B45" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C45" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="D45">
         <v>-409</v>
@@ -7900,13 +7878,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B46" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C46" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D46">
         <v>-154</v>
@@ -7914,13 +7892,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B47" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C47" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D47">
         <v>-430</v>
@@ -7928,13 +7906,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="B48" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C48" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D48">
         <v>-417</v>
@@ -7942,13 +7920,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="B49" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="C49" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="D49">
         <v>-418</v>
@@ -7956,13 +7934,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B50" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="C50" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="D50">
         <v>-425</v>
@@ -7970,13 +7948,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="B51" t="s">
+        <v>523</v>
+      </c>
+      <c r="C51" t="s">
         <v>537</v>
-      </c>
-      <c r="C51" t="s">
-        <v>551</v>
       </c>
       <c r="D51">
         <v>-428</v>
@@ -7984,13 +7962,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B52" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="C52" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D52">
         <v>-419</v>
@@ -7998,13 +7976,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="B53" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C53" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="D53">
         <v>-412</v>
@@ -8012,13 +7990,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B54" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C54" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="D54">
         <v>-441</v>
@@ -8026,13 +8004,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="B55" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="C55" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="D55">
         <v>-442</v>
@@ -8040,13 +8018,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="B56" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C56" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D56">
         <v>-190</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400D109D-7880-47A0-828B-81BCF1123E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00007C66-5E3A-4BFE-8CA6-580BD9C26B85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="255" windowWidth="13440" windowHeight="16425" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
+    <workbookView xWindow="15420" yWindow="885" windowWidth="13170" windowHeight="16425" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="642">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -438,9 +438,6 @@
     <t xml:space="preserve">            Matches </t>
   </si>
   <si>
-    <t xml:space="preserve">            Matching </t>
-  </si>
-  <si>
     <t xml:space="preserve">            NamedCols </t>
   </si>
   <si>
@@ -771,9 +768,6 @@
     <t xml:space="preserve">            TableCol </t>
   </si>
   <si>
-    <t xml:space="preserve">            TransitionRowSet </t>
-  </si>
-  <si>
     <t xml:space="preserve">            TreatExpr </t>
   </si>
   <si>
@@ -828,9 +822,6 @@
     <t>Cascade</t>
   </si>
   <si>
-    <t>TRSPos</t>
-  </si>
-  <si>
     <t>Trigger</t>
   </si>
   <si>
@@ -1038,9 +1029,6 @@
     <t>Btree&lt;long,TypedValue&gt;</t>
   </si>
   <si>
-    <t>Btree&lt;long,Btree&lt;long,bool&gt;&gt;</t>
-  </si>
-  <si>
     <t>OrderSpec</t>
   </si>
   <si>
@@ -1290,9 +1278,6 @@
     <t>Defaults</t>
   </si>
   <si>
-    <t>TrsFrom</t>
-  </si>
-  <si>
     <t>TargetInfo</t>
   </si>
   <si>
@@ -1401,9 +1386,6 @@
     <t>SysTable</t>
   </si>
   <si>
-    <t>_Join</t>
-  </si>
-  <si>
     <t>JoinPart</t>
   </si>
   <si>
@@ -1933,6 +1915,51 @@
   </si>
   <si>
     <t>SqlAgent</t>
+  </si>
+  <si>
+    <t>DefaultUrl</t>
+  </si>
+  <si>
+    <t>ViewTable</t>
+  </si>
+  <si>
+    <t>Defpos</t>
+  </si>
+  <si>
+    <t>LastData</t>
+  </si>
+  <si>
+    <t>ViewTables</t>
+  </si>
+  <si>
+    <t>TypeTracker</t>
+  </si>
+  <si>
+    <t>Btree&lt;long,Btree&lt;long,Domain&gt;&gt;</t>
+  </si>
+  <si>
+    <t>dompos,ppos</t>
+  </si>
+  <si>
+    <t>ColTracker</t>
+  </si>
+  <si>
+    <t>Btreee&lt;long,Btree&lt;long,long&gt;&gt;</t>
+  </si>
+  <si>
+    <t>colpos,ppos,dompos</t>
+  </si>
+  <si>
+    <t>Matching</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,long?&gt;</t>
+  </si>
+  <si>
+    <t>SqlValue SqlValue</t>
+  </si>
+  <si>
+    <t>Etag</t>
   </si>
 </sst>
 </file>
@@ -2287,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
   <dimension ref="A1:E408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="A335" sqref="A335"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="C364" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,13 +2327,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,21 +2344,21 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2342,7 +2369,7 @@
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2353,7 +2380,7 @@
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,7 +2391,7 @@
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2375,7 +2402,7 @@
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2386,21 +2413,21 @@
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,10 +2438,10 @@
         <v>-59</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,7 +2452,7 @@
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2436,7 +2463,7 @@
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,7 +2474,7 @@
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2458,7 +2485,7 @@
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,10 +2496,10 @@
         <v>-64</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2483,10 +2510,10 @@
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2497,7 +2524,7 @@
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2508,7 +2535,7 @@
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2519,7 +2546,7 @@
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2530,7 +2557,7 @@
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,7 +2568,7 @@
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,7 +2579,7 @@
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2563,10 +2590,10 @@
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D23" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2577,7 +2604,7 @@
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,7 +2615,7 @@
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,7 +2626,7 @@
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2610,7 +2637,7 @@
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,7 +2648,7 @@
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2632,7 +2659,7 @@
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,7 +2670,7 @@
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2654,7 +2681,7 @@
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2665,7 +2692,7 @@
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2676,7 +2703,7 @@
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2687,7 +2714,7 @@
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2698,10 +2725,10 @@
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D35" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2712,7 +2739,7 @@
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,7 +2750,7 @@
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,10 +2761,10 @@
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D38" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,7 +2775,7 @@
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2759,7 +2786,7 @@
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,10 +2797,10 @@
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,10 +2811,10 @@
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D42" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2798,7 +2825,7 @@
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2809,7 +2836,7 @@
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2820,7 +2847,7 @@
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2831,10 +2858,10 @@
         <v>-95</v>
       </c>
       <c r="C46" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D46" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2845,10 +2872,10 @@
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D47" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2859,10 +2886,10 @@
         <v>-97</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2873,7 +2900,7 @@
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,7 +2911,7 @@
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,10 +2922,10 @@
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D51" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,7 +2936,7 @@
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2920,7 +2947,7 @@
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2931,7 +2958,7 @@
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2942,7 +2969,7 @@
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2953,10 +2980,10 @@
         <v>-105</v>
       </c>
       <c r="C56" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2967,10 +2994,10 @@
         <v>-106</v>
       </c>
       <c r="C57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,10 +3008,10 @@
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D58" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2995,10 +3022,10 @@
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D59" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3009,10 +3036,10 @@
         <v>-109</v>
       </c>
       <c r="C60" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D60" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3023,10 +3050,10 @@
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D61" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3037,10 +3064,10 @@
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D62" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3051,10 +3078,10 @@
         <v>-112</v>
       </c>
       <c r="C63" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D63" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3065,10 +3092,10 @@
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D64" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3079,10 +3106,10 @@
         <v>-114</v>
       </c>
       <c r="C65" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3093,10 +3120,10 @@
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D66" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3107,10 +3134,10 @@
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D67" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3121,10 +3148,10 @@
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D68" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3135,10 +3162,10 @@
         <v>-118</v>
       </c>
       <c r="C69" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D69" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3149,10 +3176,10 @@
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D70" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3163,7 +3190,7 @@
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3174,7 +3201,7 @@
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3185,10 +3212,10 @@
         <v>-122</v>
       </c>
       <c r="C73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,10 +3226,10 @@
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D74" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,7 +3240,7 @@
         <v>-124</v>
       </c>
       <c r="C75" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3224,7 +3251,7 @@
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3235,7 +3262,7 @@
         <v>-126</v>
       </c>
       <c r="C77" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3246,10 +3273,10 @@
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D78" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3260,10 +3287,10 @@
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D79" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3274,10 +3301,10 @@
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D80" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3288,7 +3315,7 @@
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3299,10 +3326,10 @@
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3313,10 +3340,10 @@
         <v>-132</v>
       </c>
       <c r="C83" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D83" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3327,10 +3354,10 @@
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3341,10 +3368,10 @@
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D85" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3355,10 +3382,10 @@
         <v>-135</v>
       </c>
       <c r="C86" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3369,7 +3396,7 @@
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3380,7 +3407,7 @@
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3391,7 +3418,7 @@
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3402,7 +3429,7 @@
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3413,7 +3440,7 @@
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3424,7 +3451,7 @@
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3435,10 +3462,10 @@
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D93" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3449,10 +3476,10 @@
         <v>-143</v>
       </c>
       <c r="C94" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D94" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3463,10 +3490,10 @@
         <v>-144</v>
       </c>
       <c r="C95" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D95" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3477,7 +3504,7 @@
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3488,10 +3515,10 @@
         <v>-146</v>
       </c>
       <c r="C97" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D97" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3502,10 +3529,10 @@
         <v>-147</v>
       </c>
       <c r="C98" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3516,7 +3543,7 @@
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3527,10 +3554,10 @@
         <v>-149</v>
       </c>
       <c r="C100" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D100" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3541,7 +3568,7 @@
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3552,10 +3579,10 @@
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D102" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3566,13 +3593,13 @@
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D103" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E103" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3583,10 +3610,10 @@
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D104" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3597,10 +3624,10 @@
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D105" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3611,7 +3638,7 @@
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3622,10 +3649,10 @@
         <v>-156</v>
       </c>
       <c r="C107" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D107" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3636,10 +3663,10 @@
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D108" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3650,7 +3677,7 @@
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3661,10 +3688,10 @@
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3675,7 +3702,7 @@
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3686,7 +3713,7 @@
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3697,7 +3724,7 @@
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3708,7 +3735,7 @@
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3719,7 +3746,7 @@
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3730,7 +3757,7 @@
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3741,18 +3768,18 @@
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B118">
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3763,10 +3790,10 @@
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D119" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3777,7 +3804,7 @@
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3788,7 +3815,7 @@
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3799,7 +3826,7 @@
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3810,24 +3837,24 @@
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D123" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D124" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3838,29 +3865,29 @@
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B127">
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3871,21 +3898,21 @@
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3896,7 +3923,7 @@
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3907,21 +3934,21 @@
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D131" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B132">
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3932,96 +3959,96 @@
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D133" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>638</v>
       </c>
       <c r="B134">
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>334</v>
+        <v>639</v>
       </c>
       <c r="D134" t="s">
-        <v>277</v>
+        <v>640</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B135">
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B136">
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B138">
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D138" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B139">
         <v>-188</v>
       </c>
       <c r="C139" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D139" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4032,93 +4059,93 @@
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142">
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D143" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B144">
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B145">
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146">
         <v>-195</v>
       </c>
       <c r="C146" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147">
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D147" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148">
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D148" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4129,10 +4156,10 @@
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D149" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4143,10 +4170,10 @@
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D150" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4157,35 +4184,35 @@
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D151" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B152">
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D152" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B153">
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4196,10 +4223,10 @@
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D154" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4210,18 +4237,18 @@
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4232,60 +4259,60 @@
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D157" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B158">
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B159">
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D159" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B160">
         <v>-209</v>
       </c>
       <c r="C160" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B161">
         <v>-210</v>
       </c>
       <c r="C161" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D161" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4296,10 +4323,10 @@
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D162" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4310,7 +4337,7 @@
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4321,7 +4348,7 @@
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4332,7 +4359,7 @@
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4343,250 +4370,250 @@
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B167">
         <v>-216</v>
       </c>
       <c r="C167" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B168">
         <v>-217</v>
       </c>
       <c r="C168" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D168" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B169">
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B170">
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B171">
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B172">
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B173">
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B174">
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B175">
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B176">
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B177">
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B178">
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B179">
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B180">
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B181">
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B182">
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D182" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B183">
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B184">
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B185">
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D185" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B186">
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B187">
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D187" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4597,10 +4624,10 @@
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D188" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4611,457 +4638,479 @@
         <v>-238</v>
       </c>
       <c r="C189" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D189" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B190">
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D191" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E191" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B192">
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B193">
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B194">
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B195">
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D195" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B196">
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B197">
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D197" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B198">
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B199">
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D199" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B200">
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D200" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B201">
         <v>-250</v>
       </c>
       <c r="C201" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B202">
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D202" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D203" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B204">
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B206">
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B207">
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>629</v>
+      </c>
+      <c r="B208">
+        <v>-257</v>
+      </c>
+      <c r="C208" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>630</v>
+      </c>
+      <c r="B209">
+        <v>-258</v>
+      </c>
+      <c r="C209" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B210">
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D210" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B211">
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D211" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B213">
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D213" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B214">
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B215">
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D215" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B216">
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D216" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B217">
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D217" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B218">
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D218" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B219">
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D219" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B220">
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B221">
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D221" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B222">
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B223">
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B224">
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B225">
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B226">
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B227">
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5072,90 +5121,90 @@
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D228" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B229">
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B230">
         <v>-279</v>
       </c>
       <c r="C230" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B231">
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B232">
         <v>-281</v>
       </c>
       <c r="C232" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B233">
         <v>-282</v>
       </c>
       <c r="C233" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B234">
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B235">
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D235" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5166,10 +5215,10 @@
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D236" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5180,40 +5229,40 @@
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B238">
         <v>-287</v>
       </c>
       <c r="C238" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B239">
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B240">
         <v>-289</v>
       </c>
       <c r="C240" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5224,440 +5273,452 @@
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D241" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B242">
         <v>-291</v>
       </c>
       <c r="C242" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B243">
         <v>-292</v>
       </c>
       <c r="C243" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B244">
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B245">
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B246">
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B247">
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B248">
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B249">
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D249" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B250">
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D250" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B252">
         <v>-301</v>
       </c>
       <c r="C252" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D252" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B253">
         <v>-302</v>
       </c>
       <c r="C253" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D253" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B255">
         <v>-304</v>
       </c>
       <c r="C255" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D255" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B256">
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B257">
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D257" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B258">
         <v>-307</v>
       </c>
       <c r="C258" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B259">
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D259" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B260">
         <v>-309</v>
       </c>
       <c r="C260" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D260" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B261">
         <v>-310</v>
       </c>
       <c r="C261" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D261" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B262">
         <v>-311</v>
       </c>
       <c r="C262" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B263">
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D263" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B264">
         <v>-313</v>
       </c>
       <c r="C264" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D264" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B265">
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>632</v>
       </c>
       <c r="B266">
         <v>-315</v>
       </c>
+      <c r="C266" t="s">
+        <v>633</v>
+      </c>
+      <c r="D266" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B267">
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B268">
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>245</v>
+        <v>635</v>
       </c>
       <c r="B269">
         <v>-318</v>
       </c>
+      <c r="C269" t="s">
+        <v>636</v>
+      </c>
+      <c r="D269" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B270">
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B271">
         <v>-320</v>
       </c>
       <c r="C271" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D271" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B272">
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B273">
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D273" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B274">
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D274" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B275">
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D275" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B276">
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D276" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5668,63 +5729,63 @@
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B278">
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D278" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B279">
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D279" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B280">
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D280" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B281">
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D281" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5735,85 +5796,85 @@
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D283" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B284">
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B285">
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D285" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B286">
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D286" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B287">
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B288">
         <v>-337</v>
       </c>
       <c r="C288" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D288" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5824,35 +5885,35 @@
         <v>-338</v>
       </c>
       <c r="C289" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D289" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B290">
         <v>-339</v>
       </c>
       <c r="C290" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D290" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B291">
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5863,154 +5924,154 @@
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B293">
         <v>-342</v>
       </c>
       <c r="C293" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D293" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B294">
         <v>-343</v>
       </c>
       <c r="C294" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D294" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B295">
         <v>-344</v>
       </c>
       <c r="C295" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D295" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B296">
         <v>-345</v>
       </c>
       <c r="C296" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D296" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B297">
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D297" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B298">
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B299">
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B300">
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B301">
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B302">
         <v>-351</v>
       </c>
       <c r="C302" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D302" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B303">
         <v>-352</v>
       </c>
       <c r="C303" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D303" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B304">
         <v>-353</v>
@@ -6018,30 +6079,30 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B305">
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D305" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B306">
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D306" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6052,10 +6113,10 @@
         <v>-356</v>
       </c>
       <c r="C307" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D307" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6066,60 +6127,60 @@
         <v>-357</v>
       </c>
       <c r="C308" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D308" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B309">
         <v>-358</v>
       </c>
       <c r="C309" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D309" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B310">
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B311">
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B312">
         <v>-361</v>
       </c>
       <c r="C312" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D312" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6130,54 +6191,54 @@
         <v>-362</v>
       </c>
       <c r="C313" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D313" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B314">
         <v>-363</v>
       </c>
       <c r="C314" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D314" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B315">
         <v>-364</v>
       </c>
       <c r="C315" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B316">
         <v>-365</v>
       </c>
       <c r="C316" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D316" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B317">
         <v>-366</v>
@@ -6185,7 +6246,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B318">
         <v>-367</v>
@@ -6193,65 +6254,104 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B319">
         <v>-368</v>
       </c>
       <c r="C319" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B320">
         <v>-369</v>
       </c>
       <c r="C320" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D320" t="s">
-        <v>339</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>627</v>
+      </c>
+      <c r="B321">
+        <v>-370</v>
+      </c>
+      <c r="C321" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>628</v>
+      </c>
+      <c r="B322">
+        <v>-371</v>
+      </c>
+      <c r="C322" t="s">
+        <v>273</v>
+      </c>
+      <c r="D322" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>631</v>
+      </c>
+      <c r="B323">
+        <v>-372</v>
+      </c>
+      <c r="C323" t="s">
+        <v>298</v>
+      </c>
+      <c r="D323" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B324">
         <v>-373</v>
       </c>
       <c r="C324" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B325">
         <v>-374</v>
       </c>
       <c r="C325" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B326">
         <v>-375</v>
       </c>
       <c r="C326" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B327">
         <v>-376</v>
@@ -6259,160 +6359,160 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B328">
         <v>-377</v>
       </c>
       <c r="C328" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B329">
         <v>-378</v>
       </c>
       <c r="C329" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B330">
         <v>-379</v>
       </c>
       <c r="C330" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B331">
         <v>-380</v>
       </c>
       <c r="C331" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D331" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B332">
         <v>-381</v>
       </c>
       <c r="C332" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B333">
         <v>-382</v>
       </c>
       <c r="C333" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B334">
         <v>-383</v>
       </c>
       <c r="C334" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B335">
         <v>-384</v>
       </c>
       <c r="C335" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B336">
         <v>-385</v>
       </c>
       <c r="C336" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D336" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B337">
         <v>-386</v>
       </c>
       <c r="C337" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D337" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B338">
         <v>-387</v>
       </c>
       <c r="C338" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D338" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B339">
         <v>-388</v>
       </c>
       <c r="C339" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D339" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B340">
         <v>-389</v>
       </c>
       <c r="C340" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6431,10 +6531,10 @@
         <v>-391</v>
       </c>
       <c r="C342" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D342" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -6445,38 +6545,38 @@
         <v>-392</v>
       </c>
       <c r="C343" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B344">
         <v>-393</v>
       </c>
       <c r="C344" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D344" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E344" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B345">
         <v>-394</v>
       </c>
       <c r="C345" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D345" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6487,719 +6587,713 @@
         <v>-395</v>
       </c>
       <c r="C346" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D346" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B347">
         <v>-396</v>
       </c>
       <c r="C347" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D347" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B348">
         <v>-397</v>
       </c>
       <c r="C348" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B349">
         <v>-401</v>
       </c>
       <c r="C349" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B350">
         <v>-402</v>
       </c>
       <c r="C350" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B351">
         <v>-403</v>
       </c>
       <c r="C351" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B352">
         <v>-404</v>
       </c>
       <c r="C352" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B353">
         <v>-405</v>
       </c>
       <c r="C353" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B354">
         <v>-406</v>
       </c>
       <c r="C354" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D354" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B355">
         <v>-407</v>
       </c>
       <c r="C355" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B356">
         <v>-408</v>
       </c>
       <c r="C356" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B357">
         <v>-409</v>
       </c>
       <c r="C357" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B358">
         <v>-410</v>
       </c>
       <c r="C358" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B359">
         <v>-411</v>
       </c>
       <c r="C359" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B360">
         <v>-412</v>
       </c>
       <c r="C360" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B361">
         <v>-413</v>
       </c>
       <c r="C361" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D361" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B362">
         <v>-414</v>
       </c>
       <c r="C362" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D362" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B363">
         <v>-415</v>
       </c>
       <c r="C363" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D363" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>418</v>
+        <v>641</v>
       </c>
       <c r="B364">
         <v>-416</v>
       </c>
       <c r="C364" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B365">
         <v>-417</v>
       </c>
       <c r="C365" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B366">
         <v>-418</v>
       </c>
       <c r="C366" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D366" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B367">
         <v>-419</v>
       </c>
       <c r="C367" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D367" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B368">
         <v>-420</v>
       </c>
       <c r="C368" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D368" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B369">
         <v>-421</v>
       </c>
       <c r="C369" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B370">
         <v>-422</v>
       </c>
       <c r="C370" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D370" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B371">
         <v>-423</v>
       </c>
       <c r="C371" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D371" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B372">
         <v>-424</v>
       </c>
       <c r="C372" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D372" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B373">
         <v>-425</v>
       </c>
       <c r="C373" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D373" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B374">
         <v>-426</v>
       </c>
       <c r="C374" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D374" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B375">
         <v>-427</v>
       </c>
       <c r="C375" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D375" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B376">
         <v>-428</v>
       </c>
       <c r="C376" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D376" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B377">
         <v>-429</v>
       </c>
       <c r="C377" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B378">
         <v>-430</v>
       </c>
       <c r="C378" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B379">
         <v>-431</v>
       </c>
       <c r="C379" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D379" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B380">
         <v>-432</v>
       </c>
       <c r="C380" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D380" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B381">
         <v>-433</v>
       </c>
       <c r="C381" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B382">
         <v>-434</v>
       </c>
       <c r="C382" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B383">
         <v>-435</v>
       </c>
       <c r="C383" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D383" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B384">
         <v>-436</v>
       </c>
       <c r="C384" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B385">
         <v>-437</v>
       </c>
       <c r="C385" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B386">
         <v>-438</v>
       </c>
       <c r="C386" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B387">
         <v>-439</v>
       </c>
       <c r="C387" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B388">
         <v>-440</v>
       </c>
       <c r="C388" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B389">
         <v>-441</v>
       </c>
       <c r="C389" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B390">
         <v>-442</v>
       </c>
       <c r="C390" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B391">
         <v>-443</v>
       </c>
       <c r="C391" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B392">
         <v>-444</v>
       </c>
       <c r="C392" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B393">
         <v>-445</v>
       </c>
       <c r="C393" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>455</v>
-      </c>
       <c r="B394">
         <v>-446</v>
       </c>
-      <c r="C394" t="s">
-        <v>456</v>
-      </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B395">
         <v>-447</v>
       </c>
       <c r="C395" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B396">
         <v>-448</v>
       </c>
       <c r="C396" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B397">
         <v>-449</v>
       </c>
       <c r="C397" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B398">
         <v>-450</v>
       </c>
       <c r="C398" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B399">
         <v>-451</v>
       </c>
       <c r="C399" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B400">
         <v>-452</v>
       </c>
       <c r="C400" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D400" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B401">
         <v>-453</v>
       </c>
       <c r="C401" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="D401" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B402">
         <v>-454</v>
       </c>
       <c r="C402" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B403">
         <v>-455</v>
       </c>
       <c r="C403" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B404">
         <v>-456</v>
       </c>
       <c r="C404" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B405">
         <v>-457</v>
       </c>
       <c r="C405" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7209,13 +7303,13 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B407">
         <v>-459</v>
       </c>
       <c r="C407" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7251,13 +7345,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B1" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D1">
         <v>-421</v>
@@ -7265,13 +7359,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D2">
         <v>-431</v>
@@ -7279,13 +7373,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D3">
         <v>-435</v>
@@ -7293,13 +7387,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D4">
         <v>-429</v>
@@ -7307,13 +7401,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D5">
         <v>-402</v>
@@ -7321,13 +7415,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B6" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C6" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D6">
         <v>-432</v>
@@ -7335,13 +7429,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D7">
         <v>-415</v>
@@ -7349,13 +7443,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D8">
         <v>-239</v>
@@ -7363,13 +7457,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B9" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C9" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D9">
         <v>-440</v>
@@ -7377,13 +7471,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D10">
         <v>-176</v>
@@ -7391,13 +7485,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B11" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C11" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D11">
         <v>-414</v>
@@ -7405,13 +7499,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C12" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D12">
         <v>-411</v>
@@ -7419,13 +7513,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C13" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D13">
         <v>-403</v>
@@ -7433,13 +7527,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C14" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D14">
         <v>-447</v>
@@ -7447,13 +7541,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C15" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D15">
         <v>-416</v>
@@ -7461,13 +7555,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B16" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C16" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D16">
         <v>-406</v>
@@ -7475,13 +7569,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C17" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D17">
         <v>-199</v>
@@ -7489,13 +7583,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B18" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C18" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D18">
         <v>-200</v>
@@ -7503,13 +7597,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B19" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D19">
         <v>-410</v>
@@ -7517,13 +7611,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C20" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D20">
         <v>-420</v>
@@ -7531,13 +7625,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B21" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C21" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D21">
         <v>-446</v>
@@ -7545,13 +7639,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>454</v>
+      </c>
+      <c r="B22" t="s">
         <v>460</v>
       </c>
-      <c r="B22" t="s">
-        <v>466</v>
-      </c>
       <c r="C22" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D22">
         <v>-159</v>
@@ -7559,13 +7653,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B23" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C23" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D23">
         <v>-433</v>
@@ -7573,13 +7667,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B24" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C24" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D24">
         <v>-182</v>
@@ -7587,13 +7681,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B25" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C25" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D25">
         <v>-183</v>
@@ -7601,13 +7695,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B26" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C26" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D26">
         <v>-164</v>
@@ -7615,13 +7709,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B27" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C27" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D27">
         <v>-401</v>
@@ -7629,13 +7723,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C28" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D28">
         <v>-438</v>
@@ -7643,13 +7737,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C29" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D29">
         <v>-436</v>
@@ -7657,13 +7751,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B30" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C30" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D30">
         <v>-424</v>
@@ -7671,13 +7765,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B31" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C31" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D31">
         <v>-422</v>
@@ -7685,13 +7779,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B32" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C32" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D32">
         <v>-437</v>
@@ -7699,13 +7793,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B33" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C33" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D33">
         <v>-423</v>
@@ -7713,13 +7807,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B34" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C34" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D34">
         <v>-434</v>
@@ -7727,13 +7821,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>477</v>
+      </c>
+      <c r="B35" t="s">
+        <v>397</v>
+      </c>
+      <c r="C35" t="s">
         <v>483</v>
-      </c>
-      <c r="B35" t="s">
-        <v>401</v>
-      </c>
-      <c r="C35" t="s">
-        <v>489</v>
       </c>
       <c r="D35">
         <v>-405</v>
@@ -7741,13 +7835,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B36" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D36">
         <v>-404</v>
@@ -7755,13 +7849,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B37" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C37" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D37">
         <v>-407</v>
@@ -7769,24 +7863,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>453</v>
+      </c>
+      <c r="B38" t="s">
+        <v>460</v>
+      </c>
+      <c r="C38" t="s">
         <v>459</v>
-      </c>
-      <c r="B38" t="s">
-        <v>466</v>
-      </c>
-      <c r="C38" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C39" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D39">
         <v>-448</v>
@@ -7794,13 +7888,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C40" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D40">
         <v>-439</v>
@@ -7808,13 +7902,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C41" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D41">
         <v>-151</v>
@@ -7822,13 +7916,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B42" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C42" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="D42">
         <v>-413</v>
@@ -7836,13 +7930,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B43" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C43" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D43">
         <v>-408</v>
@@ -7850,13 +7944,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B44" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C44" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D44">
         <v>-426</v>
@@ -7864,13 +7958,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B45" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C45" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D45">
         <v>-409</v>
@@ -7878,13 +7972,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C46" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D46">
         <v>-154</v>
@@ -7892,13 +7986,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B47" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C47" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D47">
         <v>-430</v>
@@ -7906,13 +8000,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B48" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C48" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D48">
         <v>-417</v>
@@ -7920,13 +8014,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B49" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C49" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="D49">
         <v>-418</v>
@@ -7934,13 +8028,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B50" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C50" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D50">
         <v>-425</v>
@@ -7948,13 +8042,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B51" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C51" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D51">
         <v>-428</v>
@@ -7962,13 +8056,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B52" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C52" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D52">
         <v>-419</v>
@@ -7976,13 +8070,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B53" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C53" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D53">
         <v>-412</v>
@@ -7990,13 +8084,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B54" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C54" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D54">
         <v>-441</v>
@@ -8004,13 +8098,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B55" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C55" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="D55">
         <v>-442</v>
@@ -8018,13 +8112,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>456</v>
+      </c>
+      <c r="B56" t="s">
         <v>462</v>
       </c>
-      <c r="B56" t="s">
-        <v>468</v>
-      </c>
       <c r="C56" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D56">
         <v>-190</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00007C66-5E3A-4BFE-8CA6-580BD9C26B85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635BE704-0E3F-46AB-AFD4-D508CB66E595}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15420" yWindow="885" windowWidth="13170" windowHeight="16425" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="647">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -48,9 +48,6 @@
     <t xml:space="preserve">            Curated </t>
   </si>
   <si>
-    <t xml:space="preserve">            Format </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Guest </t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t xml:space="preserve">            User </t>
   </si>
   <si>
-    <t xml:space="preserve">            _ExecuteStatus </t>
-  </si>
-  <si>
     <t xml:space="preserve">        internal static long _uid </t>
   </si>
   <si>
@@ -342,9 +336,6 @@
     <t xml:space="preserve">            Value </t>
   </si>
   <si>
-    <t xml:space="preserve">            _Table </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Adapter </t>
   </si>
   <si>
@@ -438,9 +429,6 @@
     <t xml:space="preserve">            Matches </t>
   </si>
   <si>
-    <t xml:space="preserve">            NamedCols </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Natural </t>
   </si>
   <si>
@@ -453,9 +441,6 @@
     <t xml:space="preserve">            RestGroups </t>
   </si>
   <si>
-    <t xml:space="preserve">            RestViews </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Reverse </t>
   </si>
   <si>
@@ -471,15 +456,9 @@
     <t xml:space="preserve">            Union </t>
   </si>
   <si>
-    <t xml:space="preserve">            UsingFrom </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Windows </t>
   </si>
   <si>
-    <t xml:space="preserve">            _Aggregates </t>
-  </si>
-  <si>
     <t xml:space="preserve">            _FDInfo </t>
   </si>
   <si>
@@ -870,9 +849,6 @@
     <t>bool</t>
   </si>
   <si>
-    <t>ExecuteStatus</t>
-  </si>
-  <si>
     <t>OrderCategory</t>
   </si>
   <si>
@@ -1047,9 +1023,6 @@
     <t>QuerySpecification</t>
   </si>
   <si>
-    <t>Btree&lt;string,int&gt;</t>
-  </si>
-  <si>
     <t>QueryExpression</t>
   </si>
   <si>
@@ -1815,9 +1788,6 @@
     <t>Btree&lt;long,Physical.Type&gt;</t>
   </si>
   <si>
-    <t>DomDefPos</t>
-  </si>
-  <si>
     <t>Relocated</t>
   </si>
   <si>
@@ -1893,9 +1863,6 @@
     <t>Btree&lt;Sqlx,object&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">            JoinCols </t>
-  </si>
-  <si>
     <t>RemoteCols</t>
   </si>
   <si>
@@ -1960,6 +1927,54 @@
   </si>
   <si>
     <t>Etag</t>
+  </si>
+  <si>
+    <t>UrlCol</t>
+  </si>
+  <si>
+    <t>JoinUsing</t>
+  </si>
+  <si>
+    <t>rSqlValue lSqlValue</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,lomg&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Aggregates </t>
+  </si>
+  <si>
+    <t>CTree&lt;long,bool&gt;</t>
+  </si>
+  <si>
+    <t>RSTargets</t>
+  </si>
+  <si>
+    <t>Ctree&lt;long,bool&gt;</t>
+  </si>
+  <si>
+    <t>RVV</t>
+  </si>
+  <si>
+    <t>Rvv</t>
+  </si>
+  <si>
+    <t>Targets</t>
+  </si>
+  <si>
+    <t>Table/View</t>
+  </si>
+  <si>
+    <t>ForeignKeys</t>
+  </si>
+  <si>
+    <t>Cursor</t>
+  </si>
+  <si>
+    <t>_Cursor</t>
+  </si>
+  <si>
+    <t>Format</t>
   </si>
 </sst>
 </file>
@@ -2314,8 +2329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
   <dimension ref="A1:E408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="C364" sqref="C364"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408:XFD408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,13 +2342,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2344,21 +2359,21 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2369,3423 +2384,3426 @@
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>646</v>
       </c>
       <c r="B5">
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>-59</v>
       </c>
       <c r="C10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" t="s">
         <v>273</v>
-      </c>
-      <c r="D10" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>-64</v>
       </c>
       <c r="C15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" t="s">
         <v>273</v>
-      </c>
-      <c r="D15" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D16" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D23" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31">
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D35" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D38" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39">
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D41" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D42" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B45">
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>-95</v>
       </c>
       <c r="C46" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D46" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D47" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48">
         <v>-97</v>
       </c>
       <c r="C48" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D48" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B50">
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D51" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B56">
         <v>-105</v>
       </c>
       <c r="C56" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D56" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B57">
         <v>-106</v>
       </c>
       <c r="C57" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D57" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B58">
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D58" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D59" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B60">
         <v>-109</v>
       </c>
       <c r="C60" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B61">
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D61" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B62">
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D62" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B63">
         <v>-112</v>
       </c>
       <c r="C63" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D63" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B64">
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D64" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B65">
         <v>-114</v>
       </c>
       <c r="C65" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D65" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B66">
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D66" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B67">
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D67" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B68">
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D68" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B69">
         <v>-118</v>
       </c>
       <c r="C69" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D69" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B70">
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D70" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71">
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B72">
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B73">
         <v>-122</v>
       </c>
       <c r="C73" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D73" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B74">
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D74" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B75">
         <v>-124</v>
       </c>
       <c r="C75" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B76">
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B77">
         <v>-126</v>
       </c>
       <c r="C77" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B79">
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D79" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B80">
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D80" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B81">
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B82">
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D82" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B83">
         <v>-132</v>
       </c>
       <c r="C83" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D83" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B84">
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D84" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B85">
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D85" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B86">
         <v>-135</v>
       </c>
       <c r="C86" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B87">
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B88">
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B90">
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B91">
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B92">
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B93">
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D93" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B94">
         <v>-143</v>
       </c>
       <c r="C94" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D94" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B95">
         <v>-144</v>
       </c>
       <c r="C95" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D95" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B96">
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B97">
         <v>-146</v>
       </c>
       <c r="C97" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D97" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B98">
         <v>-147</v>
       </c>
       <c r="C98" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D98" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B99">
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B100">
         <v>-149</v>
       </c>
       <c r="C100" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D100" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B101">
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="B102">
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D102" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B103">
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D103" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E103" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B104">
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D104" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>102</v>
+        <v>641</v>
       </c>
       <c r="B105">
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="D105" t="s">
-        <v>323</v>
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B106">
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B107">
         <v>-156</v>
       </c>
       <c r="C107" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D107" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B108">
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D108" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B109">
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B110">
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D110" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B111">
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B112">
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B113">
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B114">
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B115">
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B116">
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B117">
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B118">
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B119">
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D119" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B120">
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B121">
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B122">
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B123">
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D123" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D124" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B125">
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B127">
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B128">
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D129" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B130">
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B131">
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D131" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B132">
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B133">
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D133" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B134">
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="D134" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B135">
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B136">
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B138">
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D138" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B139">
         <v>-188</v>
       </c>
       <c r="C139" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D139" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>593</v>
+        <v>645</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>273</v>
+        <v>644</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B141">
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>147</v>
+        <v>635</v>
       </c>
       <c r="B142">
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>277</v>
+        <v>636</v>
+      </c>
+      <c r="D142" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B143">
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D143" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>138</v>
+        <v>639</v>
       </c>
       <c r="B144">
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>337</v>
+        <v>640</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B145">
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>298</v>
+        <v>638</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B146">
         <v>-195</v>
       </c>
       <c r="C146" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B147">
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D147" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>637</v>
       </c>
       <c r="B148">
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D148" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B149">
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D149" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B150">
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D150" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B151">
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D151" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B152">
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D152" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B153">
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B154">
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D154" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B155">
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B157">
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D157" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B158">
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>134</v>
+        <v>632</v>
       </c>
       <c r="B159">
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>306</v>
+        <v>634</v>
       </c>
       <c r="D159" t="s">
-        <v>274</v>
+        <v>633</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B160">
         <v>-209</v>
       </c>
       <c r="C160" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B161">
         <v>-210</v>
       </c>
       <c r="C161" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D161" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B162">
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="D162" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B163">
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B164">
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B165">
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B166">
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B167">
         <v>-216</v>
       </c>
       <c r="C167" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B168">
         <v>-217</v>
       </c>
       <c r="C168" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D168" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B169">
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B170">
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B171">
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B172">
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B173">
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B174">
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B175">
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B176">
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B177">
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B178">
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B179">
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B180">
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B181">
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B182">
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D182" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B183">
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B184">
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B185">
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D185" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B186">
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B187">
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D187" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B188">
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D188" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B189">
         <v>-238</v>
       </c>
       <c r="C189" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D189" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B190">
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D191" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E191" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B192">
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B193">
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B194">
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B195">
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D195" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B196">
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B197">
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D197" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B198">
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B199">
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D199" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B200">
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D200" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B201">
         <v>-250</v>
       </c>
       <c r="C201" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B202">
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D202" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D203" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B204">
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="B206">
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="B207">
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B208">
         <v>-257</v>
       </c>
       <c r="C208" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="B209">
         <v>-258</v>
       </c>
       <c r="C209" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="B210">
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D210" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="B211">
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D211" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B213">
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D213" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B214">
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B215">
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D215" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B216">
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D216" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B217">
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D217" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B218">
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D218" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B219">
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D219" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B220">
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B221">
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D221" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B222">
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B223">
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B224">
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B225">
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B226">
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B227">
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B228">
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D228" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B229">
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>-279</v>
       </c>
       <c r="C230" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B231">
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B232">
         <v>-281</v>
       </c>
       <c r="C232" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B233">
         <v>-282</v>
       </c>
       <c r="C233" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B234">
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B235">
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D235" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B236">
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D236" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B237">
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B238">
         <v>-287</v>
       </c>
       <c r="C238" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B239">
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B240">
         <v>-289</v>
       </c>
       <c r="C240" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B241">
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D241" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B242">
         <v>-291</v>
       </c>
       <c r="C242" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B243">
         <v>-292</v>
       </c>
       <c r="C243" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B244">
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B245">
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B246">
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B247">
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B248">
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B249">
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D249" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B250">
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D250" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B252">
         <v>-301</v>
       </c>
       <c r="C252" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D252" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B253">
         <v>-302</v>
       </c>
       <c r="C253" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D253" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B255">
         <v>-304</v>
       </c>
       <c r="C255" t="s">
+        <v>266</v>
+      </c>
+      <c r="D255" t="s">
         <v>273</v>
-      </c>
-      <c r="D255" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B256">
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B257">
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D257" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B258">
         <v>-307</v>
       </c>
       <c r="C258" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B259">
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D259" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B260">
         <v>-309</v>
       </c>
       <c r="C260" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D260" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B261">
         <v>-310</v>
       </c>
       <c r="C261" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D261" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B262">
         <v>-311</v>
       </c>
       <c r="C262" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B263">
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D263" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B264">
         <v>-313</v>
       </c>
       <c r="C264" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D264" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B265">
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B266">
         <v>-315</v>
       </c>
       <c r="C266" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D266" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B267">
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B268">
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="B269">
         <v>-318</v>
       </c>
       <c r="C269" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="D269" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B270">
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B271">
         <v>-320</v>
       </c>
       <c r="C271" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D271" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B272">
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B273">
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D273" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B274">
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D274" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B275">
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D275" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B276">
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D276" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B277">
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B278">
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D278" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B279">
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D279" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B280">
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D280" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B281">
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D281" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5796,282 +5814,282 @@
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D283" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B284">
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B285">
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D285" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B286">
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D286" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B287">
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B288">
         <v>-337</v>
       </c>
       <c r="C288" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D288" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B289">
         <v>-338</v>
       </c>
       <c r="C289" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D289" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B290">
         <v>-339</v>
       </c>
       <c r="C290" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D290" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B291">
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B292">
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B293">
         <v>-342</v>
       </c>
       <c r="C293" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D293" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B294">
         <v>-343</v>
       </c>
       <c r="C294" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D294" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B295">
         <v>-344</v>
       </c>
       <c r="C295" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D295" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B296">
         <v>-345</v>
       </c>
       <c r="C296" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D296" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B297">
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D297" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B298">
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B299">
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B300">
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B301">
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B302">
         <v>-351</v>
       </c>
       <c r="C302" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D302" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B303">
         <v>-352</v>
       </c>
       <c r="C303" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D303" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B304">
         <v>-353</v>
@@ -6079,166 +6097,166 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B305">
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D305" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B306">
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D306" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B307">
         <v>-356</v>
       </c>
       <c r="C307" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D307" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B308">
         <v>-357</v>
       </c>
       <c r="C308" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D308" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B309">
         <v>-358</v>
       </c>
       <c r="C309" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D309" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B310">
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B311">
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B312">
         <v>-361</v>
       </c>
       <c r="C312" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D312" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B313">
         <v>-362</v>
       </c>
       <c r="C313" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D313" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B314">
         <v>-363</v>
       </c>
       <c r="C314" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D314" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B315">
         <v>-364</v>
       </c>
       <c r="C315" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B316">
         <v>-365</v>
       </c>
       <c r="C316" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D316" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B317">
         <v>-366</v>
@@ -6246,7 +6264,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B318">
         <v>-367</v>
@@ -6254,104 +6272,104 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B319">
         <v>-368</v>
       </c>
       <c r="C319" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B320">
         <v>-369</v>
       </c>
       <c r="C320" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D320" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="B321">
         <v>-370</v>
       </c>
       <c r="C321" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="B322">
         <v>-371</v>
       </c>
       <c r="C322" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D322" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="B323">
         <v>-372</v>
       </c>
       <c r="C323" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D323" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B324">
         <v>-373</v>
       </c>
       <c r="C324" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="B325">
         <v>-374</v>
       </c>
       <c r="C325" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="B326">
         <v>-375</v>
       </c>
       <c r="C326" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B327">
         <v>-376</v>
@@ -6359,160 +6377,154 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B328">
         <v>-377</v>
       </c>
       <c r="C328" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B329">
         <v>-378</v>
       </c>
       <c r="C329" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B330">
         <v>-379</v>
       </c>
       <c r="C330" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B331">
         <v>-380</v>
       </c>
       <c r="C331" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D331" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B332">
         <v>-381</v>
       </c>
       <c r="C332" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B333">
         <v>-382</v>
       </c>
       <c r="C333" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>619</v>
-      </c>
       <c r="B334">
         <v>-383</v>
       </c>
-      <c r="C334" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B335">
         <v>-384</v>
       </c>
       <c r="C335" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B336">
         <v>-385</v>
       </c>
       <c r="C336" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D336" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B337">
         <v>-386</v>
       </c>
       <c r="C337" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D337" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B338">
         <v>-387</v>
       </c>
       <c r="C338" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D338" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B339">
         <v>-388</v>
       </c>
       <c r="C339" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D339" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B340">
         <v>-389</v>
       </c>
       <c r="C340" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6525,796 +6537,820 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B342">
         <v>-391</v>
       </c>
       <c r="C342" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D342" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>4</v>
+        <v>643</v>
       </c>
       <c r="B343">
         <v>-392</v>
       </c>
       <c r="C343" t="s">
-        <v>280</v>
+        <v>290</v>
+      </c>
+      <c r="D343" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B344">
         <v>-393</v>
       </c>
       <c r="C344" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D344" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E344" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B345">
         <v>-394</v>
       </c>
       <c r="C345" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D345" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B346">
         <v>-395</v>
       </c>
       <c r="C346" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D346" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B347">
         <v>-396</v>
       </c>
       <c r="C347" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D347" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B348">
         <v>-397</v>
       </c>
       <c r="C348" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B349">
         <v>-401</v>
       </c>
       <c r="C349" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B350">
         <v>-402</v>
       </c>
       <c r="C350" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B351">
         <v>-403</v>
       </c>
       <c r="C351" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B352">
         <v>-404</v>
       </c>
       <c r="C352" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B353">
         <v>-405</v>
       </c>
       <c r="C353" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="B354">
         <v>-406</v>
       </c>
       <c r="C354" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D354" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B355">
         <v>-407</v>
       </c>
       <c r="C355" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B356">
         <v>-408</v>
       </c>
       <c r="C356" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B357">
         <v>-409</v>
       </c>
       <c r="C357" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B358">
         <v>-410</v>
       </c>
       <c r="C358" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B359">
         <v>-411</v>
       </c>
       <c r="C359" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B360">
         <v>-412</v>
       </c>
       <c r="C360" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B361">
         <v>-413</v>
       </c>
       <c r="C361" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D361" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B362">
         <v>-414</v>
       </c>
       <c r="C362" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D362" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B363">
         <v>-415</v>
       </c>
       <c r="C363" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D363" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="B364">
         <v>-416</v>
       </c>
       <c r="C364" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B365">
         <v>-417</v>
       </c>
       <c r="C365" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B366">
         <v>-418</v>
       </c>
       <c r="C366" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D366" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B367">
         <v>-419</v>
       </c>
       <c r="C367" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D367" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B368">
         <v>-420</v>
       </c>
       <c r="C368" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D368" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B369">
         <v>-421</v>
       </c>
       <c r="C369" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B370">
         <v>-422</v>
       </c>
       <c r="C370" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D370" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="B371">
         <v>-423</v>
       </c>
       <c r="C371" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D371" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B372">
         <v>-424</v>
       </c>
       <c r="C372" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D372" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B373">
         <v>-425</v>
       </c>
       <c r="C373" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D373" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B374">
         <v>-426</v>
       </c>
       <c r="C374" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D374" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B375">
         <v>-427</v>
       </c>
       <c r="C375" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D375" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B376">
         <v>-428</v>
       </c>
       <c r="C376" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D376" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B377">
         <v>-429</v>
       </c>
       <c r="C377" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B378">
         <v>-430</v>
       </c>
       <c r="C378" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B379">
         <v>-431</v>
       </c>
       <c r="C379" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D379" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B380">
         <v>-432</v>
       </c>
       <c r="C380" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D380" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B381">
         <v>-433</v>
       </c>
       <c r="C381" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B382">
         <v>-434</v>
       </c>
       <c r="C382" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B383">
         <v>-435</v>
       </c>
       <c r="C383" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D383" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B384">
         <v>-436</v>
       </c>
       <c r="C384" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B385">
         <v>-437</v>
       </c>
       <c r="C385" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B386">
         <v>-438</v>
       </c>
       <c r="C386" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B387">
         <v>-439</v>
       </c>
       <c r="C387" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B388">
         <v>-440</v>
       </c>
       <c r="C388" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B389">
         <v>-441</v>
       </c>
       <c r="C389" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B390">
         <v>-442</v>
       </c>
       <c r="C390" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B391">
         <v>-443</v>
       </c>
       <c r="C391" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B392">
         <v>-444</v>
       </c>
       <c r="C392" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B393">
         <v>-445</v>
       </c>
       <c r="C393" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>631</v>
+      </c>
       <c r="B394">
         <v>-446</v>
       </c>
+      <c r="C394" t="s">
+        <v>266</v>
+      </c>
+      <c r="D394" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B395">
         <v>-447</v>
       </c>
       <c r="C395" t="s">
-        <v>273</v>
+        <v>266</v>
+      </c>
+      <c r="D395" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B396">
         <v>-448</v>
       </c>
       <c r="C396" t="s">
-        <v>273</v>
+        <v>266</v>
+      </c>
+      <c r="D396" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B397">
         <v>-449</v>
       </c>
       <c r="C397" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B398">
         <v>-450</v>
       </c>
       <c r="C398" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="B399">
         <v>-451</v>
       </c>
       <c r="C399" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B400">
         <v>-452</v>
       </c>
       <c r="C400" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D400" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="B401">
         <v>-453</v>
       </c>
       <c r="C401" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D401" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B402">
         <v>-454</v>
       </c>
       <c r="C402" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B403">
         <v>-455</v>
       </c>
       <c r="C403" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B404">
         <v>-456</v>
       </c>
       <c r="C404" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B405">
         <v>-457</v>
       </c>
       <c r="C405" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>615</v>
+      </c>
       <c r="B406">
         <v>-458</v>
       </c>
+      <c r="C406" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B407">
         <v>-459</v>
       </c>
       <c r="C407" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B408">
         <v>-500</v>
@@ -7345,13 +7381,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B1" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C1" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D1">
         <v>-421</v>
@@ -7359,13 +7395,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="D2">
         <v>-431</v>
@@ -7373,13 +7409,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B3" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C3" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D3">
         <v>-435</v>
@@ -7387,13 +7423,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C4" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D4">
         <v>-429</v>
@@ -7401,13 +7437,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
         <v>472</v>
-      </c>
-      <c r="B5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" t="s">
-        <v>481</v>
       </c>
       <c r="D5">
         <v>-402</v>
@@ -7415,13 +7451,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C6" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D6">
         <v>-432</v>
@@ -7429,13 +7465,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D7">
         <v>-415</v>
@@ -7443,13 +7479,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D8">
         <v>-239</v>
@@ -7457,13 +7493,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B9" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C9" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D9">
         <v>-440</v>
@@ -7471,13 +7507,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C10" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D10">
         <v>-176</v>
@@ -7485,13 +7521,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B11" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C11" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D11">
         <v>-414</v>
@@ -7499,13 +7535,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B12" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C12" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D12">
         <v>-411</v>
@@ -7513,13 +7549,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B13" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D13">
         <v>-403</v>
@@ -7527,13 +7563,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D14">
         <v>-447</v>
@@ -7541,13 +7577,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B15" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D15">
         <v>-416</v>
@@ -7555,13 +7591,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B16" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C16" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D16">
         <v>-406</v>
@@ -7569,13 +7605,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C17" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="D17">
         <v>-199</v>
@@ -7583,13 +7619,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B18" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C18" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D18">
         <v>-200</v>
@@ -7597,13 +7633,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C19" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D19">
         <v>-410</v>
@@ -7611,13 +7647,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C20" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D20">
         <v>-420</v>
@@ -7625,13 +7661,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B21" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C21" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D21">
         <v>-446</v>
@@ -7639,13 +7675,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B22" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C22" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D22">
         <v>-159</v>
@@ -7653,13 +7689,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B23" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C23" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D23">
         <v>-433</v>
@@ -7667,13 +7703,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B24" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C24" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D24">
         <v>-182</v>
@@ -7681,13 +7717,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B25" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C25" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D25">
         <v>-183</v>
@@ -7695,13 +7731,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B26" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C26" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D26">
         <v>-164</v>
@@ -7709,13 +7745,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B27" t="s">
+        <v>462</v>
+      </c>
+      <c r="C27" t="s">
         <v>471</v>
-      </c>
-      <c r="C27" t="s">
-        <v>480</v>
       </c>
       <c r="D27">
         <v>-401</v>
@@ -7723,13 +7759,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B28" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D28">
         <v>-438</v>
@@ -7737,13 +7773,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B29" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C29" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D29">
         <v>-436</v>
@@ -7751,13 +7787,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="B30" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C30" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D30">
         <v>-424</v>
@@ -7765,13 +7801,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B31" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C31" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D31">
         <v>-422</v>
@@ -7779,13 +7815,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="B32" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C32" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D32">
         <v>-437</v>
@@ -7793,13 +7829,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B33" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C33" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D33">
         <v>-423</v>
@@ -7807,13 +7843,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B34" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C34" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D34">
         <v>-434</v>
@@ -7821,13 +7857,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B35" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C35" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D35">
         <v>-405</v>
@@ -7835,13 +7871,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B36" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C36" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="D36">
         <v>-404</v>
@@ -7849,13 +7885,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B37" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C37" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D37">
         <v>-407</v>
@@ -7863,24 +7899,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B38" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C38" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B39" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D39">
         <v>-448</v>
@@ -7888,13 +7924,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="B40" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C40" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D40">
         <v>-439</v>
@@ -7902,13 +7938,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B41" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C41" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D41">
         <v>-151</v>
@@ -7916,13 +7952,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B42" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C42" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D42">
         <v>-413</v>
@@ -7930,13 +7966,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B43" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C43" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D43">
         <v>-408</v>
@@ -7944,13 +7980,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B44" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C44" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D44">
         <v>-426</v>
@@ -7958,13 +7994,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B45" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C45" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D45">
         <v>-409</v>
@@ -7972,13 +8008,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D46">
         <v>-154</v>
@@ -7986,13 +8022,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B47" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C47" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D47">
         <v>-430</v>
@@ -8000,13 +8036,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B48" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C48" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D48">
         <v>-417</v>
@@ -8014,13 +8050,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B49" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C49" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D49">
         <v>-418</v>
@@ -8028,13 +8064,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B50" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C50" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D50">
         <v>-425</v>
@@ -8042,13 +8078,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B51" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C51" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D51">
         <v>-428</v>
@@ -8056,13 +8092,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B52" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C52" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D52">
         <v>-419</v>
@@ -8070,13 +8106,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B53" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D53">
         <v>-412</v>
@@ -8084,13 +8120,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B54" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C54" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D54">
         <v>-441</v>
@@ -8098,13 +8134,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B55" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C55" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D55">
         <v>-442</v>
@@ -8112,13 +8148,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B56" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C56" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D56">
         <v>-190</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635BE704-0E3F-46AB-AFD4-D508CB66E595}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310E11B4-5DDD-4BC3-A494-B407FE28D16E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15420" yWindow="885" windowWidth="13170" windowHeight="16425" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="645">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -1747,12 +1747,6 @@
   </si>
   <si>
     <t>BTree&lt;long,RowSet&gt;</t>
-  </si>
-  <si>
-    <t>Defs</t>
-  </si>
-  <si>
-    <t>Ident.Idents</t>
   </si>
   <si>
     <t>QMarks</t>
@@ -2330,7 +2324,7 @@
   <dimension ref="A1:E408"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408:XFD408"/>
+      <selection activeCell="C399" sqref="C399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2389,7 +2383,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B5">
         <v>-54</v>
@@ -3633,7 +3627,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B105">
         <v>-154</v>
@@ -3642,7 +3636,7 @@
         <v>382</v>
       </c>
       <c r="D105" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3982,16 +3976,16 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B134">
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D134" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4043,13 +4037,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B139">
         <v>-188</v>
       </c>
       <c r="C139" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D139" t="s">
         <v>281</v>
@@ -4057,13 +4051,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4079,13 +4073,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B142">
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D142" t="s">
         <v>267</v>
@@ -4107,13 +4101,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B144">
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4124,7 +4118,7 @@
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4154,7 +4148,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B148">
         <v>-197</v>
@@ -4296,16 +4290,16 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B159">
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D159" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4828,7 +4822,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B203">
         <v>-252</v>
@@ -4853,18 +4847,18 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B206">
         <v>-255</v>
@@ -4875,7 +4869,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B207">
         <v>-256</v>
@@ -4886,7 +4880,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B208">
         <v>-257</v>
@@ -4897,7 +4891,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B209">
         <v>-258</v>
@@ -4908,7 +4902,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B210">
         <v>-259</v>
@@ -4922,7 +4916,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B211">
         <v>-260</v>
@@ -4936,13 +4930,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5299,7 +5293,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B242">
         <v>-291</v>
@@ -5310,7 +5304,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B243">
         <v>-292</v>
@@ -5415,7 +5409,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B252">
         <v>-301</v>
@@ -5424,12 +5418,12 @@
         <v>266</v>
       </c>
       <c r="D252" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B253">
         <v>-302</v>
@@ -5438,7 +5432,7 @@
         <v>266</v>
       </c>
       <c r="D253" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -5546,7 +5540,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B262">
         <v>-311</v>
@@ -5555,7 +5549,7 @@
         <v>266</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -5599,16 +5593,16 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B266">
         <v>-315</v>
       </c>
       <c r="C266" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D266" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5635,16 +5629,16 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B269">
         <v>-318</v>
       </c>
       <c r="C269" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D269" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -5660,7 +5654,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B271">
         <v>-320</v>
@@ -5883,7 +5877,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B288">
         <v>-337</v>
@@ -5920,7 +5914,7 @@
         <v>266</v>
       </c>
       <c r="D290" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6089,7 +6083,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B304">
         <v>-353</v>
@@ -6272,7 +6266,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B319">
         <v>-368</v>
@@ -6297,7 +6291,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B321">
         <v>-370</v>
@@ -6308,7 +6302,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B322">
         <v>-371</v>
@@ -6322,7 +6316,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B323">
         <v>-372</v>
@@ -6336,7 +6330,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B324">
         <v>-373</v>
@@ -6347,7 +6341,7 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B325">
         <v>-374</v>
@@ -6358,7 +6352,7 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B326">
         <v>-375</v>
@@ -6377,7 +6371,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B328">
         <v>-377</v>
@@ -6388,7 +6382,7 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B329">
         <v>-378</v>
@@ -6410,7 +6404,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B331">
         <v>-380</v>
@@ -6551,7 +6545,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B343">
         <v>-392</v>
@@ -6610,7 +6604,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B347">
         <v>-396</v>
@@ -6624,7 +6618,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B348">
         <v>-397</v>
@@ -6812,7 +6806,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B364">
         <v>-416</v>
@@ -7181,7 +7175,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B394">
         <v>-446</v>
@@ -7244,14 +7238,8 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>571</v>
-      </c>
       <c r="B399">
         <v>-451</v>
-      </c>
-      <c r="C399" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7270,43 +7258,43 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B401">
         <v>-453</v>
       </c>
       <c r="C401" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D401" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B402">
         <v>-454</v>
       </c>
       <c r="C402" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B403">
         <v>-455</v>
       </c>
       <c r="C403" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B404">
         <v>-456</v>
@@ -7317,18 +7305,18 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B405">
         <v>-457</v>
       </c>
       <c r="C405" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B406">
         <v>-458</v>
@@ -7339,7 +7327,7 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B407">
         <v>-459</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310E11B4-5DDD-4BC3-A494-B407FE28D16E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650FEF87-E26C-4DF4-8E5A-8034F7C01A5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="885" windowWidth="13170" windowHeight="16425" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
+    <workbookView xWindow="15735" yWindow="105" windowWidth="12855" windowHeight="17205" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="652">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -1969,6 +1969,27 @@
   </si>
   <si>
     <t>Format</t>
+  </si>
+  <si>
+    <t>ObRefs</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,BTree&lt;long,VIC?&gt;&gt;</t>
+  </si>
+  <si>
+    <t>referer,references</t>
+  </si>
+  <si>
+    <t>RefObs</t>
+  </si>
+  <si>
+    <t>VIC explains rowset/dbobject</t>
+  </si>
+  <si>
+    <t>reference,referers</t>
+  </si>
+  <si>
+    <t>Inverse of ObRefs (like V-&gt;K)</t>
   </si>
 </sst>
 </file>
@@ -2321,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
-  <dimension ref="A1:E408"/>
+  <dimension ref="A1:E409"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="C399" sqref="C399"/>
+      <selection activeCell="E402" sqref="E402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7074,7 +7095,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>429</v>
       </c>
@@ -7085,7 +7106,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>430</v>
       </c>
@@ -7096,7 +7117,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>431</v>
       </c>
@@ -7107,7 +7128,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>432</v>
       </c>
@@ -7118,7 +7139,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>434</v>
       </c>
@@ -7129,7 +7150,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>436</v>
       </c>
@@ -7140,7 +7161,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>438</v>
       </c>
@@ -7151,7 +7172,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>439</v>
       </c>
@@ -7162,7 +7183,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>440</v>
       </c>
@@ -7173,7 +7194,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>629</v>
       </c>
@@ -7187,7 +7208,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>442</v>
       </c>
@@ -7201,7 +7222,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>443</v>
       </c>
@@ -7215,7 +7236,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>568</v>
       </c>
@@ -7226,7 +7247,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>423</v>
       </c>
@@ -7237,12 +7258,24 @@
         <v>570</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>645</v>
+      </c>
       <c r="B399">
         <v>-451</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C399" t="s">
+        <v>646</v>
+      </c>
+      <c r="D399" t="s">
+        <v>647</v>
+      </c>
+      <c r="E399" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>429</v>
       </c>
@@ -7256,7 +7289,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>573</v>
       </c>
@@ -7270,7 +7303,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>576</v>
       </c>
@@ -7281,7 +7314,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>578</v>
       </c>
@@ -7292,7 +7325,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>582</v>
       </c>
@@ -7303,7 +7336,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>599</v>
       </c>
@@ -7314,7 +7347,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>613</v>
       </c>
@@ -7325,7 +7358,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>605</v>
       </c>
@@ -7336,17 +7369,34 @@
         <v>266</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>648</v>
+      </c>
+      <c r="B408">
+        <v>-460</v>
+      </c>
+      <c r="C408" t="s">
+        <v>646</v>
+      </c>
+      <c r="D408" t="s">
+        <v>650</v>
+      </c>
+      <c r="E408" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
         <v>14</v>
       </c>
-      <c r="B408">
+      <c r="B409">
         <v>-500</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B411">
-    <sortCondition descending="1" ref="B2:B411"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B412">
+    <sortCondition descending="1" ref="B2:B412"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650FEF87-E26C-4DF4-8E5A-8034F7C01A5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4F4EEF-AC7E-445F-87BD-405A72088DEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15735" yWindow="105" windowWidth="12855" windowHeight="17205" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
+    <workbookView xWindow="15975" yWindow="-15" windowWidth="12855" windowHeight="17205" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="646">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -612,9 +612,6 @@
     <t xml:space="preserve">            Diagnostics </t>
   </si>
   <si>
-    <t xml:space="preserve">            Physicals </t>
-  </si>
-  <si>
     <t xml:space="preserve">            ReadConstraint </t>
   </si>
   <si>
@@ -624,12 +621,6 @@
     <t xml:space="preserve">            TriggeredAction </t>
   </si>
   <si>
-    <t xml:space="preserve">            Warnings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            _Mark </t>
-  </si>
-  <si>
     <t xml:space="preserve">            NewRow </t>
   </si>
   <si>
@@ -831,9 +822,6 @@
     <t>Trig</t>
   </si>
   <si>
-    <t>CompareContext</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -903,9 +891,6 @@
     <t>Level</t>
   </si>
   <si>
-    <t>Context</t>
-  </si>
-  <si>
     <t>Btree&lt;long,bool&gt;</t>
   </si>
   <si>
@@ -1086,24 +1071,15 @@
     <t>Btree&lt;long,TableRow&gt;</t>
   </si>
   <si>
-    <t>Btree&lt;long,Physical&gt;</t>
-  </si>
-  <si>
     <t>Btree&lt;TrigType,Btree&lt;long,bool&gt;&gt;</t>
   </si>
   <si>
     <t>GenerationRule</t>
   </si>
   <si>
-    <t>Blist&lt;TriggerActivation&gt;</t>
-  </si>
-  <si>
     <t>Btree&lt;long,ReadConstraint&gt;</t>
   </si>
   <si>
-    <t>Blist&lt;Exception&gt;</t>
-  </si>
-  <si>
     <t>Ptrigger.TrigType</t>
   </si>
   <si>
@@ -1836,9 +1812,6 @@
     <t>RestValue</t>
   </si>
   <si>
-    <t>long SqlHttpBase</t>
-  </si>
-  <si>
     <t>Connection</t>
   </si>
   <si>
@@ -1990,6 +1963,15 @@
   </si>
   <si>
     <t>Inverse of ObRefs (like V-&gt;K)</t>
+  </si>
+  <si>
+    <t>ExplCursors</t>
+  </si>
+  <si>
+    <t>BList&lt;(long,BTree&lt;long,Cursor&gt;)&gt;</t>
+  </si>
+  <si>
+    <t>Tarray</t>
   </si>
 </sst>
 </file>
@@ -2342,10 +2324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
-  <dimension ref="A1:E409"/>
+  <dimension ref="A1:E410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="E402" sqref="E402"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,13 +2339,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2374,21 +2356,21 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2399,18 +2381,18 @@
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B5">
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2421,7 +2403,7 @@
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2432,7 +2414,7 @@
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,21 +2425,21 @@
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2468,10 +2450,10 @@
         <v>-59</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2482,7 +2464,7 @@
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2493,7 +2475,7 @@
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2504,7 +2486,7 @@
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2515,7 +2497,7 @@
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2526,10 +2508,10 @@
         <v>-64</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2540,10 +2522,10 @@
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2554,7 +2536,7 @@
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2565,7 +2547,7 @@
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,7 +2558,7 @@
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2587,7 +2569,7 @@
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2598,7 +2580,7 @@
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,7 +2591,7 @@
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2620,10 +2602,10 @@
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D23" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2634,7 +2616,7 @@
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2645,7 +2627,7 @@
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2656,7 +2638,7 @@
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2667,7 +2649,7 @@
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2678,7 +2660,7 @@
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2689,7 +2671,7 @@
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2700,7 +2682,7 @@
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2711,7 +2693,7 @@
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2722,7 +2704,7 @@
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2733,7 +2715,7 @@
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2744,7 +2726,7 @@
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,10 +2737,10 @@
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,7 +2751,7 @@
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2780,7 +2762,7 @@
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2791,10 +2773,10 @@
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2805,7 +2787,7 @@
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2816,7 +2798,7 @@
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2827,10 +2809,10 @@
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D41" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2841,10 +2823,10 @@
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D42" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2855,7 +2837,7 @@
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2866,7 +2848,7 @@
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2877,7 +2859,7 @@
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2888,10 +2870,10 @@
         <v>-95</v>
       </c>
       <c r="C46" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D46" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,10 +2884,10 @@
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D47" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2916,10 +2898,10 @@
         <v>-97</v>
       </c>
       <c r="C48" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D48" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2930,7 +2912,7 @@
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2941,7 +2923,7 @@
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2952,10 +2934,10 @@
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D51" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2966,7 +2948,7 @@
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2977,7 +2959,7 @@
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2988,7 +2970,7 @@
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2999,7 +2981,7 @@
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3010,10 +2992,10 @@
         <v>-105</v>
       </c>
       <c r="C56" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3024,10 +3006,10 @@
         <v>-106</v>
       </c>
       <c r="C57" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D57" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3038,10 +3020,10 @@
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D58" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3052,10 +3034,10 @@
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D59" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3066,10 +3048,10 @@
         <v>-109</v>
       </c>
       <c r="C60" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,10 +3062,10 @@
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D61" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3094,10 +3076,10 @@
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D62" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3108,10 +3090,10 @@
         <v>-112</v>
       </c>
       <c r="C63" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3122,10 +3104,10 @@
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D64" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3136,10 +3118,10 @@
         <v>-114</v>
       </c>
       <c r="C65" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D65" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3150,10 +3132,10 @@
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D66" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3164,10 +3146,10 @@
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D67" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3178,10 +3160,10 @@
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D68" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3192,10 +3174,10 @@
         <v>-118</v>
       </c>
       <c r="C69" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D69" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3206,10 +3188,10 @@
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D70" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3220,7 +3202,7 @@
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3231,7 +3213,7 @@
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3242,10 +3224,10 @@
         <v>-122</v>
       </c>
       <c r="C73" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D73" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3256,10 +3238,10 @@
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3270,7 +3252,7 @@
         <v>-124</v>
       </c>
       <c r="C75" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3281,7 +3263,7 @@
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3292,7 +3274,7 @@
         <v>-126</v>
       </c>
       <c r="C77" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3303,10 +3285,10 @@
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D78" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3317,10 +3299,10 @@
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D79" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,10 +3313,10 @@
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D80" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3345,7 +3327,7 @@
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3356,10 +3338,10 @@
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D82" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3370,10 +3352,10 @@
         <v>-132</v>
       </c>
       <c r="C83" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D83" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3384,10 +3366,10 @@
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D84" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3398,10 +3380,10 @@
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D85" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3412,10 +3394,10 @@
         <v>-135</v>
       </c>
       <c r="C86" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D86" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,7 +3408,7 @@
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3437,7 +3419,7 @@
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3448,7 +3430,7 @@
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3459,7 +3441,7 @@
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3470,7 +3452,7 @@
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3481,7 +3463,7 @@
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3492,10 +3474,10 @@
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D93" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3506,10 +3488,10 @@
         <v>-143</v>
       </c>
       <c r="C94" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D94" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3520,10 +3502,10 @@
         <v>-144</v>
       </c>
       <c r="C95" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3534,7 +3516,7 @@
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3545,10 +3527,10 @@
         <v>-146</v>
       </c>
       <c r="C97" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3559,10 +3541,10 @@
         <v>-147</v>
       </c>
       <c r="C98" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D98" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3573,7 +3555,7 @@
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3584,10 +3566,10 @@
         <v>-149</v>
       </c>
       <c r="C100" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D100" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3598,7 +3580,7 @@
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3609,10 +3591,10 @@
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D102" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3623,13 +3605,13 @@
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D103" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E103" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3640,24 +3622,24 @@
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D104" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B105">
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D105" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3668,7 +3650,7 @@
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3679,10 +3661,10 @@
         <v>-156</v>
       </c>
       <c r="C107" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D107" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3693,10 +3675,10 @@
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D108" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3707,7 +3689,7 @@
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3718,10 +3700,10 @@
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D110" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3732,7 +3714,7 @@
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3743,7 +3725,7 @@
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,7 +3736,7 @@
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3765,7 +3747,7 @@
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3776,7 +3758,7 @@
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,7 +3769,7 @@
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3798,18 +3780,18 @@
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B118">
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3820,10 +3802,10 @@
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D119" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3834,7 +3816,7 @@
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3845,7 +3827,7 @@
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3856,7 +3838,7 @@
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3867,24 +3849,24 @@
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D123" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D124" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3895,29 +3877,29 @@
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B127">
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3928,21 +3910,21 @@
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D129" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3953,7 +3935,7 @@
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,21 +3946,21 @@
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D131" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B132">
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3989,24 +3971,24 @@
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D133" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B134">
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D134" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4017,7 +3999,7 @@
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4028,18 +4010,18 @@
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4050,35 +4032,35 @@
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D138" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B139">
         <v>-188</v>
       </c>
       <c r="C139" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D139" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4089,21 +4071,21 @@
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B142">
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D142" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4114,21 +4096,21 @@
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D143" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B144">
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4139,7 +4121,7 @@
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4150,7 +4132,7 @@
         <v>-195</v>
       </c>
       <c r="C146" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4161,24 +4143,24 @@
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D147" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="B148">
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D148" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4189,10 +4171,10 @@
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D149" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4203,10 +4185,10 @@
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D150" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4217,10 +4199,10 @@
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D151" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4231,10 +4213,10 @@
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D152" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4245,7 +4227,7 @@
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4256,10 +4238,10 @@
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D154" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4270,18 +4252,18 @@
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4292,10 +4274,10 @@
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D157" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4306,32 +4288,32 @@
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B159">
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D159" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B160">
         <v>-209</v>
       </c>
       <c r="C160" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4342,10 +4324,10 @@
         <v>-210</v>
       </c>
       <c r="C161" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D161" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4356,10 +4338,10 @@
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D162" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4370,7 +4352,7 @@
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4381,7 +4363,7 @@
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4392,7 +4374,7 @@
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4403,7 +4385,7 @@
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4414,7 +4396,7 @@
         <v>-216</v>
       </c>
       <c r="C167" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4425,10 +4407,10 @@
         <v>-217</v>
       </c>
       <c r="C168" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D168" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4439,7 +4421,7 @@
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4450,7 +4432,7 @@
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4461,7 +4443,7 @@
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4472,7 +4454,7 @@
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,7 +4465,7 @@
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4494,7 +4476,7 @@
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4505,7 +4487,7 @@
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4516,7 +4498,7 @@
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -4527,18 +4509,18 @@
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B178">
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -4549,7 +4531,7 @@
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -4560,7 +4542,7 @@
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -4571,7 +4553,7 @@
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -4582,10 +4564,10 @@
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D182" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4596,7 +4578,7 @@
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4607,7 +4589,7 @@
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -4618,10 +4600,10 @@
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D185" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4632,7 +4614,7 @@
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -4643,10 +4625,10 @@
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D187" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4657,10 +4639,10 @@
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D188" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4671,10 +4653,10 @@
         <v>-238</v>
       </c>
       <c r="C189" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D189" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -4685,24 +4667,24 @@
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D191" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E191" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -4713,7 +4695,7 @@
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,7 +4706,7 @@
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4735,7 +4717,7 @@
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4746,10 +4728,10 @@
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D195" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4760,7 +4742,7 @@
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4771,10 +4753,10 @@
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D197" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4785,7 +4767,7 @@
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4796,10 +4778,10 @@
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D199" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4810,49 +4792,43 @@
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D200" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>265</v>
-      </c>
       <c r="B201">
         <v>-250</v>
       </c>
-      <c r="C201" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B202">
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D202" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D203" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4863,101 +4839,101 @@
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B206">
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B207">
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="B208">
         <v>-257</v>
       </c>
       <c r="C208" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B209">
         <v>-258</v>
       </c>
       <c r="C209" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B210">
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D210" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B211">
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D211" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4968,10 +4944,10 @@
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D213" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4982,7 +4958,7 @@
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4993,10 +4969,10 @@
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D215" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,10 +4983,10 @@
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D216" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5021,10 +4997,10 @@
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D217" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5035,10 +5011,10 @@
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D218" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5049,10 +5025,10 @@
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D219" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5063,7 +5039,7 @@
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5074,10 +5050,10 @@
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D221" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5088,7 +5064,7 @@
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -5099,7 +5075,7 @@
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,7 +5086,7 @@
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5121,7 +5097,7 @@
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5132,18 +5108,18 @@
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B227">
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,10 +5130,10 @@
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D228" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5168,18 +5144,12 @@
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>252</v>
-      </c>
       <c r="B230">
         <v>-279</v>
-      </c>
-      <c r="C230" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5190,54 +5160,42 @@
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>197</v>
-      </c>
       <c r="B232">
         <v>-281</v>
       </c>
-      <c r="C232" t="s">
-        <v>283</v>
-      </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>192</v>
-      </c>
       <c r="B233">
         <v>-282</v>
       </c>
-      <c r="C233" t="s">
-        <v>350</v>
-      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B234">
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B235">
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D235" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5248,10 +5206,10 @@
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D236" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5262,40 +5220,34 @@
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B238">
         <v>-287</v>
       </c>
       <c r="C238" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B239">
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>196</v>
-      </c>
       <c r="B240">
         <v>-289</v>
-      </c>
-      <c r="C240" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5306,385 +5258,385 @@
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D241" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B242">
         <v>-291</v>
       </c>
       <c r="C242" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B243">
         <v>-292</v>
       </c>
       <c r="C243" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B244">
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B245">
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B246">
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B247">
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B248">
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B249">
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D249" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B250">
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D250" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="B252">
         <v>-301</v>
       </c>
       <c r="C252" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D252" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B253">
         <v>-302</v>
       </c>
       <c r="C253" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D253" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B255">
         <v>-304</v>
       </c>
       <c r="C255" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D255" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B256">
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B257">
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D257" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B258">
         <v>-307</v>
       </c>
       <c r="C258" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B259">
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D259" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B260">
         <v>-309</v>
       </c>
       <c r="C260" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D260" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B261">
         <v>-310</v>
       </c>
       <c r="C261" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D261" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B262">
         <v>-311</v>
       </c>
       <c r="C262" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B263">
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D263" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B264">
         <v>-313</v>
       </c>
       <c r="C264" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D264" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B265">
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B266">
         <v>-315</v>
       </c>
       <c r="C266" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D266" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B267">
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B268">
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B269">
         <v>-318</v>
       </c>
       <c r="C269" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D269" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B270">
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B271">
         <v>-320</v>
       </c>
       <c r="C271" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D271" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5695,63 +5647,63 @@
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B273">
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D273" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B274">
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D274" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B275">
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D275" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B276">
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D276" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5762,63 +5714,63 @@
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B278">
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D278" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B279">
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D279" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B280">
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D280" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B281">
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D281" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5829,85 +5781,85 @@
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D283" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B284">
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B285">
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D285" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B286">
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D286" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B287">
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B288">
         <v>-337</v>
       </c>
       <c r="C288" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D288" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5918,35 +5870,35 @@
         <v>-338</v>
       </c>
       <c r="C289" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D289" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B290">
         <v>-339</v>
       </c>
       <c r="C290" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D290" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B291">
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5957,121 +5909,121 @@
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B293">
         <v>-342</v>
       </c>
       <c r="C293" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D293" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B294">
         <v>-343</v>
       </c>
       <c r="C294" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D294" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B295">
         <v>-344</v>
       </c>
       <c r="C295" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D295" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B296">
         <v>-345</v>
       </c>
       <c r="C296" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D296" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B297">
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D297" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B298">
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B299">
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B300">
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B301">
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6082,10 +6034,10 @@
         <v>-351</v>
       </c>
       <c r="C302" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D302" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -6096,15 +6048,15 @@
         <v>-352</v>
       </c>
       <c r="C303" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D303" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B304">
         <v>-353</v>
@@ -6112,30 +6064,30 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B305">
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D305" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B306">
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D306" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6146,10 +6098,10 @@
         <v>-356</v>
       </c>
       <c r="C307" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D307" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6160,60 +6112,60 @@
         <v>-357</v>
       </c>
       <c r="C308" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D308" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B309">
         <v>-358</v>
       </c>
       <c r="C309" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D309" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B310">
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B311">
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B312">
         <v>-361</v>
       </c>
       <c r="C312" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D312" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6224,54 +6176,54 @@
         <v>-362</v>
       </c>
       <c r="C313" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D313" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B314">
         <v>-363</v>
       </c>
       <c r="C314" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D314" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B315">
         <v>-364</v>
       </c>
       <c r="C315" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B316">
         <v>-365</v>
       </c>
       <c r="C316" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D316" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B317">
         <v>-366</v>
@@ -6279,7 +6231,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B318">
         <v>-367</v>
@@ -6287,104 +6239,104 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B319">
         <v>-368</v>
       </c>
       <c r="C319" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B320">
         <v>-369</v>
       </c>
       <c r="C320" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D320" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B321">
         <v>-370</v>
       </c>
       <c r="C321" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B322">
         <v>-371</v>
       </c>
       <c r="C322" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D322" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B323">
         <v>-372</v>
       </c>
       <c r="C323" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D323" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B324">
         <v>-373</v>
       </c>
       <c r="C324" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B325">
         <v>-374</v>
       </c>
       <c r="C325" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B326">
         <v>-375</v>
       </c>
       <c r="C326" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B327">
         <v>-376</v>
@@ -6392,71 +6344,71 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B328">
         <v>-377</v>
       </c>
       <c r="C328" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B329">
         <v>-378</v>
       </c>
       <c r="C329" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B330">
         <v>-379</v>
       </c>
       <c r="C330" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B331">
         <v>-380</v>
       </c>
       <c r="C331" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D331" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B332">
         <v>-381</v>
       </c>
       <c r="C332" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B333">
         <v>-382</v>
       </c>
       <c r="C333" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6466,41 +6418,41 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B335">
         <v>-384</v>
       </c>
       <c r="C335" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B336">
         <v>-385</v>
       </c>
       <c r="C336" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D336" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B337">
         <v>-386</v>
       </c>
       <c r="C337" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D337" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -6511,10 +6463,10 @@
         <v>-387</v>
       </c>
       <c r="C338" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D338" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -6525,21 +6477,21 @@
         <v>-388</v>
       </c>
       <c r="C339" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D339" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B340">
         <v>-389</v>
       </c>
       <c r="C340" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6558,55 +6510,55 @@
         <v>-391</v>
       </c>
       <c r="C342" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D342" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B343">
         <v>-392</v>
       </c>
       <c r="C343" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D343" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B344">
         <v>-393</v>
       </c>
       <c r="C344" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D344" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E344" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B345">
         <v>-394</v>
       </c>
       <c r="C345" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D345" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6617,786 +6569,797 @@
         <v>-395</v>
       </c>
       <c r="C346" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D346" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B347">
         <v>-396</v>
       </c>
       <c r="C347" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D347" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B348">
         <v>-397</v>
       </c>
       <c r="C348" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B349">
         <v>-401</v>
       </c>
       <c r="C349" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B350">
         <v>-402</v>
       </c>
       <c r="C350" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B351">
         <v>-403</v>
       </c>
       <c r="C351" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B352">
         <v>-404</v>
       </c>
       <c r="C352" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B353">
         <v>-405</v>
       </c>
       <c r="C353" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B354">
         <v>-406</v>
       </c>
       <c r="C354" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D354" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B355">
         <v>-407</v>
       </c>
       <c r="C355" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B356">
         <v>-408</v>
       </c>
       <c r="C356" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B357">
         <v>-409</v>
       </c>
       <c r="C357" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B358">
         <v>-410</v>
       </c>
       <c r="C358" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B359">
         <v>-411</v>
       </c>
       <c r="C359" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B360">
         <v>-412</v>
       </c>
       <c r="C360" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B361">
         <v>-413</v>
       </c>
       <c r="C361" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D361" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B362">
         <v>-414</v>
       </c>
       <c r="C362" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D362" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B363">
         <v>-415</v>
       </c>
       <c r="C363" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D363" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="B364">
         <v>-416</v>
       </c>
       <c r="C364" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B365">
         <v>-417</v>
       </c>
       <c r="C365" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B366">
         <v>-418</v>
       </c>
       <c r="C366" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D366" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B367">
         <v>-419</v>
       </c>
       <c r="C367" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D367" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B368">
         <v>-420</v>
       </c>
       <c r="C368" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D368" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B369">
         <v>-421</v>
       </c>
       <c r="C369" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B370">
         <v>-422</v>
       </c>
       <c r="C370" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D370" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B371">
         <v>-423</v>
       </c>
       <c r="C371" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D371" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B372">
         <v>-424</v>
       </c>
       <c r="C372" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D372" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B373">
         <v>-425</v>
       </c>
       <c r="C373" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D373" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B374">
         <v>-426</v>
       </c>
       <c r="C374" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D374" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B375">
         <v>-427</v>
       </c>
       <c r="C375" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D375" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B376">
         <v>-428</v>
       </c>
       <c r="C376" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D376" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B377">
         <v>-429</v>
       </c>
       <c r="C377" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B378">
         <v>-430</v>
       </c>
       <c r="C378" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B379">
         <v>-431</v>
       </c>
       <c r="C379" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D379" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B380">
         <v>-432</v>
       </c>
       <c r="C380" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D380" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B381">
         <v>-433</v>
       </c>
       <c r="C381" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B382">
         <v>-434</v>
       </c>
       <c r="C382" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B383">
         <v>-435</v>
       </c>
       <c r="C383" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D383" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B384">
         <v>-436</v>
       </c>
       <c r="C384" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B385">
         <v>-437</v>
       </c>
       <c r="C385" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B386">
         <v>-438</v>
       </c>
       <c r="C386" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B387">
         <v>-439</v>
       </c>
       <c r="C387" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B388">
         <v>-440</v>
       </c>
       <c r="C388" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B389">
         <v>-441</v>
       </c>
       <c r="C389" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B390">
         <v>-442</v>
       </c>
       <c r="C390" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B391">
         <v>-443</v>
       </c>
       <c r="C391" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B392">
         <v>-444</v>
       </c>
       <c r="C392" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B393">
         <v>-445</v>
       </c>
       <c r="C393" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B394">
         <v>-446</v>
       </c>
       <c r="C394" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D394" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B395">
         <v>-447</v>
       </c>
       <c r="C395" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D395" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B396">
         <v>-448</v>
       </c>
       <c r="C396" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D396" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B397">
         <v>-449</v>
       </c>
       <c r="C397" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B398">
         <v>-450</v>
       </c>
       <c r="C398" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B399">
         <v>-451</v>
       </c>
       <c r="C399" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D399" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="E399" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B400">
         <v>-452</v>
       </c>
       <c r="C400" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D400" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B401">
         <v>-453</v>
       </c>
       <c r="C401" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D401" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="B402">
         <v>-454</v>
       </c>
       <c r="C402" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B403">
         <v>-455</v>
       </c>
       <c r="C403" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B404">
         <v>-456</v>
       </c>
       <c r="C404" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B405">
         <v>-457</v>
       </c>
       <c r="C405" t="s">
-        <v>600</v>
+        <v>645</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B406">
         <v>-458</v>
       </c>
       <c r="C406" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B407">
         <v>-459</v>
       </c>
       <c r="C407" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B408">
         <v>-460</v>
       </c>
       <c r="C408" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D408" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="E408" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>643</v>
+      </c>
+      <c r="B409">
+        <v>-461</v>
+      </c>
+      <c r="C409" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
         <v>14</v>
       </c>
-      <c r="B409">
+      <c r="B410">
         <v>-500</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B412">
-    <sortCondition descending="1" ref="B2:B412"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B413">
+    <sortCondition descending="1" ref="B2:B413"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7419,13 +7382,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D1">
         <v>-421</v>
@@ -7433,13 +7396,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D2">
         <v>-431</v>
@@ -7447,13 +7410,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B3" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D3">
         <v>-435</v>
@@ -7461,13 +7424,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C4" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D4">
         <v>-429</v>
@@ -7475,13 +7438,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D5">
         <v>-402</v>
@@ -7489,13 +7452,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C6" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D6">
         <v>-432</v>
@@ -7503,13 +7466,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="D7">
         <v>-415</v>
@@ -7517,13 +7480,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D8">
         <v>-239</v>
@@ -7531,13 +7494,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B9" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C9" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D9">
         <v>-440</v>
@@ -7545,13 +7508,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C10" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D10">
         <v>-176</v>
@@ -7559,13 +7522,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C11" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D11">
         <v>-414</v>
@@ -7573,13 +7536,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C12" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D12">
         <v>-411</v>
@@ -7587,13 +7550,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" t="s">
         <v>462</v>
-      </c>
-      <c r="C13" t="s">
-        <v>470</v>
       </c>
       <c r="D13">
         <v>-403</v>
@@ -7601,13 +7564,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D14">
         <v>-447</v>
@@ -7615,13 +7578,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C15" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="D15">
         <v>-416</v>
@@ -7629,13 +7592,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B16" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C16" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D16">
         <v>-406</v>
@@ -7643,13 +7606,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C17" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D17">
         <v>-199</v>
@@ -7657,13 +7620,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B18" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D18">
         <v>-200</v>
@@ -7671,13 +7634,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B19" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C19" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D19">
         <v>-410</v>
@@ -7685,13 +7648,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C20" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D20">
         <v>-420</v>
@@ -7699,13 +7662,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B21" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C21" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D21">
         <v>-446</v>
@@ -7713,13 +7676,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B22" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C22" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D22">
         <v>-159</v>
@@ -7727,13 +7690,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B23" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C23" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="D23">
         <v>-433</v>
@@ -7741,13 +7704,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B24" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C24" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D24">
         <v>-182</v>
@@ -7755,13 +7718,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B25" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C25" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D25">
         <v>-183</v>
@@ -7769,13 +7732,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B26" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C26" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D26">
         <v>-164</v>
@@ -7783,13 +7746,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B27" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C27" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D27">
         <v>-401</v>
@@ -7797,13 +7760,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C28" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D28">
         <v>-438</v>
@@ -7811,13 +7774,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C29" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D29">
         <v>-436</v>
@@ -7825,13 +7788,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B30" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C30" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D30">
         <v>-424</v>
@@ -7839,13 +7802,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B31" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C31" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D31">
         <v>-422</v>
@@ -7853,13 +7816,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B32" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C32" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D32">
         <v>-437</v>
@@ -7867,13 +7830,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B33" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C33" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D33">
         <v>-423</v>
@@ -7881,13 +7844,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B34" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C34" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D34">
         <v>-434</v>
@@ -7895,13 +7858,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B35" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C35" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D35">
         <v>-405</v>
@@ -7909,13 +7872,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B36" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C36" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D36">
         <v>-404</v>
@@ -7923,13 +7886,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B37" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C37" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D37">
         <v>-407</v>
@@ -7937,24 +7900,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B38" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C38" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B39" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C39" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D39">
         <v>-448</v>
@@ -7962,13 +7925,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C40" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D40">
         <v>-439</v>
@@ -7976,13 +7939,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B41" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C41" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D41">
         <v>-151</v>
@@ -7990,13 +7953,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B42" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C42" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D42">
         <v>-413</v>
@@ -8004,13 +7967,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B43" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C43" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D43">
         <v>-408</v>
@@ -8018,13 +7981,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B44" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C44" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D44">
         <v>-426</v>
@@ -8032,13 +7995,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B45" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C45" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D45">
         <v>-409</v>
@@ -8046,13 +8009,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D46">
         <v>-154</v>
@@ -8060,13 +8023,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B47" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C47" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D47">
         <v>-430</v>
@@ -8074,13 +8037,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B48" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C48" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D48">
         <v>-417</v>
@@ -8088,13 +8051,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="B49" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C49" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D49">
         <v>-418</v>
@@ -8102,13 +8065,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B50" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C50" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D50">
         <v>-425</v>
@@ -8116,13 +8079,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B51" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C51" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D51">
         <v>-428</v>
@@ -8130,13 +8093,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B52" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C52" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D52">
         <v>-419</v>
@@ -8144,13 +8107,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B53" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C53" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D53">
         <v>-412</v>
@@ -8158,13 +8121,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B54" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C54" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D54">
         <v>-441</v>
@@ -8172,13 +8135,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B55" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C55" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D55">
         <v>-442</v>
@@ -8186,13 +8149,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B56" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C56" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D56">
         <v>-190</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4F4EEF-AC7E-445F-87BD-405A72088DEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB65094-BAB7-41F4-90F2-BCAA848B11AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="-15" windowWidth="12855" windowHeight="17205" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
+    <workbookView xWindow="15900" yWindow="90" windowWidth="12855" windowHeight="17205" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="645">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -486,9 +486,6 @@
     <t xml:space="preserve">            High </t>
   </si>
   <si>
-    <t xml:space="preserve">            Items </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Low </t>
   </si>
   <si>
@@ -615,9 +612,6 @@
     <t xml:space="preserve">            ReadConstraint </t>
   </si>
   <si>
-    <t xml:space="preserve">            StartTime </t>
-  </si>
-  <si>
     <t xml:space="preserve">            TriggeredAction </t>
   </si>
   <si>
@@ -1086,9 +1080,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>InitialRole</t>
-  </si>
-  <si>
     <t>Metadata</t>
   </si>
   <si>
@@ -1972,6 +1963,12 @@
   </si>
   <si>
     <t>Tarray</t>
+  </si>
+  <si>
+    <t>LastModified</t>
+  </si>
+  <si>
+    <t>DateTime</t>
   </si>
 </sst>
 </file>
@@ -2326,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
   <dimension ref="A1:E410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,13 +2336,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2356,21 +2353,21 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2381,18 +2378,18 @@
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B5">
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2403,7 +2400,7 @@
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2414,7 +2411,7 @@
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2425,21 +2422,21 @@
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2450,10 +2447,10 @@
         <v>-59</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,7 +2461,7 @@
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,7 +2472,7 @@
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2486,7 +2483,7 @@
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2497,7 +2494,7 @@
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2508,10 +2505,10 @@
         <v>-64</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2522,10 +2519,10 @@
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2536,7 +2533,7 @@
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2547,7 +2544,7 @@
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2558,7 +2555,7 @@
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2569,7 +2566,7 @@
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2580,7 +2577,7 @@
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2591,7 +2588,7 @@
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2602,10 +2599,10 @@
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2616,7 +2613,7 @@
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,7 +2624,7 @@
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2638,7 +2635,7 @@
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2649,7 +2646,7 @@
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2660,7 +2657,7 @@
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,7 +2668,7 @@
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2682,7 +2679,7 @@
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2693,7 +2690,7 @@
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2704,7 +2701,7 @@
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2715,7 +2712,7 @@
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2726,7 +2723,7 @@
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2737,10 +2734,10 @@
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2751,7 +2748,7 @@
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2762,7 +2759,7 @@
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2773,10 +2770,10 @@
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2787,7 +2784,7 @@
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2798,7 +2795,7 @@
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2809,10 +2806,10 @@
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D41" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2823,10 +2820,10 @@
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2837,7 +2834,7 @@
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2848,7 +2845,7 @@
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2859,7 +2856,7 @@
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2870,10 +2867,10 @@
         <v>-95</v>
       </c>
       <c r="C46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D46" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,10 +2881,10 @@
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2898,10 +2895,10 @@
         <v>-97</v>
       </c>
       <c r="C48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2912,7 +2909,7 @@
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,7 +2920,7 @@
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2934,10 +2931,10 @@
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2948,7 +2945,7 @@
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2959,7 +2956,7 @@
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,7 +2967,7 @@
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,7 +2978,7 @@
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2992,10 +2989,10 @@
         <v>-105</v>
       </c>
       <c r="C56" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3006,10 +3003,10 @@
         <v>-106</v>
       </c>
       <c r="C57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3020,10 +3017,10 @@
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D58" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3034,10 +3031,10 @@
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3048,10 +3045,10 @@
         <v>-109</v>
       </c>
       <c r="C60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D60" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3062,10 +3059,10 @@
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D61" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3076,10 +3073,10 @@
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D62" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3090,10 +3087,10 @@
         <v>-112</v>
       </c>
       <c r="C63" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D63" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,10 +3101,10 @@
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D64" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3118,10 +3115,10 @@
         <v>-114</v>
       </c>
       <c r="C65" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3132,10 +3129,10 @@
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D66" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3146,10 +3143,10 @@
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3160,10 +3157,10 @@
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D68" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3174,10 +3171,10 @@
         <v>-118</v>
       </c>
       <c r="C69" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3188,10 +3185,10 @@
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3202,7 +3199,7 @@
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3213,7 +3210,7 @@
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3224,10 +3221,10 @@
         <v>-122</v>
       </c>
       <c r="C73" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D73" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3238,10 +3235,10 @@
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D74" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3252,7 +3249,7 @@
         <v>-124</v>
       </c>
       <c r="C75" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3263,7 +3260,7 @@
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3274,7 +3271,7 @@
         <v>-126</v>
       </c>
       <c r="C77" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3285,10 +3282,10 @@
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D78" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3299,10 +3296,10 @@
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3313,10 +3310,10 @@
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D80" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3327,7 +3324,7 @@
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3338,10 +3335,10 @@
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3352,10 +3349,10 @@
         <v>-132</v>
       </c>
       <c r="C83" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D83" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3366,10 +3363,10 @@
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3380,10 +3377,10 @@
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D85" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3394,10 +3391,10 @@
         <v>-135</v>
       </c>
       <c r="C86" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D86" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3408,7 +3405,7 @@
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3419,7 +3416,7 @@
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3430,7 +3427,7 @@
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3441,7 +3438,7 @@
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3452,7 +3449,7 @@
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3463,7 +3460,7 @@
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,10 +3471,10 @@
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D93" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3488,10 +3485,10 @@
         <v>-143</v>
       </c>
       <c r="C94" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3502,10 +3499,10 @@
         <v>-144</v>
       </c>
       <c r="C95" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D95" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3516,7 +3513,7 @@
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3527,10 +3524,10 @@
         <v>-146</v>
       </c>
       <c r="C97" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D97" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3541,10 +3538,10 @@
         <v>-147</v>
       </c>
       <c r="C98" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D98" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3555,7 +3552,7 @@
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3566,10 +3563,10 @@
         <v>-149</v>
       </c>
       <c r="C100" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D100" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3580,7 +3577,7 @@
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3591,10 +3588,10 @@
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D102" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3605,13 +3602,13 @@
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D103" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E103" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3622,24 +3619,24 @@
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D104" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B105">
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D105" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3650,7 +3647,7 @@
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3661,10 +3658,10 @@
         <v>-156</v>
       </c>
       <c r="C107" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D107" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3675,10 +3672,10 @@
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D108" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3689,7 +3686,7 @@
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3700,10 +3697,10 @@
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D110" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3714,7 +3711,7 @@
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3725,7 +3722,7 @@
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3736,7 +3733,7 @@
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3747,7 +3744,7 @@
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3758,7 +3755,7 @@
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3769,7 +3766,7 @@
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3780,18 +3777,18 @@
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B118">
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3802,10 +3799,10 @@
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D119" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3816,7 +3813,7 @@
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3827,7 +3824,7 @@
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3838,7 +3835,7 @@
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3849,24 +3846,24 @@
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D123" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D124" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3877,29 +3874,29 @@
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B127">
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3910,21 +3907,21 @@
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D129" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3935,7 +3932,7 @@
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3946,21 +3943,21 @@
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D131" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B132">
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3971,24 +3968,24 @@
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D133" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B134">
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D134" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3999,7 +3996,7 @@
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4010,18 +4007,18 @@
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4032,35 +4029,35 @@
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D138" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B139">
         <v>-188</v>
       </c>
       <c r="C139" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4071,21 +4068,21 @@
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B142">
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4096,21 +4093,21 @@
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D143" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B144">
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4121,7 +4118,7 @@
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4132,7 +4129,7 @@
         <v>-195</v>
       </c>
       <c r="C146" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4143,24 +4140,24 @@
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D147" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B148">
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D148" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4171,10 +4168,10 @@
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D149" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4185,10 +4182,10 @@
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D150" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4199,10 +4196,10 @@
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D151" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4213,10 +4210,10 @@
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D152" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4227,7 +4224,7 @@
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4238,10 +4235,10 @@
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D154" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4252,18 +4249,18 @@
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4274,10 +4271,10 @@
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4288,32 +4285,32 @@
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B159">
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D159" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B160">
         <v>-209</v>
       </c>
       <c r="C160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4324,10 +4321,10 @@
         <v>-210</v>
       </c>
       <c r="C161" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D161" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4338,10 +4335,10 @@
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D162" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4352,7 +4349,7 @@
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4363,7 +4360,7 @@
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4374,7 +4371,7 @@
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4385,7 +4382,7 @@
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4396,21 +4393,12 @@
         <v>-216</v>
       </c>
       <c r="C167" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>150</v>
-      </c>
       <c r="B168">
         <v>-217</v>
-      </c>
-      <c r="C168" t="s">
-        <v>293</v>
-      </c>
-      <c r="D168" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4421,7 +4409,7 @@
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4432,29 +4420,29 @@
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B171">
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B172">
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4465,7 +4453,7 @@
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4476,98 +4464,98 @@
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B175">
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B176">
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B177">
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B178">
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B179">
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B180">
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B181">
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B182">
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D182" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -4578,7 +4566,7 @@
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -4589,21 +4577,21 @@
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B185">
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D185" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -4614,21 +4602,21 @@
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B187">
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D187" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -4639,10 +4627,10 @@
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D188" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -4653,149 +4641,149 @@
         <v>-238</v>
       </c>
       <c r="C189" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D189" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B190">
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D191" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E191" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B192">
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B193">
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B194">
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B195">
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D195" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B196">
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B197">
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D197" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B198">
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B199">
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D199" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B200">
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D200" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4805,321 +4793,321 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B202">
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D202" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D203" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B204">
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B206">
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B207">
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B208">
         <v>-257</v>
       </c>
       <c r="C208" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B209">
         <v>-258</v>
       </c>
       <c r="C209" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B210">
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D210" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B211">
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D211" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B213">
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D213" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B214">
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B215">
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D215" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B216">
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D216" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B217">
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D217" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B218">
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D218" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B219">
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D219" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B220">
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B221">
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D221" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B222">
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B223">
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B224">
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B225">
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B226">
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B227">
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -5130,37 +5118,43 @@
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D228" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B229">
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>643</v>
+      </c>
       <c r="B230">
         <v>-279</v>
       </c>
+      <c r="C230" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B231">
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5175,27 +5169,27 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B234">
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B235">
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D235" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5206,10 +5200,10 @@
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D236" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5220,29 +5214,23 @@
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>193</v>
-      </c>
       <c r="B238">
         <v>-287</v>
       </c>
-      <c r="C238" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B239">
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5258,452 +5246,443 @@
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D241" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B242">
         <v>-291</v>
       </c>
       <c r="C242" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B243">
         <v>-292</v>
       </c>
       <c r="C243" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B244">
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B245">
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B246">
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B247">
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B248">
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B249">
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D249" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B250">
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D250" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B252">
         <v>-301</v>
       </c>
       <c r="C252" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D252" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B253">
         <v>-302</v>
       </c>
       <c r="C253" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D253" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>350</v>
-      </c>
       <c r="B255">
         <v>-304</v>
       </c>
-      <c r="C255" t="s">
-        <v>262</v>
-      </c>
-      <c r="D255" t="s">
-        <v>269</v>
-      </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B256">
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B257">
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D257" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B258">
         <v>-307</v>
       </c>
       <c r="C258" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B259">
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D259" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B260">
         <v>-309</v>
       </c>
       <c r="C260" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D260" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B261">
         <v>-310</v>
       </c>
       <c r="C261" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D261" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B262">
         <v>-311</v>
       </c>
       <c r="C262" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B263">
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D263" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B264">
         <v>-313</v>
       </c>
       <c r="C264" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D264" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B265">
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B266">
         <v>-315</v>
       </c>
       <c r="C266" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D266" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B267">
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B268">
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B269">
         <v>-318</v>
       </c>
       <c r="C269" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D269" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B270">
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B271">
         <v>-320</v>
       </c>
       <c r="C271" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D271" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B272">
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B273">
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D273" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B274">
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D274" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B275">
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D275" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B276">
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D276" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5714,63 +5693,63 @@
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B278">
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D278" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B279">
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D279" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B280">
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D280" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B281">
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D281" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5781,85 +5760,85 @@
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D283" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B284">
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B285">
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D285" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B286">
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D286" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B287">
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B288">
         <v>-337</v>
       </c>
       <c r="C288" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D288" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -5870,35 +5849,35 @@
         <v>-338</v>
       </c>
       <c r="C289" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D289" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B290">
         <v>-339</v>
       </c>
       <c r="C290" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D290" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B291">
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5909,121 +5888,121 @@
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B293">
         <v>-342</v>
       </c>
       <c r="C293" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D293" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B294">
         <v>-343</v>
       </c>
       <c r="C294" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D294" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B295">
         <v>-344</v>
       </c>
       <c r="C295" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D295" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B296">
         <v>-345</v>
       </c>
       <c r="C296" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D296" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B297">
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D297" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B298">
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B299">
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B300">
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B301">
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6034,29 +6013,29 @@
         <v>-351</v>
       </c>
       <c r="C302" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D302" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B303">
         <v>-352</v>
       </c>
       <c r="C303" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D303" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B304">
         <v>-353</v>
@@ -6064,30 +6043,30 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B305">
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D305" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B306">
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D306" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6098,10 +6077,10 @@
         <v>-356</v>
       </c>
       <c r="C307" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D307" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6112,60 +6091,60 @@
         <v>-357</v>
       </c>
       <c r="C308" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D308" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B309">
         <v>-358</v>
       </c>
       <c r="C309" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D309" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B310">
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B311">
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B312">
         <v>-361</v>
       </c>
       <c r="C312" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D312" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6176,54 +6155,54 @@
         <v>-362</v>
       </c>
       <c r="C313" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D313" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B314">
         <v>-363</v>
       </c>
       <c r="C314" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D314" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B315">
         <v>-364</v>
       </c>
       <c r="C315" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B316">
         <v>-365</v>
       </c>
       <c r="C316" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D316" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B317">
         <v>-366</v>
@@ -6231,7 +6210,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B318">
         <v>-367</v>
@@ -6239,104 +6218,104 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B319">
         <v>-368</v>
       </c>
       <c r="C319" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B320">
         <v>-369</v>
       </c>
       <c r="C320" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D320" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B321">
         <v>-370</v>
       </c>
       <c r="C321" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B322">
         <v>-371</v>
       </c>
       <c r="C322" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D322" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B323">
         <v>-372</v>
       </c>
       <c r="C323" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D323" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B324">
         <v>-373</v>
       </c>
       <c r="C324" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B325">
         <v>-374</v>
       </c>
       <c r="C325" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B326">
         <v>-375</v>
       </c>
       <c r="C326" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B327">
         <v>-376</v>
@@ -6344,71 +6323,71 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B328">
         <v>-377</v>
       </c>
       <c r="C328" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B329">
         <v>-378</v>
       </c>
       <c r="C329" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B330">
         <v>-379</v>
       </c>
       <c r="C330" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B331">
         <v>-380</v>
       </c>
       <c r="C331" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D331" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B332">
         <v>-381</v>
       </c>
       <c r="C332" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B333">
         <v>-382</v>
       </c>
       <c r="C333" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
@@ -6418,80 +6397,80 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B335">
         <v>-384</v>
       </c>
       <c r="C335" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B336">
         <v>-385</v>
       </c>
       <c r="C336" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D336" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B337">
         <v>-386</v>
       </c>
       <c r="C337" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D337" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B338">
         <v>-387</v>
       </c>
       <c r="C338" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D338" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B339">
         <v>-388</v>
       </c>
       <c r="C339" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D339" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B340">
         <v>-389</v>
       </c>
       <c r="C340" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6510,55 +6489,55 @@
         <v>-391</v>
       </c>
       <c r="C342" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D342" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B343">
         <v>-392</v>
       </c>
       <c r="C343" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D343" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B344">
         <v>-393</v>
       </c>
       <c r="C344" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D344" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E344" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B345">
         <v>-394</v>
       </c>
       <c r="C345" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D345" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6569,784 +6548,784 @@
         <v>-395</v>
       </c>
       <c r="C346" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D346" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B347">
         <v>-396</v>
       </c>
       <c r="C347" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D347" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B348">
         <v>-397</v>
       </c>
       <c r="C348" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B349">
         <v>-401</v>
       </c>
       <c r="C349" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B350">
         <v>-402</v>
       </c>
       <c r="C350" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B351">
         <v>-403</v>
       </c>
       <c r="C351" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B352">
         <v>-404</v>
       </c>
       <c r="C352" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B353">
         <v>-405</v>
       </c>
       <c r="C353" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B354">
         <v>-406</v>
       </c>
       <c r="C354" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D354" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B355">
         <v>-407</v>
       </c>
       <c r="C355" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B356">
         <v>-408</v>
       </c>
       <c r="C356" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B357">
         <v>-409</v>
       </c>
       <c r="C357" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B358">
         <v>-410</v>
       </c>
       <c r="C358" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B359">
         <v>-411</v>
       </c>
       <c r="C359" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B360">
         <v>-412</v>
       </c>
       <c r="C360" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B361">
         <v>-413</v>
       </c>
       <c r="C361" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D361" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B362">
         <v>-414</v>
       </c>
       <c r="C362" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D362" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B363">
         <v>-415</v>
       </c>
       <c r="C363" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D363" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B364">
         <v>-416</v>
       </c>
       <c r="C364" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B365">
         <v>-417</v>
       </c>
       <c r="C365" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B366">
         <v>-418</v>
       </c>
       <c r="C366" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D366" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B367">
         <v>-419</v>
       </c>
       <c r="C367" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D367" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B368">
         <v>-420</v>
       </c>
       <c r="C368" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D368" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B369">
         <v>-421</v>
       </c>
       <c r="C369" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B370">
         <v>-422</v>
       </c>
       <c r="C370" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D370" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B371">
         <v>-423</v>
       </c>
       <c r="C371" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D371" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B372">
         <v>-424</v>
       </c>
       <c r="C372" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D372" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B373">
         <v>-425</v>
       </c>
       <c r="C373" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D373" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B374">
         <v>-426</v>
       </c>
       <c r="C374" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D374" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B375">
         <v>-427</v>
       </c>
       <c r="C375" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D375" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B376">
         <v>-428</v>
       </c>
       <c r="C376" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D376" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B377">
         <v>-429</v>
       </c>
       <c r="C377" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B378">
         <v>-430</v>
       </c>
       <c r="C378" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B379">
         <v>-431</v>
       </c>
       <c r="C379" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D379" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B380">
         <v>-432</v>
       </c>
       <c r="C380" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D380" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B381">
         <v>-433</v>
       </c>
       <c r="C381" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B382">
         <v>-434</v>
       </c>
       <c r="C382" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B383">
         <v>-435</v>
       </c>
       <c r="C383" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D383" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B384">
         <v>-436</v>
       </c>
       <c r="C384" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B385">
         <v>-437</v>
       </c>
       <c r="C385" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B386">
         <v>-438</v>
       </c>
       <c r="C386" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B387">
         <v>-439</v>
       </c>
       <c r="C387" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B388">
         <v>-440</v>
       </c>
       <c r="C388" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B389">
         <v>-441</v>
       </c>
       <c r="C389" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B390">
         <v>-442</v>
       </c>
       <c r="C390" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B391">
         <v>-443</v>
       </c>
       <c r="C391" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B392">
         <v>-444</v>
       </c>
       <c r="C392" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B393">
         <v>-445</v>
       </c>
       <c r="C393" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B394">
         <v>-446</v>
       </c>
       <c r="C394" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D394" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B395">
         <v>-447</v>
       </c>
       <c r="C395" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D395" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B396">
         <v>-448</v>
       </c>
       <c r="C396" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D396" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B397">
         <v>-449</v>
       </c>
       <c r="C397" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B398">
         <v>-450</v>
       </c>
       <c r="C398" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B399">
         <v>-451</v>
       </c>
       <c r="C399" t="s">
+        <v>634</v>
+      </c>
+      <c r="D399" t="s">
+        <v>635</v>
+      </c>
+      <c r="E399" t="s">
         <v>637</v>
-      </c>
-      <c r="D399" t="s">
-        <v>638</v>
-      </c>
-      <c r="E399" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B400">
         <v>-452</v>
       </c>
       <c r="C400" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D400" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B401">
         <v>-453</v>
       </c>
       <c r="C401" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D401" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B402">
         <v>-454</v>
       </c>
       <c r="C402" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B403">
         <v>-455</v>
       </c>
       <c r="C403" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B404">
         <v>-456</v>
       </c>
       <c r="C404" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B405">
         <v>-457</v>
       </c>
       <c r="C405" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B406">
         <v>-458</v>
       </c>
       <c r="C406" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B407">
         <v>-459</v>
       </c>
       <c r="C407" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B408">
         <v>-460</v>
       </c>
       <c r="C408" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D408" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E408" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B409">
         <v>-461</v>
       </c>
       <c r="C409" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -7382,13 +7361,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D1">
         <v>-421</v>
@@ -7396,13 +7375,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D2">
         <v>-431</v>
@@ -7410,13 +7389,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D3">
         <v>-435</v>
@@ -7424,13 +7403,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D4">
         <v>-429</v>
@@ -7438,13 +7417,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D5">
         <v>-402</v>
@@ -7452,13 +7431,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D6">
         <v>-432</v>
@@ -7466,13 +7445,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D7">
         <v>-415</v>
@@ -7480,13 +7459,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D8">
         <v>-239</v>
@@ -7494,13 +7473,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B9" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C9" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D9">
         <v>-440</v>
@@ -7508,13 +7487,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D10">
         <v>-176</v>
@@ -7522,13 +7501,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D11">
         <v>-414</v>
@@ -7536,13 +7515,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D12">
         <v>-411</v>
@@ -7550,13 +7529,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" t="s">
         <v>459</v>
-      </c>
-      <c r="B13" t="s">
-        <v>454</v>
-      </c>
-      <c r="C13" t="s">
-        <v>462</v>
       </c>
       <c r="D13">
         <v>-403</v>
@@ -7564,13 +7543,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D14">
         <v>-447</v>
@@ -7578,13 +7557,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D15">
         <v>-416</v>
@@ -7592,13 +7571,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C16" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D16">
         <v>-406</v>
@@ -7606,13 +7585,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C17" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D17">
         <v>-199</v>
@@ -7620,13 +7599,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B18" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C18" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D18">
         <v>-200</v>
@@ -7634,13 +7613,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C19" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D19">
         <v>-410</v>
@@ -7648,13 +7627,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D20">
         <v>-420</v>
@@ -7662,13 +7641,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B21" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C21" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D21">
         <v>-446</v>
@@ -7676,13 +7655,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B22" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C22" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D22">
         <v>-159</v>
@@ -7690,13 +7669,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B23" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C23" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D23">
         <v>-433</v>
@@ -7704,13 +7683,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B24" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C24" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D24">
         <v>-182</v>
@@ -7718,13 +7697,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D25">
         <v>-183</v>
@@ -7732,13 +7711,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B26" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C26" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D26">
         <v>-164</v>
@@ -7746,13 +7725,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B27" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C27" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D27">
         <v>-401</v>
@@ -7760,13 +7739,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D28">
         <v>-438</v>
@@ -7774,13 +7753,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B29" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C29" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D29">
         <v>-436</v>
@@ -7788,13 +7767,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B30" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C30" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D30">
         <v>-424</v>
@@ -7802,13 +7781,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B31" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C31" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D31">
         <v>-422</v>
@@ -7816,13 +7795,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B32" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C32" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D32">
         <v>-437</v>
@@ -7830,13 +7809,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B33" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D33">
         <v>-423</v>
@@ -7844,13 +7823,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B34" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C34" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D34">
         <v>-434</v>
@@ -7858,13 +7837,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B35" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C35" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D35">
         <v>-405</v>
@@ -7872,13 +7851,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B36" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C36" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D36">
         <v>-404</v>
@@ -7886,13 +7865,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B37" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C37" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D37">
         <v>-407</v>
@@ -7900,24 +7879,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B38" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C38" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C39" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D39">
         <v>-448</v>
@@ -7925,13 +7904,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C40" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D40">
         <v>-439</v>
@@ -7939,13 +7918,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C41" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D41">
         <v>-151</v>
@@ -7953,13 +7932,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B42" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C42" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D42">
         <v>-413</v>
@@ -7967,13 +7946,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B43" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C43" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D43">
         <v>-408</v>
@@ -7981,13 +7960,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B44" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C44" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D44">
         <v>-426</v>
@@ -7995,13 +7974,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C45" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D45">
         <v>-409</v>
@@ -8009,13 +7988,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B46" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C46" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D46">
         <v>-154</v>
@@ -8023,13 +8002,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B47" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C47" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D47">
         <v>-430</v>
@@ -8037,13 +8016,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B48" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C48" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D48">
         <v>-417</v>
@@ -8051,13 +8030,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B49" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C49" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D49">
         <v>-418</v>
@@ -8065,13 +8044,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B50" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C50" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D50">
         <v>-425</v>
@@ -8079,13 +8058,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B51" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C51" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D51">
         <v>-428</v>
@@ -8093,13 +8072,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B52" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C52" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D52">
         <v>-419</v>
@@ -8107,13 +8086,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B53" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C53" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D53">
         <v>-412</v>
@@ -8121,13 +8100,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B54" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C54" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D54">
         <v>-441</v>
@@ -8135,13 +8114,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B55" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C55" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D55">
         <v>-442</v>
@@ -8149,13 +8128,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B56" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C56" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D56">
         <v>-190</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB65094-BAB7-41F4-90F2-BCAA848B11AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E770A267-B8F0-48C4-A191-BB2BEE315893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15900" yWindow="90" windowWidth="12855" windowHeight="17205" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
+    <workbookView xWindow="14925" yWindow="495" windowWidth="13515" windowHeight="16275" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="653">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -174,9 +174,6 @@
     <t xml:space="preserve">            UnionOf </t>
   </si>
   <si>
-    <t xml:space="preserve">             CS </t>
-  </si>
-  <si>
     <t xml:space="preserve">             Stms </t>
   </si>
   <si>
@@ -387,21 +384,6 @@
     <t xml:space="preserve">            Display </t>
   </si>
   <si>
-    <t xml:space="preserve">            FDConds </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            FDIndexDefPos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            FDRefIndexDefPos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            FDRefTableDefPos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            FDTableDefPos </t>
-  </si>
-  <si>
     <t xml:space="preserve">            FetchFirst </t>
   </si>
   <si>
@@ -441,27 +423,18 @@
     <t xml:space="preserve">            RestGroups </t>
   </si>
   <si>
-    <t xml:space="preserve">            Reverse </t>
-  </si>
-  <si>
     <t xml:space="preserve">            RightOperand </t>
   </si>
   <si>
     <t xml:space="preserve">            RowType </t>
   </si>
   <si>
-    <t xml:space="preserve">            RVQSpecs </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Union </t>
   </si>
   <si>
     <t xml:space="preserve">            Windows </t>
   </si>
   <si>
-    <t xml:space="preserve">            _FDInfo </t>
-  </si>
-  <si>
     <t xml:space="preserve">            _Source </t>
   </si>
   <si>
@@ -645,9 +618,6 @@
     <t xml:space="preserve">            Array </t>
   </si>
   <si>
-    <t xml:space="preserve">            ArrayValuedQE </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Attrs </t>
   </si>
   <si>
@@ -702,12 +672,6 @@
     <t xml:space="preserve">            Op2 </t>
   </si>
   <si>
-    <t xml:space="preserve">            QExpr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Query </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Right </t>
   </si>
   <si>
@@ -717,9 +681,6 @@
     <t xml:space="preserve">            Sce </t>
   </si>
   <si>
-    <t xml:space="preserve">            Select </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Spec </t>
   </si>
   <si>
@@ -738,9 +699,6 @@
     <t xml:space="preserve">            TreatType </t>
   </si>
   <si>
-    <t xml:space="preserve">            UsingTablePos </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Vals </t>
   </si>
   <si>
@@ -762,18 +720,9 @@
     <t xml:space="preserve">            ClientPassword </t>
   </si>
   <si>
-    <t xml:space="preserve">            RemoteAggregates </t>
-  </si>
-  <si>
     <t xml:space="preserve">            ViewDef </t>
   </si>
   <si>
-    <t xml:space="preserve">            ViewStructPos </t>
-  </si>
-  <si>
-    <t>_Columns</t>
-  </si>
-  <si>
     <t>Property</t>
   </si>
   <si>
@@ -891,9 +840,6 @@
     <t>Domain</t>
   </si>
   <si>
-    <t>Btree&lt;long,DBObject&gt;</t>
-  </si>
-  <si>
     <t>CharSet</t>
   </si>
   <si>
@@ -915,9 +861,6 @@
     <t>Executable.Type</t>
   </si>
   <si>
-    <t>CursorSpecification</t>
-  </si>
-  <si>
     <t>Blist&lt;string&gt;</t>
   </si>
   <si>
@@ -957,9 +900,6 @@
     <t>Blist&lt;UpdateAssignment&gt;</t>
   </si>
   <si>
-    <t>Query</t>
-  </si>
-  <si>
     <t>From</t>
   </si>
   <si>
@@ -1002,9 +942,6 @@
     <t>QuerySpecification</t>
   </si>
   <si>
-    <t>QueryExpression</t>
-  </si>
-  <si>
     <t>Needed</t>
   </si>
   <si>
@@ -1020,18 +957,12 @@
     <t>TableColumn</t>
   </si>
   <si>
-    <t>FDJoinPart</t>
-  </si>
-  <si>
     <t xml:space="preserve">            LeftOrder</t>
   </si>
   <si>
     <t xml:space="preserve">            RightOrder</t>
   </si>
   <si>
-    <t>Btree&lt;long,SqlValue</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -1143,832 +1074,925 @@
     <t>Clist&lt;long,Domain&gt;</t>
   </si>
   <si>
+    <t>BList&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>Clist&lt;long&gt;</t>
+  </si>
+  <si>
+    <t>_Needed</t>
+  </si>
+  <si>
+    <t>Built</t>
+  </si>
+  <si>
+    <t>_Finder</t>
+  </si>
+  <si>
+    <t>RowOrder</t>
+  </si>
+  <si>
+    <t>Btree&lt;long,Finder&gt;</t>
+  </si>
+  <si>
+    <t>TRow</t>
+  </si>
+  <si>
+    <t>Singleton</t>
+  </si>
+  <si>
+    <t>Groupings</t>
+  </si>
+  <si>
+    <t>Grouping</t>
+  </si>
+  <si>
+    <t>Blist&lt;TRow&gt;</t>
+  </si>
+  <si>
+    <t>IxTable</t>
+  </si>
+  <si>
+    <t>_Index</t>
+  </si>
+  <si>
+    <t>IxFilter</t>
+  </si>
+  <si>
+    <t>_Rows</t>
+  </si>
+  <si>
+    <t>PRow</t>
+  </si>
+  <si>
+    <t>_RTree</t>
+  </si>
+  <si>
+    <t>RTree</t>
+  </si>
+  <si>
+    <t>SqlRows</t>
+  </si>
+  <si>
+    <t>ExplRows</t>
+  </si>
+  <si>
+    <t>Blist&lt;(long,TRow)&gt;</t>
+  </si>
+  <si>
+    <t>Defaults</t>
+  </si>
+  <si>
+    <t>TargetInfo</t>
+  </si>
+  <si>
+    <t>TargetTrans</t>
+  </si>
+  <si>
+    <t>TransTarget</t>
+  </si>
+  <si>
+    <t>IxDefPos</t>
+  </si>
+  <si>
+    <t>TriggerType</t>
+  </si>
+  <si>
+    <t>RbActs</t>
+  </si>
+  <si>
+    <t>Btree&lt;long,TriggerActivation&gt;</t>
+  </si>
+  <si>
+    <t>RiActs</t>
+  </si>
+  <si>
+    <t>RaActs</t>
+  </si>
+  <si>
+    <t>TbActs</t>
+  </si>
+  <si>
+    <t>TiActs</t>
+  </si>
+  <si>
+    <t>TaActs</t>
+  </si>
+  <si>
+    <t>Adapters</t>
+  </si>
+  <si>
+    <t>_Adapters</t>
+  </si>
+  <si>
+    <t>TargetAc</t>
+  </si>
+  <si>
+    <t>TdActs</t>
+  </si>
+  <si>
+    <t>TrsDefPos</t>
+  </si>
+  <si>
+    <t>TransitionRowSet</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Rmap</t>
+  </si>
+  <si>
+    <t>RecPos</t>
+  </si>
+  <si>
+    <t>Proc</t>
+  </si>
+  <si>
+    <t>Actuals</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
+    <t>Blist&lt;SqlValue&gt;</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Tmultiset</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>SqlFunction</t>
+  </si>
+  <si>
+    <t>SysTable</t>
+  </si>
+  <si>
+    <t>JoinPart</t>
+  </si>
+  <si>
+    <t>JFirst</t>
+  </si>
+  <si>
+    <t>JSecond</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>rowOrder</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>DBObject._Domain</t>
+  </si>
+  <si>
+    <t>(domain.rowType)</t>
+  </si>
+  <si>
+    <t>CList&lt;long&gt;</t>
+  </si>
+  <si>
+    <t>Index.Keys</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,bool&gt;</t>
+  </si>
+  <si>
+    <t>Query.Where</t>
+  </si>
+  <si>
+    <t>matches</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,TypedValue&gt;</t>
+  </si>
+  <si>
+    <t>Query._Matches</t>
+  </si>
+  <si>
+    <t>matching</t>
+  </si>
+  <si>
+    <t>Query.Matching</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,BTree&lt;long,bool&gt;&gt;</t>
+  </si>
+  <si>
+    <t>needed</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,Finder&gt;</t>
+  </si>
+  <si>
+    <t>built</t>
+  </si>
+  <si>
+    <t>groupSpec</t>
+  </si>
+  <si>
+    <t>TableExpression.Group</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>finder</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>RowSet.RowOrder</t>
+  </si>
+  <si>
+    <t>RowSet._Finder</t>
+  </si>
+  <si>
+    <t>RowSet._Needed</t>
+  </si>
+  <si>
+    <t>RowSet.Built</t>
+  </si>
+  <si>
+    <t>RowSet._Rows</t>
+  </si>
+  <si>
+    <t>TrivialRowSet.Singleton</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>From.Source</t>
+  </si>
+  <si>
+    <t>sQMap</t>
+  </si>
+  <si>
+    <t>SelectedRowSet.SQMap</t>
+  </si>
+  <si>
+    <t>tabledefpos</t>
+  </si>
+  <si>
+    <t>SqlInsert._Table</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>IndexRowSet.IxTable</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>IndexRowSet._Index</t>
+  </si>
+  <si>
+    <t>IndexRowSet.IxFilter</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>mtree</t>
+  </si>
+  <si>
+    <t>MTree</t>
+  </si>
+  <si>
+    <t>Index.Tree</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>OrderedRowSet._RTree</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>QuerySpecification.Distinct</t>
+  </si>
+  <si>
+    <t>sqlRows</t>
+  </si>
+  <si>
+    <t>BList&lt;long&gt;</t>
+  </si>
+  <si>
+    <t>SqlRowSet.SqlRows</t>
+  </si>
+  <si>
+    <t>explRows</t>
+  </si>
+  <si>
+    <t>ExplicitRowSet.ExplRows</t>
+  </si>
+  <si>
+    <t>BList&lt;(long,TRow)&gt;</t>
+  </si>
+  <si>
+    <t>adapters</t>
+  </si>
+  <si>
+    <t>TransitionRowSet._Adapters</t>
+  </si>
+  <si>
+    <t>defaults</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Defaults</t>
+  </si>
+  <si>
+    <t>indexdefpos</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.IxDefPos</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Ra</t>
+  </si>
+  <si>
+    <t>TriggerContext</t>
+  </si>
+  <si>
+    <t>rb</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Rb</t>
+  </si>
+  <si>
+    <t>ri</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Ri</t>
+  </si>
+  <si>
+    <t>targetAc</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.TargetAc</t>
+  </si>
+  <si>
+    <t>targetInfo</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.TargetInfo</t>
+  </si>
+  <si>
+    <t>targetTrans</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.TargetTrans</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Tb</t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Td</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.Ta</t>
+  </si>
+  <si>
+    <t>transTarget</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.TransTarget</t>
+  </si>
+  <si>
+    <t>_tgt</t>
+  </si>
+  <si>
+    <t>PTrigger.TrigType</t>
+  </si>
+  <si>
+    <t>TransitionRowSet.TriggerType</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>TransitionRowSet,TrsFrom</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,TableRow&gt;</t>
+  </si>
+  <si>
+    <t>TransitionTableRowSet.Data</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>TransitionTableRowSet.Map</t>
+  </si>
+  <si>
+    <t>rmap</t>
+  </si>
+  <si>
+    <t>TransitionTableRowSet.RMap</t>
+  </si>
+  <si>
+    <t>_trs</t>
+  </si>
+  <si>
+    <t>TransitionTableRowSet.Trs</t>
+  </si>
+  <si>
+    <t>actuals</t>
+  </si>
+  <si>
+    <t>RoutineCallRowSet.Actuals</t>
+  </si>
+  <si>
+    <t>proc</t>
+  </si>
+  <si>
+    <t>RoutineCallRowSet.Proc</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>RoutineCallRowSet.Result</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>RowSetSection.Offset</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>RowSetSection.Size</t>
+  </si>
+  <si>
+    <t>docs</t>
+  </si>
+  <si>
+    <t>BList&lt;SqlValue&gt;</t>
+  </si>
+  <si>
+    <t>DocArrayRowSet.Docs</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>WindowRowSet.Multi</t>
+  </si>
+  <si>
+    <t>wf</t>
+  </si>
+  <si>
+    <t>WindowRowSet.Window</t>
+  </si>
+  <si>
+    <t>having</t>
+  </si>
+  <si>
+    <t>TableExpression.Having</t>
+  </si>
+  <si>
+    <t>groupings</t>
+  </si>
+  <si>
+    <t>GroupingRowSet.Groupings</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>JoinRowSet.Jfirst</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>JoinRowSet._Join</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>JoinRowSet.Second</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,DBObject&gt;</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,RowSet&gt;</t>
+  </si>
+  <si>
+    <t>QMarks</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>SysIx</t>
+  </si>
+  <si>
+    <t>SystemIndex</t>
+  </si>
+  <si>
+    <t>SysFilt</t>
+  </si>
+  <si>
+    <t>Blist&lt;SysFilter&gt;</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Btree&lt;long,Physical.Type&gt;</t>
+  </si>
+  <si>
+    <t>Relocated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MethodInfos </t>
+  </si>
+  <si>
+    <t>_User</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>-1L</t>
+  </si>
+  <si>
+    <t>_system._role</t>
+  </si>
+  <si>
+    <t>_system._user</t>
+  </si>
+  <si>
+    <t>_Role</t>
+  </si>
+  <si>
+    <t>System_Role</t>
+  </si>
+  <si>
+    <t>System_User</t>
+  </si>
+  <si>
+    <t>KeyCols</t>
+  </si>
+  <si>
+    <t>LogCol</t>
+  </si>
+  <si>
+    <t>TableRow</t>
+  </si>
+  <si>
+    <t>_Data</t>
+  </si>
+  <si>
+    <t>ViewCols</t>
+  </si>
+  <si>
+    <t>ViewPpos</t>
+  </si>
+  <si>
+    <t>RestValue</t>
+  </si>
+  <si>
+    <t>Connection</t>
+  </si>
+  <si>
+    <t>_Connection</t>
+  </si>
+  <si>
+    <t>Inverts</t>
+  </si>
+  <si>
+    <t>_Metadata</t>
+  </si>
+  <si>
+    <t>Btree&lt;Sqlx,object&gt;</t>
+  </si>
+  <si>
+    <t>RemoteCols</t>
+  </si>
+  <si>
+    <t>UsingTable</t>
+  </si>
+  <si>
+    <t>UsingCols</t>
+  </si>
+  <si>
+    <t>CallerQS</t>
+  </si>
+  <si>
+    <t>Mime</t>
+  </si>
+  <si>
+    <t>SqlAgent</t>
+  </si>
+  <si>
+    <t>DefaultUrl</t>
+  </si>
+  <si>
+    <t>ViewTable</t>
+  </si>
+  <si>
+    <t>Defpos</t>
+  </si>
+  <si>
+    <t>LastData</t>
+  </si>
+  <si>
+    <t>ViewTables</t>
+  </si>
+  <si>
+    <t>TypeTracker</t>
+  </si>
+  <si>
+    <t>Btree&lt;long,Btree&lt;long,Domain&gt;&gt;</t>
+  </si>
+  <si>
+    <t>dompos,ppos</t>
+  </si>
+  <si>
+    <t>ColTracker</t>
+  </si>
+  <si>
+    <t>Btreee&lt;long,Btree&lt;long,long&gt;&gt;</t>
+  </si>
+  <si>
+    <t>colpos,ppos,dompos</t>
+  </si>
+  <si>
+    <t>Matching</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,long?&gt;</t>
+  </si>
+  <si>
+    <t>SqlValue SqlValue</t>
+  </si>
+  <si>
+    <t>UrlCol</t>
+  </si>
+  <si>
+    <t>JoinUsing</t>
+  </si>
+  <si>
+    <t>rSqlValue lSqlValue</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,lomg&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Aggregates </t>
+  </si>
+  <si>
+    <t>CTree&lt;long,bool&gt;</t>
+  </si>
+  <si>
+    <t>RSTargets</t>
+  </si>
+  <si>
+    <t>Ctree&lt;long,bool&gt;</t>
+  </si>
+  <si>
+    <t>RVV</t>
+  </si>
+  <si>
+    <t>Rvv</t>
+  </si>
+  <si>
+    <t>Targets</t>
+  </si>
+  <si>
+    <t>Table/View</t>
+  </si>
+  <si>
+    <t>ForeignKeys</t>
+  </si>
+  <si>
+    <t>Cursor</t>
+  </si>
+  <si>
+    <t>_Cursor</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Tarray</t>
+  </si>
+  <si>
+    <t>LastModified</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Literal</t>
+  </si>
+  <si>
+    <t>AggsAllRemote</t>
+  </si>
+  <si>
+    <t>bool?</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>_CountStar</t>
+  </si>
+  <si>
     <t>Names</t>
   </si>
   <si>
-    <t>BList&lt;string&gt;</t>
-  </si>
-  <si>
-    <t>Clist&lt;long&gt;</t>
-  </si>
-  <si>
-    <t>_Needed</t>
-  </si>
-  <si>
-    <t>Built</t>
-  </si>
-  <si>
-    <t>_Finder</t>
-  </si>
-  <si>
-    <t>RowOrder</t>
-  </si>
-  <si>
-    <t>Btree&lt;long,Finder&gt;</t>
-  </si>
-  <si>
-    <t>TRow</t>
-  </si>
-  <si>
-    <t>Singleton</t>
-  </si>
-  <si>
-    <t>Groupings</t>
-  </si>
-  <si>
-    <t>Grouping</t>
-  </si>
-  <si>
-    <t>Blist&lt;TRow&gt;</t>
+    <t>CTree&lt;long,string&gt;</t>
+  </si>
+  <si>
+    <t>for Rest</t>
+  </si>
+  <si>
+    <t>NamesMap</t>
+  </si>
+  <si>
+    <t>CList&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>ColIds</t>
+  </si>
+  <si>
+    <t>RowSetPos</t>
+  </si>
+  <si>
+    <t>NewCols</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,SqlValue&gt;</t>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            RSExpr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            _Select </t>
+  </si>
+  <si>
+    <t>SourceSQL</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>ISMap</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,long&gt;</t>
+  </si>
+  <si>
+    <t>SqlValue,TableColumn</t>
+  </si>
+  <si>
+    <t>SIMap</t>
+  </si>
+  <si>
+    <t>TableColumn,SqlValue</t>
+  </si>
+  <si>
+    <t>SRowType</t>
+  </si>
+  <si>
+    <t>Ctree&lt;long,long&gt;</t>
+  </si>
+  <si>
+    <t>_Map</t>
   </si>
   <si>
     <t>SQMap</t>
   </si>
   <si>
-    <t>IxTable</t>
-  </si>
-  <si>
-    <t>_Index</t>
-  </si>
-  <si>
-    <t>IxFilter</t>
-  </si>
-  <si>
-    <t>_Rows</t>
-  </si>
-  <si>
-    <t>PRow</t>
-  </si>
-  <si>
-    <t>_RTree</t>
-  </si>
-  <si>
-    <t>RTree</t>
-  </si>
-  <si>
-    <t>SqlRows</t>
-  </si>
-  <si>
-    <t>ExplRows</t>
-  </si>
-  <si>
-    <t>Blist&lt;(long,TRow)&gt;</t>
-  </si>
-  <si>
-    <t>Defaults</t>
-  </si>
-  <si>
-    <t>TargetInfo</t>
-  </si>
-  <si>
-    <t>TargetTrans</t>
-  </si>
-  <si>
-    <t>TransTarget</t>
-  </si>
-  <si>
-    <t>IxDefPos</t>
-  </si>
-  <si>
-    <t>TriggerType</t>
-  </si>
-  <si>
-    <t>RbActs</t>
-  </si>
-  <si>
-    <t>Btree&lt;long,TriggerActivation&gt;</t>
-  </si>
-  <si>
-    <t>RiActs</t>
-  </si>
-  <si>
-    <t>RaActs</t>
-  </si>
-  <si>
-    <t>TbActs</t>
-  </si>
-  <si>
-    <t>TiActs</t>
-  </si>
-  <si>
-    <t>TaActs</t>
-  </si>
-  <si>
-    <t>Adapters</t>
-  </si>
-  <si>
-    <t>_Adapters</t>
-  </si>
-  <si>
-    <t>TargetAc</t>
-  </si>
-  <si>
-    <t>TdActs</t>
-  </si>
-  <si>
-    <t>TrsDefPos</t>
-  </si>
-  <si>
-    <t>TransitionRowSet</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Rmap</t>
-  </si>
-  <si>
-    <t>RecPos</t>
-  </si>
-  <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Actuals</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Docs</t>
-  </si>
-  <si>
-    <t>Blist&lt;SqlValue&gt;</t>
-  </si>
-  <si>
-    <t>Multi</t>
-  </si>
-  <si>
-    <t>Tmultiset</t>
-  </si>
-  <si>
-    <t>Window</t>
-  </si>
-  <si>
-    <t>SqlFunction</t>
-  </si>
-  <si>
-    <t>UseLeft</t>
-  </si>
-  <si>
-    <t>UseRight</t>
-  </si>
-  <si>
-    <t>SysTable</t>
-  </si>
-  <si>
-    <t>JoinPart</t>
-  </si>
-  <si>
-    <t>JFirst</t>
-  </si>
-  <si>
-    <t>JSecond</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>keys</t>
-  </si>
-  <si>
-    <t>rowOrder</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>DBObject._Domain</t>
-  </si>
-  <si>
-    <t>(domain.rowType)</t>
-  </si>
-  <si>
-    <t>CList&lt;long&gt;</t>
-  </si>
-  <si>
-    <t>Index.Keys</t>
-  </si>
-  <si>
-    <t>BTree&lt;long,bool&gt;</t>
-  </si>
-  <si>
-    <t>Query.Where</t>
-  </si>
-  <si>
-    <t>matches</t>
-  </si>
-  <si>
-    <t>BTree&lt;long,TypedValue&gt;</t>
-  </si>
-  <si>
-    <t>Query._Matches</t>
-  </si>
-  <si>
-    <t>matching</t>
-  </si>
-  <si>
-    <t>Query.Matching</t>
-  </si>
-  <si>
-    <t>BTree&lt;long,BTree&lt;long,bool&gt;&gt;</t>
-  </si>
-  <si>
-    <t>needed</t>
-  </si>
-  <si>
-    <t>BTree&lt;long,Finder&gt;</t>
-  </si>
-  <si>
-    <t>built</t>
-  </si>
-  <si>
-    <t>groupSpec</t>
-  </si>
-  <si>
-    <t>TableExpression.Group</t>
-  </si>
-  <si>
-    <t>rows</t>
-  </si>
-  <si>
-    <t>finder</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-  <si>
-    <t>RowSet.RowOrder</t>
-  </si>
-  <si>
-    <t>RowSet._Finder</t>
-  </si>
-  <si>
-    <t>RowSet._Needed</t>
-  </si>
-  <si>
-    <t>RowSet.Built</t>
-  </si>
-  <si>
-    <t>RowSet._Rows</t>
-  </si>
-  <si>
-    <t>TrivialRowSet.Singleton</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>From.Source</t>
-  </si>
-  <si>
-    <t>sQMap</t>
-  </si>
-  <si>
-    <t>SelectedRowSet.SQMap</t>
-  </si>
-  <si>
-    <t>tabledefpos</t>
-  </si>
-  <si>
-    <t>SqlInsert._Table</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>IndexRowSet.IxTable</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>IndexRowSet._Index</t>
-  </si>
-  <si>
-    <t>IndexRowSet.IxFilter</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>mtree</t>
-  </si>
-  <si>
-    <t>MTree</t>
-  </si>
-  <si>
-    <t>Index.Tree</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>OrderedRowSet._RTree</t>
-  </si>
-  <si>
-    <t>distinct</t>
-  </si>
-  <si>
-    <t>QuerySpecification.Distinct</t>
-  </si>
-  <si>
-    <t>sqlRows</t>
-  </si>
-  <si>
-    <t>BList&lt;long&gt;</t>
-  </si>
-  <si>
-    <t>SqlRowSet.SqlRows</t>
-  </si>
-  <si>
-    <t>explRows</t>
-  </si>
-  <si>
-    <t>ExplicitRowSet.ExplRows</t>
-  </si>
-  <si>
-    <t>BList&lt;(long,TRow)&gt;</t>
-  </si>
-  <si>
-    <t>adapters</t>
-  </si>
-  <si>
-    <t>TransitionRowSet._Adapters</t>
-  </si>
-  <si>
-    <t>defaults</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.Defaults</t>
-  </si>
-  <si>
-    <t>indexdefpos</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.IxDefPos</t>
-  </si>
-  <si>
-    <t>ra</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.Ra</t>
-  </si>
-  <si>
-    <t>TriggerContext</t>
-  </si>
-  <si>
-    <t>rb</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.Rb</t>
-  </si>
-  <si>
-    <t>ri</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.Ri</t>
-  </si>
-  <si>
-    <t>targetAc</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.TargetAc</t>
-  </si>
-  <si>
-    <t>targetInfo</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.TargetInfo</t>
-  </si>
-  <si>
-    <t>targetTrans</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.TargetTrans</t>
-  </si>
-  <si>
-    <t>tb</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.Tb</t>
-  </si>
-  <si>
-    <t>td</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.Td</t>
-  </si>
-  <si>
-    <t>ta</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.Ta</t>
-  </si>
-  <si>
-    <t>transTarget</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.TransTarget</t>
-  </si>
-  <si>
-    <t>_tgt</t>
-  </si>
-  <si>
-    <t>PTrigger.TrigType</t>
-  </si>
-  <si>
-    <t>TransitionRowSet.TriggerType</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>TransitionRowSet,TrsFrom</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>BTree&lt;long,TableRow&gt;</t>
-  </si>
-  <si>
-    <t>TransitionTableRowSet.Data</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>TransitionTableRowSet.Map</t>
-  </si>
-  <si>
-    <t>rmap</t>
-  </si>
-  <si>
-    <t>TransitionTableRowSet.RMap</t>
-  </si>
-  <si>
-    <t>_trs</t>
-  </si>
-  <si>
-    <t>TransitionTableRowSet.Trs</t>
-  </si>
-  <si>
-    <t>actuals</t>
-  </si>
-  <si>
-    <t>RoutineCallRowSet.Actuals</t>
-  </si>
-  <si>
-    <t>proc</t>
-  </si>
-  <si>
-    <t>RoutineCallRowSet.Proc</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>RoutineCallRowSet.Result</t>
-  </si>
-  <si>
-    <t>offset</t>
-  </si>
-  <si>
-    <t>RowSetSection.Offset</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>RowSetSection.Size</t>
-  </si>
-  <si>
-    <t>docs</t>
-  </si>
-  <si>
-    <t>BList&lt;SqlValue&gt;</t>
-  </si>
-  <si>
-    <t>DocArrayRowSet.Docs</t>
-  </si>
-  <si>
-    <t>values</t>
-  </si>
-  <si>
-    <t>WindowRowSet.Multi</t>
-  </si>
-  <si>
-    <t>wf</t>
-  </si>
-  <si>
-    <t>WindowRowSet.Window</t>
-  </si>
-  <si>
-    <t>having</t>
-  </si>
-  <si>
-    <t>TableExpression.Having</t>
-  </si>
-  <si>
-    <t>groupings</t>
-  </si>
-  <si>
-    <t>GroupingRowSet.Groupings</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>JoinRowSet.Jfirst</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>JoinRowSet._Join</t>
-  </si>
-  <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>JoinRowSet.Second</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
-    <t>BTree&lt;long,DBObject&gt;</t>
-  </si>
-  <si>
-    <t>BTree&lt;long,RowSet&gt;</t>
-  </si>
-  <si>
-    <t>QMarks</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Btree&lt;long,long&gt;</t>
-  </si>
-  <si>
-    <t>Query RowSet</t>
-  </si>
-  <si>
-    <t>SysIx</t>
-  </si>
-  <si>
-    <t>SystemIndex</t>
-  </si>
-  <si>
-    <t>SysFilt</t>
-  </si>
-  <si>
-    <t>Blist&lt;SysFilter&gt;</t>
-  </si>
-  <si>
-    <t>Log</t>
-  </si>
-  <si>
-    <t>Btree&lt;long,Physical.Type&gt;</t>
-  </si>
-  <si>
-    <t>Relocated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            MethodInfos </t>
-  </si>
-  <si>
-    <t>_User</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>-1L</t>
-  </si>
-  <si>
-    <t>_system._role</t>
-  </si>
-  <si>
-    <t>_system._user</t>
-  </si>
-  <si>
-    <t>_Role</t>
-  </si>
-  <si>
-    <t>System_Role</t>
-  </si>
-  <si>
-    <t>System_User</t>
-  </si>
-  <si>
-    <t>KeyCols</t>
-  </si>
-  <si>
-    <t>LogCol</t>
-  </si>
-  <si>
-    <t>TableRow</t>
-  </si>
-  <si>
-    <t>_Data</t>
-  </si>
-  <si>
-    <t>ViewCols</t>
-  </si>
-  <si>
-    <t>ViewQry</t>
-  </si>
-  <si>
-    <t>ViewPpos</t>
-  </si>
-  <si>
-    <t>RestValue</t>
-  </si>
-  <si>
-    <t>Connection</t>
-  </si>
-  <si>
-    <t>_Connection</t>
-  </si>
-  <si>
-    <t>Inverts</t>
-  </si>
-  <si>
-    <t>_Metadata</t>
-  </si>
-  <si>
-    <t>RestHttp</t>
-  </si>
-  <si>
-    <t>Btree&lt;Sqlx,object&gt;</t>
-  </si>
-  <si>
-    <t>RemoteCols</t>
-  </si>
-  <si>
-    <t>UsingTable</t>
-  </si>
-  <si>
-    <t>UsingCols</t>
-  </si>
-  <si>
-    <t>RemoteGroups</t>
-  </si>
-  <si>
-    <t>CallerQS</t>
-  </si>
-  <si>
-    <t>Mime</t>
-  </si>
-  <si>
-    <t>SqlAgent</t>
-  </si>
-  <si>
-    <t>DefaultUrl</t>
-  </si>
-  <si>
-    <t>ViewTable</t>
-  </si>
-  <si>
-    <t>Defpos</t>
-  </si>
-  <si>
-    <t>LastData</t>
-  </si>
-  <si>
-    <t>ViewTables</t>
-  </si>
-  <si>
-    <t>TypeTracker</t>
-  </si>
-  <si>
-    <t>Btree&lt;long,Btree&lt;long,Domain&gt;&gt;</t>
-  </si>
-  <si>
-    <t>dompos,ppos</t>
-  </si>
-  <si>
-    <t>ColTracker</t>
-  </si>
-  <si>
-    <t>Btreee&lt;long,Btree&lt;long,long&gt;&gt;</t>
-  </si>
-  <si>
-    <t>colpos,ppos,dompos</t>
-  </si>
-  <si>
-    <t>Matching</t>
-  </si>
-  <si>
-    <t>BTree&lt;long,long?&gt;</t>
-  </si>
-  <si>
-    <t>SqlValue SqlValue</t>
-  </si>
-  <si>
-    <t>Etag</t>
-  </si>
-  <si>
-    <t>UrlCol</t>
-  </si>
-  <si>
-    <t>JoinUsing</t>
-  </si>
-  <si>
-    <t>rSqlValue lSqlValue</t>
-  </si>
-  <si>
-    <t>CTree&lt;long,lomg&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Aggregates </t>
-  </si>
-  <si>
-    <t>CTree&lt;long,bool&gt;</t>
-  </si>
-  <si>
-    <t>RSTargets</t>
-  </si>
-  <si>
-    <t>Ctree&lt;long,bool&gt;</t>
-  </si>
-  <si>
-    <t>RVV</t>
-  </si>
-  <si>
-    <t>Rvv</t>
-  </si>
-  <si>
-    <t>Targets</t>
-  </si>
-  <si>
-    <t>Table/View</t>
-  </si>
-  <si>
-    <t>ForeignKeys</t>
-  </si>
-  <si>
-    <t>Cursor</t>
-  </si>
-  <si>
-    <t>_Cursor</t>
-  </si>
-  <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>ObRefs</t>
-  </si>
-  <si>
-    <t>BTree&lt;long,BTree&lt;long,VIC?&gt;&gt;</t>
-  </si>
-  <si>
-    <t>referer,references</t>
-  </si>
-  <si>
-    <t>RefObs</t>
-  </si>
-  <si>
-    <t>VIC explains rowset/dbobject</t>
-  </si>
-  <si>
-    <t>reference,referers</t>
-  </si>
-  <si>
-    <t>Inverse of ObRefs (like V-&gt;K)</t>
-  </si>
-  <si>
-    <t>ExplCursors</t>
-  </si>
-  <si>
-    <t>BList&lt;(long,BTree&lt;long,Cursor&gt;)&gt;</t>
-  </si>
-  <si>
-    <t>Tarray</t>
-  </si>
-  <si>
-    <t>LastModified</t>
-  </si>
-  <si>
-    <t>DateTime</t>
+    <t>Lateral</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,Finder&gt;</t>
+  </si>
+  <si>
+    <t>Asserts</t>
+  </si>
+  <si>
+    <t>RowSet.Assertions</t>
+  </si>
+  <si>
+    <t>_DataType</t>
+  </si>
+  <si>
+    <t>_Framing</t>
+  </si>
+  <si>
+    <t>TrigPpos</t>
+  </si>
+  <si>
+    <t>ETag</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>DefaultCredentials</t>
+  </si>
+  <si>
+    <t>AssertUnmodifiedSince</t>
+  </si>
+  <si>
+    <t>AssertMatch</t>
+  </si>
+  <si>
+    <t>ETags</t>
+  </si>
+  <si>
+    <t>HighWaterMark</t>
+  </si>
+  <si>
+    <t>ViewResult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ViewStruct</t>
+  </si>
+  <si>
+    <t>_RestView</t>
+  </si>
+  <si>
+    <t>UsingTableRowSet</t>
+  </si>
+  <si>
+    <t>RdCols</t>
+  </si>
+  <si>
+    <t>TableRowSet</t>
+  </si>
+  <si>
+    <t>GroupCols</t>
+  </si>
+  <si>
+    <t>for all Groupings</t>
+  </si>
+  <si>
+    <t>GroupIds</t>
+  </si>
+  <si>
+    <t>AggDomain</t>
   </si>
 </sst>
 </file>
@@ -2321,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
-  <dimension ref="A1:E410"/>
+  <dimension ref="A1:E414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
+      <selection activeCell="C413" sqref="C413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,13 +2360,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2353,21 +2377,21 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>604</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2378,18 +2402,18 @@
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>632</v>
+        <v>597</v>
       </c>
       <c r="B5">
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2400,7 +2424,7 @@
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2411,7 +2435,7 @@
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,21 +2446,21 @@
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" t="s">
         <v>260</v>
-      </c>
-      <c r="D9" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,10 +2471,10 @@
         <v>-59</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,7 +2485,7 @@
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2472,7 +2496,7 @@
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2483,7 +2507,7 @@
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2494,7 +2518,7 @@
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2505,10 +2529,10 @@
         <v>-64</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2519,10 +2543,10 @@
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D16" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2533,7 +2557,7 @@
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2544,7 +2568,7 @@
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,7 +2579,7 @@
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,7 +2590,7 @@
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2577,7 +2601,7 @@
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,7 +2612,7 @@
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,10 +2623,10 @@
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D23" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2613,7 +2637,7 @@
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2624,7 +2648,7 @@
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,7 +2659,7 @@
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2646,7 +2670,7 @@
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2657,7 +2681,7 @@
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2668,7 +2692,7 @@
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2679,7 +2703,7 @@
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2690,7 +2714,7 @@
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,7 +2725,7 @@
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2712,7 +2736,7 @@
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2723,7 +2747,7 @@
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,10 +2758,10 @@
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2748,7 +2772,7 @@
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2759,7 +2783,7 @@
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,10 +2794,10 @@
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="D38" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2784,7 +2808,7 @@
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2795,7 +2819,7 @@
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2806,10 +2830,10 @@
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D41" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2820,823 +2844,814 @@
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D42" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43">
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
       <c r="B46">
         <v>-95</v>
       </c>
-      <c r="C46" t="s">
-        <v>260</v>
-      </c>
-      <c r="D46" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D47" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>-97</v>
       </c>
       <c r="C48" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50">
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D51" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B54">
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B55">
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56">
         <v>-105</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D56" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57">
         <v>-106</v>
       </c>
       <c r="C57" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D58" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D59" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B60">
         <v>-109</v>
       </c>
       <c r="C60" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61">
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D61" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62">
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D62" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>-112</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D63" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64">
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D64" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B65">
         <v>-114</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D65" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66">
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D66" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67">
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D67" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B68">
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69">
         <v>-118</v>
       </c>
       <c r="C69" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D69" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70">
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B71">
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B72">
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>-122</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D73" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74">
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D74" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75">
         <v>-124</v>
       </c>
       <c r="C75" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76">
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B77">
         <v>-126</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D78" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D79" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B80">
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D80" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81">
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82">
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D82" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83">
         <v>-132</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84">
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B85">
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D85" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86">
         <v>-135</v>
       </c>
       <c r="C86" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D86" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B87">
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B88">
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B90">
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B91">
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92">
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B93">
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D93" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B94">
         <v>-143</v>
       </c>
       <c r="C94" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D94" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B95">
         <v>-144</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B96">
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B97">
         <v>-146</v>
       </c>
       <c r="C97" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D97" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B98">
         <v>-147</v>
       </c>
       <c r="C98" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D98" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B99">
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100">
         <v>-149</v>
       </c>
       <c r="C100" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D100" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101">
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B102">
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D102" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103">
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D103" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="E103" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104">
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D104" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>627</v>
+        <v>592</v>
       </c>
       <c r="B105">
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="D105" t="s">
-        <v>628</v>
+        <v>593</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3647,1470 +3662,1482 @@
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107">
         <v>-156</v>
       </c>
       <c r="C107" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D107" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108">
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D108" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109">
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110">
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="D110" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B111">
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112">
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113">
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B114">
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B115">
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B116">
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B117">
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>256</v>
+        <v>634</v>
       </c>
       <c r="B118">
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B119">
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D119" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B120">
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B121">
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B122">
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B123">
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D123" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D124" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B125">
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B127">
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B128">
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D129" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B130">
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B131">
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D131" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B132">
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B133">
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D133" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="B134">
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
       <c r="D134" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B135">
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B136">
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B138">
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="D138" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="B139">
         <v>-188</v>
       </c>
       <c r="C139" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="D139" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>631</v>
+        <v>596</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>630</v>
+        <v>595</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B141">
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="B142">
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>622</v>
+        <v>587</v>
       </c>
       <c r="D142" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>138</v>
+        <v>633</v>
       </c>
       <c r="B143">
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>291</v>
-      </c>
-      <c r="D143" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>625</v>
+        <v>590</v>
       </c>
       <c r="B144">
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B145">
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>624</v>
+        <v>589</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>142</v>
+        <v>618</v>
       </c>
       <c r="B146">
         <v>-195</v>
       </c>
-      <c r="C146" t="s">
-        <v>262</v>
-      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B147">
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D147" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>623</v>
+        <v>588</v>
       </c>
       <c r="B148">
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D148" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B149">
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D149" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B150">
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D150" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B151">
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D151" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B152">
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D152" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>141</v>
+        <v>629</v>
       </c>
       <c r="B153">
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>328</v>
+        <v>630</v>
+      </c>
+      <c r="D153" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B154">
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D154" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B155">
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B157">
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D157" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B158">
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>618</v>
+        <v>583</v>
       </c>
       <c r="B159">
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>620</v>
+        <v>585</v>
       </c>
       <c r="D159" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="B160">
         <v>-209</v>
       </c>
       <c r="C160" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B161">
         <v>-210</v>
       </c>
       <c r="C161" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D161" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>117</v>
+        <v>615</v>
       </c>
       <c r="B162">
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>331</v>
+        <v>587</v>
       </c>
       <c r="D162" t="s">
-        <v>261</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>118</v>
+        <v>631</v>
       </c>
       <c r="B163">
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>332</v>
+        <v>632</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>119</v>
+        <v>620</v>
       </c>
       <c r="B164">
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>332</v>
+        <v>621</v>
+      </c>
+      <c r="D164" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>120</v>
+        <v>623</v>
       </c>
       <c r="B165">
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>320</v>
+        <v>621</v>
+      </c>
+      <c r="D165" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>121</v>
+        <v>625</v>
       </c>
       <c r="B166">
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>320</v>
+        <v>412</v>
+      </c>
+      <c r="D166" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>135</v>
-      </c>
       <c r="B167">
         <v>-216</v>
       </c>
-      <c r="C167" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>601</v>
+      </c>
       <c r="B168">
         <v>-217</v>
       </c>
+      <c r="C168" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B169">
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B170">
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B171">
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B172">
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B173">
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B174">
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B175">
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B176">
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B177">
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="B178">
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B179">
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B180">
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B181">
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B182">
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D182" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B183">
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B184">
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B185">
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D185" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B186">
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B187">
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D187" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B188">
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D188" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B189">
         <v>-238</v>
       </c>
       <c r="C189" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D189" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B190">
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D191" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B192">
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B193">
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B194">
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B195">
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D195" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B196">
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B197">
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D197" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B198">
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B199">
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D199" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B200">
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D200" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>602</v>
+      </c>
       <c r="B201">
         <v>-250</v>
       </c>
+      <c r="C201" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B202">
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D202" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D203" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B204">
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>592</v>
+        <v>560</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="B206">
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="B207">
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="B208">
         <v>-257</v>
       </c>
       <c r="C208" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="B209">
         <v>-258</v>
       </c>
       <c r="C209" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="B210">
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D210" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="B211">
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D211" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>590</v>
+        <v>558</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B213">
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D213" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B214">
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B215">
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="D215" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B216">
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D216" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B217">
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D217" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B218">
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="D218" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B219">
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D219" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B220">
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B221">
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D221" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B222">
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B223">
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B224">
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B225">
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B226">
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B227">
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -5118,81 +5145,99 @@
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D228" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B229">
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>643</v>
+        <v>599</v>
       </c>
       <c r="B230">
         <v>-279</v>
       </c>
       <c r="C230" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B231">
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>605</v>
+      </c>
       <c r="B232">
         <v>-281</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>243</v>
+      </c>
+      <c r="D232" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>606</v>
+      </c>
       <c r="B233">
         <v>-282</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>610</v>
+      </c>
+      <c r="E233" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B234">
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B235">
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D235" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>9</v>
       </c>
@@ -5200,13 +5245,13 @@
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D236" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>11</v>
       </c>
@@ -5214,475 +5259,502 @@
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>609</v>
+      </c>
       <c r="B238">
         <v>-287</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>607</v>
+      </c>
+      <c r="D238" t="s">
+        <v>244</v>
+      </c>
+      <c r="E238" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B239">
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>613</v>
+      </c>
       <c r="B240">
         <v>-289</v>
       </c>
+      <c r="C240" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B241">
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D241" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="B242">
         <v>-291</v>
       </c>
       <c r="C242" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>580</v>
+        <v>549</v>
       </c>
       <c r="B243">
         <v>-292</v>
       </c>
       <c r="C243" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B244">
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B245">
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B246">
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B247">
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B248">
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B249">
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D249" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>245</v>
+        <v>635</v>
       </c>
       <c r="B250">
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="D250" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="B252">
         <v>-301</v>
       </c>
       <c r="C252" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D252" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="B253">
         <v>-302</v>
       </c>
       <c r="C253" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D253" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>611</v>
+      </c>
       <c r="B255">
         <v>-304</v>
       </c>
+      <c r="C255" t="s">
+        <v>412</v>
+      </c>
+      <c r="D255" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B256">
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B257">
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D257" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B258">
         <v>-307</v>
       </c>
       <c r="C258" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B259">
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="D259" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B260">
         <v>-309</v>
       </c>
       <c r="C260" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D260" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B261">
         <v>-310</v>
       </c>
       <c r="C261" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D261" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>574</v>
+        <v>543</v>
       </c>
       <c r="B262">
         <v>-311</v>
       </c>
       <c r="C262" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B263">
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D263" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B264">
         <v>-313</v>
       </c>
       <c r="C264" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D264" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B265">
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>607</v>
+        <v>573</v>
       </c>
       <c r="B266">
         <v>-315</v>
       </c>
       <c r="C266" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="D266" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B267">
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B268">
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="B269">
         <v>-318</v>
       </c>
       <c r="C269" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="D269" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B270">
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="B271">
         <v>-320</v>
       </c>
       <c r="C271" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D271" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B272">
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B273">
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D273" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B274">
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D274" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B275">
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D275" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B276">
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D276" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5693,63 +5765,60 @@
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>203</v>
+        <v>619</v>
       </c>
       <c r="B278">
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>260</v>
-      </c>
-      <c r="D278" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B279">
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D279" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B280">
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D280" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B281">
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D281" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5760,282 +5829,273 @@
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D283" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B284">
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B285">
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D285" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B286">
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D286" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B287">
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="B288">
         <v>-337</v>
       </c>
       <c r="C288" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D288" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B289">
         <v>-338</v>
       </c>
       <c r="C289" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D289" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B290">
         <v>-339</v>
       </c>
       <c r="C290" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D290" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B291">
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B292">
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B293">
         <v>-342</v>
       </c>
       <c r="C293" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D293" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B294">
         <v>-343</v>
       </c>
       <c r="C294" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D294" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>223</v>
-      </c>
       <c r="B295">
         <v>-344</v>
       </c>
-      <c r="C295" t="s">
-        <v>260</v>
-      </c>
-      <c r="D295" t="s">
-        <v>307</v>
-      </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B296">
         <v>-345</v>
       </c>
       <c r="C296" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D296" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B297">
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D297" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B298">
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B299">
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B300">
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B301">
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B302">
         <v>-351</v>
       </c>
       <c r="C302" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D302" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B303">
         <v>-352</v>
       </c>
       <c r="C303" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D303" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="B304">
         <v>-353</v>
@@ -6043,166 +6103,166 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>227</v>
+        <v>617</v>
       </c>
       <c r="B305">
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D305" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B306">
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D306" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B307">
         <v>-356</v>
       </c>
       <c r="C307" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D307" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B308">
         <v>-357</v>
       </c>
       <c r="C308" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D308" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B309">
         <v>-358</v>
       </c>
       <c r="C309" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D309" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B310">
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B311">
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B312">
         <v>-361</v>
       </c>
       <c r="C312" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D312" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B313">
         <v>-362</v>
       </c>
       <c r="C313" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D313" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>222</v>
+        <v>616</v>
       </c>
       <c r="B314">
         <v>-363</v>
       </c>
       <c r="C314" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D314" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B315">
         <v>-364</v>
       </c>
       <c r="C315" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B316">
         <v>-365</v>
       </c>
       <c r="C316" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D316" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B317">
         <v>-366</v>
@@ -6210,7 +6270,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B318">
         <v>-367</v>
@@ -6218,104 +6278,98 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="B319">
         <v>-368</v>
       </c>
       <c r="C319" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B320">
         <v>-369</v>
       </c>
       <c r="C320" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D320" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
       <c r="B321">
         <v>-370</v>
       </c>
       <c r="C321" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="B322">
         <v>-371</v>
       </c>
       <c r="C322" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D322" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="B323">
         <v>-372</v>
       </c>
       <c r="C323" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D323" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>595</v>
+        <v>562</v>
       </c>
       <c r="B324">
         <v>-373</v>
       </c>
       <c r="C324" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>598</v>
-      </c>
       <c r="B325">
         <v>-374</v>
       </c>
-      <c r="C325" t="s">
-        <v>324</v>
-      </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="B326">
         <v>-375</v>
       </c>
       <c r="C326" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="B327">
         <v>-376</v>
@@ -6323,154 +6377,148 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>587</v>
+        <v>555</v>
       </c>
       <c r="B328">
         <v>-377</v>
       </c>
       <c r="C328" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="B329">
         <v>-378</v>
       </c>
       <c r="C329" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B330">
         <v>-379</v>
       </c>
       <c r="C330" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>586</v>
+        <v>643</v>
       </c>
       <c r="B331">
         <v>-380</v>
       </c>
       <c r="C331" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D331" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B332">
         <v>-381</v>
       </c>
       <c r="C332" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B333">
         <v>-382</v>
       </c>
       <c r="C333" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>612</v>
+      </c>
       <c r="B334">
         <v>-383</v>
       </c>
+      <c r="C334" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>242</v>
-      </c>
       <c r="B335">
         <v>-384</v>
       </c>
-      <c r="C335" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>234</v>
-      </c>
       <c r="B336">
         <v>-385</v>
       </c>
       <c r="C336" t="s">
-        <v>260</v>
-      </c>
-      <c r="D336" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>244</v>
+        <v>644</v>
       </c>
       <c r="B337">
         <v>-386</v>
       </c>
       <c r="C337" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D337" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B338">
         <v>-387</v>
       </c>
       <c r="C338" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D338" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B339">
         <v>-388</v>
       </c>
       <c r="C339" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D339" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="B340">
         <v>-389</v>
       </c>
       <c r="C340" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6489,55 +6537,55 @@
         <v>-391</v>
       </c>
       <c r="C342" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D342" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>629</v>
+        <v>594</v>
       </c>
       <c r="B343">
         <v>-392</v>
       </c>
       <c r="C343" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D343" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B344">
         <v>-393</v>
       </c>
       <c r="C344" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D344" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="E344" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B345">
         <v>-394</v>
       </c>
       <c r="C345" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D345" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6548,797 +6596,826 @@
         <v>-395</v>
       </c>
       <c r="C346" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D346" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="B347">
         <v>-396</v>
       </c>
       <c r="C347" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="D347" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="B348">
         <v>-397</v>
       </c>
       <c r="C348" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B349">
         <v>-401</v>
       </c>
       <c r="C349" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="B350">
         <v>-402</v>
       </c>
       <c r="C350" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="B351">
         <v>-403</v>
       </c>
       <c r="C351" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="B352">
         <v>-404</v>
       </c>
       <c r="C352" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="B353">
         <v>-405</v>
       </c>
       <c r="C353" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B354">
         <v>-406</v>
       </c>
       <c r="C354" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D354" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="B355">
         <v>-407</v>
       </c>
       <c r="C355" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>382</v>
+        <v>628</v>
       </c>
       <c r="B356">
         <v>-408</v>
       </c>
       <c r="C356" t="s">
-        <v>376</v>
+        <v>626</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="B357">
         <v>-409</v>
       </c>
       <c r="C357" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="B358">
         <v>-410</v>
       </c>
       <c r="C358" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="B359">
         <v>-411</v>
       </c>
       <c r="C359" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="B360">
         <v>-412</v>
       </c>
       <c r="C360" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B361">
         <v>-413</v>
       </c>
       <c r="C361" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D361" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="B362">
         <v>-414</v>
       </c>
       <c r="C362" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="D362" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="B363">
         <v>-415</v>
       </c>
       <c r="C363" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D363" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
       <c r="B364">
         <v>-416</v>
       </c>
       <c r="C364" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="B365">
         <v>-417</v>
       </c>
       <c r="C365" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="B366">
         <v>-418</v>
       </c>
       <c r="C366" t="s">
-        <v>376</v>
+        <v>626</v>
       </c>
       <c r="D366" t="s">
-        <v>327</v>
+        <v>624</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="B367">
         <v>-419</v>
       </c>
       <c r="C367" t="s">
-        <v>376</v>
+        <v>626</v>
       </c>
       <c r="D367" t="s">
-        <v>261</v>
+        <v>622</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="B368">
         <v>-420</v>
       </c>
       <c r="C368" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D368" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="B369">
         <v>-421</v>
       </c>
       <c r="C369" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="B370">
         <v>-422</v>
       </c>
       <c r="C370" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D370" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="B371">
         <v>-423</v>
       </c>
       <c r="C371" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D371" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B372">
         <v>-424</v>
       </c>
       <c r="C372" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D372" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="B373">
         <v>-425</v>
       </c>
       <c r="C373" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D373" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="B374">
         <v>-426</v>
       </c>
       <c r="C374" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D374" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="B375">
         <v>-427</v>
       </c>
       <c r="C375" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D375" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="B376">
         <v>-428</v>
       </c>
       <c r="C376" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D376" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="B377">
         <v>-429</v>
       </c>
       <c r="C377" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="B378">
         <v>-430</v>
       </c>
       <c r="C378" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="B379">
         <v>-431</v>
       </c>
       <c r="C379" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D379" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="B380">
         <v>-432</v>
       </c>
       <c r="C380" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="D380" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>413</v>
+        <v>627</v>
       </c>
       <c r="B381">
         <v>-433</v>
       </c>
       <c r="C381" t="s">
-        <v>376</v>
+        <v>621</v>
+      </c>
+      <c r="D381" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="B382">
         <v>-434</v>
       </c>
       <c r="C382" t="s">
-        <v>376</v>
+        <v>621</v>
+      </c>
+      <c r="D382" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="B383">
         <v>-435</v>
       </c>
       <c r="C383" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="D383" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="B384">
         <v>-436</v>
       </c>
       <c r="C384" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="B385">
         <v>-437</v>
       </c>
       <c r="C385" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="B386">
         <v>-438</v>
       </c>
       <c r="C386" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="B387">
         <v>-439</v>
       </c>
       <c r="C387" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="B388">
         <v>-440</v>
       </c>
       <c r="C388" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="B389">
         <v>-441</v>
       </c>
       <c r="C389" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="B390">
         <v>-442</v>
       </c>
       <c r="C390" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>427</v>
+        <v>637</v>
       </c>
       <c r="B391">
         <v>-443</v>
       </c>
-      <c r="C391" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>428</v>
+        <v>638</v>
       </c>
       <c r="B392">
         <v>-444</v>
       </c>
-      <c r="C392" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="B393">
         <v>-445</v>
       </c>
       <c r="C393" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>617</v>
+        <v>582</v>
       </c>
       <c r="B394">
         <v>-446</v>
       </c>
       <c r="C394" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D394" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="B395">
         <v>-447</v>
       </c>
       <c r="C395" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D395" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>432</v>
+        <v>404</v>
       </c>
       <c r="B396">
         <v>-448</v>
       </c>
       <c r="C396" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D396" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="B397">
         <v>-449</v>
       </c>
       <c r="C397" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="B398">
         <v>-450</v>
       </c>
       <c r="C398" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B399">
         <v>-451</v>
       </c>
-      <c r="C399" t="s">
-        <v>634</v>
-      </c>
-      <c r="D399" t="s">
-        <v>635</v>
-      </c>
-      <c r="E399" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="B400">
         <v>-452</v>
       </c>
       <c r="C400" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D400" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>562</v>
+        <v>640</v>
       </c>
       <c r="B401">
         <v>-453</v>
       </c>
-      <c r="C401" t="s">
-        <v>563</v>
-      </c>
-      <c r="D401" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="B402">
         <v>-454</v>
       </c>
       <c r="C402" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="B403">
         <v>-455</v>
       </c>
       <c r="C403" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="B404">
         <v>-456</v>
       </c>
       <c r="C404" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>588</v>
+        <v>556</v>
       </c>
       <c r="B405">
         <v>-457</v>
       </c>
       <c r="C405" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="B406">
         <v>-458</v>
       </c>
       <c r="C406" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>593</v>
+        <v>645</v>
       </c>
       <c r="B407">
         <v>-459</v>
       </c>
       <c r="C407" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B408">
         <v>-460</v>
       </c>
       <c r="C408" t="s">
-        <v>634</v>
+        <v>243</v>
       </c>
       <c r="D408" t="s">
-        <v>638</v>
-      </c>
-      <c r="E408" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="B409">
         <v>-461</v>
       </c>
       <c r="C409" t="s">
+        <v>267</v>
+      </c>
+      <c r="D409" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>647</v>
+      </c>
+      <c r="B410">
+        <v>-462</v>
+      </c>
+      <c r="C410" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>642</v>
+      </c>
+      <c r="B411">
+        <v>-463</v>
+      </c>
+      <c r="C411" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>651</v>
+      </c>
+      <c r="B412">
+        <v>-464</v>
+      </c>
+      <c r="C412" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>652</v>
+      </c>
+      <c r="B413">
+        <v>-465</v>
+      </c>
+      <c r="C413" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
         <v>14</v>
       </c>
-      <c r="B410">
+      <c r="B414">
         <v>-500</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B413">
-    <sortCondition descending="1" ref="B2:B413"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B417">
+    <sortCondition descending="1" ref="B2:B417"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7361,13 +7438,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="B1" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="C1" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="D1">
         <v>-421</v>
@@ -7375,13 +7452,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="B2" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="D2">
         <v>-431</v>
@@ -7389,13 +7466,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="C3" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="D3">
         <v>-435</v>
@@ -7403,13 +7480,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="D4">
         <v>-429</v>
@@ -7417,13 +7494,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="D5">
         <v>-402</v>
@@ -7431,13 +7508,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="C6" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="D6">
         <v>-432</v>
@@ -7445,13 +7522,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="C7" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="D7">
         <v>-415</v>
@@ -7459,13 +7536,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="D8">
         <v>-239</v>
@@ -7473,13 +7550,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="B9" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="C9" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="D9">
         <v>-440</v>
@@ -7487,13 +7564,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="D10">
         <v>-176</v>
@@ -7501,13 +7578,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="C11" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="D11">
         <v>-414</v>
@@ -7515,13 +7592,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="B12" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C12" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="D12">
         <v>-411</v>
@@ -7529,13 +7606,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="C13" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="D13">
         <v>-403</v>
@@ -7543,13 +7620,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="D14">
         <v>-447</v>
@@ -7557,13 +7634,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="D15">
         <v>-416</v>
@@ -7571,13 +7648,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="B16" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="C16" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="D16">
         <v>-406</v>
@@ -7585,13 +7662,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="B17" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C17" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="D17">
         <v>-199</v>
@@ -7599,13 +7676,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B18" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="C18" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="D18">
         <v>-200</v>
@@ -7613,13 +7690,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B19" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="C19" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="D19">
         <v>-410</v>
@@ -7627,13 +7704,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="B20" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="D20">
         <v>-420</v>
@@ -7641,13 +7718,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="B21" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="C21" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="D21">
         <v>-446</v>
@@ -7655,13 +7732,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>434</v>
+        <v>406</v>
       </c>
       <c r="B22" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>413</v>
       </c>
       <c r="D22">
         <v>-159</v>
@@ -7669,13 +7746,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="B23" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="C23" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="D23">
         <v>-433</v>
@@ -7683,13 +7760,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="B24" t="s">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="C24" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="D24">
         <v>-182</v>
@@ -7697,13 +7774,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>447</v>
+        <v>419</v>
       </c>
       <c r="B25" t="s">
-        <v>449</v>
+        <v>421</v>
       </c>
       <c r="C25" t="s">
-        <v>448</v>
+        <v>420</v>
       </c>
       <c r="D25">
         <v>-183</v>
@@ -7711,13 +7788,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="B26" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="C26" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="D26">
         <v>-164</v>
@@ -7725,13 +7802,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>450</v>
+        <v>422</v>
       </c>
       <c r="B27" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="C27" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="D27">
         <v>-401</v>
@@ -7739,13 +7816,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="D28">
         <v>-438</v>
@@ -7753,13 +7830,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="B29" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C29" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="D29">
         <v>-436</v>
@@ -7767,13 +7844,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="B30" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C30" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="D30">
         <v>-424</v>
@@ -7781,13 +7858,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="B31" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C31" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="D31">
         <v>-422</v>
@@ -7795,13 +7872,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="B32" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C32" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="D32">
         <v>-437</v>
@@ -7809,13 +7886,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="B33" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C33" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="D33">
         <v>-423</v>
@@ -7823,13 +7900,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="B34" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="C34" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="D34">
         <v>-434</v>
@@ -7837,13 +7914,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="B35" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="D35">
         <v>-405</v>
@@ -7851,13 +7928,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>435</v>
+        <v>407</v>
       </c>
       <c r="B36" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="C36" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D36">
         <v>-404</v>
@@ -7865,13 +7942,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="B37" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="C37" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="D37">
         <v>-407</v>
@@ -7879,24 +7956,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="B38" t="s">
-        <v>440</v>
+        <v>412</v>
       </c>
       <c r="C38" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="D39">
         <v>-448</v>
@@ -7904,13 +7981,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="B40" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C40" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="D40">
         <v>-439</v>
@@ -7918,13 +7995,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="D41">
         <v>-151</v>
@@ -7932,13 +8009,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="B42" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="C42" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="D42">
         <v>-413</v>
@@ -7946,13 +8023,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="B43" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="C43" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="D43">
         <v>-408</v>
@@ -7960,13 +8037,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="B44" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C44" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="D44">
         <v>-426</v>
@@ -7974,13 +8051,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="B45" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C45" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="D45">
         <v>-409</v>
@@ -7988,13 +8065,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="D46">
         <v>-154</v>
@@ -8002,13 +8079,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="B47" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C47" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="D47">
         <v>-430</v>
@@ -8016,13 +8093,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="B48" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C48" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="D48">
         <v>-417</v>
@@ -8030,13 +8107,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="B49" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="C49" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="D49">
         <v>-418</v>
@@ -8044,13 +8121,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="B50" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C50" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="D50">
         <v>-425</v>
@@ -8058,13 +8135,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="B51" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C51" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="D51">
         <v>-428</v>
@@ -8072,13 +8149,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="B52" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="C52" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="D52">
         <v>-419</v>
@@ -8086,13 +8163,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="B53" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="C53" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="D53">
         <v>-412</v>
@@ -8100,13 +8177,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="B54" t="s">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="C54" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D54">
         <v>-441</v>
@@ -8114,13 +8191,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="B55" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="C55" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="D55">
         <v>-442</v>
@@ -8128,13 +8205,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s">
-        <v>442</v>
+        <v>414</v>
       </c>
       <c r="C56" t="s">
-        <v>443</v>
+        <v>415</v>
       </c>
       <c r="D56">
         <v>-190</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E770A267-B8F0-48C4-A191-BB2BEE315893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8053E1-173A-4CEA-AE3A-061A18E5C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14925" yWindow="495" windowWidth="13515" windowHeight="16275" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
+    <workbookView minimized="1" xWindow="14790" yWindow="615" windowWidth="13515" windowHeight="16275" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="651">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -69,9 +69,6 @@
     <t xml:space="preserve">            Roles </t>
   </si>
   <si>
-    <t xml:space="preserve">            SchemaKey </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Types </t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t xml:space="preserve">            OrderWindow </t>
   </si>
   <si>
-    <t xml:space="preserve">            Partition </t>
-  </si>
-  <si>
     <t xml:space="preserve">            PartitionType </t>
   </si>
   <si>
@@ -1110,15 +1104,9 @@
     <t>Blist&lt;TRow&gt;</t>
   </si>
   <si>
-    <t>IxTable</t>
-  </si>
-  <si>
     <t>_Index</t>
   </si>
   <si>
-    <t>IxFilter</t>
-  </si>
-  <si>
     <t>_Rows</t>
   </si>
   <si>
@@ -1755,21 +1743,9 @@
     <t>ViewTables</t>
   </si>
   <si>
-    <t>TypeTracker</t>
-  </si>
-  <si>
-    <t>Btree&lt;long,Btree&lt;long,Domain&gt;&gt;</t>
-  </si>
-  <si>
     <t>dompos,ppos</t>
   </si>
   <si>
-    <t>ColTracker</t>
-  </si>
-  <si>
-    <t>Btreee&lt;long,Btree&lt;long,long&gt;&gt;</t>
-  </si>
-  <si>
     <t>colpos,ppos,dompos</t>
   </si>
   <si>
@@ -1842,12 +1818,6 @@
     <t>Literal</t>
   </si>
   <si>
-    <t>AggsAllRemote</t>
-  </si>
-  <si>
-    <t>bool?</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -1920,9 +1890,6 @@
     <t>_Map</t>
   </si>
   <si>
-    <t>SQMap</t>
-  </si>
-  <si>
     <t>Lateral</t>
   </si>
   <si>
@@ -1989,10 +1956,37 @@
     <t>for all Groupings</t>
   </si>
   <si>
-    <t>GroupIds</t>
-  </si>
-  <si>
     <t>AggDomain</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>BList&lt;(long,long)&gt;</t>
+  </si>
+  <si>
+    <t>SqlValue,SqlValue</t>
+  </si>
+  <si>
+    <t>CaseElse</t>
+  </si>
+  <si>
+    <t>Scalar</t>
+  </si>
+  <si>
+    <t>Await</t>
+  </si>
+  <si>
+    <t>UsingOperands</t>
+  </si>
+  <si>
+    <t>RefIndexes</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,CTree&lt;CList&lt;long&gt;,CList&lt;long&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>SchemaKey</t>
   </si>
 </sst>
 </file>
@@ -2347,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
   <dimension ref="A1:E414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="C413" sqref="C413"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,13 +2354,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,21 +2371,21 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2402,18 +2396,18 @@
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B5">
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2424,7 +2418,7 @@
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2435,7 +2429,7 @@
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2446,21 +2440,21 @@
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,10 +2465,10 @@
         <v>-59</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,1657 +2479,1651 @@
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>-64</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D23" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31">
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41">
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43">
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B45">
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>645</v>
+      </c>
       <c r="B46">
         <v>-95</v>
       </c>
+      <c r="C46" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D47" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48">
         <v>-97</v>
       </c>
       <c r="C48" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D48" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50">
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D51" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56">
         <v>-105</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57">
         <v>-106</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D57" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D59" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60">
         <v>-109</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61">
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D61" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62">
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D62" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>-112</v>
       </c>
       <c r="C63" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D63" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B64">
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65">
         <v>-114</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D65" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66">
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67">
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68">
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D68" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69">
         <v>-118</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D69" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D70" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71">
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72">
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73">
         <v>-122</v>
       </c>
       <c r="C73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D73" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74">
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D74" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>52</v>
-      </c>
       <c r="B75">
         <v>-124</v>
       </c>
-      <c r="C75" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76">
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>65</v>
-      </c>
       <c r="B77">
         <v>-126</v>
       </c>
-      <c r="C77" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B80">
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D80" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B81">
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82">
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D82" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83">
         <v>-132</v>
       </c>
       <c r="C83" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D83" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B84">
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D84" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B85">
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>-135</v>
       </c>
       <c r="C86" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B87">
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B88">
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B90">
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91">
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92">
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B93">
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D93" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B94">
         <v>-143</v>
       </c>
       <c r="C94" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D94" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B95">
         <v>-144</v>
       </c>
       <c r="C95" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D95" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B96">
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B97">
         <v>-146</v>
       </c>
       <c r="C97" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D97" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B98">
         <v>-147</v>
       </c>
       <c r="C98" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D98" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B99">
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B100">
         <v>-149</v>
       </c>
       <c r="C100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D100" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101">
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B102">
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D102" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103">
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D103" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E103" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104">
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D104" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B105">
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D105" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B106">
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B107">
         <v>-156</v>
       </c>
       <c r="C107" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D107" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B108">
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D108" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B109">
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B110">
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D110" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111">
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B112">
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B113">
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114">
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115">
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B116">
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B117">
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B118">
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B119">
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D119" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B120">
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B121">
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B122">
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B123">
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D123" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D124" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B125">
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B127">
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B128">
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D129" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B130">
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B131">
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D131" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B132">
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B133">
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D133" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B134">
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="D134" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B135">
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B136">
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138">
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D138" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B139">
         <v>-188</v>
       </c>
       <c r="C139" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D139" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B141">
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B142">
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D142" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="B143">
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B144">
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B145">
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B146">
         <v>-195</v>
@@ -4143,1098 +4131,1110 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B147">
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D147" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B148">
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B149">
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D149" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B150">
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D150" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B151">
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D151" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B152">
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D152" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="B153">
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D153" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B154">
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D154" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B155">
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B157">
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D157" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B158">
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B159">
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D159" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B160">
         <v>-209</v>
       </c>
       <c r="C160" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B161">
         <v>-210</v>
       </c>
       <c r="C161" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D161" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B162">
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="D162" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="B163">
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B164">
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="D164" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B165">
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="D165" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B166">
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D166" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>641</v>
+      </c>
       <c r="B167">
         <v>-216</v>
       </c>
+      <c r="C167" t="s">
+        <v>642</v>
+      </c>
+      <c r="D167" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B168">
         <v>-217</v>
       </c>
       <c r="C168" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B169">
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B170">
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B171">
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B172">
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B173">
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B174">
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B175">
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B176">
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B177">
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B178">
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>145</v>
+        <v>644</v>
       </c>
       <c r="B179">
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>249</v>
+        <v>241</v>
+      </c>
+      <c r="D179" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B180">
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B181">
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B182">
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D182" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B183">
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B184">
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B185">
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D185" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B186">
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B187">
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D187" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B188">
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D188" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B189">
         <v>-238</v>
       </c>
       <c r="C189" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D189" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B190">
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D191" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E191" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B192">
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B193">
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B194">
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B195">
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D195" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B196">
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B197">
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D197" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B198">
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B199">
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D199" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B200">
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D200" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="B201">
         <v>-250</v>
       </c>
       <c r="C201" t="s">
-        <v>603</v>
+        <v>649</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B202">
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D202" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D203" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B204">
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B206">
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B207">
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B208">
         <v>-257</v>
       </c>
       <c r="C208" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B209">
         <v>-258</v>
       </c>
       <c r="C209" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B210">
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D210" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B211">
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D211" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B213">
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D213" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B214">
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B215">
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D215" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B216">
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D216" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B217">
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D217" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B218">
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D218" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B219">
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D219" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B220">
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B221">
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D221" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B222">
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B223">
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B224">
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B225">
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B226">
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B227">
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B228">
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D228" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B229">
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B230">
         <v>-279</v>
       </c>
       <c r="C230" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B231">
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B232">
         <v>-281</v>
       </c>
       <c r="C232" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D232" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B233">
         <v>-282</v>
       </c>
       <c r="C233" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E233" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B234">
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B235">
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D235" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5245,580 +5245,568 @@
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D236" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>11</v>
+        <v>650</v>
       </c>
       <c r="B237">
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B238">
         <v>-287</v>
       </c>
       <c r="C238" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="D238" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E238" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B239">
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B240">
         <v>-289</v>
       </c>
       <c r="C240" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B241">
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D241" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B242">
         <v>-291</v>
       </c>
       <c r="C242" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B243">
         <v>-292</v>
       </c>
       <c r="C243" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B244">
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B245">
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B246">
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B247">
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B248">
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B249">
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D249" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="B250">
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D250" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B252">
         <v>-301</v>
       </c>
       <c r="C252" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D252" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B253">
         <v>-302</v>
       </c>
       <c r="C253" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D253" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B255">
         <v>-304</v>
       </c>
       <c r="C255" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D255" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B256">
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B257">
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D257" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B258">
         <v>-307</v>
       </c>
       <c r="C258" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B259">
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D259" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B260">
         <v>-309</v>
       </c>
       <c r="C260" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D260" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B261">
         <v>-310</v>
       </c>
       <c r="C261" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D261" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B262">
         <v>-311</v>
       </c>
       <c r="C262" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B263">
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D263" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B264">
         <v>-313</v>
       </c>
       <c r="C264" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D264" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B265">
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>573</v>
-      </c>
       <c r="B266">
         <v>-315</v>
       </c>
-      <c r="C266" t="s">
-        <v>574</v>
-      </c>
       <c r="D266" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B267">
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B268">
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>576</v>
-      </c>
       <c r="B269">
         <v>-318</v>
       </c>
-      <c r="C269" t="s">
-        <v>577</v>
-      </c>
       <c r="D269" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B270">
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B271">
         <v>-320</v>
       </c>
       <c r="C271" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D271" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B272">
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B273">
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D273" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B274">
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D274" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B275">
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D275" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B276">
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D276" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B277">
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B278">
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B279">
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D279" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B280">
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D280" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B281">
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D281" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5829,163 +5817,163 @@
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D283" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B284">
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B285">
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D285" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B286">
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D286" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B287">
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B288">
         <v>-337</v>
       </c>
       <c r="C288" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D288" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B289">
         <v>-338</v>
       </c>
       <c r="C289" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D289" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B290">
         <v>-339</v>
       </c>
       <c r="C290" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D290" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B291">
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B292">
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B293">
         <v>-342</v>
       </c>
       <c r="C293" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D293" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B294">
         <v>-343</v>
       </c>
       <c r="C294" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D294" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -5995,107 +5983,107 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B296">
         <v>-345</v>
       </c>
       <c r="C296" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D296" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B297">
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D297" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B298">
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B299">
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B300">
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B301">
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B302">
         <v>-351</v>
       </c>
       <c r="C302" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D302" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B303">
         <v>-352</v>
       </c>
       <c r="C303" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D303" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B304">
         <v>-353</v>
@@ -6103,166 +6091,166 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B305">
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D305" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B306">
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D306" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B307">
         <v>-356</v>
       </c>
       <c r="C307" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D307" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B308">
         <v>-357</v>
       </c>
       <c r="C308" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D308" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B309">
         <v>-358</v>
       </c>
       <c r="C309" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D309" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B310">
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B311">
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B312">
         <v>-361</v>
       </c>
       <c r="C312" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D312" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B313">
         <v>-362</v>
       </c>
       <c r="C313" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D313" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="B314">
         <v>-363</v>
       </c>
       <c r="C314" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D314" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B315">
         <v>-364</v>
       </c>
       <c r="C315" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B316">
         <v>-365</v>
       </c>
       <c r="C316" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D316" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B317">
         <v>-366</v>
@@ -6270,7 +6258,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B318">
         <v>-367</v>
@@ -6278,77 +6266,77 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B319">
         <v>-368</v>
       </c>
       <c r="C319" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B320">
         <v>-369</v>
       </c>
       <c r="C320" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D320" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B321">
         <v>-370</v>
       </c>
       <c r="C321" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B322">
         <v>-371</v>
       </c>
       <c r="C322" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D322" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B323">
         <v>-372</v>
       </c>
       <c r="C323" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D323" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B324">
         <v>-373</v>
       </c>
       <c r="C324" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6358,18 +6346,18 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B326">
         <v>-375</v>
       </c>
       <c r="C326" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B327">
         <v>-376</v>
@@ -6377,82 +6365,82 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B328">
         <v>-377</v>
       </c>
       <c r="C328" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B329">
         <v>-378</v>
       </c>
       <c r="C329" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B330">
         <v>-379</v>
       </c>
       <c r="C330" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B331">
         <v>-380</v>
       </c>
       <c r="C331" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D331" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B332">
         <v>-381</v>
       </c>
       <c r="C332" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B333">
         <v>-382</v>
       </c>
       <c r="C333" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="B334">
         <v>-383</v>
       </c>
       <c r="C334" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
@@ -6465,60 +6453,60 @@
         <v>-385</v>
       </c>
       <c r="C336" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="B337">
         <v>-386</v>
       </c>
       <c r="C337" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D337" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B338">
         <v>-387</v>
       </c>
       <c r="C338" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D338" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B339">
         <v>-388</v>
       </c>
       <c r="C339" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D339" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B340">
         <v>-389</v>
       </c>
       <c r="C340" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -6531,61 +6519,61 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B342">
         <v>-391</v>
       </c>
       <c r="C342" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D342" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B343">
         <v>-392</v>
       </c>
       <c r="C343" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D343" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B344">
         <v>-393</v>
       </c>
       <c r="C344" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D344" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E344" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B345">
         <v>-394</v>
       </c>
       <c r="C345" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D345" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -6596,559 +6584,556 @@
         <v>-395</v>
       </c>
       <c r="C346" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D346" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B347">
         <v>-396</v>
       </c>
       <c r="C347" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D347" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B348">
         <v>-397</v>
       </c>
       <c r="C348" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B349">
         <v>-401</v>
       </c>
       <c r="C349" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B350">
         <v>-402</v>
       </c>
       <c r="C350" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B351">
         <v>-403</v>
       </c>
       <c r="C351" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B352">
         <v>-404</v>
       </c>
       <c r="C352" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B353">
         <v>-405</v>
       </c>
       <c r="C353" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B354">
         <v>-406</v>
       </c>
       <c r="C354" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D354" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B355">
         <v>-407</v>
       </c>
       <c r="C355" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>628</v>
-      </c>
       <c r="B356">
         <v>-408</v>
       </c>
       <c r="C356" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>358</v>
-      </c>
       <c r="B357">
         <v>-409</v>
       </c>
-      <c r="C357" t="s">
-        <v>300</v>
-      </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B358">
         <v>-410</v>
       </c>
       <c r="C358" t="s">
-        <v>309</v>
+        <v>241</v>
+      </c>
+      <c r="D358" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>360</v>
+        <v>647</v>
       </c>
       <c r="B359">
         <v>-411</v>
       </c>
       <c r="C359" t="s">
-        <v>362</v>
+        <v>611</v>
+      </c>
+      <c r="D359" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B360">
         <v>-412</v>
       </c>
       <c r="C360" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B361">
         <v>-413</v>
       </c>
       <c r="C361" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D361" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B362">
         <v>-414</v>
       </c>
       <c r="C362" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D362" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B363">
         <v>-415</v>
       </c>
       <c r="C363" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D363" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="B364">
         <v>-416</v>
       </c>
       <c r="C364" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B365">
         <v>-417</v>
       </c>
       <c r="C365" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B366">
         <v>-418</v>
       </c>
       <c r="C366" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="D366" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B367">
         <v>-419</v>
       </c>
       <c r="C367" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="D367" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B368">
         <v>-420</v>
       </c>
       <c r="C368" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D368" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B369">
         <v>-421</v>
       </c>
       <c r="C369" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B370">
         <v>-422</v>
       </c>
       <c r="C370" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D370" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B371">
         <v>-423</v>
       </c>
       <c r="C371" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D371" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B372">
         <v>-424</v>
       </c>
       <c r="C372" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D372" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B373">
         <v>-425</v>
       </c>
       <c r="C373" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D373" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B374">
         <v>-426</v>
       </c>
       <c r="C374" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D374" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B375">
         <v>-427</v>
       </c>
       <c r="C375" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D375" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B376">
         <v>-428</v>
       </c>
       <c r="C376" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D376" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B377">
         <v>-429</v>
       </c>
       <c r="C377" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B378">
         <v>-430</v>
       </c>
       <c r="C378" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B379">
         <v>-431</v>
       </c>
       <c r="C379" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D379" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B380">
         <v>-432</v>
       </c>
       <c r="C380" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D380" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B381">
         <v>-433</v>
       </c>
       <c r="C381" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="D381" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B382">
         <v>-434</v>
       </c>
       <c r="C382" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="D382" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B383">
         <v>-435</v>
       </c>
       <c r="C383" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D383" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B384">
         <v>-436</v>
       </c>
       <c r="C384" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B385">
         <v>-437</v>
       </c>
       <c r="C385" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B386">
         <v>-438</v>
       </c>
       <c r="C386" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B387">
         <v>-439</v>
       </c>
       <c r="C387" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B388">
         <v>-440</v>
       </c>
       <c r="C388" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B389">
         <v>-441</v>
       </c>
       <c r="C389" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B390">
         <v>-442</v>
       </c>
       <c r="C390" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="B391">
         <v>-443</v>
@@ -7156,7 +7141,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B392">
         <v>-444</v>
@@ -7164,82 +7149,82 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B393">
         <v>-445</v>
       </c>
       <c r="C393" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="B394">
         <v>-446</v>
       </c>
       <c r="C394" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D394" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B395">
         <v>-447</v>
       </c>
       <c r="C395" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D395" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B396">
         <v>-448</v>
       </c>
       <c r="C396" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D396" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B397">
         <v>-449</v>
       </c>
       <c r="C397" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B398">
         <v>-450</v>
       </c>
       <c r="C398" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B399">
         <v>-451</v>
@@ -7247,21 +7232,21 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B400">
         <v>-452</v>
       </c>
       <c r="C400" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D400" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="B401">
         <v>-453</v>
@@ -7269,145 +7254,145 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B402">
         <v>-454</v>
       </c>
       <c r="C402" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B403">
         <v>-455</v>
       </c>
       <c r="C403" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B404">
         <v>-456</v>
       </c>
       <c r="C404" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B405">
         <v>-457</v>
       </c>
       <c r="C405" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B406">
         <v>-458</v>
       </c>
       <c r="C406" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="B407">
         <v>-459</v>
       </c>
       <c r="C407" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B408">
         <v>-460</v>
       </c>
       <c r="C408" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D408" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B409">
         <v>-461</v>
       </c>
       <c r="C409" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D409" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="B410">
         <v>-462</v>
       </c>
       <c r="C410" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B411">
         <v>-463</v>
       </c>
       <c r="C411" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B412">
         <v>-464</v>
       </c>
       <c r="C412" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="B413">
         <v>-465</v>
       </c>
       <c r="C413" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B414">
         <v>-500</v>
@@ -7438,13 +7423,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D1">
         <v>-421</v>
@@ -7452,13 +7437,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D2">
         <v>-431</v>
@@ -7466,13 +7451,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D3">
         <v>-435</v>
@@ -7480,13 +7465,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D4">
         <v>-429</v>
@@ -7494,13 +7479,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D5">
         <v>-402</v>
@@ -7508,13 +7493,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D6">
         <v>-432</v>
@@ -7522,13 +7507,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D7">
         <v>-415</v>
@@ -7536,13 +7521,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D8">
         <v>-239</v>
@@ -7550,13 +7535,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D9">
         <v>-440</v>
@@ -7564,13 +7549,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D10">
         <v>-176</v>
@@ -7578,13 +7563,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D11">
         <v>-414</v>
@@ -7592,13 +7577,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D12">
         <v>-411</v>
@@ -7606,13 +7591,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B13" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D13">
         <v>-403</v>
@@ -7620,13 +7605,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D14">
         <v>-447</v>
@@ -7634,13 +7619,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C15" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D15">
         <v>-416</v>
@@ -7648,13 +7633,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B16" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C16" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D16">
         <v>-406</v>
@@ -7662,13 +7647,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C17" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D17">
         <v>-199</v>
@@ -7676,13 +7661,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B18" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C18" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D18">
         <v>-200</v>
@@ -7690,13 +7675,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C19" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D19">
         <v>-410</v>
@@ -7704,13 +7689,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D20">
         <v>-420</v>
@@ -7718,13 +7703,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C21" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D21">
         <v>-446</v>
@@ -7732,13 +7717,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B22" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C22" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D22">
         <v>-159</v>
@@ -7746,13 +7731,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B23" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C23" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D23">
         <v>-433</v>
@@ -7760,13 +7745,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B24" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C24" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D24">
         <v>-182</v>
@@ -7774,13 +7759,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B25" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C25" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D25">
         <v>-183</v>
@@ -7788,13 +7773,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B26" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C26" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D26">
         <v>-164</v>
@@ -7802,13 +7787,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B27" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D27">
         <v>-401</v>
@@ -7816,13 +7801,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C28" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D28">
         <v>-438</v>
@@ -7830,13 +7815,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C29" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D29">
         <v>-436</v>
@@ -7844,13 +7829,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B30" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C30" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D30">
         <v>-424</v>
@@ -7858,13 +7843,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B31" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C31" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D31">
         <v>-422</v>
@@ -7872,13 +7857,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B32" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C32" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D32">
         <v>-437</v>
@@ -7886,13 +7871,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C33" t="s">
         <v>469</v>
-      </c>
-      <c r="C33" t="s">
-        <v>473</v>
       </c>
       <c r="D33">
         <v>-423</v>
@@ -7900,13 +7885,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B34" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C34" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D34">
         <v>-434</v>
@@ -7914,13 +7899,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B35" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C35" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D35">
         <v>-405</v>
@@ -7928,13 +7913,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B36" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C36" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D36">
         <v>-404</v>
@@ -7942,13 +7927,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C37" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D37">
         <v>-407</v>
@@ -7956,24 +7941,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B38" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C39" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D39">
         <v>-448</v>
@@ -7981,13 +7966,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C40" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D40">
         <v>-439</v>
@@ -7995,13 +7980,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C41" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D41">
         <v>-151</v>
@@ -8009,13 +7994,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B42" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D42">
         <v>-413</v>
@@ -8023,13 +8008,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B43" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C43" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D43">
         <v>-408</v>
@@ -8037,13 +8022,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B44" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C44" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D44">
         <v>-426</v>
@@ -8051,13 +8036,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B45" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C45" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D45">
         <v>-409</v>
@@ -8065,13 +8050,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C46" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D46">
         <v>-154</v>
@@ -8079,13 +8064,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C47" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D47">
         <v>-430</v>
@@ -8093,13 +8078,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C48" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D48">
         <v>-417</v>
@@ -8107,13 +8092,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B49" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C49" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D49">
         <v>-418</v>
@@ -8121,13 +8106,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B50" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C50" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D50">
         <v>-425</v>
@@ -8135,13 +8120,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B51" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C51" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D51">
         <v>-428</v>
@@ -8149,13 +8134,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B52" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C52" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D52">
         <v>-419</v>
@@ -8163,13 +8148,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B53" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C53" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D53">
         <v>-412</v>
@@ -8177,13 +8162,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B54" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C54" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D54">
         <v>-441</v>
@@ -8191,13 +8176,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B55" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C55" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D55">
         <v>-442</v>
@@ -8205,13 +8190,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C56" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D56">
         <v>-190</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8053E1-173A-4CEA-AE3A-061A18E5C171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E79DAE6-AB40-4F63-9365-3A621EAB0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="14790" yWindow="615" windowWidth="13515" windowHeight="16275" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
+    <workbookView xWindow="17895" yWindow="690" windowWidth="10905" windowHeight="16275" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="662">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -1686,9 +1686,6 @@
     <t>_Data</t>
   </si>
   <si>
-    <t>ViewCols</t>
-  </si>
-  <si>
     <t>ViewPpos</t>
   </si>
   <si>
@@ -1743,12 +1740,6 @@
     <t>ViewTables</t>
   </si>
   <si>
-    <t>dompos,ppos</t>
-  </si>
-  <si>
-    <t>colpos,ppos,dompos</t>
-  </si>
-  <si>
     <t>Matching</t>
   </si>
   <si>
@@ -1926,9 +1917,6 @@
     <t>AssertMatch</t>
   </si>
   <si>
-    <t>ETags</t>
-  </si>
-  <si>
     <t>HighWaterMark</t>
   </si>
   <si>
@@ -1944,49 +1932,94 @@
     <t>UsingTableRowSet</t>
   </si>
   <si>
+    <t>TableRowSet</t>
+  </si>
+  <si>
+    <t>GroupCols</t>
+  </si>
+  <si>
+    <t>for all Groupings</t>
+  </si>
+  <si>
+    <t>AggDomain</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>BList&lt;(long,long)&gt;</t>
+  </si>
+  <si>
+    <t>SqlValue,SqlValue</t>
+  </si>
+  <si>
+    <t>CaseElse</t>
+  </si>
+  <si>
+    <t>Scalar</t>
+  </si>
+  <si>
+    <t>UsingOperands</t>
+  </si>
+  <si>
+    <t>RefIndexes</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,CTree&lt;CList&lt;long&gt;,CList&lt;long&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>SchemaKey</t>
+  </si>
+  <si>
+    <t>Referenced</t>
+  </si>
+  <si>
+    <t>_ETags</t>
+  </si>
+  <si>
+    <t>GroupIds</t>
+  </si>
+  <si>
+    <t>Ctree&lt;long,Domain&gt;</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
     <t>RdCols</t>
   </si>
   <si>
-    <t>TableRowSet</t>
-  </si>
-  <si>
-    <t>GroupCols</t>
-  </si>
-  <si>
-    <t>for all Groupings</t>
-  </si>
-  <si>
-    <t>AggDomain</t>
-  </si>
-  <si>
-    <t>Cases</t>
-  </si>
-  <si>
-    <t>BList&lt;(long,long)&gt;</t>
-  </si>
-  <si>
-    <t>SqlValue,SqlValue</t>
-  </si>
-  <si>
-    <t>CaseElse</t>
-  </si>
-  <si>
-    <t>Scalar</t>
-  </si>
-  <si>
-    <t>Await</t>
-  </si>
-  <si>
-    <t>UsingOperands</t>
-  </si>
-  <si>
-    <t>RefIndexes</t>
-  </si>
-  <si>
-    <t>CTree&lt;long,CTree&lt;CList&lt;long&gt;,CList&lt;long&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>SchemaKey</t>
+    <t>Infos</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,ObInfo&gt;</t>
+  </si>
+  <si>
+    <t>ValueSelect</t>
+  </si>
+  <si>
+    <t>OnCond</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>SelectDepth</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>Ident</t>
+  </si>
+  <si>
+    <t>_Ident</t>
+  </si>
+  <si>
+    <t>Posts</t>
+  </si>
+  <si>
+    <t>Users</t>
   </si>
 </sst>
 </file>
@@ -2339,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
-  <dimension ref="A1:E414"/>
+  <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="A237" sqref="A237"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,7 +2412,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B3">
         <v>-52</v>
@@ -2401,7 +2434,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B5">
         <v>-54</v>
@@ -2879,7 +2912,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B46">
         <v>-95</v>
@@ -3257,8 +3290,17 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>650</v>
+      </c>
       <c r="B75">
         <v>-124</v>
+      </c>
+      <c r="C75" t="s">
+        <v>576</v>
+      </c>
+      <c r="D75" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3273,8 +3315,17 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>651</v>
+      </c>
       <c r="B77">
         <v>-126</v>
+      </c>
+      <c r="C77" t="s">
+        <v>652</v>
+      </c>
+      <c r="D77" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,7 +3681,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B105">
         <v>-154</v>
@@ -3639,7 +3690,7 @@
         <v>345</v>
       </c>
       <c r="D105" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3785,7 +3836,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B118">
         <v>-167</v>
@@ -3979,16 +4030,16 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B134">
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D134" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4054,13 +4105,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,13 +4127,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B142">
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D142" t="s">
         <v>242</v>
@@ -4090,7 +4141,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B143">
         <v>-192</v>
@@ -4101,13 +4152,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B144">
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4118,12 +4169,12 @@
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B146">
         <v>-195</v>
@@ -4145,7 +4196,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B148">
         <v>-197</v>
@@ -4215,13 +4266,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B153">
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D153" t="s">
         <v>242</v>
@@ -4290,16 +4341,16 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B159">
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D159" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,13 +4380,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B162">
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D162" t="s">
         <v>332</v>
@@ -4343,46 +4394,46 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B163">
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B164">
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D164" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B165">
         <v>-214</v>
       </c>
       <c r="C165" t="s">
+        <v>608</v>
+      </c>
+      <c r="D165" t="s">
         <v>611</v>
-      </c>
-      <c r="D165" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B166">
         <v>-215</v>
@@ -4396,21 +4447,21 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B167">
         <v>-216</v>
       </c>
       <c r="C167" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D167" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B168">
         <v>-217</v>
@@ -4531,7 +4582,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B179">
         <v>-228</v>
@@ -4809,13 +4860,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B201">
         <v>-250</v>
       </c>
       <c r="C201" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4859,18 +4910,18 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B206">
         <v>-255</v>
@@ -4881,7 +4932,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B207">
         <v>-256</v>
@@ -4892,7 +4943,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B208">
         <v>-257</v>
@@ -4903,7 +4954,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B209">
         <v>-258</v>
@@ -4914,7 +4965,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B210">
         <v>-259</v>
@@ -4928,7 +4979,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B211">
         <v>-260</v>
@@ -4942,13 +4993,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5164,13 +5215,13 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B230">
         <v>-279</v>
       </c>
       <c r="C230" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -5186,7 +5237,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B232">
         <v>-281</v>
@@ -5200,16 +5251,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B233">
         <v>-282</v>
       </c>
       <c r="C233" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E233" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5253,7 +5304,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B237">
         <v>-286</v>
@@ -5264,19 +5315,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>599</v>
+        <v>661</v>
       </c>
       <c r="B238">
         <v>-287</v>
       </c>
       <c r="C238" t="s">
-        <v>597</v>
+        <v>260</v>
       </c>
       <c r="D238" t="s">
-        <v>242</v>
-      </c>
-      <c r="E238" t="s">
-        <v>598</v>
+        <v>259</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5292,13 +5340,13 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B240">
         <v>-289</v>
       </c>
       <c r="C240" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5408,7 +5456,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B250">
         <v>-299</v>
@@ -5472,7 +5520,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B255">
         <v>-304</v>
@@ -5616,11 +5664,17 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>649</v>
+      </c>
       <c r="B266">
         <v>-315</v>
       </c>
+      <c r="C266" t="s">
+        <v>241</v>
+      </c>
       <c r="D266" t="s">
-        <v>569</v>
+        <v>242</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -5649,9 +5703,6 @@
       <c r="B269">
         <v>-318</v>
       </c>
-      <c r="D269" t="s">
-        <v>570</v>
-      </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
@@ -5758,7 +5809,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B278">
         <v>-327</v>
@@ -5977,8 +6028,17 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>654</v>
+      </c>
       <c r="B295">
         <v>-344</v>
+      </c>
+      <c r="C295" t="s">
+        <v>608</v>
+      </c>
+      <c r="D295" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6083,7 +6143,7 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B304">
         <v>-353</v>
@@ -6091,7 +6151,7 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B305">
         <v>-354</v>
@@ -6211,7 +6271,7 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B314">
         <v>-363</v>
@@ -6291,7 +6351,7 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B321">
         <v>-370</v>
@@ -6302,7 +6362,7 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B322">
         <v>-371</v>
@@ -6316,7 +6376,7 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B323">
         <v>-372</v>
@@ -6330,7 +6390,7 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B324">
         <v>-373</v>
@@ -6340,13 +6400,16 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>646</v>
+      </c>
       <c r="B325">
         <v>-374</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B326">
         <v>-375</v>
@@ -6365,7 +6428,7 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B328">
         <v>-377</v>
@@ -6376,13 +6439,16 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>550</v>
+        <v>645</v>
       </c>
       <c r="B329">
         <v>-378</v>
       </c>
       <c r="C329" t="s">
-        <v>260</v>
+        <v>576</v>
+      </c>
+      <c r="D329" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6398,7 +6464,7 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B331">
         <v>-380</v>
@@ -6434,7 +6500,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B334">
         <v>-383</v>
@@ -6444,21 +6510,36 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>655</v>
+      </c>
       <c r="B335">
         <v>-384</v>
       </c>
+      <c r="C335" t="s">
+        <v>241</v>
+      </c>
+      <c r="D335" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>653</v>
+      </c>
       <c r="B336">
         <v>-385</v>
       </c>
       <c r="C336" t="s">
         <v>241</v>
       </c>
+      <c r="D336" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B337">
         <v>-386</v>
@@ -6533,7 +6614,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B343">
         <v>-392</v>
@@ -6617,109 +6698,112 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>346</v>
+        <v>660</v>
       </c>
       <c r="B349">
-        <v>-401</v>
+        <v>-398</v>
       </c>
       <c r="C349" t="s">
-        <v>350</v>
+        <v>245</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>347</v>
+        <v>596</v>
       </c>
       <c r="B350">
-        <v>-402</v>
+        <v>-399</v>
       </c>
       <c r="C350" t="s">
-        <v>245</v>
+        <v>594</v>
+      </c>
+      <c r="D350" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>348</v>
-      </c>
       <c r="B351">
-        <v>-403</v>
-      </c>
-      <c r="C351" t="s">
-        <v>350</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B352">
-        <v>-404</v>
+        <v>-401</v>
       </c>
       <c r="C352" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B353">
-        <v>-405</v>
+        <v>-402</v>
       </c>
       <c r="C353" t="s">
-        <v>351</v>
+        <v>245</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B354">
-        <v>-406</v>
+        <v>-403</v>
       </c>
       <c r="C354" t="s">
-        <v>271</v>
-      </c>
-      <c r="D354" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B355">
-        <v>-407</v>
+        <v>-404</v>
       </c>
       <c r="C355" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>352</v>
+      </c>
       <c r="B356">
-        <v>-408</v>
+        <v>-405</v>
       </c>
       <c r="C356" t="s">
-        <v>616</v>
+        <v>351</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>353</v>
+      </c>
       <c r="B357">
-        <v>-409</v>
+        <v>-406</v>
+      </c>
+      <c r="C357" t="s">
+        <v>271</v>
+      </c>
+      <c r="D357" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B358">
-        <v>-410</v>
+        <v>-407</v>
       </c>
       <c r="C358" t="s">
-        <v>241</v>
-      </c>
-      <c r="D358" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -6727,49 +6811,46 @@
         <v>647</v>
       </c>
       <c r="B359">
-        <v>-411</v>
+        <v>-408</v>
       </c>
       <c r="C359" t="s">
-        <v>611</v>
-      </c>
-      <c r="D359" t="s">
-        <v>242</v>
+        <v>648</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>359</v>
+        <v>659</v>
       </c>
       <c r="B360">
-        <v>-412</v>
+        <v>-409</v>
       </c>
       <c r="C360" t="s">
-        <v>360</v>
+        <v>658</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B361">
-        <v>-413</v>
+        <v>-410</v>
       </c>
       <c r="C361" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="D361" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>362</v>
+        <v>641</v>
       </c>
       <c r="B362">
-        <v>-414</v>
+        <v>-411</v>
       </c>
       <c r="C362" t="s">
-        <v>363</v>
+        <v>608</v>
       </c>
       <c r="D362" t="s">
         <v>242</v>
@@ -6777,141 +6858,138 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B363">
-        <v>-415</v>
+        <v>-412</v>
       </c>
       <c r="C363" t="s">
-        <v>293</v>
-      </c>
-      <c r="D363" t="s">
-        <v>242</v>
+        <v>360</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>625</v>
+        <v>361</v>
       </c>
       <c r="B364">
-        <v>-416</v>
+        <v>-413</v>
       </c>
       <c r="C364" t="s">
-        <v>243</v>
+        <v>271</v>
+      </c>
+      <c r="D364" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B365">
-        <v>-417</v>
+        <v>-414</v>
       </c>
       <c r="C365" t="s">
-        <v>333</v>
+        <v>363</v>
+      </c>
+      <c r="D365" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B366">
-        <v>-418</v>
+        <v>-415</v>
       </c>
       <c r="C366" t="s">
-        <v>616</v>
+        <v>293</v>
       </c>
       <c r="D366" t="s">
-        <v>614</v>
+        <v>242</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>367</v>
+        <v>622</v>
       </c>
       <c r="B367">
-        <v>-419</v>
+        <v>-416</v>
       </c>
       <c r="C367" t="s">
-        <v>616</v>
-      </c>
-      <c r="D367" t="s">
-        <v>612</v>
+        <v>243</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B368">
-        <v>-420</v>
+        <v>-417</v>
       </c>
       <c r="C368" t="s">
-        <v>241</v>
-      </c>
-      <c r="D368" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B369">
-        <v>-421</v>
+        <v>-418</v>
       </c>
       <c r="C369" t="s">
-        <v>321</v>
+        <v>613</v>
+      </c>
+      <c r="D369" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B370">
-        <v>-422</v>
+        <v>-419</v>
       </c>
       <c r="C370" t="s">
-        <v>371</v>
+        <v>613</v>
       </c>
       <c r="D370" t="s">
-        <v>231</v>
+        <v>609</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B371">
-        <v>-423</v>
+        <v>-420</v>
       </c>
       <c r="C371" t="s">
-        <v>371</v>
+        <v>241</v>
       </c>
       <c r="D371" t="s">
-        <v>231</v>
+        <v>307</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B372">
-        <v>-424</v>
+        <v>-421</v>
       </c>
       <c r="C372" t="s">
-        <v>371</v>
-      </c>
-      <c r="D372" t="s">
-        <v>231</v>
+        <v>321</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B373">
-        <v>-425</v>
+        <v>-422</v>
       </c>
       <c r="C373" t="s">
         <v>371</v>
@@ -6922,10 +7000,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B374">
-        <v>-426</v>
+        <v>-423</v>
       </c>
       <c r="C374" t="s">
         <v>371</v>
@@ -6936,10 +7014,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B375">
-        <v>-427</v>
+        <v>-424</v>
       </c>
       <c r="C375" t="s">
         <v>371</v>
@@ -6950,10 +7028,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B376">
-        <v>-428</v>
+        <v>-425</v>
       </c>
       <c r="C376" t="s">
         <v>371</v>
@@ -6964,397 +7042,397 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B377">
-        <v>-429</v>
+        <v>-426</v>
       </c>
       <c r="C377" t="s">
-        <v>377</v>
+        <v>371</v>
+      </c>
+      <c r="D377" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B378">
-        <v>-430</v>
+        <v>-427</v>
       </c>
       <c r="C378" t="s">
-        <v>274</v>
+        <v>371</v>
+      </c>
+      <c r="D378" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B379">
-        <v>-431</v>
+        <v>-428</v>
       </c>
       <c r="C379" t="s">
-        <v>241</v>
+        <v>371</v>
       </c>
       <c r="D379" t="s">
-        <v>382</v>
+        <v>231</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B380">
-        <v>-432</v>
+        <v>-429</v>
       </c>
       <c r="C380" t="s">
-        <v>317</v>
-      </c>
-      <c r="D380" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>617</v>
+        <v>379</v>
       </c>
       <c r="B381">
-        <v>-433</v>
+        <v>-430</v>
       </c>
       <c r="C381" t="s">
-        <v>611</v>
-      </c>
-      <c r="D381" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B382">
-        <v>-434</v>
+        <v>-431</v>
       </c>
       <c r="C382" t="s">
-        <v>611</v>
+        <v>241</v>
       </c>
       <c r="D382" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B383">
-        <v>-435</v>
+        <v>-432</v>
       </c>
       <c r="C383" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="D383" t="s">
-        <v>242</v>
+        <v>385</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>386</v>
+        <v>614</v>
       </c>
       <c r="B384">
-        <v>-436</v>
+        <v>-433</v>
       </c>
       <c r="C384" t="s">
-        <v>280</v>
+        <v>608</v>
+      </c>
+      <c r="D384" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B385">
-        <v>-437</v>
+        <v>-434</v>
       </c>
       <c r="C385" t="s">
-        <v>332</v>
+        <v>608</v>
+      </c>
+      <c r="D385" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B386">
-        <v>-438</v>
+        <v>-435</v>
       </c>
       <c r="C386" t="s">
-        <v>247</v>
+        <v>271</v>
+      </c>
+      <c r="D386" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B387">
-        <v>-439</v>
+        <v>-436</v>
       </c>
       <c r="C387" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B388">
-        <v>-440</v>
+        <v>-437</v>
       </c>
       <c r="C388" t="s">
-        <v>392</v>
+        <v>332</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B389">
-        <v>-441</v>
+        <v>-438</v>
       </c>
       <c r="C389" t="s">
-        <v>394</v>
+        <v>247</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B390">
-        <v>-442</v>
+        <v>-439</v>
       </c>
       <c r="C390" t="s">
-        <v>396</v>
+        <v>247</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>626</v>
+        <v>391</v>
       </c>
       <c r="B391">
-        <v>-443</v>
+        <v>-440</v>
+      </c>
+      <c r="C391" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>627</v>
+        <v>393</v>
       </c>
       <c r="B392">
-        <v>-444</v>
+        <v>-441</v>
+      </c>
+      <c r="C392" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B393">
-        <v>-445</v>
+        <v>-442</v>
       </c>
       <c r="C393" t="s">
-        <v>297</v>
+        <v>396</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>574</v>
+        <v>623</v>
       </c>
       <c r="B394">
-        <v>-446</v>
-      </c>
-      <c r="C394" t="s">
-        <v>241</v>
-      </c>
-      <c r="D394" t="s">
-        <v>242</v>
+        <v>-443</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>399</v>
+        <v>624</v>
       </c>
       <c r="B395">
-        <v>-447</v>
-      </c>
-      <c r="C395" t="s">
-        <v>241</v>
-      </c>
-      <c r="D395" t="s">
-        <v>332</v>
+        <v>-444</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B396">
-        <v>-448</v>
+        <v>-445</v>
       </c>
       <c r="C396" t="s">
-        <v>241</v>
-      </c>
-      <c r="D396" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="B397">
-        <v>-449</v>
+        <v>-446</v>
       </c>
       <c r="C397" t="s">
-        <v>526</v>
+        <v>241</v>
+      </c>
+      <c r="D397" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
       <c r="B398">
-        <v>-450</v>
+        <v>-447</v>
       </c>
       <c r="C398" t="s">
-        <v>527</v>
+        <v>241</v>
+      </c>
+      <c r="D398" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>628</v>
+        <v>400</v>
       </c>
       <c r="B399">
-        <v>-451</v>
+        <v>-448</v>
+      </c>
+      <c r="C399" t="s">
+        <v>241</v>
+      </c>
+      <c r="D399" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>388</v>
+        <v>525</v>
       </c>
       <c r="B400">
-        <v>-452</v>
+        <v>-449</v>
       </c>
       <c r="C400" t="s">
-        <v>241</v>
-      </c>
-      <c r="D400" t="s">
-        <v>332</v>
+        <v>526</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>629</v>
+        <v>383</v>
       </c>
       <c r="B401">
-        <v>-453</v>
+        <v>-450</v>
+      </c>
+      <c r="C401" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>530</v>
+        <v>625</v>
       </c>
       <c r="B402">
-        <v>-454</v>
-      </c>
-      <c r="C402" t="s">
-        <v>531</v>
+        <v>-451</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="B403">
-        <v>-455</v>
+        <v>-452</v>
       </c>
       <c r="C403" t="s">
-        <v>533</v>
+        <v>241</v>
+      </c>
+      <c r="D403" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>536</v>
+        <v>626</v>
       </c>
       <c r="B404">
-        <v>-456</v>
-      </c>
-      <c r="C404" t="s">
-        <v>245</v>
+        <v>-453</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="B405">
-        <v>-457</v>
+        <v>-454</v>
       </c>
       <c r="C405" t="s">
-        <v>590</v>
+        <v>531</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="B406">
-        <v>-458</v>
+        <v>-455</v>
       </c>
       <c r="C406" t="s">
-        <v>243</v>
+        <v>533</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>634</v>
+        <v>536</v>
       </c>
       <c r="B407">
-        <v>-459</v>
+        <v>-456</v>
       </c>
       <c r="C407" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>635</v>
+        <v>551</v>
       </c>
       <c r="B408">
-        <v>-460</v>
+        <v>-457</v>
       </c>
       <c r="C408" t="s">
-        <v>241</v>
-      </c>
-      <c r="D408" t="s">
-        <v>637</v>
+        <v>587</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>638</v>
-      </c>
       <c r="B409">
-        <v>-461</v>
+        <v>-458</v>
       </c>
       <c r="C409" t="s">
-        <v>265</v>
-      </c>
-      <c r="D409" t="s">
-        <v>639</v>
+        <v>243</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B410">
-        <v>-462</v>
+        <v>-459</v>
       </c>
       <c r="C410" t="s">
-        <v>630</v>
+        <v>241</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
@@ -7362,45 +7440,104 @@
         <v>631</v>
       </c>
       <c r="B411">
-        <v>-463</v>
+        <v>-460</v>
       </c>
       <c r="C411" t="s">
         <v>241</v>
+      </c>
+      <c r="D411" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B412">
-        <v>-464</v>
+        <v>-461</v>
       </c>
       <c r="C412" t="s">
-        <v>579</v>
+        <v>265</v>
+      </c>
+      <c r="D412" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>640</v>
+        <v>656</v>
       </c>
       <c r="B413">
-        <v>-465</v>
+        <v>-462</v>
       </c>
       <c r="C413" t="s">
-        <v>265</v>
+        <v>247</v>
+      </c>
+      <c r="D413" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>627</v>
+      </c>
+      <c r="B414">
+        <v>-463</v>
+      </c>
+      <c r="C414" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>657</v>
+      </c>
+      <c r="B415">
+        <v>-464</v>
+      </c>
+      <c r="C415" t="s">
+        <v>408</v>
+      </c>
+      <c r="D415" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>635</v>
+      </c>
+      <c r="B416">
+        <v>-465</v>
+      </c>
+      <c r="C416" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>636</v>
+      </c>
+      <c r="B417">
+        <v>-466</v>
+      </c>
+      <c r="C417" t="s">
+        <v>637</v>
+      </c>
+      <c r="D417" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
         <v>13</v>
       </c>
-      <c r="B414">
+      <c r="B418">
         <v>-500</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B417">
-    <sortCondition descending="1" ref="B2:B417"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B421">
+    <sortCondition descending="1" ref="B2:B421"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E79DAE6-AB40-4F63-9365-3A621EAB0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7077555-0E6D-4566-A234-653E98503964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17895" yWindow="690" windowWidth="10905" windowHeight="16275" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
+    <workbookView xWindow="15525" yWindow="150" windowWidth="11910" windowHeight="15345" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="663">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
@@ -42,9 +42,6 @@
     <t xml:space="preserve">            Source </t>
   </si>
   <si>
-    <t xml:space="preserve">            Cascade </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Curated </t>
   </si>
   <si>
@@ -744,9 +741,6 @@
     <t>Columns</t>
   </si>
   <si>
-    <t>_Meta</t>
-  </si>
-  <si>
     <t>Framing</t>
   </si>
   <si>
@@ -756,9 +750,6 @@
     <t>TargetTable</t>
   </si>
   <si>
-    <t>Trig</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
@@ -933,9 +924,6 @@
     <t>Table</t>
   </si>
   <si>
-    <t>QuerySpecification</t>
-  </si>
-  <si>
     <t>Needed</t>
   </si>
   <si>
@@ -1005,9 +993,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Metadata</t>
-  </si>
-  <si>
     <t>lomg</t>
   </si>
   <si>
@@ -1029,18 +1014,12 @@
     <t>SqlRow</t>
   </si>
   <si>
-    <t>Cols</t>
-  </si>
-  <si>
     <t>RowSet</t>
   </si>
   <si>
     <t>ObInfo</t>
   </si>
   <si>
-    <t>Btree&lt;long,TableColumn&gt;</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -1716,9 +1695,6 @@
     <t>UsingCols</t>
   </si>
   <si>
-    <t>CallerQS</t>
-  </si>
-  <si>
     <t>Mime</t>
   </si>
   <si>
@@ -1950,9 +1926,6 @@
     <t>BList&lt;(long,long)&gt;</t>
   </si>
   <si>
-    <t>SqlValue,SqlValue</t>
-  </si>
-  <si>
     <t>CaseElse</t>
   </si>
   <si>
@@ -2020,6 +1993,36 @@
   </si>
   <si>
     <t>Users</t>
+  </si>
+  <si>
+    <t>Prefixes</t>
+  </si>
+  <si>
+    <t>Suffixes</t>
+  </si>
+  <si>
+    <t>CTree&lt;string,string&gt;</t>
+  </si>
+  <si>
+    <t>CTree&lt;string,long&gt;</t>
+  </si>
+  <si>
+    <t>UDT</t>
+  </si>
+  <si>
+    <t>Prefix</t>
+  </si>
+  <si>
+    <t>SuperShape</t>
+  </si>
+  <si>
+    <t>DefaultRowValues</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,TypedValue&gt;</t>
+  </si>
+  <si>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -2374,8 +2377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
   <dimension ref="A1:E418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="C269" sqref="C269"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,13 +2390,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2404,1777 +2407,1780 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B5">
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>-59</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>-64</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D35" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D41" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D42" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43">
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44">
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="B46">
         <v>-95</v>
       </c>
       <c r="C46" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D47" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48">
         <v>-97</v>
       </c>
       <c r="C48" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D48" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56">
         <v>-105</v>
       </c>
       <c r="C56" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D56" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57">
         <v>-106</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D57" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59">
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60">
         <v>-109</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D61" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62">
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>-112</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D63" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64">
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D64" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65">
         <v>-114</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D65" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D66" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67">
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D67" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68">
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D68" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69">
         <v>-118</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D69" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B70">
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D70" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71">
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B72">
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73">
         <v>-122</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D73" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74">
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D74" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B75">
         <v>-124</v>
       </c>
       <c r="C75" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D75" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76">
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="B77">
         <v>-126</v>
       </c>
       <c r="C77" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D77" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78">
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D78" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D79" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B80">
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D80" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81">
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B82">
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D82" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B83">
         <v>-132</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D83" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B84">
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D84" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B85">
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D85" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>-135</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D86" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B87">
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B88">
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89">
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90">
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91">
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B92">
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B93">
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D93" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B94">
         <v>-143</v>
       </c>
       <c r="C94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D94" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B95">
         <v>-144</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D95" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B96">
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B97">
         <v>-146</v>
       </c>
       <c r="C97" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D97" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B98">
         <v>-147</v>
       </c>
       <c r="C98" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D98" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99">
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B100">
         <v>-149</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D100" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101">
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B102">
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D102" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103">
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D103" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E103" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104">
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D104" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B105">
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D105" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B106">
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107">
         <v>-156</v>
       </c>
       <c r="C107" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D107" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B108">
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D108" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B109">
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B110">
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D110" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B111">
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B112">
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B113">
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114">
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115">
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B116">
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B117">
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B118">
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B119">
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D119" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B120">
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B121">
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B122">
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B123">
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D123" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D124" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B125">
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>331</v>
+        <v>662</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>334</v>
+        <v>570</v>
+      </c>
+      <c r="D126" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B127">
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B128">
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D129" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B130">
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B131">
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D131" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B132">
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B133">
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D133" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B134">
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D134" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B135">
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B136">
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B138">
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D138" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B139">
         <v>-188</v>
       </c>
       <c r="C139" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D139" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B141">
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B142">
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D142" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B143">
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B144">
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B145">
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B146">
         <v>-195</v>
@@ -4182,1682 +4188,1682 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B147">
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D147" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B148">
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D148" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B149">
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B150">
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D150" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B151">
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D151" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B152">
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D152" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B153">
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="D153" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B154">
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D154" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B155">
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B157">
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D157" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B158">
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B159">
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D159" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B160">
         <v>-209</v>
       </c>
       <c r="C160" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B161">
         <v>-210</v>
       </c>
       <c r="C161" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D161" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B162">
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D162" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B163">
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B164">
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D164" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B165">
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D165" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B166">
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D166" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="B167">
         <v>-216</v>
       </c>
       <c r="C167" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="D167" t="s">
-        <v>638</v>
+        <v>300</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B168">
         <v>-217</v>
       </c>
       <c r="C168" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B169">
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B170">
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B171">
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B172">
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B173">
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B174">
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B175">
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B176">
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B177">
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B178">
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B179">
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D179" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B180">
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B181">
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B182">
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D182" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B183">
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B184">
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B185">
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D185" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B186">
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B187">
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D187" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B188">
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D188" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B189">
         <v>-238</v>
       </c>
       <c r="C189" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D189" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B190">
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D191" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E191" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B192">
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B193">
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B194">
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B195">
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D195" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B196">
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B197">
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D197" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B198">
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B199">
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D199" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B200">
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D200" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="B201">
         <v>-250</v>
       </c>
       <c r="C201" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B202">
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D202" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D203" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B204">
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B206">
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B207">
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B208">
         <v>-257</v>
       </c>
       <c r="C208" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B209">
         <v>-258</v>
       </c>
       <c r="C209" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B210">
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D210" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B211">
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D211" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B213">
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D213" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B214">
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B215">
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D215" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B216">
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D216" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B217">
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D217" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B218">
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D218" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B219">
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D219" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B220">
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B221">
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D221" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B222">
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B223">
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B224">
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B225">
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B226">
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B227">
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B228">
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D228" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B229">
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B230">
         <v>-279</v>
       </c>
       <c r="C230" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B231">
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B232">
         <v>-281</v>
       </c>
       <c r="C232" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D232" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B233">
         <v>-282</v>
       </c>
       <c r="C233" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="E233" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B234">
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B235">
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D235" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B236">
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D236" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B237">
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="B238">
         <v>-287</v>
       </c>
       <c r="C238" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D238" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B239">
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B240">
         <v>-289</v>
       </c>
       <c r="C240" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B241">
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D241" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B242">
         <v>-291</v>
       </c>
       <c r="C242" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B243">
         <v>-292</v>
       </c>
       <c r="C243" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B244">
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B245">
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B246">
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B247">
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B248">
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B249">
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D249" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B250">
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D250" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B252">
         <v>-301</v>
       </c>
       <c r="C252" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D252" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B253">
         <v>-302</v>
       </c>
       <c r="C253" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D253" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B255">
         <v>-304</v>
       </c>
       <c r="C255" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D255" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B256">
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B257">
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D257" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>236</v>
-      </c>
       <c r="B258">
         <v>-307</v>
       </c>
-      <c r="C258" t="s">
-        <v>323</v>
-      </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B259">
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D259" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B260">
         <v>-309</v>
       </c>
       <c r="C260" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D260" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B261">
         <v>-310</v>
       </c>
       <c r="C261" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D261" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B262">
         <v>-311</v>
       </c>
       <c r="C262" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B263">
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D263" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B264">
         <v>-313</v>
       </c>
       <c r="C264" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D264" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B265">
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="B266">
         <v>-315</v>
       </c>
       <c r="C266" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D266" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B267">
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B268">
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>659</v>
+      </c>
       <c r="B269">
         <v>-318</v>
       </c>
+      <c r="C269" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B270">
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B271">
         <v>-320</v>
       </c>
       <c r="C271" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D271" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B272">
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B273">
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D273" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B274">
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D274" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B275">
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D275" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B276">
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D276" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B277">
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B278">
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B279">
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D279" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B280">
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D280" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B281">
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D281" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5868,282 +5874,282 @@
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D283" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B284">
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B285">
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D285" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B286">
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D286" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B287">
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B288">
         <v>-337</v>
       </c>
       <c r="C288" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D288" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B289">
         <v>-338</v>
       </c>
       <c r="C289" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D289" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B290">
         <v>-339</v>
       </c>
       <c r="C290" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D290" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B291">
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B292">
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B293">
         <v>-342</v>
       </c>
       <c r="C293" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D293" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B294">
         <v>-343</v>
       </c>
       <c r="C294" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D294" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B295">
         <v>-344</v>
       </c>
       <c r="C295" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D295" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B296">
         <v>-345</v>
       </c>
       <c r="C296" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D296" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B297">
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D297" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B298">
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B299">
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B300">
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B301">
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B302">
         <v>-351</v>
       </c>
       <c r="C302" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D302" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B303">
         <v>-352</v>
       </c>
       <c r="C303" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D303" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B304">
         <v>-353</v>
@@ -6151,166 +6157,166 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B305">
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D305" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B306">
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D306" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B307">
         <v>-356</v>
       </c>
       <c r="C307" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D307" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B308">
         <v>-357</v>
       </c>
       <c r="C308" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D308" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B309">
         <v>-358</v>
       </c>
       <c r="C309" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D309" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B310">
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B311">
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B312">
         <v>-361</v>
       </c>
       <c r="C312" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D312" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B313">
         <v>-362</v>
       </c>
       <c r="C313" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D313" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B314">
         <v>-363</v>
       </c>
       <c r="C314" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D314" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B315">
         <v>-364</v>
       </c>
       <c r="C315" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B316">
         <v>-365</v>
       </c>
       <c r="C316" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D316" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B317">
         <v>-366</v>
@@ -6318,7 +6324,7 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B318">
         <v>-367</v>
@@ -6326,934 +6332,955 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B319">
         <v>-368</v>
       </c>
       <c r="C319" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B320">
         <v>-369</v>
       </c>
       <c r="C320" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D320" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B321">
         <v>-370</v>
       </c>
       <c r="C321" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B322">
         <v>-371</v>
       </c>
       <c r="C322" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D322" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B323">
         <v>-372</v>
       </c>
       <c r="C323" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D323" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B324">
         <v>-373</v>
       </c>
       <c r="C324" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B325">
         <v>-374</v>
       </c>
+      <c r="C325" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>560</v>
+        <v>653</v>
       </c>
       <c r="B326">
         <v>-375</v>
       </c>
       <c r="C326" t="s">
-        <v>299</v>
+        <v>656</v>
+      </c>
+      <c r="D326" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>240</v>
+        <v>654</v>
       </c>
       <c r="B327">
         <v>-376</v>
       </c>
+      <c r="C327" t="s">
+        <v>656</v>
+      </c>
+      <c r="D327" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B328">
         <v>-377</v>
       </c>
       <c r="C328" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B329">
         <v>-378</v>
       </c>
       <c r="C329" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D329" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B330">
         <v>-379</v>
       </c>
       <c r="C330" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B331">
         <v>-380</v>
       </c>
       <c r="C331" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D331" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B332">
         <v>-381</v>
       </c>
       <c r="C332" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B333">
         <v>-382</v>
       </c>
       <c r="C333" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B334">
         <v>-383</v>
       </c>
       <c r="C334" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="B335">
         <v>-384</v>
       </c>
       <c r="C335" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D335" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="B336">
         <v>-385</v>
       </c>
       <c r="C336" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D336" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B337">
         <v>-386</v>
       </c>
       <c r="C337" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D337" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B338">
         <v>-387</v>
       </c>
       <c r="C338" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D338" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B339">
         <v>-388</v>
       </c>
       <c r="C339" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D339" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B340">
         <v>-389</v>
       </c>
       <c r="C340" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>2</v>
+        <v>658</v>
       </c>
       <c r="B341">
         <v>-390</v>
       </c>
+      <c r="C341" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B342">
         <v>-391</v>
       </c>
       <c r="C342" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D342" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B343">
         <v>-392</v>
       </c>
       <c r="C343" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D343" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B344">
         <v>-393</v>
       </c>
       <c r="C344" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D344" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E344" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B345">
         <v>-394</v>
       </c>
       <c r="C345" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D345" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B346">
         <v>-395</v>
       </c>
       <c r="C346" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D346" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B347">
         <v>-396</v>
       </c>
       <c r="C347" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D347" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B348">
         <v>-397</v>
       </c>
       <c r="C348" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B349">
         <v>-398</v>
       </c>
       <c r="C349" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B350">
         <v>-399</v>
       </c>
       <c r="C350" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D350" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>654</v>
+      </c>
       <c r="B351">
         <v>-400</v>
       </c>
+      <c r="C351" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B352">
         <v>-401</v>
       </c>
       <c r="C352" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B353">
         <v>-402</v>
       </c>
       <c r="C353" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B354">
         <v>-403</v>
       </c>
       <c r="C354" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B355">
         <v>-404</v>
       </c>
       <c r="C355" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B356">
         <v>-405</v>
       </c>
       <c r="C356" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B357">
         <v>-406</v>
       </c>
       <c r="C357" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D357" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B358">
         <v>-407</v>
       </c>
       <c r="C358" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B359">
         <v>-408</v>
       </c>
       <c r="C359" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B360">
         <v>-409</v>
       </c>
       <c r="C360" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B361">
         <v>-410</v>
       </c>
       <c r="C361" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D361" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B362">
         <v>-411</v>
       </c>
       <c r="C362" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D362" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B363">
         <v>-412</v>
       </c>
       <c r="C363" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B364">
         <v>-413</v>
       </c>
       <c r="C364" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D364" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B365">
         <v>-414</v>
       </c>
       <c r="C365" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D365" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B366">
         <v>-415</v>
       </c>
       <c r="C366" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D366" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B367">
         <v>-416</v>
       </c>
       <c r="C367" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B368">
         <v>-417</v>
       </c>
       <c r="C368" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B369">
         <v>-418</v>
       </c>
       <c r="C369" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D369" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B370">
         <v>-419</v>
       </c>
       <c r="C370" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D370" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B371">
         <v>-420</v>
       </c>
       <c r="C371" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D371" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B372">
         <v>-421</v>
       </c>
       <c r="C372" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B373">
         <v>-422</v>
       </c>
       <c r="C373" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D373" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B374">
         <v>-423</v>
       </c>
       <c r="C374" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D374" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B375">
         <v>-424</v>
       </c>
       <c r="C375" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D375" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B376">
         <v>-425</v>
       </c>
       <c r="C376" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D376" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B377">
         <v>-426</v>
       </c>
       <c r="C377" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D377" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B378">
         <v>-427</v>
       </c>
       <c r="C378" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D378" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B379">
         <v>-428</v>
       </c>
       <c r="C379" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D379" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B380">
         <v>-429</v>
       </c>
       <c r="C380" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B381">
         <v>-430</v>
       </c>
       <c r="C381" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B382">
         <v>-431</v>
       </c>
       <c r="C382" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D382" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B383">
         <v>-432</v>
       </c>
       <c r="C383" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D383" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B384">
         <v>-433</v>
       </c>
       <c r="C384" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D384" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B385">
         <v>-434</v>
       </c>
       <c r="C385" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="D385" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B386">
         <v>-435</v>
       </c>
       <c r="C386" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D386" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B387">
         <v>-436</v>
       </c>
       <c r="C387" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B388">
         <v>-437</v>
       </c>
       <c r="C388" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B389">
         <v>-438</v>
       </c>
       <c r="C389" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B390">
         <v>-439</v>
       </c>
       <c r="C390" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B391">
         <v>-440</v>
       </c>
       <c r="C391" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B392">
         <v>-441</v>
       </c>
       <c r="C392" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B393">
         <v>-442</v>
       </c>
       <c r="C393" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B394">
         <v>-443</v>
@@ -7261,7 +7288,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B395">
         <v>-444</v>
@@ -7269,82 +7296,82 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B396">
         <v>-445</v>
       </c>
       <c r="C396" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B397">
         <v>-446</v>
       </c>
       <c r="C397" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D397" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B398">
         <v>-447</v>
       </c>
       <c r="C398" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D398" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B399">
         <v>-448</v>
       </c>
       <c r="C399" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D399" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B400">
         <v>-449</v>
       </c>
       <c r="C400" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B401">
         <v>-450</v>
       </c>
       <c r="C401" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B402">
         <v>-451</v>
@@ -7352,21 +7379,21 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B403">
         <v>-452</v>
       </c>
       <c r="C403" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D403" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B404">
         <v>-453</v>
@@ -7374,46 +7401,46 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B405">
         <v>-454</v>
       </c>
       <c r="C405" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B406">
         <v>-455</v>
       </c>
       <c r="C406" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B407">
         <v>-456</v>
       </c>
       <c r="C407" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B408">
         <v>-457</v>
       </c>
       <c r="C408" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7421,115 +7448,115 @@
         <v>-458</v>
       </c>
       <c r="C409" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B410">
         <v>-459</v>
       </c>
       <c r="C410" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B411">
         <v>-460</v>
       </c>
       <c r="C411" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D411" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B412">
         <v>-461</v>
       </c>
       <c r="C412" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D412" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B413">
         <v>-462</v>
       </c>
       <c r="C413" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D413" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B414">
         <v>-463</v>
       </c>
       <c r="C414" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="B415">
         <v>-464</v>
       </c>
       <c r="C415" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D415" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B416">
         <v>-465</v>
       </c>
       <c r="C416" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B417">
         <v>-466</v>
       </c>
       <c r="C417" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D417" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B418">
         <v>-500</v>
@@ -7560,13 +7587,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D1">
         <v>-421</v>
@@ -7574,13 +7601,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D2">
         <v>-431</v>
@@ -7588,13 +7615,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D3">
         <v>-435</v>
@@ -7602,13 +7629,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D4">
         <v>-429</v>
@@ -7616,13 +7643,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D5">
         <v>-402</v>
@@ -7630,13 +7657,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C6" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D6">
         <v>-432</v>
@@ -7644,13 +7671,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D7">
         <v>-415</v>
@@ -7658,13 +7685,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D8">
         <v>-239</v>
@@ -7672,13 +7699,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C9" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D9">
         <v>-440</v>
@@ -7686,13 +7713,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C10" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D10">
         <v>-176</v>
@@ -7700,13 +7727,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B11" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C11" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D11">
         <v>-414</v>
@@ -7714,13 +7741,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C12" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D12">
         <v>-411</v>
@@ -7728,13 +7755,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C13" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D13">
         <v>-403</v>
@@ -7742,13 +7769,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B14" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D14">
         <v>-447</v>
@@ -7756,13 +7783,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C15" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D15">
         <v>-416</v>
@@ -7770,13 +7797,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C16" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D16">
         <v>-406</v>
@@ -7784,13 +7811,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C17" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D17">
         <v>-199</v>
@@ -7798,13 +7825,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B18" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C18" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D18">
         <v>-200</v>
@@ -7812,13 +7839,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C19" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D19">
         <v>-410</v>
@@ -7826,13 +7853,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D20">
         <v>-420</v>
@@ -7840,13 +7867,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B21" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C21" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D21">
         <v>-446</v>
@@ -7854,13 +7881,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>395</v>
+      </c>
+      <c r="B22" t="s">
+        <v>401</v>
+      </c>
+      <c r="C22" t="s">
         <v>402</v>
-      </c>
-      <c r="B22" t="s">
-        <v>408</v>
-      </c>
-      <c r="C22" t="s">
-        <v>409</v>
       </c>
       <c r="D22">
         <v>-159</v>
@@ -7868,13 +7895,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B23" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C23" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D23">
         <v>-433</v>
@@ -7882,13 +7909,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B24" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C24" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D24">
         <v>-182</v>
@@ -7896,13 +7923,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B25" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C25" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D25">
         <v>-183</v>
@@ -7910,13 +7937,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B26" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C26" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D26">
         <v>-164</v>
@@ -7924,13 +7951,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B27" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C27" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="D27">
         <v>-401</v>
@@ -7938,13 +7965,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="D28">
         <v>-438</v>
@@ -7952,13 +7979,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C29" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D29">
         <v>-436</v>
@@ -7966,13 +7993,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B30" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C30" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D30">
         <v>-424</v>
@@ -7980,13 +8007,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B31" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C31" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D31">
         <v>-422</v>
@@ -7994,13 +8021,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B32" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C32" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D32">
         <v>-437</v>
@@ -8008,13 +8035,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B33" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C33" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D33">
         <v>-423</v>
@@ -8022,13 +8049,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B34" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C34" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D34">
         <v>-434</v>
@@ -8036,13 +8063,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B35" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C35" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D35">
         <v>-405</v>
@@ -8050,13 +8077,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B36" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C36" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D36">
         <v>-404</v>
@@ -8064,13 +8091,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>416</v>
+      </c>
+      <c r="B37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" t="s">
         <v>423</v>
-      </c>
-      <c r="B37" t="s">
-        <v>355</v>
-      </c>
-      <c r="C37" t="s">
-        <v>430</v>
       </c>
       <c r="D37">
         <v>-407</v>
@@ -8078,24 +8105,24 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>394</v>
+      </c>
+      <c r="B38" t="s">
         <v>401</v>
       </c>
-      <c r="B38" t="s">
-        <v>408</v>
-      </c>
       <c r="C38" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D39">
         <v>-448</v>
@@ -8103,13 +8130,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B40" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D40">
         <v>-439</v>
@@ -8117,13 +8144,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C41" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D41">
         <v>-151</v>
@@ -8131,13 +8158,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B42" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C42" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D42">
         <v>-413</v>
@@ -8145,13 +8172,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B43" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C43" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D43">
         <v>-408</v>
@@ -8159,13 +8186,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B44" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C44" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D44">
         <v>-426</v>
@@ -8173,13 +8200,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C45" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D45">
         <v>-409</v>
@@ -8187,13 +8214,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C46" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D46">
         <v>-154</v>
@@ -8201,13 +8228,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C47" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D47">
         <v>-430</v>
@@ -8215,13 +8242,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C48" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D48">
         <v>-417</v>
@@ -8229,13 +8256,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B49" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C49" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D49">
         <v>-418</v>
@@ -8243,13 +8270,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B50" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C50" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D50">
         <v>-425</v>
@@ -8257,13 +8284,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B51" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C51" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D51">
         <v>-428</v>
@@ -8271,13 +8298,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B52" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C52" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D52">
         <v>-419</v>
@@ -8285,13 +8312,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B53" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C53" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D53">
         <v>-412</v>
@@ -8299,13 +8326,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B54" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C54" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D54">
         <v>-441</v>
@@ -8313,13 +8340,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B55" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C55" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D55">
         <v>-442</v>
@@ -8327,13 +8354,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>397</v>
+      </c>
+      <c r="B56" t="s">
+        <v>403</v>
+      </c>
+      <c r="C56" t="s">
         <v>404</v>
-      </c>
-      <c r="B56" t="s">
-        <v>410</v>
-      </c>
-      <c r="C56" t="s">
-        <v>411</v>
       </c>
       <c r="D56">
         <v>-190</v>

--- a/PyrrhoV7alpha/doc/consts.xlsx
+++ b/PyrrhoV7alpha/doc/consts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\PyrrhoDB70\Pyrrho\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyrrhoDB70\Pyrrho\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7077555-0E6D-4566-A234-653E98503964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD123CE4-A9B6-4B2A-B28C-BDECBE5106A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15525" yWindow="150" windowWidth="11910" windowHeight="15345" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
+    <workbookView xWindow="16530" yWindow="435" windowWidth="12270" windowHeight="16905" xr2:uid="{3C6F7A5F-4B22-4657-A704-C273C2ABD516}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="686">
   <si>
     <t xml:space="preserve">            Condition </t>
   </si>
   <si>
-    <t xml:space="preserve">            Source </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Curated </t>
   </si>
   <si>
@@ -129,27 +126,18 @@
     <t xml:space="preserve">            End </t>
   </si>
   <si>
-    <t xml:space="preserve">            Iri </t>
-  </si>
-  <si>
     <t xml:space="preserve">            NotNull </t>
   </si>
   <si>
     <t xml:space="preserve">            NullsFirst </t>
   </si>
   <si>
-    <t xml:space="preserve">            OrderCategory </t>
-  </si>
-  <si>
     <t xml:space="preserve">            OrderFunc </t>
   </si>
   <si>
     <t xml:space="preserve">            Precision </t>
   </si>
   <si>
-    <t xml:space="preserve">            Provenance </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Representation </t>
   </si>
   <si>
@@ -159,9 +147,6 @@
     <t xml:space="preserve">            Start </t>
   </si>
   <si>
-    <t xml:space="preserve">            Structure </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Under </t>
   </si>
   <si>
@@ -237,9 +222,6 @@
     <t xml:space="preserve">            Objects </t>
   </si>
   <si>
-    <t xml:space="preserve">            Operand </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Outs </t>
   </si>
   <si>
@@ -399,12 +381,6 @@
     <t xml:space="preserve">            JoinKind </t>
   </si>
   <si>
-    <t xml:space="preserve">            LeftOperand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Matches </t>
-  </si>
-  <si>
     <t xml:space="preserve">            Natural </t>
   </si>
   <si>
@@ -417,9 +393,6 @@
     <t xml:space="preserve">            RestGroups </t>
   </si>
   <si>
-    <t xml:space="preserve">            RightOperand </t>
-  </si>
-  <si>
     <t xml:space="preserve">            RowType </t>
   </si>
   <si>
@@ -489,9 +462,6 @@
     <t xml:space="preserve">            Op </t>
   </si>
   <si>
-    <t xml:space="preserve">            RVJoinType </t>
-  </si>
-  <si>
     <t xml:space="preserve">            SimpleTableQuery </t>
   </si>
   <si>
@@ -708,9 +678,6 @@
     <t xml:space="preserve">            ClientName </t>
   </si>
   <si>
-    <t xml:space="preserve">            ClientPassword </t>
-  </si>
-  <si>
     <t xml:space="preserve">            ViewDef </t>
   </si>
   <si>
@@ -789,9 +756,6 @@
     <t>DBObject</t>
   </si>
   <si>
-    <t>NextPrep</t>
-  </si>
-  <si>
     <t>Executable</t>
   </si>
   <si>
@@ -807,15 +771,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>Btree&lt;string,long&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long </t>
-  </si>
-  <si>
-    <t>Btree&lt;Domain,Domain&gt;</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -837,9 +792,6 @@
     <t>Sqlx</t>
   </si>
   <si>
-    <t>Btree&lt;long,Domain&gt;</t>
-  </si>
-  <si>
     <t>Blist&lt;long&gt;</t>
   </si>
   <si>
@@ -855,15 +807,9 @@
     <t>HandlerStatement</t>
   </si>
   <si>
-    <t>ReturnStatement</t>
-  </si>
-  <si>
     <t>WhenPart</t>
   </si>
   <si>
-    <t>Btree&lt;string,string&gt;</t>
-  </si>
-  <si>
     <t>SqlCursor</t>
   </si>
   <si>
@@ -873,12 +819,6 @@
     <t>Exception</t>
   </si>
   <si>
-    <t>Blist&lt;object&gt;</t>
-  </si>
-  <si>
-    <t>Btree&lt;Sqlx,long&gt;</t>
-  </si>
-  <si>
     <t>Btree&lt;long,Sqlx&gt;</t>
   </si>
   <si>
@@ -900,9 +840,6 @@
     <t>MethodType</t>
   </si>
   <si>
-    <t>ParamInfo</t>
-  </si>
-  <si>
     <t>Btree&lt;UpdateAssignment,bool&gt;</t>
   </si>
   <si>
@@ -939,27 +876,15 @@
     <t>TableColumn</t>
   </si>
   <si>
-    <t xml:space="preserve">            LeftOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            RightOrder</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
     <t>WindowBound</t>
   </si>
   <si>
-    <t>Blist&lt;Grouping&gt;</t>
-  </si>
-  <si>
     <t>TableExpression</t>
   </si>
   <si>
-    <t>Btree&lt;string,Btree&lt;int,long&gt;&gt;</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
@@ -969,18 +894,12 @@
     <t>PeriodSpecification</t>
   </si>
   <si>
-    <t>Btree&lt;Clist&lt;TableColumn&gt;,long&gt;</t>
-  </si>
-  <si>
     <t>Check</t>
   </si>
   <si>
     <t>Btree&lt;long,TableRow&gt;</t>
   </si>
   <si>
-    <t>Btree&lt;TrigType,Btree&lt;long,bool&gt;&gt;</t>
-  </si>
-  <si>
     <t>GenerationRule</t>
   </si>
   <si>
@@ -996,9 +915,6 @@
     <t>lomg</t>
   </si>
   <si>
-    <t>Btree&lt;int,(XmlName,long)&gt;</t>
-  </si>
-  <si>
     <t>SqlXmlValue</t>
   </si>
   <si>
@@ -1008,9 +924,6 @@
     <t>SqlValueSelect</t>
   </si>
   <si>
-    <t>CallStatement</t>
-  </si>
-  <si>
     <t>SqlRow</t>
   </si>
   <si>
@@ -1026,9 +939,6 @@
     <t>Btree&lt;Sqlx,TypedValue&gt;</t>
   </si>
   <si>
-    <t>TableCols</t>
-  </si>
-  <si>
     <t>defpos for STATIC</t>
   </si>
   <si>
@@ -1044,18 +954,9 @@
     <t>RetType</t>
   </si>
   <si>
-    <t>Clist&lt;long,Domain&gt;</t>
-  </si>
-  <si>
-    <t>BList&lt;string&gt;</t>
-  </si>
-  <si>
     <t>Clist&lt;long&gt;</t>
   </si>
   <si>
-    <t>_Needed</t>
-  </si>
-  <si>
     <t>Built</t>
   </si>
   <si>
@@ -1158,9 +1059,6 @@
     <t>TdActs</t>
   </si>
   <si>
-    <t>TrsDefPos</t>
-  </si>
-  <si>
     <t>TransitionRowSet</t>
   </si>
   <si>
@@ -1173,12 +1071,6 @@
     <t>RecPos</t>
   </si>
   <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Actuals</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -1638,18 +1530,9 @@
     <t>-1L</t>
   </si>
   <si>
-    <t>_system._role</t>
-  </si>
-  <si>
     <t>_system._user</t>
   </si>
   <si>
-    <t>_Role</t>
-  </si>
-  <si>
-    <t>System_Role</t>
-  </si>
-  <si>
     <t>System_User</t>
   </si>
   <si>
@@ -1665,27 +1548,15 @@
     <t>_Data</t>
   </si>
   <si>
-    <t>ViewPpos</t>
-  </si>
-  <si>
     <t>RestValue</t>
   </si>
   <si>
-    <t>Connection</t>
-  </si>
-  <si>
-    <t>_Connection</t>
-  </si>
-  <si>
     <t>Inverts</t>
   </si>
   <si>
     <t>_Metadata</t>
   </si>
   <si>
-    <t>Btree&lt;Sqlx,object&gt;</t>
-  </si>
-  <si>
     <t>RemoteCols</t>
   </si>
   <si>
@@ -1704,18 +1575,12 @@
     <t>DefaultUrl</t>
   </si>
   <si>
-    <t>ViewTable</t>
-  </si>
-  <si>
     <t>Defpos</t>
   </si>
   <si>
     <t>LastData</t>
   </si>
   <si>
-    <t>ViewTables</t>
-  </si>
-  <si>
     <t>Matching</t>
   </si>
   <si>
@@ -1737,9 +1602,6 @@
     <t>CTree&lt;long,lomg&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">            Aggregates </t>
-  </si>
-  <si>
     <t>CTree&lt;long,bool&gt;</t>
   </si>
   <si>
@@ -1797,15 +1659,9 @@
     <t>CTree&lt;long,string&gt;</t>
   </si>
   <si>
-    <t>for Rest</t>
-  </si>
-  <si>
     <t>NamesMap</t>
   </si>
   <si>
-    <t>CList&lt;string&gt;</t>
-  </si>
-  <si>
     <t>ColIds</t>
   </si>
   <si>
@@ -1827,9 +1683,6 @@
     <t xml:space="preserve">            _Select </t>
   </si>
   <si>
-    <t>SourceSQL</t>
-  </si>
-  <si>
     <t>Old</t>
   </si>
   <si>
@@ -1851,9 +1704,6 @@
     <t>SRowType</t>
   </si>
   <si>
-    <t>Ctree&lt;long,long&gt;</t>
-  </si>
-  <si>
     <t>_Map</t>
   </si>
   <si>
@@ -1869,9 +1719,6 @@
     <t>RowSet.Assertions</t>
   </si>
   <si>
-    <t>_DataType</t>
-  </si>
-  <si>
     <t>_Framing</t>
   </si>
   <si>
@@ -1881,12 +1728,6 @@
     <t>ETag</t>
   </si>
   <si>
-    <t>Authorization</t>
-  </si>
-  <si>
-    <t>DefaultCredentials</t>
-  </si>
-  <si>
     <t>AssertUnmodifiedSince</t>
   </si>
   <si>
@@ -1899,9 +1740,6 @@
     <t>ViewResult</t>
   </si>
   <si>
-    <t xml:space="preserve">            ViewStruct</t>
-  </si>
-  <si>
     <t>_RestView</t>
   </si>
   <si>
@@ -1929,18 +1767,12 @@
     <t>CaseElse</t>
   </si>
   <si>
-    <t>Scalar</t>
-  </si>
-  <si>
     <t>UsingOperands</t>
   </si>
   <si>
     <t>RefIndexes</t>
   </si>
   <si>
-    <t>CTree&lt;long,CTree&lt;CList&lt;long&gt;,CList&lt;long&gt;&gt;&gt;</t>
-  </si>
-  <si>
     <t>SchemaKey</t>
   </si>
   <si>
@@ -1965,9 +1797,6 @@
     <t>Infos</t>
   </si>
   <si>
-    <t>CTree&lt;long,ObInfo&gt;</t>
-  </si>
-  <si>
     <t>ValueSelect</t>
   </si>
   <si>
@@ -1980,9 +1809,6 @@
     <t>SelectDepth</t>
   </si>
   <si>
-    <t>Fields</t>
-  </si>
-  <si>
     <t>Ident</t>
   </si>
   <si>
@@ -2004,9 +1830,6 @@
     <t>CTree&lt;string,string&gt;</t>
   </si>
   <si>
-    <t>CTree&lt;string,long&gt;</t>
-  </si>
-  <si>
     <t>UDT</t>
   </si>
   <si>
@@ -2023,6 +1846,252 @@
   </si>
   <si>
     <t>Ambient</t>
+  </si>
+  <si>
+    <t>Blist&lt;long?&gt;</t>
+  </si>
+  <si>
+    <t>_Domain</t>
+  </si>
+  <si>
+    <t>Arriving</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,CTree&lt;long,bool&gt;&gt;</t>
+  </si>
+  <si>
+    <t>TNode TEdge</t>
+  </si>
+  <si>
+    <t>Leaving</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,TGraph&gt;</t>
+  </si>
+  <si>
+    <t>TNode, TEdge</t>
+  </si>
+  <si>
+    <t>NodeIds</t>
+  </si>
+  <si>
+    <t>BTree&lt;TChar,TNode&gt;</t>
+  </si>
+  <si>
+    <t>BTree&lt;string,long?&gt;</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>Btree&lt;string,long?&gt;</t>
+  </si>
+  <si>
+    <t>_Schema</t>
+  </si>
+  <si>
+    <t>Btree&lt;Domain,long?&gt;</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,ObInfo&gt;</t>
+  </si>
+  <si>
+    <t>Subs</t>
+  </si>
+  <si>
+    <t>Aggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            _OrderCategory </t>
+  </si>
+  <si>
+    <t>CTree&lt;long,Domain&gt;</t>
+  </si>
+  <si>
+    <t>BList&lt;long?&gt;</t>
+  </si>
+  <si>
+    <t>Subtypes</t>
+  </si>
+  <si>
+    <t>CTree&lt;Domain,bool&gt;</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>IdCol</t>
+  </si>
+  <si>
+    <t>IdIx</t>
+  </si>
+  <si>
+    <t>ArriveCol</t>
+  </si>
+  <si>
+    <t>ArriveIx</t>
+  </si>
+  <si>
+    <t>ArrivingEnds</t>
+  </si>
+  <si>
+    <t>ArrivingType</t>
+  </si>
+  <si>
+    <t>NodeType</t>
+  </si>
+  <si>
+    <t>LeaveCol</t>
+  </si>
+  <si>
+    <t>LeaveIx</t>
+  </si>
+  <si>
+    <t>LeavingEnds</t>
+  </si>
+  <si>
+    <t>LeavingType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            _Operand </t>
+  </si>
+  <si>
+    <t>SqlCall</t>
+  </si>
+  <si>
+    <t>Btree&lt;Sqlx,long?&gt;</t>
+  </si>
+  <si>
+    <t>RAISE or RESIGNAL</t>
+  </si>
+  <si>
+    <t>InsCols</t>
+  </si>
+  <si>
+    <t>GDefs</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,TGParam&gt;</t>
+  </si>
+  <si>
+    <t>Index or IndexRowSet</t>
+  </si>
+  <si>
+    <t>UDType</t>
+  </si>
+  <si>
+    <t>extends PartitionType</t>
+  </si>
+  <si>
+    <t>Clist&lt;Grouping&gt;</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,int&gt;</t>
+  </si>
+  <si>
+    <t>Btree&lt;string,Btree&lt;CList&lt;Domain&gt;,long?&gt;&gt;</t>
+  </si>
+  <si>
+    <t>CTree&lt;Sqlx,TypedValue&gt;</t>
+  </si>
+  <si>
+    <t>Btree&lt;string,Btree&lt;CList&lt;Domain&gt;,long&gt;&gt;</t>
+  </si>
+  <si>
+    <t>BTree&lt;string,{int,long?)&gt;</t>
+  </si>
+  <si>
+    <t>TableColumn or SqlValue</t>
+  </si>
+  <si>
+    <t>CTree&lt;Domain,CTree&lt;long,bool&gt;&gt;</t>
+  </si>
+  <si>
+    <t>_NodeType</t>
+  </si>
+  <si>
+    <t>CTree&lt;long,CTree&lt;Domain,Domain&gt;&gt;</t>
+  </si>
+  <si>
+    <t>referencing Table, referencing TableColumns, referenced TableColumns</t>
+  </si>
+  <si>
+    <t>PathDomain</t>
+  </si>
+  <si>
+    <t>Ctree&lt;TrigType,Ctree&lt;long,bool&gt;&gt;</t>
+  </si>
+  <si>
+    <t>GraphFlag</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>Physicals</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,Physicals</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>Trig</t>
+  </si>
+  <si>
+    <t>_Diff</t>
+  </si>
+  <si>
+    <t>BTree&lt;long,object&gt;</t>
+  </si>
+  <si>
+    <t>BList&lt;(XmlName,long)&gt;</t>
+  </si>
+  <si>
+    <t>ArrayValuedQE</t>
+  </si>
+  <si>
+    <t>MultiSqlValue</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Blist&lt;Ident&gt;</t>
+  </si>
+  <si>
+    <t>Seq</t>
+  </si>
+  <si>
+    <t>HttpDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            _Matches </t>
+  </si>
+  <si>
+    <t>RestRowSetSources</t>
+  </si>
+  <si>
+    <t>CList&lt;TRow&gt;</t>
+  </si>
+  <si>
+    <t>Table TableRowSet</t>
+  </si>
+  <si>
+    <t>_Scalar</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Trs</t>
+  </si>
+  <si>
+    <t>RestTemplate</t>
+  </si>
+  <si>
+    <t>RestRowSet</t>
   </si>
 </sst>
 </file>
@@ -2058,9 +2127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2375,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46307D67-F6E8-4090-8AD0-6952E3F12EB7}">
-  <dimension ref="A1:E418"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2390,13 +2460,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B1">
         <v>-50</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2407,3916 +2477,3940 @@
         <v>-51</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>537</v>
       </c>
       <c r="B3">
         <v>-52</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>-53</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>578</v>
+        <v>532</v>
       </c>
       <c r="B5">
         <v>-54</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>-55</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>-56</v>
       </c>
       <c r="C7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>-57</v>
       </c>
       <c r="C8" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B9">
         <v>-58</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>-59</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>-60</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>-61</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>-62</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>-63</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>-64</v>
       </c>
       <c r="C15" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D15" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>-65</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>-66</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>-67</v>
       </c>
       <c r="C18" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>-68</v>
       </c>
       <c r="C19" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>-69</v>
       </c>
       <c r="C20" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>-70</v>
       </c>
       <c r="C21" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>-71</v>
       </c>
       <c r="C22" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>-72</v>
       </c>
       <c r="C23" t="s">
-        <v>261</v>
+        <v>522</v>
       </c>
       <c r="D23" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>-73</v>
       </c>
       <c r="C24" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>-74</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>-75</v>
       </c>
       <c r="C26" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>-76</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>-77</v>
       </c>
       <c r="C28" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>-78</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
+        <v>664</v>
+      </c>
+      <c r="B30" s="2">
         <v>-79</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>-80</v>
       </c>
       <c r="C31" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>-81</v>
       </c>
       <c r="C32" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>-82</v>
       </c>
       <c r="C33" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>622</v>
       </c>
       <c r="B34">
         <v>-83</v>
       </c>
       <c r="C34" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>-84</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D35" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>-85</v>
       </c>
       <c r="C36" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
+        <v>657</v>
+      </c>
+      <c r="B37" s="2">
         <v>-86</v>
       </c>
       <c r="C37" t="s">
-        <v>240</v>
+        <v>227</v>
+      </c>
+      <c r="D37" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>-87</v>
       </c>
       <c r="C38" t="s">
-        <v>267</v>
+        <v>623</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>-88</v>
       </c>
       <c r="C39" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>-89</v>
       </c>
       <c r="C40" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>-90</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D41" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>-91</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
-      </c>
-      <c r="D42" t="s">
-        <v>262</v>
+        <v>626</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>-92</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B44">
         <v>-93</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B45">
         <v>-94</v>
       </c>
       <c r="C45" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="B46">
         <v>-95</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>540</v>
+      </c>
+      <c r="D46" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B47">
         <v>-96</v>
       </c>
       <c r="C47" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>-97</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <v>-98</v>
       </c>
       <c r="C49" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B50">
         <v>-99</v>
       </c>
       <c r="C50" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B51">
         <v>-100</v>
       </c>
       <c r="C51" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D51" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B52">
         <v>-101</v>
       </c>
       <c r="C52" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>-102</v>
       </c>
       <c r="C53" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B54">
         <v>-103</v>
       </c>
       <c r="C54" t="s">
-        <v>271</v>
+        <v>227</v>
+      </c>
+      <c r="D54" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>-104</v>
       </c>
       <c r="C55" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>-105</v>
       </c>
       <c r="C56" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D56" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>-106</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D57" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>-107</v>
       </c>
       <c r="C58" t="s">
-        <v>238</v>
-      </c>
-      <c r="D58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>-108</v>
       </c>
       <c r="C59" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D59" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>-109</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B61">
         <v>-110</v>
       </c>
       <c r="C61" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D61" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B62">
         <v>-111</v>
       </c>
       <c r="C62" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D62" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>639</v>
       </c>
       <c r="B63">
         <v>-112</v>
       </c>
       <c r="C63" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D63" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B64">
         <v>-113</v>
       </c>
       <c r="C64" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D64" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B65">
         <v>-114</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D65" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B66">
         <v>-115</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D66" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B67">
         <v>-116</v>
       </c>
       <c r="C67" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D67" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B68">
         <v>-117</v>
       </c>
       <c r="C68" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D68" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>-118</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D69" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>-119</v>
       </c>
       <c r="C70" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D70" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B71">
         <v>-120</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B72">
         <v>-121</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B73">
         <v>-122</v>
       </c>
       <c r="C73" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B74">
         <v>-123</v>
       </c>
       <c r="C74" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D74" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>641</v>
+        <v>585</v>
       </c>
       <c r="B75">
         <v>-124</v>
       </c>
       <c r="C75" t="s">
-        <v>568</v>
+        <v>522</v>
       </c>
       <c r="D75" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B76">
         <v>-125</v>
       </c>
       <c r="C76" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>642</v>
+        <v>586</v>
       </c>
       <c r="B77">
         <v>-126</v>
       </c>
       <c r="C77" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="D77" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B78">
         <v>-127</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D78" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B79">
         <v>-128</v>
       </c>
       <c r="C79" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D79" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B80">
         <v>-129</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D80" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B81">
         <v>-130</v>
       </c>
       <c r="C81" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B82">
         <v>-131</v>
       </c>
       <c r="C82" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D82" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>-132</v>
       </c>
       <c r="C83" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D83" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B84">
         <v>-133</v>
       </c>
       <c r="C84" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D84" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B85">
         <v>-134</v>
       </c>
       <c r="C85" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B86">
         <v>-135</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D86" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B87">
         <v>-136</v>
       </c>
       <c r="C87" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B88">
         <v>-137</v>
       </c>
       <c r="C88" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B89">
         <v>-138</v>
       </c>
       <c r="C89" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B90">
         <v>-139</v>
       </c>
       <c r="C90" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B91">
         <v>-140</v>
       </c>
       <c r="C91" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="E91" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B92">
         <v>-141</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B93">
         <v>-142</v>
       </c>
       <c r="C93" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D93" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B94">
         <v>-143</v>
       </c>
       <c r="C94" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D94" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B95">
         <v>-144</v>
       </c>
       <c r="C95" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D95" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B96">
         <v>-145</v>
       </c>
       <c r="C96" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B97">
         <v>-146</v>
       </c>
       <c r="C97" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D97" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B98">
         <v>-147</v>
       </c>
       <c r="C98" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D98" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B99">
         <v>-148</v>
       </c>
       <c r="C99" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B100">
         <v>-149</v>
       </c>
       <c r="C100" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D100" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B101">
         <v>-150</v>
       </c>
       <c r="C101" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B102">
         <v>-151</v>
       </c>
       <c r="C102" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D102" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B103">
         <v>-152</v>
       </c>
       <c r="C103" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D103" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="E103" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B104">
         <v>-153</v>
       </c>
       <c r="C104" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D104" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>573</v>
+        <v>527</v>
       </c>
       <c r="B105">
         <v>-154</v>
       </c>
       <c r="C105" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="D105" t="s">
-        <v>574</v>
+        <v>528</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>625</v>
       </c>
       <c r="B106">
         <v>-155</v>
       </c>
       <c r="C106" t="s">
-        <v>240</v>
+        <v>522</v>
+      </c>
+      <c r="D106" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B107">
         <v>-156</v>
       </c>
       <c r="C107" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D107" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B108">
         <v>-157</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B109">
         <v>-158</v>
       </c>
       <c r="C109" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B110">
         <v>-159</v>
       </c>
       <c r="C110" t="s">
-        <v>338</v>
-      </c>
-      <c r="D110" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B111">
         <v>-160</v>
       </c>
       <c r="C111" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B112">
         <v>-161</v>
       </c>
       <c r="C112" t="s">
-        <v>238</v>
+        <v>227</v>
+      </c>
+      <c r="D112" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B113">
         <v>-162</v>
       </c>
       <c r="C113" t="s">
-        <v>238</v>
+        <v>227</v>
+      </c>
+      <c r="D113" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B114">
         <v>-163</v>
       </c>
       <c r="C114" t="s">
-        <v>238</v>
+        <v>227</v>
+      </c>
+      <c r="D114" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B115">
         <v>-164</v>
       </c>
       <c r="C115" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B116">
         <v>-165</v>
       </c>
       <c r="C116" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B117">
         <v>-166</v>
       </c>
       <c r="C117" t="s">
-        <v>262</v>
+        <v>647</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>612</v>
+        <v>561</v>
       </c>
       <c r="B118">
         <v>-167</v>
       </c>
       <c r="C118" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B119">
         <v>-168</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D119" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B120">
         <v>-169</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B121">
         <v>-170</v>
       </c>
       <c r="C121" t="s">
-        <v>238</v>
+        <v>227</v>
+      </c>
+      <c r="D121" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B122">
         <v>-171</v>
       </c>
       <c r="C122" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B123">
         <v>-172</v>
       </c>
       <c r="C123" t="s">
-        <v>268</v>
-      </c>
-      <c r="D123" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="B124">
         <v>-173</v>
       </c>
       <c r="C124" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D124" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B125">
         <v>-174</v>
       </c>
       <c r="C125" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>662</v>
+        <v>603</v>
       </c>
       <c r="B126">
         <v>-175</v>
       </c>
       <c r="C126" t="s">
-        <v>570</v>
+        <v>524</v>
       </c>
       <c r="D126" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B127">
         <v>-176</v>
       </c>
       <c r="C127" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B128">
         <v>-177</v>
       </c>
       <c r="C128" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="B129">
         <v>-178</v>
       </c>
       <c r="C129" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D129" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B130">
         <v>-179</v>
       </c>
       <c r="C130" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B131">
         <v>-180</v>
       </c>
       <c r="C131" t="s">
-        <v>290</v>
+        <v>602</v>
       </c>
       <c r="D131" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B132">
         <v>-181</v>
       </c>
       <c r="C132" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>122</v>
+        <v>677</v>
       </c>
       <c r="B133">
         <v>-182</v>
       </c>
       <c r="C133" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="D133" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="B134">
         <v>-183</v>
       </c>
       <c r="C134" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
       <c r="D134" t="s">
-        <v>562</v>
+        <v>517</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B135">
         <v>-184</v>
       </c>
       <c r="C135" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B136">
         <v>-185</v>
       </c>
       <c r="C136" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B137">
         <v>-186</v>
       </c>
       <c r="C137" t="s">
-        <v>275</v>
+        <v>597</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B138">
         <v>-187</v>
       </c>
       <c r="C138" t="s">
-        <v>336</v>
+        <v>624</v>
       </c>
       <c r="D138" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>527</v>
+        <v>491</v>
       </c>
       <c r="B139">
         <v>-188</v>
       </c>
       <c r="C139" t="s">
-        <v>528</v>
+        <v>492</v>
       </c>
       <c r="D139" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>577</v>
+        <v>531</v>
       </c>
       <c r="B140">
         <v>-189</v>
       </c>
       <c r="C140" t="s">
-        <v>576</v>
+        <v>530</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B141">
         <v>-190</v>
       </c>
       <c r="C141" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>567</v>
+        <v>621</v>
       </c>
       <c r="B142">
         <v>-191</v>
       </c>
       <c r="C142" t="s">
-        <v>568</v>
+        <v>522</v>
       </c>
       <c r="D142" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B143">
         <v>-192</v>
       </c>
       <c r="C143" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>571</v>
+        <v>525</v>
       </c>
       <c r="B144">
         <v>-193</v>
       </c>
       <c r="C144" t="s">
-        <v>572</v>
+        <v>526</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B145">
         <v>-194</v>
       </c>
       <c r="C145" t="s">
-        <v>570</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="B146">
         <v>-195</v>
       </c>
+      <c r="C146" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B147">
         <v>-196</v>
       </c>
       <c r="C147" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D147" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>569</v>
+        <v>523</v>
       </c>
       <c r="B148">
         <v>-197</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>516</v>
       </c>
       <c r="D148" t="s">
-        <v>283</v>
+        <v>680</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B149">
         <v>-198</v>
       </c>
       <c r="C149" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D149" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B150">
         <v>-199</v>
       </c>
       <c r="C150" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D150" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B151">
         <v>-200</v>
       </c>
       <c r="C151" t="s">
-        <v>261</v>
+        <v>522</v>
       </c>
       <c r="D151" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B152">
         <v>-201</v>
       </c>
       <c r="C152" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D152" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>607</v>
+        <v>557</v>
       </c>
       <c r="B153">
         <v>-202</v>
       </c>
       <c r="C153" t="s">
-        <v>608</v>
+        <v>558</v>
       </c>
       <c r="D153" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B154">
         <v>-203</v>
       </c>
       <c r="C154" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D154" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B155">
         <v>-204</v>
       </c>
       <c r="C155" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>301</v>
+        <v>588</v>
       </c>
       <c r="B156">
         <v>-205</v>
       </c>
       <c r="C156" t="s">
-        <v>291</v>
+        <v>516</v>
+      </c>
+      <c r="D156" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>121</v>
+        <v>681</v>
       </c>
       <c r="B157">
         <v>-206</v>
       </c>
       <c r="C157" t="s">
-        <v>238</v>
-      </c>
-      <c r="D157" t="s">
-        <v>326</v>
+        <v>231</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B158">
         <v>-207</v>
       </c>
       <c r="C158" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="B159">
         <v>-208</v>
       </c>
       <c r="C159" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="D159" t="s">
-        <v>565</v>
+        <v>520</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>302</v>
-      </c>
       <c r="B160">
         <v>-209</v>
       </c>
-      <c r="C160" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>127</v>
-      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>-210</v>
       </c>
-      <c r="C161" t="s">
-        <v>238</v>
-      </c>
-      <c r="D161" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>594</v>
+        <v>546</v>
       </c>
       <c r="B162">
         <v>-211</v>
       </c>
       <c r="C162" t="s">
-        <v>568</v>
+        <v>522</v>
       </c>
       <c r="D162" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="B163">
         <v>-212</v>
       </c>
       <c r="C163" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="B164">
         <v>-213</v>
       </c>
       <c r="C164" t="s">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="D164" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="B165">
         <v>-214</v>
       </c>
       <c r="C165" t="s">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="D165" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>604</v>
+        <v>555</v>
       </c>
       <c r="B166">
         <v>-215</v>
       </c>
       <c r="C166" t="s">
-        <v>401</v>
+        <v>624</v>
       </c>
       <c r="D166" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>660</v>
+        <v>601</v>
       </c>
       <c r="B167">
         <v>-216</v>
       </c>
       <c r="C167" t="s">
-        <v>661</v>
+        <v>602</v>
       </c>
       <c r="D167" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>582</v>
+        <v>536</v>
       </c>
       <c r="B168">
         <v>-217</v>
       </c>
       <c r="C168" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B169">
         <v>-218</v>
       </c>
       <c r="C169" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B170">
         <v>-219</v>
       </c>
       <c r="C170" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B171">
         <v>-220</v>
       </c>
       <c r="C171" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B172">
         <v>-221</v>
       </c>
       <c r="C172" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B173">
         <v>-222</v>
       </c>
       <c r="C173" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B174">
         <v>-223</v>
       </c>
       <c r="C174" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B175">
         <v>-224</v>
       </c>
       <c r="C175" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B176">
         <v>-225</v>
       </c>
       <c r="C176" t="s">
-        <v>291</v>
+        <v>247</v>
+      </c>
+      <c r="E176" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B177">
         <v>-226</v>
       </c>
       <c r="C177" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B178">
         <v>-227</v>
       </c>
       <c r="C178" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>630</v>
+        <v>576</v>
       </c>
       <c r="B179">
         <v>-228</v>
       </c>
       <c r="C179" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D179" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B180">
         <v>-229</v>
       </c>
       <c r="C180" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B181">
         <v>-230</v>
       </c>
       <c r="C181" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B182">
         <v>-231</v>
       </c>
       <c r="C182" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D182" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B183">
         <v>-232</v>
       </c>
       <c r="C183" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B184">
         <v>-233</v>
       </c>
       <c r="C184" t="s">
-        <v>305</v>
+        <v>649</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B185">
         <v>-234</v>
       </c>
       <c r="C185" t="s">
-        <v>268</v>
+        <v>650</v>
       </c>
       <c r="D185" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B186">
         <v>-235</v>
       </c>
       <c r="C186" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B187">
         <v>-236</v>
       </c>
       <c r="C187" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D187" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B188">
         <v>-237</v>
       </c>
       <c r="C188" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D188" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B189">
         <v>-238</v>
       </c>
       <c r="C189" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D189" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B190">
         <v>-239</v>
       </c>
       <c r="C190" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="B191">
         <v>-240</v>
       </c>
       <c r="C191" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="D191" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E191" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>151</v>
+        <v>643</v>
       </c>
       <c r="B192">
         <v>-241</v>
       </c>
       <c r="C192" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B193">
         <v>-242</v>
       </c>
       <c r="C193" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B194">
         <v>-243</v>
       </c>
       <c r="C194" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B195">
         <v>-244</v>
       </c>
       <c r="C195" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D195" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B196">
         <v>-245</v>
       </c>
       <c r="C196" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B197">
         <v>-246</v>
       </c>
       <c r="C197" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D197" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B198">
         <v>-247</v>
       </c>
       <c r="C198" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B199">
         <v>-248</v>
       </c>
       <c r="C199" t="s">
-        <v>257</v>
+        <v>616</v>
       </c>
       <c r="D199" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B200">
         <v>-249</v>
       </c>
       <c r="C200" t="s">
-        <v>307</v>
+        <v>651</v>
       </c>
       <c r="D200" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>633</v>
+        <v>578</v>
       </c>
       <c r="B201">
         <v>-250</v>
       </c>
       <c r="C201" t="s">
-        <v>634</v>
+        <v>658</v>
+      </c>
+      <c r="D201" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B202">
         <v>-251</v>
       </c>
       <c r="C202" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D202" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>530</v>
+        <v>494</v>
       </c>
       <c r="B203">
         <v>-252</v>
       </c>
       <c r="C203" t="s">
-        <v>307</v>
+        <v>653</v>
       </c>
       <c r="D203" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B204">
         <v>-253</v>
       </c>
       <c r="C204" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="B205">
         <v>-254</v>
       </c>
       <c r="C205" t="s">
-        <v>549</v>
+        <v>652</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="B206">
         <v>-255</v>
       </c>
       <c r="C206" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
       <c r="B207">
         <v>-256</v>
       </c>
       <c r="C207" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="B208">
         <v>-257</v>
       </c>
       <c r="C208" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>558</v>
+        <v>514</v>
       </c>
       <c r="B209">
         <v>-258</v>
       </c>
       <c r="C209" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>552</v>
+        <v>509</v>
       </c>
       <c r="B210">
         <v>-259</v>
       </c>
       <c r="C210" t="s">
-        <v>257</v>
+        <v>624</v>
       </c>
       <c r="D210" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="B211">
         <v>-260</v>
       </c>
       <c r="C211" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D211" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>546</v>
+        <v>673</v>
       </c>
       <c r="B212">
         <v>-261</v>
       </c>
       <c r="C212" t="s">
-        <v>545</v>
+        <v>604</v>
+      </c>
+      <c r="D212" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B213">
         <v>-262</v>
       </c>
       <c r="C213" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D213" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B214">
         <v>-263</v>
       </c>
       <c r="C214" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B215">
         <v>-264</v>
       </c>
       <c r="C215" t="s">
-        <v>311</v>
+        <v>656</v>
       </c>
       <c r="D215" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B216">
         <v>-265</v>
       </c>
       <c r="C216" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D216" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B217">
         <v>-266</v>
       </c>
       <c r="C217" t="s">
-        <v>261</v>
+        <v>522</v>
       </c>
       <c r="D217" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B218">
         <v>-267</v>
       </c>
       <c r="C218" t="s">
-        <v>314</v>
+        <v>661</v>
       </c>
       <c r="D218" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B219">
         <v>-268</v>
       </c>
       <c r="C219" t="s">
-        <v>261</v>
+        <v>522</v>
       </c>
       <c r="D219" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B220">
         <v>-269</v>
       </c>
       <c r="C220" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B221">
         <v>-270</v>
       </c>
       <c r="C221" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D221" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B222">
         <v>-271</v>
       </c>
       <c r="C222" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B223">
         <v>-272</v>
       </c>
       <c r="C223" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B224">
         <v>-273</v>
       </c>
       <c r="C224" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B225">
         <v>-274</v>
       </c>
       <c r="C225" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="D225" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B226">
         <v>-275</v>
       </c>
       <c r="C226" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B227">
         <v>-276</v>
       </c>
       <c r="C227" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B228">
         <v>-277</v>
       </c>
       <c r="C228" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D228" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B229">
         <v>-278</v>
       </c>
       <c r="C229" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>580</v>
+        <v>534</v>
       </c>
       <c r="B230">
         <v>-279</v>
       </c>
       <c r="C230" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B231">
         <v>-280</v>
       </c>
       <c r="C231" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>584</v>
+        <v>538</v>
       </c>
       <c r="B232">
         <v>-281</v>
       </c>
       <c r="C232" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D232" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>585</v>
+        <v>539</v>
       </c>
       <c r="B233">
         <v>-282</v>
       </c>
       <c r="C233" t="s">
-        <v>589</v>
-      </c>
-      <c r="E233" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+      <c r="D233" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B234">
         <v>-283</v>
       </c>
       <c r="C234" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B235">
         <v>-284</v>
       </c>
       <c r="C235" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D235" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B236">
         <v>-285</v>
       </c>
       <c r="C236" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D236" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>635</v>
+        <v>579</v>
       </c>
       <c r="B237">
         <v>-286</v>
       </c>
       <c r="C237" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="B238">
         <v>-287</v>
       </c>
       <c r="C238" t="s">
-        <v>257</v>
+        <v>616</v>
       </c>
       <c r="D238" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B239">
         <v>-288</v>
       </c>
       <c r="C239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>592</v>
+        <v>544</v>
       </c>
       <c r="B240">
         <v>-289</v>
       </c>
       <c r="C240" t="s">
-        <v>593</v>
+        <v>545</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B241">
         <v>-290</v>
       </c>
       <c r="C241" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D241" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
       <c r="B242">
         <v>-291</v>
       </c>
       <c r="C242" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="B243">
         <v>-292</v>
       </c>
       <c r="C243" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B244">
         <v>-293</v>
       </c>
       <c r="C244" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B245">
         <v>-294</v>
       </c>
       <c r="C245" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B246">
         <v>-295</v>
       </c>
       <c r="C246" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B247">
         <v>-296</v>
       </c>
       <c r="C247" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B248">
         <v>-297</v>
       </c>
       <c r="C248" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B249">
         <v>-298</v>
       </c>
       <c r="C249" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D249" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>613</v>
+        <v>562</v>
       </c>
       <c r="B250">
         <v>-299</v>
       </c>
       <c r="C250" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D250" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="B251">
         <v>-300</v>
       </c>
       <c r="C251" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>531</v>
+        <v>495</v>
       </c>
       <c r="B252">
         <v>-301</v>
       </c>
       <c r="C252" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D252" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>536</v>
+        <v>672</v>
       </c>
       <c r="B253">
         <v>-302</v>
       </c>
       <c r="C253" t="s">
-        <v>238</v>
+        <v>624</v>
       </c>
       <c r="D253" t="s">
-        <v>534</v>
+        <v>228</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="B254">
         <v>-303</v>
       </c>
       <c r="C254" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>590</v>
+        <v>542</v>
       </c>
       <c r="B255">
         <v>-304</v>
       </c>
       <c r="C255" t="s">
-        <v>401</v>
+        <v>624</v>
       </c>
       <c r="D255" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B256">
         <v>-305</v>
       </c>
       <c r="C256" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B257">
         <v>-306</v>
       </c>
       <c r="C257" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D257" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>644</v>
+      </c>
       <c r="B258">
         <v>-307</v>
       </c>
+      <c r="C258" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B259">
         <v>-308</v>
       </c>
       <c r="C259" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="D259" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B260">
         <v>-309</v>
       </c>
       <c r="C260" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D260" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B261">
         <v>-310</v>
       </c>
       <c r="C261" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D261" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="B262">
         <v>-311</v>
       </c>
       <c r="C262" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>533</v>
+        <v>497</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B263">
         <v>-312</v>
       </c>
       <c r="C263" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D263" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B264">
         <v>-313</v>
       </c>
       <c r="C264" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D264" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B265">
         <v>-314</v>
       </c>
       <c r="C265" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>640</v>
+        <v>584</v>
       </c>
       <c r="B266">
         <v>-315</v>
       </c>
       <c r="C266" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D266" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B267">
         <v>-316</v>
       </c>
       <c r="C267" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B268">
         <v>-317</v>
       </c>
       <c r="C268" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>659</v>
+        <v>600</v>
       </c>
       <c r="B269">
         <v>-318</v>
       </c>
       <c r="C269" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B270">
         <v>-319</v>
       </c>
       <c r="C270" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="B271">
         <v>-320</v>
       </c>
       <c r="C271" t="s">
-        <v>261</v>
+        <v>524</v>
       </c>
       <c r="D271" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B272">
         <v>-321</v>
       </c>
       <c r="C272" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B273">
         <v>-322</v>
       </c>
       <c r="C273" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D273" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B274">
         <v>-323</v>
       </c>
       <c r="C274" t="s">
-        <v>320</v>
+        <v>670</v>
       </c>
       <c r="D274" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B275">
         <v>-324</v>
       </c>
       <c r="C275" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D275" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B276">
         <v>-325</v>
       </c>
       <c r="C276" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D276" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B277">
         <v>-326</v>
       </c>
       <c r="C277" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>598</v>
+        <v>549</v>
       </c>
       <c r="B278">
         <v>-327</v>
       </c>
       <c r="C278" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B279">
         <v>-328</v>
       </c>
       <c r="C279" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="D279" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B280">
         <v>-329</v>
       </c>
       <c r="C280" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D280" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B281">
         <v>-330</v>
       </c>
       <c r="C281" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D281" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="B282">
         <v>-331</v>
       </c>
       <c r="C282" t="s">
-        <v>240</v>
+        <v>524</v>
+      </c>
+      <c r="D282" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>330</v>
+        <v>660</v>
       </c>
       <c r="B283">
         <v>-332</v>
       </c>
       <c r="C283" t="s">
-        <v>261</v>
-      </c>
-      <c r="D283" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B284">
         <v>-333</v>
       </c>
       <c r="C284" t="s">
-        <v>268</v>
+        <v>674</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B285">
         <v>-334</v>
       </c>
       <c r="C285" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D285" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B286">
         <v>-335</v>
       </c>
       <c r="C286" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D286" t="s">
-        <v>324</v>
+        <v>640</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B287">
         <v>-336</v>
       </c>
       <c r="C287" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="B288">
         <v>-337</v>
       </c>
       <c r="C288" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D288" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B289">
         <v>-338</v>
       </c>
       <c r="C289" t="s">
-        <v>238</v>
+        <v>522</v>
       </c>
       <c r="D289" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B290">
         <v>-339</v>
       </c>
       <c r="C290" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D290" t="s">
-        <v>541</v>
+        <v>502</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B291">
         <v>-340</v>
       </c>
       <c r="C291" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B292">
         <v>-341</v>
       </c>
       <c r="C292" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B293">
         <v>-342</v>
       </c>
       <c r="C293" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D293" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B294">
         <v>-343</v>
       </c>
       <c r="C294" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D294" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="B295">
         <v>-344</v>
       </c>
       <c r="C295" t="s">
-        <v>600</v>
-      </c>
-      <c r="D295" t="s">
-        <v>562</v>
+        <v>233</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B296">
         <v>-345</v>
       </c>
       <c r="C296" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D296" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B297">
         <v>-346</v>
       </c>
       <c r="C297" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D297" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B298">
         <v>-347</v>
       </c>
       <c r="C298" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B299">
         <v>-348</v>
       </c>
       <c r="C299" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B300">
         <v>-349</v>
       </c>
       <c r="C300" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B301">
         <v>-350</v>
       </c>
       <c r="C301" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B302">
         <v>-351</v>
       </c>
       <c r="C302" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D302" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B303">
         <v>-352</v>
       </c>
       <c r="C303" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D303" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>547</v>
+        <v>505</v>
       </c>
       <c r="B304">
         <v>-353</v>
       </c>
+      <c r="C304" t="s">
+        <v>227</v>
+      </c>
+      <c r="D304" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>596</v>
+        <v>548</v>
       </c>
       <c r="B305">
         <v>-354</v>
       </c>
       <c r="C305" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D305" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B306">
         <v>-355</v>
       </c>
       <c r="C306" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D306" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B307">
         <v>-356</v>
       </c>
       <c r="C307" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D307" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B308">
         <v>-357</v>
       </c>
       <c r="C308" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D308" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B309">
         <v>-358</v>
       </c>
       <c r="C309" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D309" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B310">
         <v>-359</v>
       </c>
       <c r="C310" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B311">
         <v>-360</v>
       </c>
       <c r="C311" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B312">
         <v>-361</v>
       </c>
       <c r="C312" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D312" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B313">
         <v>-362</v>
       </c>
       <c r="C313" t="s">
-   